--- a/streams.xlsx
+++ b/streams.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B6B994-A3A8-4D7C-8F4F-3331570DC462}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE0096FE-8060-4CE5-B86A-7A3DB620D424}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -142,36 +142,12 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="8">
@@ -268,7 +244,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -321,30 +297,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -358,15 +310,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -670,7 +613,7 @@
   <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -829,78 +772,78 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
+    <row r="5" spans="1:15" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="27">
+      <c r="B5" s="19">
         <v>237.7</v>
       </c>
-      <c r="C5" s="28">
+      <c r="C5" s="20">
         <v>0.1</v>
       </c>
-      <c r="D5" s="28">
+      <c r="D5" s="20">
         <f>[1]!PropsSI("H","P",C5*10^6,"T",B5+273.15,"REFPROP::"&amp;[1]!MixtureString($F$1:$J$1,$F$2:$J$2))/1000</f>
         <v>620.26903390006612</v>
       </c>
-      <c r="E5" s="29">
+      <c r="E5" s="21">
         <v>516.20000000000005</v>
       </c>
-      <c r="F5" s="27">
+      <c r="F5" s="19">
         <f t="shared" si="0"/>
         <v>0.78029999999999999</v>
       </c>
-      <c r="G5" s="28">
+      <c r="G5" s="20">
         <f t="shared" si="1"/>
         <v>0.1237</v>
       </c>
-      <c r="H5" s="28">
+      <c r="H5" s="20">
         <f t="shared" si="2"/>
         <v>3.0099999999999998E-2</v>
       </c>
-      <c r="I5" s="28">
+      <c r="I5" s="20">
         <f t="shared" si="3"/>
         <v>5.9400000000000001E-2</v>
       </c>
-      <c r="J5" s="30">
+      <c r="J5" s="22">
         <f t="shared" si="4"/>
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
+    <row r="6" spans="1:15" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="27">
+      <c r="B6" s="19">
         <v>234.6</v>
       </c>
-      <c r="C6" s="28">
+      <c r="C6" s="20">
         <v>0.1</v>
       </c>
-      <c r="D6" s="28">
+      <c r="D6" s="20">
         <f>[1]!PropsSI("H","P",C6*10^6,"T",B6+273.15,"REFPROP::"&amp;[1]!MixtureString($F$1:$J$1,$F$2:$J$2))/1000</f>
         <v>616.94013362407065</v>
       </c>
-      <c r="E6" s="29">
+      <c r="E6" s="21">
         <v>516.20000000000005</v>
       </c>
-      <c r="F6" s="27">
+      <c r="F6" s="19">
         <f t="shared" si="0"/>
         <v>0.78029999999999999</v>
       </c>
-      <c r="G6" s="28">
+      <c r="G6" s="20">
         <f t="shared" si="1"/>
         <v>0.1237</v>
       </c>
-      <c r="H6" s="28">
+      <c r="H6" s="20">
         <f t="shared" si="2"/>
         <v>3.0099999999999998E-2</v>
       </c>
-      <c r="I6" s="28">
+      <c r="I6" s="20">
         <f t="shared" si="3"/>
         <v>5.9400000000000001E-2</v>
       </c>
-      <c r="J6" s="30">
+      <c r="J6" s="22">
         <f t="shared" si="4"/>
         <v>6.4999999999999997E-3</v>
       </c>
@@ -991,7 +934,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1033,19 +976,19 @@
       <c r="A3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="32">
+      <c r="B3" s="6">
         <f>[1]!PropsSI("T","P",C3*10^6,"Q",1,"Water")-273.15</f>
         <v>297.93803699482987</v>
       </c>
-      <c r="C3" s="31">
+      <c r="C3" s="7">
         <f>C4</f>
         <v>8.3412000000000006</v>
       </c>
-      <c r="D3" s="31">
+      <c r="D3" s="7">
         <f>[1]!PropsSI("H","P",C3*10^6,"Q",1,"Water")/1000</f>
         <v>2753.5078389371197</v>
       </c>
-      <c r="E3" s="33">
+      <c r="E3" s="8">
         <f>E4</f>
         <v>61.51</v>
       </c>
@@ -1054,18 +997,18 @@
       <c r="A4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="32">
+      <c r="B4" s="6">
         <v>296.8</v>
       </c>
-      <c r="C4" s="31">
+      <c r="C4" s="7">
         <f>C5</f>
         <v>8.3412000000000006</v>
       </c>
-      <c r="D4" s="31">
+      <c r="D4" s="7">
         <f>[1]!PropsSI("H","T",B4+273.15,"P",C4*10^6,"Water")/1000</f>
         <v>1327.0479061845726</v>
       </c>
-      <c r="E4" s="33">
+      <c r="E4" s="8">
         <f>E5</f>
         <v>61.51</v>
       </c>
@@ -1074,22 +1017,22 @@
       <c r="A5" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="32">
+      <c r="B5" s="6">
         <v>166.4</v>
       </c>
-      <c r="C5" s="31">
+      <c r="C5" s="7">
         <v>8.3412000000000006</v>
       </c>
-      <c r="D5" s="31">
+      <c r="D5" s="7">
         <f>[1]!PropsSI("H","T",B5+273.15,"P",C5*10^6,"Water")/1000</f>
         <v>707.65532284347023</v>
       </c>
-      <c r="E5" s="33">
+      <c r="E5" s="8">
         <v>61.51</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="16" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="7">
@@ -1099,45 +1042,45 @@
         <v>61.51</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="24">
+      <c r="B7" s="11">
         <v>212.3</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="7">
         <v>0.68700000000000006</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="7">
         <f>[1]!PropsSI("H","T",B7+273.15,"P",C7*10^6,"Water")/1000</f>
         <v>2873.213986925984</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="13">
         <v>15.51</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="6">
         <f>[1]!PropsSI("T","P",C8*10^6,"Q",1,"Water")-273.15</f>
         <v>164.5122412241837</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="7">
         <v>0.6925</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="7">
         <f>[1]!PropsSI("H","P",C8*10^6,"Q",1,"Water")/1000</f>
         <v>2762.2974320407106</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="8">
         <v>15.51</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="16" t="s">
         <v>24</v>
       </c>
       <c r="B9" s="6">
@@ -1155,7 +1098,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="16" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="6">

--- a/streams.xlsx
+++ b/streams.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE0096FE-8060-4CE5-B86A-7A3DB620D424}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E417DA81-34F4-4974-BB36-7F9A8D673D21}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -613,7 +613,7 @@
   <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -934,7 +934,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>

--- a/streams.xlsx
+++ b/streams.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E417DA81-34F4-4974-BB36-7F9A8D673D21}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{509F3EE7-9EFA-4741-8AD8-5082F116D242}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gas" sheetId="1" r:id="rId1"/>
@@ -244,7 +244,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -305,9 +305,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -612,8 +609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -673,7 +670,8 @@
         <v>936.68156613505778</v>
       </c>
       <c r="E2" s="10">
-        <v>516.20000000000005</v>
+        <f>516.2/2</f>
+        <v>258.10000000000002</v>
       </c>
       <c r="F2" s="6">
         <v>0.78029999999999999</v>
@@ -706,7 +704,8 @@
         <v>861.6540258565509</v>
       </c>
       <c r="E3" s="10">
-        <v>516.20000000000005</v>
+        <f>E2</f>
+        <v>258.10000000000002</v>
       </c>
       <c r="F3" s="6">
         <f>F2</f>
@@ -749,26 +748,27 @@
         <v>694.17566837116192</v>
       </c>
       <c r="E4" s="10">
-        <v>516.20000000000005</v>
+        <f t="shared" ref="E4:E8" si="0">E3</f>
+        <v>258.10000000000002</v>
       </c>
       <c r="F4" s="6">
-        <f t="shared" ref="F4:F8" si="0">F3</f>
+        <f t="shared" ref="F4:F8" si="1">F3</f>
         <v>0.78029999999999999</v>
       </c>
       <c r="G4" s="7">
-        <f t="shared" ref="G4:G8" si="1">G3</f>
+        <f t="shared" ref="G4:G8" si="2">G3</f>
         <v>0.1237</v>
       </c>
       <c r="H4" s="7">
-        <f t="shared" ref="H4:H8" si="2">H3</f>
+        <f t="shared" ref="H4:H8" si="3">H3</f>
         <v>3.0099999999999998E-2</v>
       </c>
       <c r="I4" s="7">
-        <f t="shared" ref="I4:I8" si="3">I3</f>
+        <f t="shared" ref="I4:I8" si="4">I3</f>
         <v>5.9400000000000001E-2</v>
       </c>
       <c r="J4" s="8">
-        <f t="shared" ref="J4:J8" si="4">J3</f>
+        <f t="shared" ref="J4:J8" si="5">J3</f>
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
@@ -786,27 +786,28 @@
         <f>[1]!PropsSI("H","P",C5*10^6,"T",B5+273.15,"REFPROP::"&amp;[1]!MixtureString($F$1:$J$1,$F$2:$J$2))/1000</f>
         <v>620.26903390006612</v>
       </c>
-      <c r="E5" s="21">
-        <v>516.20000000000005</v>
+      <c r="E5" s="10">
+        <f t="shared" si="0"/>
+        <v>258.10000000000002</v>
       </c>
       <c r="F5" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.78029999999999999</v>
       </c>
       <c r="G5" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.1237</v>
       </c>
       <c r="H5" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.0099999999999998E-2</v>
       </c>
       <c r="I5" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.9400000000000001E-2</v>
       </c>
-      <c r="J5" s="22">
-        <f t="shared" si="4"/>
+      <c r="J5" s="21">
+        <f t="shared" si="5"/>
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
@@ -824,27 +825,28 @@
         <f>[1]!PropsSI("H","P",C6*10^6,"T",B6+273.15,"REFPROP::"&amp;[1]!MixtureString($F$1:$J$1,$F$2:$J$2))/1000</f>
         <v>616.94013362407065</v>
       </c>
-      <c r="E6" s="21">
-        <v>516.20000000000005</v>
+      <c r="E6" s="10">
+        <f t="shared" si="0"/>
+        <v>258.10000000000002</v>
       </c>
       <c r="F6" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.78029999999999999</v>
       </c>
       <c r="G6" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.1237</v>
       </c>
       <c r="H6" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.0099999999999998E-2</v>
       </c>
       <c r="I6" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.9400000000000001E-2</v>
       </c>
-      <c r="J6" s="22">
-        <f t="shared" si="4"/>
+      <c r="J6" s="21">
+        <f t="shared" si="5"/>
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
@@ -863,26 +865,27 @@
         <v>554.28479929805155</v>
       </c>
       <c r="E7" s="10">
-        <v>516.20000000000005</v>
+        <f t="shared" si="0"/>
+        <v>258.10000000000002</v>
       </c>
       <c r="F7" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.78029999999999999</v>
       </c>
       <c r="G7" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.1237</v>
       </c>
       <c r="H7" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.0099999999999998E-2</v>
       </c>
       <c r="I7" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.9400000000000001E-2</v>
       </c>
       <c r="J7" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
@@ -901,26 +904,27 @@
         <v>483.53396409527977</v>
       </c>
       <c r="E8" s="10">
-        <v>516.20000000000005</v>
+        <f t="shared" si="0"/>
+        <v>258.10000000000002</v>
       </c>
       <c r="F8" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.78029999999999999</v>
       </c>
       <c r="G8" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.1237</v>
       </c>
       <c r="H8" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.0099999999999998E-2</v>
       </c>
       <c r="I8" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.9400000000000001E-2</v>
       </c>
       <c r="J8" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
@@ -933,7 +937,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13792673-7A38-4CCB-80CF-EE250A0D6320}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>

--- a/streams.xlsx
+++ b/streams.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{509F3EE7-9EFA-4741-8AD8-5082F116D242}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A0ABC8E-869F-40CE-BBB0-A500B4ABAFB7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gas" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>GTU-PEVD</t>
   </si>
@@ -99,6 +99,15 @@
   </si>
   <si>
     <t>GPK-IND</t>
+  </si>
+  <si>
+    <t>GPK-RECIRC</t>
+  </si>
+  <si>
+    <t>GPK-BYPASS</t>
+  </si>
+  <si>
+    <t>X-SMESH</t>
   </si>
 </sst>
 </file>
@@ -142,12 +151,30 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="8">
@@ -244,7 +271,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -270,12 +297,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -294,9 +315,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -307,6 +325,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -609,8 +645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -659,19 +695,18 @@
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="6">
         <v>522.79999999999995</v>
       </c>
       <c r="C2" s="7">
         <v>0.1</v>
       </c>
       <c r="D2" s="7">
-        <f>[1]!PropsSI("H","P",C2*10^6,"T",B2+273.15,"REFPROP::"&amp;[1]!MixtureString($F$1:$J$1,$F$2:$J$2))/1000</f>
+        <f>[1]!PropsSI("H","P",C2*10^6,"T",B2+273.15,"REFPROP::"&amp;[1]!MixtureString($F$1:$J$1,F2:J2))/1000</f>
         <v>936.68156613505778</v>
       </c>
-      <c r="E2" s="10">
-        <f>516.2/2</f>
-        <v>258.10000000000002</v>
+      <c r="E2" s="8">
+        <v>516.20000000000005</v>
       </c>
       <c r="F2" s="6">
         <v>0.78029999999999999</v>
@@ -693,45 +728,44 @@
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="6">
         <v>456.9</v>
       </c>
       <c r="C3" s="7">
         <v>0.1</v>
       </c>
       <c r="D3" s="7">
-        <f>[1]!PropsSI("H","P",C3*10^6,"T",B3+273.15,"REFPROP::"&amp;[1]!MixtureString($F$1:$J$1,$F$2:$J$2))/1000</f>
+        <f>[1]!PropsSI("H","P",C3*10^6,"T",B3+273.15,"REFPROP::"&amp;[1]!MixtureString($F$1:$J$1,F3:J3))/1000</f>
         <v>861.6540258565509</v>
       </c>
-      <c r="E3" s="10">
-        <f>E2</f>
-        <v>258.10000000000002</v>
+      <c r="E3" s="8">
+        <v>516.20000000000005</v>
       </c>
       <c r="F3" s="6">
-        <f>F2</f>
+        <f t="shared" ref="F3:J3" si="0">F2</f>
         <v>0.78029999999999999</v>
       </c>
       <c r="G3" s="7">
-        <f>G2</f>
+        <f t="shared" si="0"/>
         <v>0.1237</v>
       </c>
       <c r="H3" s="7">
-        <f>H2</f>
+        <f t="shared" si="0"/>
         <v>3.0099999999999998E-2</v>
       </c>
       <c r="I3" s="7">
-        <f>I2</f>
+        <f t="shared" si="0"/>
         <v>5.9400000000000001E-2</v>
       </c>
       <c r="J3" s="8">
-        <f>J2</f>
+        <f t="shared" si="0"/>
         <v>6.4999999999999997E-3</v>
       </c>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -744,12 +778,11 @@
         <v>0.1</v>
       </c>
       <c r="D4" s="7">
-        <f>[1]!PropsSI("H","P",C4*10^6,"T",B4+273.15,"REFPROP::"&amp;[1]!MixtureString($F$1:$J$1,$F$2:$J$2))/1000</f>
+        <f>[1]!PropsSI("H","P",C4*10^6,"T",B4+273.15,"REFPROP::"&amp;[1]!MixtureString($F$1:$J$1,F4:J4))/1000</f>
         <v>694.17566837116192</v>
       </c>
-      <c r="E4" s="10">
-        <f t="shared" ref="E4:E8" si="0">E3</f>
-        <v>258.10000000000002</v>
+      <c r="E4" s="8">
+        <v>516.20000000000005</v>
       </c>
       <c r="F4" s="6">
         <f t="shared" ref="F4:F8" si="1">F3</f>
@@ -772,80 +805,78 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+    <row r="5" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="6">
         <v>237.7</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="7">
         <v>0.1</v>
       </c>
-      <c r="D5" s="20">
-        <f>[1]!PropsSI("H","P",C5*10^6,"T",B5+273.15,"REFPROP::"&amp;[1]!MixtureString($F$1:$J$1,$F$2:$J$2))/1000</f>
+      <c r="D5" s="7">
+        <f>[1]!PropsSI("H","P",C5*10^6,"T",B5+273.15,"REFPROP::"&amp;[1]!MixtureString($F$1:$J$1,F5:J5))/1000</f>
         <v>620.26903390006612</v>
       </c>
-      <c r="E5" s="10">
-        <f t="shared" si="0"/>
-        <v>258.10000000000002</v>
-      </c>
-      <c r="F5" s="19">
+      <c r="E5" s="8">
+        <v>516.20000000000005</v>
+      </c>
+      <c r="F5" s="16">
         <f t="shared" si="1"/>
         <v>0.78029999999999999</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5" s="17">
         <f t="shared" si="2"/>
         <v>0.1237</v>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="17">
         <f t="shared" si="3"/>
         <v>3.0099999999999998E-2</v>
       </c>
-      <c r="I5" s="20">
+      <c r="I5" s="17">
         <f t="shared" si="4"/>
         <v>5.9400000000000001E-2</v>
       </c>
-      <c r="J5" s="21">
+      <c r="J5" s="18">
         <f t="shared" si="5"/>
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+    <row r="6" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="6">
         <v>234.6</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="7">
         <v>0.1</v>
       </c>
-      <c r="D6" s="20">
-        <f>[1]!PropsSI("H","P",C6*10^6,"T",B6+273.15,"REFPROP::"&amp;[1]!MixtureString($F$1:$J$1,$F$2:$J$2))/1000</f>
+      <c r="D6" s="7">
+        <f>[1]!PropsSI("H","P",C6*10^6,"T",B6+273.15,"REFPROP::"&amp;[1]!MixtureString($F$1:$J$1,F6:J6))/1000</f>
         <v>616.94013362407065</v>
       </c>
-      <c r="E6" s="10">
-        <f t="shared" si="0"/>
-        <v>258.10000000000002</v>
-      </c>
-      <c r="F6" s="19">
+      <c r="E6" s="8">
+        <v>516.20000000000005</v>
+      </c>
+      <c r="F6" s="16">
         <f t="shared" si="1"/>
         <v>0.78029999999999999</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G6" s="17">
         <f t="shared" si="2"/>
         <v>0.1237</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="17">
         <f t="shared" si="3"/>
         <v>3.0099999999999998E-2</v>
       </c>
-      <c r="I6" s="20">
+      <c r="I6" s="17">
         <f t="shared" si="4"/>
         <v>5.9400000000000001E-2</v>
       </c>
-      <c r="J6" s="21">
+      <c r="J6" s="18">
         <f t="shared" si="5"/>
         <v>6.4999999999999997E-3</v>
       </c>
@@ -861,12 +892,11 @@
         <v>0.1</v>
       </c>
       <c r="D7" s="7">
-        <f>[1]!PropsSI("H","P",C7*10^6,"T",B7+273.15,"REFPROP::"&amp;[1]!MixtureString($F$1:$J$1,$F$2:$J$2))/1000</f>
+        <f>[1]!PropsSI("H","P",C7*10^6,"T",B7+273.15,"REFPROP::"&amp;[1]!MixtureString($F$1:$J$1,F7:J7))/1000</f>
         <v>554.28479929805155</v>
       </c>
-      <c r="E7" s="10">
-        <f t="shared" si="0"/>
-        <v>258.10000000000002</v>
+      <c r="E7" s="8">
+        <v>516.20000000000005</v>
       </c>
       <c r="F7" s="6">
         <f t="shared" si="1"/>
@@ -900,12 +930,11 @@
         <v>0.1</v>
       </c>
       <c r="D8" s="7">
-        <f>[1]!PropsSI("H","P",C8*10^6,"T",B8+273.15,"REFPROP::"&amp;[1]!MixtureString($F$1:$J$1,$F$2:$J$2))/1000</f>
+        <f>[1]!PropsSI("H","P",C8*10^6,"T",B8+273.15,"REFPROP::"&amp;[1]!MixtureString($F$1:$J$1,F8:J8))/1000</f>
         <v>483.53396409527977</v>
       </c>
-      <c r="E8" s="10">
-        <f t="shared" si="0"/>
-        <v>258.10000000000002</v>
+      <c r="E8" s="8">
+        <v>516.20000000000005</v>
       </c>
       <c r="F8" s="6">
         <f t="shared" si="1"/>
@@ -937,13 +966,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13792673-7A38-4CCB-80CF-EE250A0D6320}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="15" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" style="13" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="6"/>
     <col min="3" max="3" width="9.140625" style="7"/>
     <col min="4" max="4" width="11.42578125" style="7" bestFit="1" customWidth="1"/>
@@ -952,7 +981,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14"/>
+      <c r="A1" s="12"/>
       <c r="B1" s="2" t="s">
         <v>7</v>
       </c>
@@ -967,17 +996,25 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="12"/>
-      <c r="E2" s="13">
-        <v>63.4</v>
+      <c r="B2" s="6">
+        <v>496.8</v>
+      </c>
+      <c r="C2" s="7">
+        <v>8.0250000000000004</v>
+      </c>
+      <c r="D2" s="7">
+        <f>[1]!PropsSI("H","T",B2+273.15,"P",C2*10^6,"Water")/1000</f>
+        <v>3391.2562524272716</v>
+      </c>
+      <c r="E2" s="8">
+        <v>61.51</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="14" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="6">
@@ -985,27 +1022,24 @@
         <v>297.93803699482987</v>
       </c>
       <c r="C3" s="7">
-        <f>C4</f>
         <v>8.3412000000000006</v>
       </c>
       <c r="D3" s="7">
-        <f>[1]!PropsSI("H","P",C3*10^6,"Q",1,"Water")/1000</f>
-        <v>2753.5078389371197</v>
+        <f>[1]!PropsSI("H","T",B3+273.15,"Q",1,"Water")/1000</f>
+        <v>2753.5078389371238</v>
       </c>
       <c r="E3" s="8">
-        <f>E4</f>
         <v>61.51</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="14" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="6">
         <v>296.8</v>
       </c>
       <c r="C4" s="7">
-        <f>C5</f>
         <v>8.3412000000000006</v>
       </c>
       <c r="D4" s="7">
@@ -1013,12 +1047,11 @@
         <v>1327.0479061845726</v>
       </c>
       <c r="E4" s="8">
-        <f>E5</f>
         <v>61.51</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="14" t="s">
         <v>19</v>
       </c>
       <c r="B5" s="6">
@@ -1036,21 +1069,29 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="14" t="s">
         <v>20</v>
+      </c>
+      <c r="B6" s="6">
+        <f>[1]!PropsSI("T","P",C6*10^6,"Q",0,"Water")-273.15</f>
+        <v>164.5122412241837</v>
       </c>
       <c r="C6" s="7">
         <v>0.6925</v>
       </c>
+      <c r="D6" s="7">
+        <f>[1]!PropsSI("H","T",B6+273.15,"Q",0,"Water")/1000</f>
+        <v>695.1097779629248</v>
+      </c>
       <c r="E6" s="8">
         <v>61.51</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="6">
         <v>212.3</v>
       </c>
       <c r="C7" s="7">
@@ -1060,12 +1101,12 @@
         <f>[1]!PropsSI("H","T",B7+273.15,"P",C7*10^6,"Water")/1000</f>
         <v>2873.213986925984</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="8">
         <v>15.51</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="14" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="6">
@@ -1084,25 +1125,26 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="6">
-        <v>164</v>
+      <c r="B9" s="24">
+        <v>163.80000000000001</v>
       </c>
       <c r="C9" s="7">
         <v>0.6925</v>
       </c>
       <c r="D9" s="7">
         <f>[1]!PropsSI("H","T",B9+273.15,"P",C9*10^6,"Water")/1000</f>
-        <v>692.88223774370476</v>
+        <v>692.01274742811358</v>
       </c>
       <c r="E9" s="8">
-        <v>15.51</v>
+        <f>E8+E6</f>
+        <v>77.02</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="14" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="6">
@@ -1116,46 +1158,85 @@
         <v>251.74512105200998</v>
       </c>
       <c r="E10" s="8">
+        <f>E9</f>
         <v>77.02</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
+      <c r="A11" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="20"/>
+      <c r="C11" s="7">
+        <v>0.6925</v>
+      </c>
+      <c r="D11" s="21"/>
+      <c r="E11" s="22">
+        <v>11.98</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
+      <c r="A12" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="20"/>
+      <c r="C12" s="7">
+        <v>0.6925</v>
+      </c>
+      <c r="D12" s="21"/>
+      <c r="E12" s="22">
+        <v>7.19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="20">
+        <v>41.7</v>
+      </c>
+      <c r="C13" s="7">
+        <v>0.6925</v>
+      </c>
+      <c r="D13" s="21"/>
+      <c r="E13" s="23">
+        <v>77.02</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="E15" s="13"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="10"/>
+      <c r="E15" s="11">
+        <f>E13-E10</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
+      <c r="A16" s="14"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
+      <c r="A17" s="14"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
+      <c r="A18" s="14"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
+      <c r="A19" s="14"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
-      <c r="B20" s="11"/>
-      <c r="E20" s="13"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="9"/>
+      <c r="E20" s="11"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
+      <c r="A21" s="14"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
+      <c r="A22" s="14"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="16"/>
+      <c r="A23" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/streams.xlsx
+++ b/streams.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A0ABC8E-869F-40CE-BBB0-A500B4ABAFB7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F336E76B-6963-4AC0-A111-6CF4F0B9F697}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -967,7 +967,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>

--- a/streams.xlsx
+++ b/streams.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F336E76B-6963-4AC0-A111-6CF4F0B9F697}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03CDC00D-965F-49A5-B4A6-5995EA90E408}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -967,7 +967,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1207,10 +1207,7 @@
       <c r="A15" s="14"/>
       <c r="B15" s="9"/>
       <c r="C15" s="10"/>
-      <c r="E15" s="11">
-        <f>E13-E10</f>
-        <v>0</v>
-      </c>
+      <c r="E15" s="11"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>

--- a/streams.xlsx
+++ b/streams.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03CDC00D-965F-49A5-B4A6-5995EA90E408}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{857FCE32-C896-4A07-A7A0-627AF4F89E47}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gas" sheetId="1" r:id="rId1"/>
@@ -114,7 +114,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,6 +148,13 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -271,7 +278,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -344,6 +351,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -643,10 +653,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -661,7 +671,7 @@
     <col min="11" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="3" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" s="3" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>7</v>
@@ -691,7 +701,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -706,6 +716,7 @@
         <v>936.68156613505778</v>
       </c>
       <c r="E2" s="8">
+        <f>516.2</f>
         <v>516.20000000000005</v>
       </c>
       <c r="F2" s="6">
@@ -724,7 +735,7 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
@@ -739,26 +750,27 @@
         <v>861.6540258565509</v>
       </c>
       <c r="E3" s="8">
+        <f t="shared" ref="E3:E8" si="0">516.2</f>
         <v>516.20000000000005</v>
       </c>
       <c r="F3" s="6">
-        <f t="shared" ref="F3:J3" si="0">F2</f>
+        <f t="shared" ref="F3:J3" si="1">F2</f>
         <v>0.78029999999999999</v>
       </c>
       <c r="G3" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.1237</v>
       </c>
       <c r="H3" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.0099999999999998E-2</v>
       </c>
       <c r="I3" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.9400000000000001E-2</v>
       </c>
       <c r="J3" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.4999999999999997E-3</v>
       </c>
       <c r="K3" s="10"/>
@@ -767,7 +779,7 @@
       <c r="N3" s="10"/>
       <c r="O3" s="10"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>13</v>
       </c>
@@ -782,30 +794,31 @@
         <v>694.17566837116192</v>
       </c>
       <c r="E4" s="8">
+        <f t="shared" si="0"/>
         <v>516.20000000000005</v>
       </c>
       <c r="F4" s="6">
-        <f t="shared" ref="F4:F8" si="1">F3</f>
+        <f t="shared" ref="F4:F8" si="2">F3</f>
         <v>0.78029999999999999</v>
       </c>
       <c r="G4" s="7">
-        <f t="shared" ref="G4:G8" si="2">G3</f>
+        <f t="shared" ref="G4:G8" si="3">G3</f>
         <v>0.1237</v>
       </c>
       <c r="H4" s="7">
-        <f t="shared" ref="H4:H8" si="3">H3</f>
+        <f t="shared" ref="H4:H8" si="4">H3</f>
         <v>3.0099999999999998E-2</v>
       </c>
       <c r="I4" s="7">
-        <f t="shared" ref="I4:I8" si="4">I3</f>
+        <f t="shared" ref="I4:I8" si="5">I3</f>
         <v>5.9400000000000001E-2</v>
       </c>
       <c r="J4" s="8">
-        <f t="shared" ref="J4:J8" si="5">J3</f>
+        <f t="shared" ref="J4:J8" si="6">J3</f>
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>15</v>
       </c>
@@ -820,30 +833,31 @@
         <v>620.26903390006612</v>
       </c>
       <c r="E5" s="8">
+        <f t="shared" si="0"/>
         <v>516.20000000000005</v>
       </c>
       <c r="F5" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.78029999999999999</v>
       </c>
       <c r="G5" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.1237</v>
       </c>
       <c r="H5" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.0099999999999998E-2</v>
       </c>
       <c r="I5" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.9400000000000001E-2</v>
       </c>
       <c r="J5" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>16</v>
       </c>
@@ -858,30 +872,31 @@
         <v>616.94013362407065</v>
       </c>
       <c r="E6" s="8">
+        <f t="shared" si="0"/>
         <v>516.20000000000005</v>
       </c>
       <c r="F6" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.78029999999999999</v>
       </c>
       <c r="G6" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.1237</v>
       </c>
       <c r="H6" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.0099999999999998E-2</v>
       </c>
       <c r="I6" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.9400000000000001E-2</v>
       </c>
       <c r="J6" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>17</v>
       </c>
@@ -896,30 +911,31 @@
         <v>554.28479929805155</v>
       </c>
       <c r="E7" s="8">
+        <f t="shared" si="0"/>
         <v>516.20000000000005</v>
       </c>
       <c r="F7" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.78029999999999999</v>
       </c>
       <c r="G7" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.1237</v>
       </c>
       <c r="H7" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.0099999999999998E-2</v>
       </c>
       <c r="I7" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.9400000000000001E-2</v>
       </c>
       <c r="J7" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>18</v>
       </c>
@@ -934,28 +950,32 @@
         <v>483.53396409527977</v>
       </c>
       <c r="E8" s="8">
+        <f t="shared" si="0"/>
         <v>516.20000000000005</v>
       </c>
       <c r="F8" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.78029999999999999</v>
       </c>
       <c r="G8" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.1237</v>
       </c>
       <c r="H8" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.0099999999999998E-2</v>
       </c>
       <c r="I8" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.9400000000000001E-2</v>
       </c>
       <c r="J8" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.4999999999999997E-3</v>
       </c>
+    </row>
+    <row r="13" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="R13" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -966,7 +986,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13792673-7A38-4CCB-80CF-EE250A0D6320}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>

--- a/streams.xlsx
+++ b/streams.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{857FCE32-C896-4A07-A7A0-627AF4F89E47}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0495AA8-31F8-4F74-8AB6-ECAB16A2516D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gas" sheetId="1" r:id="rId1"/>
@@ -655,8 +655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -739,38 +739,24 @@
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="6">
-        <v>456.9</v>
-      </c>
-      <c r="C3" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="D3" s="7">
-        <f>[1]!PropsSI("H","P",C3*10^6,"T",B3+273.15,"REFPROP::"&amp;[1]!MixtureString($F$1:$J$1,F3:J3))/1000</f>
-        <v>861.6540258565509</v>
-      </c>
-      <c r="E3" s="8">
-        <f t="shared" ref="E3:E8" si="0">516.2</f>
-        <v>516.20000000000005</v>
-      </c>
       <c r="F3" s="6">
-        <f t="shared" ref="F3:J3" si="1">F2</f>
+        <f t="shared" ref="F3:J3" si="0">F2</f>
         <v>0.78029999999999999</v>
       </c>
       <c r="G3" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.1237</v>
       </c>
       <c r="H3" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.0099999999999998E-2</v>
       </c>
       <c r="I3" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.9400000000000001E-2</v>
       </c>
       <c r="J3" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.4999999999999997E-3</v>
       </c>
       <c r="K3" s="10"/>
@@ -783,38 +769,24 @@
       <c r="A4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="6">
-        <v>306</v>
-      </c>
-      <c r="C4" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="D4" s="7">
-        <f>[1]!PropsSI("H","P",C4*10^6,"T",B4+273.15,"REFPROP::"&amp;[1]!MixtureString($F$1:$J$1,F4:J4))/1000</f>
-        <v>694.17566837116192</v>
-      </c>
-      <c r="E4" s="8">
-        <f t="shared" si="0"/>
-        <v>516.20000000000005</v>
-      </c>
       <c r="F4" s="6">
-        <f t="shared" ref="F4:F8" si="2">F3</f>
+        <f t="shared" ref="F4:F8" si="1">F3</f>
         <v>0.78029999999999999</v>
       </c>
       <c r="G4" s="7">
-        <f t="shared" ref="G4:G8" si="3">G3</f>
+        <f t="shared" ref="G4:G8" si="2">G3</f>
         <v>0.1237</v>
       </c>
       <c r="H4" s="7">
-        <f t="shared" ref="H4:H8" si="4">H3</f>
+        <f t="shared" ref="H4:H8" si="3">H3</f>
         <v>3.0099999999999998E-2</v>
       </c>
       <c r="I4" s="7">
-        <f t="shared" ref="I4:I8" si="5">I3</f>
+        <f t="shared" ref="I4:I8" si="4">I3</f>
         <v>5.9400000000000001E-2</v>
       </c>
       <c r="J4" s="8">
-        <f t="shared" ref="J4:J8" si="6">J3</f>
+        <f t="shared" ref="J4:J8" si="5">J3</f>
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
@@ -822,38 +794,28 @@
       <c r="A5" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="6">
-        <v>237.7</v>
-      </c>
-      <c r="C5" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="D5" s="7">
-        <f>[1]!PropsSI("H","P",C5*10^6,"T",B5+273.15,"REFPROP::"&amp;[1]!MixtureString($F$1:$J$1,F5:J5))/1000</f>
-        <v>620.26903390006612</v>
-      </c>
-      <c r="E5" s="8">
-        <f t="shared" si="0"/>
-        <v>516.20000000000005</v>
-      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
       <c r="F5" s="16">
+        <f t="shared" si="1"/>
+        <v>0.78029999999999999</v>
+      </c>
+      <c r="G5" s="17">
         <f t="shared" si="2"/>
-        <v>0.78029999999999999</v>
-      </c>
-      <c r="G5" s="17">
+        <v>0.1237</v>
+      </c>
+      <c r="H5" s="17">
         <f t="shared" si="3"/>
-        <v>0.1237</v>
-      </c>
-      <c r="H5" s="17">
+        <v>3.0099999999999998E-2</v>
+      </c>
+      <c r="I5" s="17">
         <f t="shared" si="4"/>
-        <v>3.0099999999999998E-2</v>
-      </c>
-      <c r="I5" s="17">
+        <v>5.9400000000000001E-2</v>
+      </c>
+      <c r="J5" s="18">
         <f t="shared" si="5"/>
-        <v>5.9400000000000001E-2</v>
-      </c>
-      <c r="J5" s="18">
-        <f t="shared" si="6"/>
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
@@ -861,38 +823,28 @@
       <c r="A6" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="6">
-        <v>234.6</v>
-      </c>
-      <c r="C6" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="D6" s="7">
-        <f>[1]!PropsSI("H","P",C6*10^6,"T",B6+273.15,"REFPROP::"&amp;[1]!MixtureString($F$1:$J$1,F6:J6))/1000</f>
-        <v>616.94013362407065</v>
-      </c>
-      <c r="E6" s="8">
-        <f t="shared" si="0"/>
-        <v>516.20000000000005</v>
-      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8"/>
       <c r="F6" s="16">
+        <f t="shared" si="1"/>
+        <v>0.78029999999999999</v>
+      </c>
+      <c r="G6" s="17">
         <f t="shared" si="2"/>
-        <v>0.78029999999999999</v>
-      </c>
-      <c r="G6" s="17">
+        <v>0.1237</v>
+      </c>
+      <c r="H6" s="17">
         <f t="shared" si="3"/>
-        <v>0.1237</v>
-      </c>
-      <c r="H6" s="17">
+        <v>3.0099999999999998E-2</v>
+      </c>
+      <c r="I6" s="17">
         <f t="shared" si="4"/>
-        <v>3.0099999999999998E-2</v>
-      </c>
-      <c r="I6" s="17">
+        <v>5.9400000000000001E-2</v>
+      </c>
+      <c r="J6" s="18">
         <f t="shared" si="5"/>
-        <v>5.9400000000000001E-2</v>
-      </c>
-      <c r="J6" s="18">
-        <f t="shared" si="6"/>
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
@@ -900,38 +852,24 @@
       <c r="A7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="6">
-        <v>175.9</v>
-      </c>
-      <c r="C7" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="D7" s="7">
-        <f>[1]!PropsSI("H","P",C7*10^6,"T",B7+273.15,"REFPROP::"&amp;[1]!MixtureString($F$1:$J$1,F7:J7))/1000</f>
-        <v>554.28479929805155</v>
-      </c>
-      <c r="E7" s="8">
-        <f t="shared" si="0"/>
-        <v>516.20000000000005</v>
-      </c>
       <c r="F7" s="6">
+        <f t="shared" si="1"/>
+        <v>0.78029999999999999</v>
+      </c>
+      <c r="G7" s="7">
         <f t="shared" si="2"/>
-        <v>0.78029999999999999</v>
-      </c>
-      <c r="G7" s="7">
+        <v>0.1237</v>
+      </c>
+      <c r="H7" s="7">
         <f t="shared" si="3"/>
-        <v>0.1237</v>
-      </c>
-      <c r="H7" s="7">
+        <v>3.0099999999999998E-2</v>
+      </c>
+      <c r="I7" s="7">
         <f t="shared" si="4"/>
-        <v>3.0099999999999998E-2</v>
-      </c>
-      <c r="I7" s="7">
+        <v>5.9400000000000001E-2</v>
+      </c>
+      <c r="J7" s="8">
         <f t="shared" si="5"/>
-        <v>5.9400000000000001E-2</v>
-      </c>
-      <c r="J7" s="8">
-        <f t="shared" si="6"/>
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
@@ -939,38 +877,24 @@
       <c r="A8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="6">
-        <v>108.9</v>
-      </c>
-      <c r="C8" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="D8" s="7">
-        <f>[1]!PropsSI("H","P",C8*10^6,"T",B8+273.15,"REFPROP::"&amp;[1]!MixtureString($F$1:$J$1,F8:J8))/1000</f>
-        <v>483.53396409527977</v>
-      </c>
-      <c r="E8" s="8">
-        <f t="shared" si="0"/>
-        <v>516.20000000000005</v>
-      </c>
       <c r="F8" s="6">
+        <f t="shared" si="1"/>
+        <v>0.78029999999999999</v>
+      </c>
+      <c r="G8" s="7">
         <f t="shared" si="2"/>
-        <v>0.78029999999999999</v>
-      </c>
-      <c r="G8" s="7">
+        <v>0.1237</v>
+      </c>
+      <c r="H8" s="7">
         <f t="shared" si="3"/>
-        <v>0.1237</v>
-      </c>
-      <c r="H8" s="7">
+        <v>3.0099999999999998E-2</v>
+      </c>
+      <c r="I8" s="7">
         <f t="shared" si="4"/>
-        <v>3.0099999999999998E-2</v>
-      </c>
-      <c r="I8" s="7">
+        <v>5.9400000000000001E-2</v>
+      </c>
+      <c r="J8" s="8">
         <f t="shared" si="5"/>
-        <v>5.9400000000000001E-2</v>
-      </c>
-      <c r="J8" s="8">
-        <f t="shared" si="6"/>
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
@@ -986,8 +910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13792673-7A38-4CCB-80CF-EE250A0D6320}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1019,19 +943,6 @@
       <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6">
-        <v>496.8</v>
-      </c>
-      <c r="C2" s="7">
-        <v>8.0250000000000004</v>
-      </c>
-      <c r="D2" s="7">
-        <f>[1]!PropsSI("H","T",B2+273.15,"P",C2*10^6,"Water")/1000</f>
-        <v>3391.2562524272716</v>
-      </c>
-      <c r="E2" s="8">
-        <v>61.51</v>
-      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">

--- a/streams.xlsx
+++ b/streams.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0495AA8-31F8-4F74-8AB6-ECAB16A2516D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{258700A3-ED02-4138-B63B-23DC890A15C1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -911,7 +911,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>

--- a/streams.xlsx
+++ b/streams.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{258700A3-ED02-4138-B63B-23DC890A15C1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED523B9-F236-441B-ADDC-5EA1096EB4F7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -911,7 +911,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>

--- a/streams.xlsx
+++ b/streams.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED523B9-F236-441B-ADDC-5EA1096EB4F7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A79D377D-D30A-418C-973F-B9502AAF453A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gas" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>GTU-PEVD</t>
   </si>
@@ -62,25 +62,7 @@
     <t>IVD-PEVD</t>
   </si>
   <si>
-    <t>PEVD-IVD</t>
-  </si>
-  <si>
-    <t>IVD-EVD</t>
-  </si>
-  <si>
     <t>EVD-IVD</t>
-  </si>
-  <si>
-    <t>EVD-PPND</t>
-  </si>
-  <si>
-    <t>PPND-IND</t>
-  </si>
-  <si>
-    <t>IND-GPK</t>
-  </si>
-  <si>
-    <t>GPK-out</t>
   </si>
   <si>
     <t>PEN-EVD</t>
@@ -655,8 +637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -736,167 +718,29 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="6">
-        <f t="shared" ref="F3:J3" si="0">F2</f>
-        <v>0.78029999999999999</v>
-      </c>
-      <c r="G3" s="7">
-        <f t="shared" si="0"/>
-        <v>0.1237</v>
-      </c>
-      <c r="H3" s="7">
-        <f t="shared" si="0"/>
-        <v>3.0099999999999998E-2</v>
-      </c>
-      <c r="I3" s="7">
-        <f t="shared" si="0"/>
-        <v>5.9400000000000001E-2</v>
-      </c>
-      <c r="J3" s="8">
-        <f t="shared" si="0"/>
-        <v>6.4999999999999997E-3</v>
-      </c>
       <c r="K3" s="10"/>
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
       <c r="N3" s="10"/>
       <c r="O3" s="10"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="6">
-        <f t="shared" ref="F4:F8" si="1">F3</f>
-        <v>0.78029999999999999</v>
-      </c>
-      <c r="G4" s="7">
-        <f t="shared" ref="G4:G8" si="2">G3</f>
-        <v>0.1237</v>
-      </c>
-      <c r="H4" s="7">
-        <f t="shared" ref="H4:H8" si="3">H3</f>
-        <v>3.0099999999999998E-2</v>
-      </c>
-      <c r="I4" s="7">
-        <f t="shared" ref="I4:I8" si="4">I3</f>
-        <v>5.9400000000000001E-2</v>
-      </c>
-      <c r="J4" s="8">
-        <f t="shared" ref="J4:J8" si="5">J3</f>
-        <v>6.4999999999999997E-3</v>
-      </c>
-    </row>
     <row r="5" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
-        <v>15</v>
-      </c>
+      <c r="A5" s="15"/>
       <c r="B5" s="6"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="8"/>
-      <c r="F5" s="16">
-        <f t="shared" si="1"/>
-        <v>0.78029999999999999</v>
-      </c>
-      <c r="G5" s="17">
-        <f t="shared" si="2"/>
-        <v>0.1237</v>
-      </c>
-      <c r="H5" s="17">
-        <f t="shared" si="3"/>
-        <v>3.0099999999999998E-2</v>
-      </c>
-      <c r="I5" s="17">
-        <f t="shared" si="4"/>
-        <v>5.9400000000000001E-2</v>
-      </c>
-      <c r="J5" s="18">
-        <f t="shared" si="5"/>
-        <v>6.4999999999999997E-3</v>
-      </c>
+      <c r="F5" s="16"/>
+      <c r="J5" s="18"/>
     </row>
     <row r="6" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
-        <v>16</v>
-      </c>
+      <c r="A6" s="15"/>
       <c r="B6" s="6"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="8"/>
-      <c r="F6" s="16">
-        <f t="shared" si="1"/>
-        <v>0.78029999999999999</v>
-      </c>
-      <c r="G6" s="17">
-        <f t="shared" si="2"/>
-        <v>0.1237</v>
-      </c>
-      <c r="H6" s="17">
-        <f t="shared" si="3"/>
-        <v>3.0099999999999998E-2</v>
-      </c>
-      <c r="I6" s="17">
-        <f t="shared" si="4"/>
-        <v>5.9400000000000001E-2</v>
-      </c>
-      <c r="J6" s="18">
-        <f t="shared" si="5"/>
-        <v>6.4999999999999997E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="6">
-        <f t="shared" si="1"/>
-        <v>0.78029999999999999</v>
-      </c>
-      <c r="G7" s="7">
-        <f t="shared" si="2"/>
-        <v>0.1237</v>
-      </c>
-      <c r="H7" s="7">
-        <f t="shared" si="3"/>
-        <v>3.0099999999999998E-2</v>
-      </c>
-      <c r="I7" s="7">
-        <f t="shared" si="4"/>
-        <v>5.9400000000000001E-2</v>
-      </c>
-      <c r="J7" s="8">
-        <f t="shared" si="5"/>
-        <v>6.4999999999999997E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="6">
-        <f t="shared" si="1"/>
-        <v>0.78029999999999999</v>
-      </c>
-      <c r="G8" s="7">
-        <f t="shared" si="2"/>
-        <v>0.1237</v>
-      </c>
-      <c r="H8" s="7">
-        <f t="shared" si="3"/>
-        <v>3.0099999999999998E-2</v>
-      </c>
-      <c r="I8" s="7">
-        <f t="shared" si="4"/>
-        <v>5.9400000000000001E-2</v>
-      </c>
-      <c r="J8" s="8">
-        <f t="shared" si="5"/>
-        <v>6.4999999999999997E-3</v>
-      </c>
+      <c r="F6" s="16"/>
+      <c r="J6" s="18"/>
     </row>
     <row r="13" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="R13" s="25"/>
@@ -910,8 +754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13792673-7A38-4CCB-80CF-EE250A0D6320}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -965,7 +809,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B4" s="6">
         <v>296.8</v>
@@ -983,7 +827,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B5" s="6">
         <v>166.4</v>
@@ -1001,7 +845,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B6" s="6">
         <f>[1]!PropsSI("T","P",C6*10^6,"Q",0,"Water")-273.15</f>
@@ -1020,7 +864,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B7" s="6">
         <v>212.3</v>
@@ -1038,7 +882,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B8" s="6">
         <f>[1]!PropsSI("T","P",C8*10^6,"Q",1,"Water")-273.15</f>
@@ -1057,7 +901,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B9" s="24">
         <v>163.80000000000001</v>
@@ -1076,7 +920,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B10" s="6">
         <v>60</v>
@@ -1095,7 +939,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B11" s="20"/>
       <c r="C11" s="7">
@@ -1108,7 +952,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B12" s="20"/>
       <c r="C12" s="7">
@@ -1121,7 +965,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B13" s="20">
         <v>41.7</v>

--- a/streams.xlsx
+++ b/streams.xlsx
@@ -3,17 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A79D377D-D30A-418C-973F-B9502AAF453A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C7A70D3-E33F-4BFA-8634-2B092C05D1A2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gas" sheetId="1" r:id="rId1"/>
     <sheet name="water" sheetId="2" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -140,7 +137,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -149,19 +146,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -260,7 +245,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -316,26 +301,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -353,23 +329,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet3"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="MixtureString"/>
-      <definedName name="PropsSI"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -637,8 +596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -687,33 +646,29 @@
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="21">
         <v>522.79999999999995</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="20">
         <v>0.1</v>
       </c>
-      <c r="D2" s="7">
-        <f>[1]!PropsSI("H","P",C2*10^6,"T",B2+273.15,"REFPROP::"&amp;[1]!MixtureString($F$1:$J$1,F2:J2))/1000</f>
-        <v>936.68156613505778</v>
-      </c>
-      <c r="E2" s="8">
+      <c r="E2" s="22">
         <f>516.2</f>
         <v>516.20000000000005</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="21">
         <v>0.78029999999999999</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="20">
         <v>0.1237</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="20">
         <v>3.0099999999999998E-2</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="20">
         <v>5.9400000000000001E-2</v>
       </c>
-      <c r="J2" s="8">
+      <c r="J2" s="22">
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
@@ -743,7 +698,7 @@
       <c r="J6" s="18"/>
     </row>
     <row r="13" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="R13" s="25"/>
+      <c r="R13" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -754,8 +709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13792673-7A38-4CCB-80CF-EE250A0D6320}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -792,190 +747,64 @@
       <c r="A3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="6">
-        <f>[1]!PropsSI("T","P",C3*10^6,"Q",1,"Water")-273.15</f>
-        <v>297.93803699482987</v>
-      </c>
-      <c r="C3" s="7">
+      <c r="C3" s="20">
         <v>8.3412000000000006</v>
-      </c>
-      <c r="D3" s="7">
-        <f>[1]!PropsSI("H","T",B3+273.15,"Q",1,"Water")/1000</f>
-        <v>2753.5078389371238</v>
-      </c>
-      <c r="E3" s="8">
-        <v>61.51</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="6">
-        <v>296.8</v>
-      </c>
-      <c r="C4" s="7">
-        <v>8.3412000000000006</v>
-      </c>
-      <c r="D4" s="7">
-        <f>[1]!PropsSI("H","T",B4+273.15,"P",C4*10^6,"Water")/1000</f>
-        <v>1327.0479061845726</v>
-      </c>
-      <c r="E4" s="8">
-        <v>61.51</v>
-      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="6">
-        <v>166.4</v>
-      </c>
-      <c r="C5" s="7">
-        <v>8.3412000000000006</v>
-      </c>
-      <c r="D5" s="7">
-        <f>[1]!PropsSI("H","T",B5+273.15,"P",C5*10^6,"Water")/1000</f>
-        <v>707.65532284347023</v>
-      </c>
-      <c r="E5" s="8">
-        <v>61.51</v>
-      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="6">
-        <f>[1]!PropsSI("T","P",C6*10^6,"Q",0,"Water")-273.15</f>
-        <v>164.5122412241837</v>
-      </c>
-      <c r="C6" s="7">
-        <v>0.6925</v>
-      </c>
-      <c r="D6" s="7">
-        <f>[1]!PropsSI("H","T",B6+273.15,"Q",0,"Water")/1000</f>
-        <v>695.1097779629248</v>
-      </c>
-      <c r="E6" s="8">
-        <v>61.51</v>
-      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="6">
-        <v>212.3</v>
-      </c>
-      <c r="C7" s="7">
-        <v>0.68700000000000006</v>
-      </c>
-      <c r="D7" s="7">
-        <f>[1]!PropsSI("H","T",B7+273.15,"P",C7*10^6,"Water")/1000</f>
-        <v>2873.213986925984</v>
-      </c>
-      <c r="E7" s="8">
-        <v>15.51</v>
-      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="6">
-        <f>[1]!PropsSI("T","P",C8*10^6,"Q",1,"Water")-273.15</f>
-        <v>164.5122412241837</v>
-      </c>
-      <c r="C8" s="7">
+      <c r="C8" s="20">
         <v>0.6925</v>
-      </c>
-      <c r="D8" s="7">
-        <f>[1]!PropsSI("H","P",C8*10^6,"Q",1,"Water")/1000</f>
-        <v>2762.2974320407106</v>
-      </c>
-      <c r="E8" s="8">
-        <v>15.51</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="24">
-        <v>163.80000000000001</v>
-      </c>
-      <c r="C9" s="7">
-        <v>0.6925</v>
-      </c>
-      <c r="D9" s="7">
-        <f>[1]!PropsSI("H","T",B9+273.15,"P",C9*10^6,"Water")/1000</f>
-        <v>692.01274742811358</v>
-      </c>
-      <c r="E9" s="8">
-        <f>E8+E6</f>
-        <v>77.02</v>
-      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="21">
         <v>60</v>
       </c>
-      <c r="C10" s="7">
-        <v>0.6925</v>
-      </c>
-      <c r="D10" s="7">
-        <f>[1]!PropsSI("H","T",B10+273.15,"P",C10*10^6,"Water")/1000</f>
-        <v>251.74512105200998</v>
-      </c>
-      <c r="E10" s="8">
-        <f>E9</f>
-        <v>77.02</v>
-      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="7">
-        <v>0.6925</v>
-      </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="22">
-        <v>11.98</v>
-      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="7">
-        <v>0.6925</v>
-      </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="22">
-        <v>7.19</v>
-      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="14" t="s">
         <v>21</v>
-      </c>
-      <c r="B13" s="20">
-        <v>41.7</v>
-      </c>
-      <c r="C13" s="7">
-        <v>0.6925</v>
-      </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="23">
-        <v>77.02</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">

--- a/streams.xlsx
+++ b/streams.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C7A70D3-E33F-4BFA-8634-2B092C05D1A2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C3BC03A-2560-411D-A3F2-F85F7651D006}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gas" sheetId="1" r:id="rId1"/>
@@ -596,8 +596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -709,7 +709,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13792673-7A38-4CCB-80CF-EE250A0D6320}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>

--- a/streams.xlsx
+++ b/streams.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C3BC03A-2560-411D-A3F2-F85F7651D006}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{899A5A58-1FA5-443B-8443-E9E18D915B47}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -597,7 +597,7 @@
   <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>

--- a/streams.xlsx
+++ b/streams.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{899A5A58-1FA5-443B-8443-E9E18D915B47}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D997CB7-230F-46AA-8B50-CF6236A2B4DE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -597,7 +597,7 @@
   <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>

--- a/streams.xlsx
+++ b/streams.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D997CB7-230F-46AA-8B50-CF6236A2B4DE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9AE45F-9ABE-45AF-87CC-967E2C62E53F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gas" sheetId="1" r:id="rId1"/>
@@ -596,8 +596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -647,14 +647,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="21">
-        <v>522.79999999999995</v>
+        <v>544.5</v>
       </c>
       <c r="C2" s="20">
         <v>0.1</v>
       </c>
       <c r="E2" s="22">
-        <f>516.2</f>
-        <v>516.20000000000005</v>
+        <v>317.60000000000002</v>
       </c>
       <c r="F2" s="21">
         <v>0.78029999999999999</v>
@@ -709,8 +708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13792673-7A38-4CCB-80CF-EE250A0D6320}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -748,7 +747,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="20">
-        <v>8.3412000000000006</v>
+        <v>5.7169999999999996</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -776,7 +775,7 @@
         <v>17</v>
       </c>
       <c r="C8" s="20">
-        <v>0.6925</v>
+        <v>0.44700000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">

--- a/streams.xlsx
+++ b/streams.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9AE45F-9ABE-45AF-87CC-967E2C62E53F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C16E0F4-02B6-45FF-92BA-97F5EACABFF2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gas" sheetId="1" r:id="rId1"/>
@@ -596,7 +596,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -647,13 +647,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="21">
-        <v>544.5</v>
+        <v>542.1</v>
       </c>
       <c r="C2" s="20">
         <v>0.1</v>
       </c>
       <c r="E2" s="22">
-        <v>317.60000000000002</v>
+        <v>503.8</v>
       </c>
       <c r="F2" s="21">
         <v>0.78029999999999999</v>
@@ -708,8 +708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13792673-7A38-4CCB-80CF-EE250A0D6320}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -747,7 +747,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="20">
-        <v>5.7169999999999996</v>
+        <v>8.7460000000000004</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -775,7 +775,7 @@
         <v>17</v>
       </c>
       <c r="C8" s="20">
-        <v>0.44700000000000001</v>
+        <v>0.69640000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">

--- a/streams.xlsx
+++ b/streams.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C16E0F4-02B6-45FF-92BA-97F5EACABFF2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27EEC329-82C4-4957-B08E-CEEB88D9C199}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gas" sheetId="1" r:id="rId1"/>
@@ -596,8 +596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -708,8 +708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13792673-7A38-4CCB-80CF-EE250A0D6320}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>

--- a/streams.xlsx
+++ b/streams.xlsx
@@ -1,27 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27EEC329-82C4-4957-B08E-CEEB88D9C199}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46AEC8B8-4B89-4052-80F4-A0CEBF9BB89F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14510" yWindow="-110" windowWidth="14620" windowHeight="25220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gas" sheetId="1" r:id="rId1"/>
     <sheet name="water" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029" iterateCount="10"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>GTU-PEVD</t>
   </si>
@@ -87,6 +95,24 @@
   </si>
   <si>
     <t>X-SMESH</t>
+  </si>
+  <si>
+    <t>SP1-OD</t>
+  </si>
+  <si>
+    <t>OD-GPK</t>
+  </si>
+  <si>
+    <t>SWIN-OD</t>
+  </si>
+  <si>
+    <t>OD-SP1</t>
+  </si>
+  <si>
+    <t>74.77</t>
+  </si>
+  <si>
+    <t>75.875</t>
   </si>
 </sst>
 </file>
@@ -245,7 +271,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -313,10 +339,19 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{BBD0C497-DE08-49F9-8F56-92FFA62AA48E}"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -597,22 +632,22 @@
   <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="6"/>
-    <col min="3" max="4" width="9.140625" style="7"/>
-    <col min="5" max="5" width="9.140625" style="8"/>
-    <col min="6" max="6" width="9.140625" style="6"/>
-    <col min="7" max="9" width="9.140625" style="7"/>
-    <col min="10" max="10" width="9.140625" style="8"/>
-    <col min="11" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="1" width="14.81640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" style="6"/>
+    <col min="3" max="4" width="9.1796875" style="7"/>
+    <col min="5" max="5" width="9.1796875" style="8"/>
+    <col min="6" max="6" width="9.1796875" style="6"/>
+    <col min="7" max="9" width="9.1796875" style="7"/>
+    <col min="10" max="10" width="9.1796875" style="8"/>
+    <col min="11" max="16384" width="9.1796875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="3" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" s="3" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>7</v>
@@ -642,7 +677,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -671,14 +706,14 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="K3" s="10"/>
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
       <c r="N3" s="10"/>
       <c r="O3" s="10"/>
     </row>
-    <row r="5" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="15"/>
       <c r="B5" s="6"/>
       <c r="C5" s="7"/>
@@ -687,7 +722,7 @@
       <c r="F5" s="16"/>
       <c r="J5" s="18"/>
     </row>
-    <row r="6" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="15"/>
       <c r="B6" s="6"/>
       <c r="C6" s="7"/>
@@ -696,7 +731,7 @@
       <c r="F6" s="16"/>
       <c r="J6" s="18"/>
     </row>
-    <row r="13" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" ht="14.5" x14ac:dyDescent="0.35">
       <c r="R13" s="19"/>
     </row>
   </sheetData>
@@ -709,20 +744,20 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="13" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="6"/>
-    <col min="3" max="3" width="9.140625" style="7"/>
-    <col min="4" max="4" width="11.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="8"/>
-    <col min="6" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="1" width="14.81640625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" style="6"/>
+    <col min="3" max="3" width="9.1796875" style="7"/>
+    <col min="4" max="4" width="11.453125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1796875" style="8"/>
+    <col min="6" max="16384" width="9.1796875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="3" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="12"/>
       <c r="B1" s="2" t="s">
         <v>7</v>
@@ -737,12 +772,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
         <v>11</v>
       </c>
@@ -750,27 +785,27 @@
         <v>8.7460000000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="14" t="s">
         <v>17</v>
       </c>
@@ -778,12 +813,12 @@
         <v>0.69640000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="14" t="s">
         <v>16</v>
       </c>
@@ -791,51 +826,99 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="10"/>
-      <c r="E15" s="11"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="24">
+        <v>3.8226901700000003E-2</v>
+      </c>
+      <c r="D14" s="24"/>
+      <c r="E14" s="25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="23">
+        <v>49.839511130751802</v>
+      </c>
+      <c r="C15" s="24">
+        <v>3.8226901700000003E-2</v>
+      </c>
+      <c r="D15" s="24"/>
+      <c r="E15" s="25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="23">
+        <v>46</v>
+      </c>
+      <c r="C16" s="24">
+        <v>1</v>
+      </c>
+      <c r="D16" s="24"/>
+      <c r="E16" s="25">
+        <v>801.66666666666595</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="23">
+        <v>64.77</v>
+      </c>
+      <c r="C17" s="24">
+        <v>1</v>
+      </c>
+      <c r="D17" s="24"/>
+      <c r="E17" s="25">
+        <v>801.66666666666595</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="14"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="14"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="14"/>
       <c r="B20" s="9"/>
       <c r="E20" s="11"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="14"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="14"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="14"/>
     </row>
   </sheetData>

--- a/streams.xlsx
+++ b/streams.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46AEC8B8-4B89-4052-80F4-A0CEBF9BB89F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D1E7785-7ECC-43DE-B188-67B3579774DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-14510" yWindow="-110" windowWidth="14620" windowHeight="25220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -744,7 +744,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -883,7 +883,7 @@
       </c>
       <c r="D16" s="24"/>
       <c r="E16" s="25">
-        <v>801.66666666666595</v>
+        <v>100.77673095348899</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
@@ -898,7 +898,7 @@
       </c>
       <c r="D17" s="24"/>
       <c r="E17" s="25">
-        <v>801.66666666666595</v>
+        <v>100.77673095348899</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">

--- a/streams.xlsx
+++ b/streams.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D1E7785-7ECC-43DE-B188-67B3579774DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F92F9F50-C46C-4996-A601-E019C92F0427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-14510" yWindow="-110" windowWidth="14620" windowHeight="25220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
   <si>
     <t>GTU-PEVD</t>
   </si>
@@ -113,6 +113,18 @@
   </si>
   <si>
     <t>75.875</t>
+  </si>
+  <si>
+    <t>OTB2-SP2</t>
+  </si>
+  <si>
+    <t>SP2-SP1</t>
+  </si>
+  <si>
+    <t>SP1-SP2</t>
+  </si>
+  <si>
+    <t>SP2-WOUT</t>
   </si>
 </sst>
 </file>
@@ -744,7 +756,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -902,18 +914,72 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="14"/>
+      <c r="A18" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="6">
+        <v>107.6</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0.13219638629678299</v>
+      </c>
+      <c r="D18" s="7">
+        <v>2622.5496464962498</v>
+      </c>
+      <c r="E18" s="8">
+        <v>43.733333333333299</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="14"/>
+      <c r="A19" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="6">
+        <v>106.101586260687</v>
+      </c>
+      <c r="C19" s="7">
+        <v>0.12558656698194401</v>
+      </c>
+      <c r="D19" s="7">
+        <v>444.928681619781</v>
+      </c>
+      <c r="E19" s="8">
+        <v>43.733333333333299</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="14"/>
-      <c r="B20" s="9"/>
-      <c r="E20" s="11"/>
+      <c r="A20" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="9">
+        <v>70.294916839916795</v>
+      </c>
+      <c r="C20" s="7">
+        <v>1</v>
+      </c>
+      <c r="D20" s="7">
+        <v>294.32481680873161</v>
+      </c>
+      <c r="E20" s="11">
+        <v>800</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="14"/>
+      <c r="A21" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="6">
+        <v>98.56</v>
+      </c>
+      <c r="C21" s="7">
+        <v>1</v>
+      </c>
+      <c r="D21" s="7">
+        <v>412.67072000000002</v>
+      </c>
+      <c r="E21" s="8">
+        <v>800</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="14"/>

--- a/streams.xlsx
+++ b/streams.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F92F9F50-C46C-4996-A601-E019C92F0427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32926E95-8ECC-4E95-9161-E394571F87E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-14510" yWindow="-110" windowWidth="14620" windowHeight="25220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>GTU-PEVD</t>
   </si>
@@ -125,6 +125,12 @@
   </si>
   <si>
     <t>SP2-WOUT</t>
+  </si>
+  <si>
+    <t>WIN-SP1</t>
+  </si>
+  <si>
+    <t>OTB1-SP1</t>
   </si>
 </sst>
 </file>
@@ -283,7 +289,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -359,6 +365,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -756,7 +765,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -982,10 +991,40 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="14"/>
+      <c r="A22" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="6">
+        <v>46</v>
+      </c>
+      <c r="C22" s="7">
+        <v>1</v>
+      </c>
+      <c r="D22" s="24">
+        <f>B22*4.187</f>
+        <v>192.602</v>
+      </c>
+      <c r="E22" s="8">
+        <f>E21</f>
+        <v>800</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="14"/>
+      <c r="A23" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="23">
+        <v>76</v>
+      </c>
+      <c r="C23" s="24">
+        <v>4.0238843925466602E-2</v>
+      </c>
+      <c r="D23" s="24">
+        <v>2464.75601712861</v>
+      </c>
+      <c r="E23" s="25">
+        <v>32.141666666666602</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/streams.xlsx
+++ b/streams.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32926E95-8ECC-4E95-9161-E394571F87E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE09A194-94CE-4F5D-B1B3-0ACE462FD15C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14510" yWindow="-110" windowWidth="14620" windowHeight="25220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14510" yWindow="-110" windowWidth="14620" windowHeight="25220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gas" sheetId="1" r:id="rId1"/>
@@ -652,8 +652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -709,6 +709,7 @@
         <v>0.1</v>
       </c>
       <c r="E2" s="22">
+        <f>503.8</f>
         <v>503.8</v>
       </c>
       <c r="F2" s="21">
@@ -764,7 +765,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13792673-7A38-4CCB-80CF-EE250A0D6320}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>

--- a/streams.xlsx
+++ b/streams.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE09A194-94CE-4F5D-B1B3-0ACE462FD15C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C81D2454-E960-4360-BC1A-EC3744805FB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-14510" yWindow="-110" windowWidth="14620" windowHeight="25220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -653,7 +653,7 @@
   <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -766,7 +766,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.35"/>

--- a/streams.xlsx
+++ b/streams.xlsx
@@ -3,15 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C81D2454-E960-4360-BC1A-EC3744805FB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C1120D9-1269-4828-871E-7EF410619EC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14510" yWindow="-110" windowWidth="14620" windowHeight="25220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14510" yWindow="-110" windowWidth="14620" windowHeight="25220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gas" sheetId="1" r:id="rId1"/>
     <sheet name="water" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029" iterateCount="10"/>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
+  <calcPr calcId="181029" iterateCount="2000" iterateDelta="0.1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,14 +32,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
   <si>
     <t>GTU-PEVD</t>
   </si>
   <si>
-    <t>PEVD-DROS</t>
-  </si>
-  <si>
     <t>N2</t>
   </si>
   <si>
@@ -76,9 +76,6 @@
     <t>BND-PEN</t>
   </si>
   <si>
-    <t>PPND-TURB</t>
-  </si>
-  <si>
     <t>X-GPK</t>
   </si>
   <si>
@@ -131,6 +128,39 @@
   </si>
   <si>
     <t>OTB1-SP1</t>
+  </si>
+  <si>
+    <t>PEVD-DROSVD</t>
+  </si>
+  <si>
+    <t>PPND-DROSND</t>
+  </si>
+  <si>
+    <t>DROSVD-TURBVD</t>
+  </si>
+  <si>
+    <t>ENDOFVD</t>
+  </si>
+  <si>
+    <t>DROSND-TURBND</t>
+  </si>
+  <si>
+    <t>DOOTB2</t>
+  </si>
+  <si>
+    <t>DOOTB1</t>
+  </si>
+  <si>
+    <t>INCND</t>
+  </si>
+  <si>
+    <t>INKOND</t>
+  </si>
+  <si>
+    <t>SMESHEND</t>
+  </si>
+  <si>
+    <t>S</t>
   </si>
 </sst>
 </file>
@@ -385,6 +415,22 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <definedNames>
+      <definedName name="PropsSI"/>
+    </definedNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -652,8 +698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -671,31 +717,31 @@
     <row r="1" spans="1:18" s="3" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>10</v>
-      </c>
       <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
@@ -709,7 +755,7 @@
         <v>0.1</v>
       </c>
       <c r="E2" s="22">
-        <f>503.8</f>
+        <f>503.8*1</f>
         <v>503.8</v>
       </c>
       <c r="F2" s="21">
@@ -763,10 +809,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13792673-7A38-4CCB-80CF-EE250A0D6320}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -779,108 +825,111 @@
     <col min="6" max="16384" width="9.1796875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" s="3" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="12"/>
       <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="14" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="14" t="s">
-        <v>11</v>
       </c>
       <c r="C3" s="20">
         <v>8.7460000000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="14" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="14" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="14" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="14" t="s">
-        <v>17</v>
       </c>
       <c r="C8" s="20">
         <v>0.69640000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B10" s="21">
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="14" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="13" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="13" t="s">
-        <v>22</v>
-      </c>
       <c r="B14" s="23" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C14" s="24">
         <v>3.8226901700000003E-2</v>
       </c>
       <c r="D14" s="24"/>
       <c r="E14" s="25" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B15" s="23">
         <v>49.839511130751802</v>
@@ -890,12 +939,12 @@
       </c>
       <c r="D15" s="24"/>
       <c r="E15" s="25" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" s="23">
         <v>46</v>
@@ -910,7 +959,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B17" s="23">
         <v>64.77</v>
@@ -925,7 +974,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B18" s="6">
         <v>107.6</v>
@@ -942,7 +991,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B19" s="6">
         <v>106.101586260687</v>
@@ -959,7 +1008,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B20" s="9">
         <v>70.294916839916795</v>
@@ -976,7 +1025,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B21" s="6">
         <v>98.56</v>
@@ -993,7 +1042,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B22" s="6">
         <v>46</v>
@@ -1012,7 +1061,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="26" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B23" s="23">
         <v>76</v>
@@ -1025,6 +1074,150 @@
       </c>
       <c r="E23" s="25">
         <v>32.141666666666602</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="23">
+        <v>492.2</v>
+      </c>
+      <c r="C24" s="24">
+        <v>5.1989999999999998</v>
+      </c>
+      <c r="D24" s="24">
+        <f>[1]!PropsSI("H","T",B24+273.15,"P",C24*10^6,"Water")/1000</f>
+        <v>3414.0936824129262</v>
+      </c>
+      <c r="E24" s="25">
+        <v>41.97</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="23">
+        <v>210</v>
+      </c>
+      <c r="C25" s="24">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="D25" s="24">
+        <f>[1]!PropsSI("H","T",B25+273.15,"P",C25*10^6,"Water")/1000</f>
+        <v>2874.8375665756544</v>
+      </c>
+      <c r="E25" s="25">
+        <f>E24</f>
+        <v>41.97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="23">
+        <v>191.9</v>
+      </c>
+      <c r="C26" s="24">
+        <v>0.4</v>
+      </c>
+      <c r="D26" s="24">
+        <f>[1]!PropsSI("H","T",B26+273.15,"P",C26*10^6,"Water")/1000</f>
+        <v>2843.8871417542982</v>
+      </c>
+      <c r="E26" s="25">
+        <v>12.88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="23">
+        <v>78.16</v>
+      </c>
+      <c r="C27" s="24">
+        <f>C26</f>
+        <v>0.4</v>
+      </c>
+      <c r="D27" s="24">
+        <f>[1]!PropsSI("H","T",B27+273.15,"P",C27*10^6,"Water")/1000</f>
+        <v>327.57342990929942</v>
+      </c>
+      <c r="E27" s="25">
+        <f>E26+E25</f>
+        <v>54.85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="23">
+        <v>131.4</v>
+      </c>
+      <c r="C28" s="24">
+        <v>0.25419999999999998</v>
+      </c>
+      <c r="D28" s="24">
+        <f>[1]!PropsSI("H","T",B28+273.15,"P",C28*10^6,"Water")/1000</f>
+        <v>2724.8615334140964</v>
+      </c>
+      <c r="E28" s="25">
+        <f>E27</f>
+        <v>54.85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="23"/>
+      <c r="C29" s="24">
+        <v>0.1525</v>
+      </c>
+      <c r="D29" s="24">
+        <v>2686.0161921187068</v>
+      </c>
+      <c r="E29" s="25">
+        <f t="shared" ref="E29:E31" si="0">E28</f>
+        <v>54.85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="23"/>
+      <c r="C30" s="24">
+        <f>C29</f>
+        <v>0.1525</v>
+      </c>
+      <c r="D30" s="24">
+        <f>D29</f>
+        <v>2686.0161921187068</v>
+      </c>
+      <c r="E30" s="25">
+        <f t="shared" si="0"/>
+        <v>54.85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="23"/>
+      <c r="C31" s="24">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="D31" s="24">
+        <v>2341.0014929676963</v>
+      </c>
+      <c r="E31" s="25">
+        <f t="shared" si="0"/>
+        <v>54.85</v>
       </c>
     </row>
   </sheetData>

--- a/streams.xlsx
+++ b/streams.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C1120D9-1269-4828-871E-7EF410619EC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F508EA-DF42-4A21-BF6F-461AE9D9080C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14510" yWindow="-110" windowWidth="14620" windowHeight="25220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14510" yWindow="-110" windowWidth="14620" windowHeight="25220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gas" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
   <si>
     <t>GTU-PEVD</t>
   </si>
@@ -161,6 +161,9 @@
   </si>
   <si>
     <t>S</t>
+  </si>
+  <si>
+    <t>GTU-KU</t>
   </si>
 </sst>
 </file>
@@ -319,7 +322,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -397,6 +400,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -696,10 +702,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:R14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -745,50 +751,46 @@
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="21">
+      <c r="B3" s="21">
         <v>542.1</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C3" s="20">
         <v>0.1</v>
       </c>
-      <c r="E2" s="22">
+      <c r="E3" s="22">
         <f>503.8*1</f>
         <v>503.8</v>
       </c>
-      <c r="F2" s="21">
+      <c r="F3" s="21">
         <v>0.78029999999999999</v>
       </c>
-      <c r="G2" s="20">
+      <c r="G3" s="20">
         <v>0.1237</v>
       </c>
-      <c r="H2" s="20">
+      <c r="H3" s="20">
         <v>3.0099999999999998E-2</v>
       </c>
-      <c r="I2" s="20">
+      <c r="I3" s="20">
         <v>5.9400000000000001E-2</v>
       </c>
-      <c r="J2" s="22">
+      <c r="J3" s="22">
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-    </row>
-    <row r="5" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="15"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="16"/>
-      <c r="J5" s="18"/>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
     </row>
     <row r="6" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="15"/>
@@ -799,8 +801,17 @@
       <c r="F6" s="16"/>
       <c r="J6" s="18"/>
     </row>
-    <row r="13" spans="1:18" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="R13" s="19"/>
+    <row r="7" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="15"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="16"/>
+      <c r="J7" s="18"/>
+    </row>
+    <row r="14" spans="1:18" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="R14" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -811,8 +822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13792673-7A38-4CCB-80CF-EE250A0D6320}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.35"/>

--- a/streams.xlsx
+++ b/streams.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F508EA-DF42-4A21-BF6F-461AE9D9080C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE8F782-B664-4AC5-835E-124F7C1710F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-14510" yWindow="-110" windowWidth="14620" windowHeight="25220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="50">
   <si>
     <t>GTU-PEVD</t>
   </si>
@@ -164,6 +164,24 @@
   </si>
   <si>
     <t>GTU-KU</t>
+  </si>
+  <si>
+    <t>PEVD-IVD</t>
+  </si>
+  <si>
+    <t>IVD-EVD</t>
+  </si>
+  <si>
+    <t>EVD-PPND</t>
+  </si>
+  <si>
+    <t>PPND-IND</t>
+  </si>
+  <si>
+    <t>IND-GPK</t>
+  </si>
+  <si>
+    <t>GPK-out</t>
   </si>
 </sst>
 </file>
@@ -705,7 +723,7 @@
   <dimension ref="A1:R14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -754,6 +772,33 @@
       <c r="A2" s="27" t="s">
         <v>43</v>
       </c>
+      <c r="B2" s="6">
+        <v>542.1</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="D2" s="7">
+        <v>958.86919853128609</v>
+      </c>
+      <c r="E2" s="8">
+        <v>503.8</v>
+      </c>
+      <c r="F2" s="6">
+        <v>0.78029999999999999</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0.1237</v>
+      </c>
+      <c r="H2" s="7">
+        <v>3.0099999999999998E-2</v>
+      </c>
+      <c r="I2" s="7">
+        <v>5.9400000000000001E-2</v>
+      </c>
+      <c r="J2" s="8">
+        <v>6.4999999999999997E-3</v>
+      </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
@@ -765,8 +810,10 @@
       <c r="C3" s="20">
         <v>0.1</v>
       </c>
+      <c r="D3" s="7">
+        <v>958.86919853128609</v>
+      </c>
       <c r="E3" s="22">
-        <f>503.8*1</f>
         <v>503.8</v>
       </c>
       <c r="F3" s="21">
@@ -786,29 +833,201 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="6">
+        <v>468.05</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="D4" s="7">
+        <v>874.26792911178234</v>
+      </c>
+      <c r="E4" s="8">
+        <v>503.8</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0.78029999999999999</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0.1237</v>
+      </c>
+      <c r="H4" s="7">
+        <v>3.0099999999999998E-2</v>
+      </c>
+      <c r="I4" s="7">
+        <v>5.9400000000000001E-2</v>
+      </c>
+      <c r="J4" s="8">
+        <v>6.4999999999999997E-3</v>
+      </c>
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
       <c r="M4" s="10"/>
       <c r="N4" s="10"/>
       <c r="O4" s="10"/>
     </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="6">
+        <v>309.2</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="D5" s="7">
+        <v>697.66595139225319</v>
+      </c>
+      <c r="E5" s="8">
+        <v>503.8</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0.78029999999999999</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0.1237</v>
+      </c>
+      <c r="H5" s="7">
+        <v>3.0099999999999998E-2</v>
+      </c>
+      <c r="I5" s="7">
+        <v>5.9400000000000001E-2</v>
+      </c>
+      <c r="J5" s="8">
+        <v>6.4999999999999997E-3</v>
+      </c>
+    </row>
     <row r="6" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="15"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="16"/>
-      <c r="J6" s="18"/>
+      <c r="A6" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="6">
+        <v>235.9</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="D6" s="7">
+        <v>618.33586643179672</v>
+      </c>
+      <c r="E6" s="8">
+        <v>503.8</v>
+      </c>
+      <c r="F6" s="16">
+        <v>0.78029999999999999</v>
+      </c>
+      <c r="G6" s="17">
+        <v>0.1237</v>
+      </c>
+      <c r="H6" s="17">
+        <v>3.0099999999999998E-2</v>
+      </c>
+      <c r="I6" s="17">
+        <v>5.9400000000000001E-2</v>
+      </c>
+      <c r="J6" s="18">
+        <v>6.4999999999999997E-3</v>
+      </c>
     </row>
     <row r="7" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="15"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="16"/>
-      <c r="J7" s="18"/>
+      <c r="A7" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="6">
+        <v>233</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="D7" s="7">
+        <v>615.22281759257271</v>
+      </c>
+      <c r="E7" s="8">
+        <v>503.8</v>
+      </c>
+      <c r="F7" s="16">
+        <v>0.78029999999999999</v>
+      </c>
+      <c r="G7" s="17">
+        <v>0.1237</v>
+      </c>
+      <c r="H7" s="17">
+        <v>3.0099999999999998E-2</v>
+      </c>
+      <c r="I7" s="17">
+        <v>5.9400000000000001E-2</v>
+      </c>
+      <c r="J7" s="18">
+        <v>6.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="6">
+        <v>175.5</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="D8" s="7">
+        <v>553.86016830512403</v>
+      </c>
+      <c r="E8" s="8">
+        <v>503.8</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0.78029999999999999</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0.1237</v>
+      </c>
+      <c r="H8" s="7">
+        <v>3.0099999999999998E-2</v>
+      </c>
+      <c r="I8" s="7">
+        <v>5.9400000000000001E-2</v>
+      </c>
+      <c r="J8" s="8">
+        <v>6.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="6">
+        <v>106.9</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="D9" s="7">
+        <v>481.43243266974537</v>
+      </c>
+      <c r="E9" s="8">
+        <v>503.8</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0.78029999999999999</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0.1237</v>
+      </c>
+      <c r="H9" s="7">
+        <v>3.0099999999999998E-2</v>
+      </c>
+      <c r="I9" s="7">
+        <v>5.9400000000000001E-2</v>
+      </c>
+      <c r="J9" s="8">
+        <v>6.4999999999999997E-3</v>
+      </c>
     </row>
     <row r="14" spans="1:18" ht="14.5" x14ac:dyDescent="0.35">
       <c r="R14" s="19"/>
@@ -823,7 +1042,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.35"/>

--- a/streams.xlsx
+++ b/streams.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE8F782-B664-4AC5-835E-124F7C1710F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F00B93D-D053-47DE-B66F-915BEB9CDEBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14510" yWindow="-110" windowWidth="14620" windowHeight="25220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14510" yWindow="-110" windowWidth="14620" windowHeight="25220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gas" sheetId="1" r:id="rId1"/>
@@ -722,7 +722,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
@@ -1041,8 +1041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13792673-7A38-4CCB-80CF-EE250A0D6320}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -1285,8 +1285,7 @@
         <v>192.602</v>
       </c>
       <c r="E22" s="8">
-        <f>E21</f>
-        <v>800</v>
+        <v>600</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">

--- a/streams.xlsx
+++ b/streams.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F00B93D-D053-47DE-B66F-915BEB9CDEBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FFB3772-F21D-4A27-BC50-2195EB9CB782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-14510" yWindow="-110" windowWidth="14620" windowHeight="25220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
   <si>
     <t>GTU-PEVD</t>
   </si>
@@ -182,6 +182,9 @@
   </si>
   <si>
     <t>GPK-out</t>
+  </si>
+  <si>
+    <t>SWIN-TURB</t>
   </si>
 </sst>
 </file>
@@ -1039,10 +1042,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13792673-7A38-4CCB-80CF-EE250A0D6320}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -1173,8 +1176,8 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="14" t="s">
-        <v>22</v>
+      <c r="A16" s="26" t="s">
+        <v>50</v>
       </c>
       <c r="B16" s="23">
         <v>46</v>
@@ -1184,15 +1187,15 @@
       </c>
       <c r="D16" s="24"/>
       <c r="E16" s="25">
-        <v>100.77673095348899</v>
+        <v>300</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" s="23">
-        <v>64.77</v>
+        <v>46</v>
       </c>
       <c r="C17" s="24">
         <v>1</v>
@@ -1204,33 +1207,31 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="6">
-        <v>107.6</v>
-      </c>
-      <c r="C18" s="7">
-        <v>0.13219638629678299</v>
-      </c>
-      <c r="D18" s="7">
-        <v>2622.5496464962498</v>
-      </c>
-      <c r="E18" s="8">
-        <v>43.733333333333299</v>
+        <v>23</v>
+      </c>
+      <c r="B18" s="23">
+        <v>64.77</v>
+      </c>
+      <c r="C18" s="24">
+        <v>1</v>
+      </c>
+      <c r="D18" s="24"/>
+      <c r="E18" s="25">
+        <v>100.77673095348899</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B19" s="6">
-        <v>106.101586260687</v>
+        <v>107.6</v>
       </c>
       <c r="C19" s="7">
-        <v>0.12558656698194401</v>
+        <v>0.13219638629678299</v>
       </c>
       <c r="D19" s="7">
-        <v>444.928681619781</v>
+        <v>2622.5496464962498</v>
       </c>
       <c r="E19" s="8">
         <v>43.733333333333299</v>
@@ -1238,213 +1239,230 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="9">
-        <v>70.294916839916795</v>
+        <v>27</v>
+      </c>
+      <c r="B20" s="6">
+        <v>106.101586260687</v>
       </c>
       <c r="C20" s="7">
-        <v>1</v>
+        <v>0.12558656698194401</v>
       </c>
       <c r="D20" s="7">
-        <v>294.32481680873161</v>
-      </c>
-      <c r="E20" s="11">
-        <v>800</v>
+        <v>444.928681619781</v>
+      </c>
+      <c r="E20" s="8">
+        <v>43.733333333333299</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="6">
-        <v>98.56</v>
+        <v>28</v>
+      </c>
+      <c r="B21" s="9">
+        <v>70.294916839916795</v>
       </c>
       <c r="C21" s="7">
         <v>1</v>
       </c>
       <c r="D21" s="7">
-        <v>412.67072000000002</v>
-      </c>
-      <c r="E21" s="8">
+        <v>294.32481680873161</v>
+      </c>
+      <c r="E21" s="11">
         <v>800</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B22" s="6">
-        <v>46</v>
+        <v>98.35</v>
       </c>
       <c r="C22" s="7">
         <v>1</v>
       </c>
-      <c r="D22" s="24">
-        <f>B22*4.187</f>
+      <c r="D22" s="7">
+        <v>412.67072000000002</v>
+      </c>
+      <c r="E22" s="8">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="6">
+        <v>46</v>
+      </c>
+      <c r="C23" s="7">
+        <v>1</v>
+      </c>
+      <c r="D23" s="24">
+        <f>B23*4.187</f>
         <v>192.602</v>
       </c>
-      <c r="E22" s="8">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="23">
-        <v>76</v>
-      </c>
-      <c r="C23" s="24">
-        <v>4.0238843925466602E-2</v>
-      </c>
-      <c r="D23" s="24">
-        <v>2464.75601712861</v>
-      </c>
-      <c r="E23" s="25">
-        <v>32.141666666666602</v>
+      <c r="E23" s="8">
+        <v>800</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="26" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B24" s="23">
-        <v>492.2</v>
+        <v>76</v>
       </c>
       <c r="C24" s="24">
-        <v>5.1989999999999998</v>
+        <v>4.0238843925466602E-2</v>
       </c>
       <c r="D24" s="24">
-        <f>[1]!PropsSI("H","T",B24+273.15,"P",C24*10^6,"Water")/1000</f>
-        <v>3414.0936824129262</v>
+        <v>2464.75601712861</v>
       </c>
       <c r="E24" s="25">
-        <v>41.97</v>
+        <v>32.141666666666602</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B25" s="23">
-        <v>210</v>
+        <v>492.2</v>
       </c>
       <c r="C25" s="24">
-        <v>0.54900000000000004</v>
+        <v>5.1989999999999998</v>
       </c>
       <c r="D25" s="24">
         <f>[1]!PropsSI("H","T",B25+273.15,"P",C25*10^6,"Water")/1000</f>
-        <v>2874.8375665756544</v>
+        <v>3414.0936824129262</v>
       </c>
       <c r="E25" s="25">
-        <f>E24</f>
         <v>41.97</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B26" s="23">
-        <v>191.9</v>
+        <v>210</v>
       </c>
       <c r="C26" s="24">
-        <v>0.4</v>
+        <v>0.54900000000000004</v>
       </c>
       <c r="D26" s="24">
         <f>[1]!PropsSI("H","T",B26+273.15,"P",C26*10^6,"Water")/1000</f>
-        <v>2843.8871417542982</v>
+        <v>2874.8375665756544</v>
       </c>
       <c r="E26" s="25">
-        <v>12.88</v>
+        <f>E25</f>
+        <v>41.97</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="26" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B27" s="23">
-        <v>78.16</v>
+        <v>191.9</v>
       </c>
       <c r="C27" s="24">
-        <f>C26</f>
         <v>0.4</v>
       </c>
       <c r="D27" s="24">
         <f>[1]!PropsSI("H","T",B27+273.15,"P",C27*10^6,"Water")/1000</f>
-        <v>327.57342990929942</v>
+        <v>2843.8871417542982</v>
       </c>
       <c r="E27" s="25">
-        <f>E26+E25</f>
-        <v>54.85</v>
+        <v>12.88</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="26" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B28" s="23">
-        <v>131.4</v>
+        <v>78.16</v>
       </c>
       <c r="C28" s="24">
-        <v>0.25419999999999998</v>
+        <f>C27</f>
+        <v>0.4</v>
       </c>
       <c r="D28" s="24">
         <f>[1]!PropsSI("H","T",B28+273.15,"P",C28*10^6,"Water")/1000</f>
-        <v>2724.8615334140964</v>
+        <v>327.57342990929942</v>
       </c>
       <c r="E28" s="25">
-        <f>E27</f>
+        <f>E27+E26</f>
         <v>54.85</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="23"/>
+        <v>37</v>
+      </c>
+      <c r="B29" s="23">
+        <v>131.4</v>
+      </c>
       <c r="C29" s="24">
-        <v>0.1525</v>
+        <v>0.25419999999999998</v>
       </c>
       <c r="D29" s="24">
-        <v>2686.0161921187068</v>
+        <f>[1]!PropsSI("H","T",B29+273.15,"P",C29*10^6,"Water")/1000</f>
+        <v>2724.8615334140964</v>
       </c>
       <c r="E29" s="25">
-        <f t="shared" ref="E29:E31" si="0">E28</f>
+        <f>E28</f>
         <v>54.85</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B30" s="23"/>
       <c r="C30" s="24">
-        <f>C29</f>
         <v>0.1525</v>
       </c>
       <c r="D30" s="24">
-        <f>D29</f>
         <v>2686.0161921187068</v>
       </c>
       <c r="E30" s="25">
+        <f t="shared" ref="E30:E32" si="0">E29</f>
+        <v>54.85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="23"/>
+      <c r="C31" s="24">
+        <f>C30</f>
+        <v>0.1525</v>
+      </c>
+      <c r="D31" s="24">
+        <f>D30</f>
+        <v>2686.0161921187068</v>
+      </c>
+      <c r="E31" s="25">
         <f t="shared" si="0"/>
         <v>54.85</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="26" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="23"/>
-      <c r="C31" s="24">
+      <c r="B32" s="23"/>
+      <c r="C32" s="24">
         <v>4.7999999999999996E-3</v>
       </c>
-      <c r="D31" s="24">
+      <c r="D32" s="24">
         <v>2341.0014929676963</v>
       </c>
-      <c r="E31" s="25">
+      <c r="E32" s="25">
         <f t="shared" si="0"/>
         <v>54.85</v>
       </c>

--- a/streams.xlsx
+++ b/streams.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FFB3772-F21D-4A27-BC50-2195EB9CB782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE727DFC-2873-48DB-8B08-06D8724FD52C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-14510" yWindow="-110" windowWidth="14620" windowHeight="25220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1045,7 +1045,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -1187,7 +1187,7 @@
       </c>
       <c r="D16" s="24"/>
       <c r="E16" s="25">
-        <v>300</v>
+        <v>800</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">

--- a/streams.xlsx
+++ b/streams.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE727DFC-2873-48DB-8B08-06D8724FD52C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E5F0AF3-DB23-4B9D-A4D4-33A887F0CF7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-14510" yWindow="-110" windowWidth="14620" windowHeight="25220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="53">
   <si>
     <t>GTU-PEVD</t>
   </si>
@@ -76,9 +76,6 @@
     <t>BND-PEN</t>
   </si>
   <si>
-    <t>X-GPK</t>
-  </si>
-  <si>
     <t>IND-PPND</t>
   </si>
   <si>
@@ -185,6 +182,15 @@
   </si>
   <si>
     <t>SWIN-TURB</t>
+  </si>
+  <si>
+    <t>REC-GPK</t>
+  </si>
+  <si>
+    <t>SMESHOD-REC</t>
+  </si>
+  <si>
+    <t>GPK-REC</t>
   </si>
 </sst>
 </file>
@@ -773,7 +779,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" s="6">
         <v>542.1</v>
@@ -837,7 +843,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4" s="6">
         <v>468.05</v>
@@ -874,7 +880,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B5" s="6">
         <v>309.2</v>
@@ -906,7 +912,7 @@
     </row>
     <row r="6" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B6" s="6">
         <v>235.9</v>
@@ -938,7 +944,7 @@
     </row>
     <row r="7" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B7" s="6">
         <v>233</v>
@@ -970,7 +976,7 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B8" s="6">
         <v>175.5</v>
@@ -1002,7 +1008,7 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B9" s="6">
         <v>106.9</v>
@@ -1042,10 +1048,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13792673-7A38-4CCB-80CF-EE250A0D6320}">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -1073,12 +1079,24 @@
         <v>9</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="B2" s="6">
+        <v>511.5</v>
+      </c>
+      <c r="C2" s="7">
+        <v>8.407</v>
+      </c>
+      <c r="D2" s="7">
+        <v>3423.2099783420958</v>
+      </c>
+      <c r="E2" s="8">
+        <v>63.4</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -1093,25 +1111,61 @@
       <c r="A4" s="14" t="s">
         <v>11</v>
       </c>
+      <c r="B4" s="6">
+        <v>298.8</v>
+      </c>
+      <c r="C4" s="7">
+        <v>8.7460000000000004</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1337.9482651031026</v>
+      </c>
+      <c r="E4" s="8">
+        <v>63.4</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="14" t="s">
         <v>12</v>
       </c>
+      <c r="B5" s="6">
+        <v>166.5</v>
+      </c>
+      <c r="C5" s="7">
+        <v>8.7460000000000004</v>
+      </c>
+      <c r="D5" s="7">
+        <v>708.31984887431838</v>
+      </c>
+      <c r="E5" s="8">
+        <v>63.4</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="14" t="s">
         <v>13</v>
       </c>
+      <c r="B6" s="6">
+        <v>164.73836143543406</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0.69640000000000002</v>
+      </c>
+      <c r="D6" s="7">
+        <v>696.09556718341082</v>
+      </c>
+      <c r="E6" s="8">
+        <v>63.4</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="20">
         <v>0.69640000000000002</v>
@@ -1119,350 +1173,399 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="B9" s="6">
+        <v>164.6</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0.69640000000000002</v>
+      </c>
+      <c r="D9" s="7">
+        <v>695.4937008073166</v>
+      </c>
+      <c r="E9" s="8">
+        <v>82.91</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="21">
-        <v>60</v>
+        <v>52</v>
+      </c>
+      <c r="B10" s="6">
+        <v>164.6</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0.69640000000000002</v>
+      </c>
+      <c r="D10" s="7">
+        <v>695.4937008073166</v>
+      </c>
+      <c r="E10" s="8">
+        <v>82.91</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="14" t="s">
-        <v>17</v>
+        <v>50</v>
+      </c>
+      <c r="B11" s="21">
+        <v>60</v>
+      </c>
+      <c r="E11" s="8">
+        <v>82.19</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="14" t="s">
-        <v>18</v>
+        <v>51</v>
+      </c>
+      <c r="B12" s="7">
+        <v>44.2</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0.69640000000000002</v>
+      </c>
+      <c r="D12" s="7">
+        <v>185.7</v>
+      </c>
+      <c r="E12" s="8">
+        <v>78.16</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="14" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="24">
-        <v>3.8226901700000003E-2</v>
-      </c>
-      <c r="D14" s="24"/>
-      <c r="E14" s="25" t="s">
-        <v>25</v>
+      <c r="A14" s="14" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="23">
-        <v>49.839511130751802</v>
-      </c>
-      <c r="C15" s="24">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="24">
         <v>3.8226901700000003E-2</v>
       </c>
-      <c r="D15" s="24"/>
-      <c r="E15" s="25" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" s="23">
-        <v>46</v>
-      </c>
-      <c r="C16" s="24">
-        <v>1</v>
-      </c>
       <c r="D16" s="24"/>
-      <c r="E16" s="25">
-        <v>800</v>
+      <c r="E16" s="25" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B17" s="23">
-        <v>46</v>
+        <v>49.839511130751802</v>
       </c>
       <c r="C17" s="24">
-        <v>1</v>
+        <v>3.8226901700000003E-2</v>
       </c>
       <c r="D17" s="24"/>
-      <c r="E17" s="25">
-        <v>100.77673095348899</v>
+      <c r="E17" s="25" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="14" t="s">
-        <v>23</v>
+      <c r="A18" s="26" t="s">
+        <v>49</v>
       </c>
       <c r="B18" s="23">
-        <v>64.77</v>
+        <v>69</v>
       </c>
       <c r="C18" s="24">
         <v>1</v>
       </c>
       <c r="D18" s="24"/>
       <c r="E18" s="25">
-        <v>100.77673095348899</v>
+        <v>784.09999999999991</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="6">
-        <v>107.6</v>
-      </c>
-      <c r="C19" s="7">
-        <v>0.13219638629678299</v>
-      </c>
-      <c r="D19" s="7">
-        <v>2622.5496464962498</v>
-      </c>
-      <c r="E19" s="8">
-        <v>43.733333333333299</v>
+        <v>21</v>
+      </c>
+      <c r="B19" s="23">
+        <v>46</v>
+      </c>
+      <c r="C19" s="24">
+        <v>1</v>
+      </c>
+      <c r="D19" s="24"/>
+      <c r="E19" s="25">
+        <v>100.77673095348899</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="6">
-        <v>106.101586260687</v>
-      </c>
-      <c r="C20" s="7">
-        <v>0.12558656698194401</v>
-      </c>
-      <c r="D20" s="7">
-        <v>444.928681619781</v>
-      </c>
-      <c r="E20" s="8">
-        <v>43.733333333333299</v>
+        <v>22</v>
+      </c>
+      <c r="B20" s="23">
+        <v>64.77</v>
+      </c>
+      <c r="C20" s="24">
+        <v>1</v>
+      </c>
+      <c r="D20" s="24"/>
+      <c r="E20" s="25">
+        <v>100.77673095348899</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="9">
-        <v>70.294916839916795</v>
+        <v>25</v>
+      </c>
+      <c r="B21" s="6">
+        <v>107.6</v>
       </c>
       <c r="C21" s="7">
-        <v>1</v>
+        <v>0.13089999999999999</v>
       </c>
       <c r="D21" s="7">
-        <v>294.32481680873161</v>
-      </c>
-      <c r="E21" s="11">
-        <v>800</v>
+        <v>2705.3348951298976</v>
+      </c>
+      <c r="E21" s="8">
+        <v>43.733333333333299</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="14" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B22" s="6">
-        <v>98.35</v>
+        <v>106.101586260687</v>
       </c>
       <c r="C22" s="7">
-        <v>1</v>
+        <v>0.12558656698194401</v>
       </c>
       <c r="D22" s="7">
-        <v>412.67072000000002</v>
+        <v>444.928681619781</v>
       </c>
       <c r="E22" s="8">
-        <v>800</v>
+        <v>43.733333333333299</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="6">
-        <v>46</v>
+        <v>27</v>
+      </c>
+      <c r="B23" s="9">
+        <v>70.294916839916795</v>
       </c>
       <c r="C23" s="7">
         <v>1</v>
       </c>
-      <c r="D23" s="24">
-        <f>B23*4.187</f>
+      <c r="D23" s="7">
+        <v>294.32481680873161</v>
+      </c>
+      <c r="E23" s="11">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="6">
+        <v>103.2</v>
+      </c>
+      <c r="C24" s="7">
+        <v>1</v>
+      </c>
+      <c r="D24" s="7">
+        <v>412.67072000000002</v>
+      </c>
+      <c r="E24" s="8">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="6">
+        <v>46</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1</v>
+      </c>
+      <c r="D25" s="24">
+        <f>B25*4.187</f>
         <v>192.602</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E25" s="8">
         <v>800</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="23">
-        <v>76</v>
-      </c>
-      <c r="C24" s="24">
-        <v>4.0238843925466602E-2</v>
-      </c>
-      <c r="D24" s="24">
-        <v>2464.75601712861</v>
-      </c>
-      <c r="E24" s="25">
-        <v>32.141666666666602</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25" s="23">
-        <v>492.2</v>
-      </c>
-      <c r="C25" s="24">
-        <v>5.1989999999999998</v>
-      </c>
-      <c r="D25" s="24">
-        <f>[1]!PropsSI("H","T",B25+273.15,"P",C25*10^6,"Water")/1000</f>
-        <v>3414.0936824129262</v>
-      </c>
-      <c r="E25" s="25">
-        <v>41.97</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="26" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B26" s="23">
-        <v>210</v>
+        <v>76</v>
       </c>
       <c r="C26" s="24">
-        <v>0.54900000000000004</v>
+        <v>9.6299999999999997E-2</v>
       </c>
       <c r="D26" s="24">
-        <f>[1]!PropsSI("H","T",B26+273.15,"P",C26*10^6,"Water")/1000</f>
-        <v>2874.8375665756544</v>
+        <v>2673.2849068883279</v>
       </c>
       <c r="E26" s="25">
-        <f>E25</f>
-        <v>41.97</v>
+        <v>32.141666666666602</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="26" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B27" s="23">
-        <v>191.9</v>
+        <v>492.2</v>
       </c>
       <c r="C27" s="24">
-        <v>0.4</v>
+        <v>5.1989999999999998</v>
       </c>
       <c r="D27" s="24">
         <f>[1]!PropsSI("H","T",B27+273.15,"P",C27*10^6,"Water")/1000</f>
-        <v>2843.8871417542982</v>
+        <v>3414.0936824129262</v>
       </c>
       <c r="E27" s="25">
-        <v>12.88</v>
+        <v>41.97</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="26" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B28" s="23">
-        <v>78.16</v>
+        <v>210</v>
       </c>
       <c r="C28" s="24">
-        <f>C27</f>
-        <v>0.4</v>
+        <v>0.54900000000000004</v>
       </c>
       <c r="D28" s="24">
         <f>[1]!PropsSI("H","T",B28+273.15,"P",C28*10^6,"Water")/1000</f>
-        <v>327.57342990929942</v>
+        <v>2874.8375665756544</v>
       </c>
       <c r="E28" s="25">
-        <f>E27+E26</f>
-        <v>54.85</v>
+        <f>E27</f>
+        <v>41.97</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="26" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B29" s="23">
-        <v>131.4</v>
+        <v>191.9</v>
       </c>
       <c r="C29" s="24">
-        <v>0.25419999999999998</v>
+        <v>0.4</v>
       </c>
       <c r="D29" s="24">
         <f>[1]!PropsSI("H","T",B29+273.15,"P",C29*10^6,"Water")/1000</f>
-        <v>2724.8615334140964</v>
+        <v>2843.8871417542982</v>
       </c>
       <c r="E29" s="25">
-        <f>E28</f>
-        <v>54.85</v>
+        <v>12.88</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30" s="23"/>
+        <v>40</v>
+      </c>
+      <c r="B30" s="23">
+        <v>78.16</v>
+      </c>
       <c r="C30" s="24">
-        <v>0.1525</v>
+        <f>C29</f>
+        <v>0.4</v>
       </c>
       <c r="D30" s="24">
-        <v>2686.0161921187068</v>
+        <f>[1]!PropsSI("H","T",B30+273.15,"P",C30*10^6,"Water")/1000</f>
+        <v>327.57342990929942</v>
       </c>
       <c r="E30" s="25">
-        <f t="shared" ref="E30:E32" si="0">E29</f>
+        <f>E29+E28</f>
         <v>54.85</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31" s="23"/>
+        <v>36</v>
+      </c>
+      <c r="B31" s="23">
+        <v>131.4</v>
+      </c>
       <c r="C31" s="24">
-        <f>C30</f>
+        <v>0.25419999999999998</v>
+      </c>
+      <c r="D31" s="24">
+        <f>[1]!PropsSI("H","T",B31+273.15,"P",C31*10^6,"Water")/1000</f>
+        <v>2724.8615334140964</v>
+      </c>
+      <c r="E31" s="25">
+        <f>E30</f>
+        <v>54.85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="23"/>
+      <c r="C32" s="24">
         <v>0.1525</v>
       </c>
-      <c r="D31" s="24">
-        <f>D30</f>
+      <c r="D32" s="24">
         <v>2686.0161921187068</v>
       </c>
-      <c r="E31" s="25">
+      <c r="E32" s="25">
+        <f t="shared" ref="E32:E34" si="0">E31</f>
+        <v>54.85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="23"/>
+      <c r="C33" s="24">
+        <f>C32</f>
+        <v>0.1525</v>
+      </c>
+      <c r="D33" s="24">
+        <f>D32</f>
+        <v>2686.0161921187068</v>
+      </c>
+      <c r="E33" s="25">
         <f t="shared" si="0"/>
         <v>54.85</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="B32" s="23"/>
-      <c r="C32" s="24">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="23"/>
+      <c r="C34" s="24">
         <v>4.7999999999999996E-3</v>
       </c>
-      <c r="D32" s="24">
+      <c r="D34" s="24">
         <v>2341.0014929676963</v>
       </c>
-      <c r="E32" s="25">
+      <c r="E34" s="25">
         <f t="shared" si="0"/>
         <v>54.85</v>
       </c>

--- a/streams.xlsx
+++ b/streams.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E5F0AF3-DB23-4B9D-A4D4-33A887F0CF7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D11B4C-B9CD-479A-95E5-59BF4EE64CC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14510" yWindow="-110" windowWidth="14620" windowHeight="25220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2620" yWindow="2620" windowWidth="14400" windowHeight="7360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gas" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
   <externalReferences>
     <externalReference r:id="rId3"/>
   </externalReferences>
-  <calcPr calcId="181029" iterateCount="2000" iterateDelta="0.1"/>
+  <calcPr calcId="191029" iterateCount="2000" iterateDelta="0.1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,6 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -434,8 +433,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{BBD0C497-DE08-49F9-8F56-92FFA62AA48E}"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -455,12 +454,14 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet3"/>
+      <sheetName val="CoolProp"/>
     </sheetNames>
     <definedNames>
       <definedName name="PropsSI"/>
     </definedNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1050,8 +1051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13792673-7A38-4CCB-80CF-EE250A0D6320}">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -1328,7 +1329,7 @@
         <v>25</v>
       </c>
       <c r="B21" s="6">
-        <v>107.6</v>
+        <v>116.1</v>
       </c>
       <c r="C21" s="7">
         <v>0.13089999999999999</v>
@@ -1414,7 +1415,7 @@
         <v>30</v>
       </c>
       <c r="B26" s="23">
-        <v>76</v>
+        <v>98.555434039627812</v>
       </c>
       <c r="C26" s="24">
         <v>9.6299999999999997E-2</v>
@@ -1436,9 +1437,9 @@
       <c r="C27" s="24">
         <v>5.1989999999999998</v>
       </c>
-      <c r="D27" s="24">
-        <f>[1]!PropsSI("H","T",B27+273.15,"P",C27*10^6,"Water")/1000</f>
-        <v>3414.0936824129262</v>
+      <c r="D27" s="24" t="e">
+        <f ca="1">[1]!PropsSI("H","T",B27+273.15,"P",C27*10^6,"Water")/1000</f>
+        <v>#NAME?</v>
       </c>
       <c r="E27" s="25">
         <v>41.97</v>
@@ -1454,9 +1455,9 @@
       <c r="C28" s="24">
         <v>0.54900000000000004</v>
       </c>
-      <c r="D28" s="24">
-        <f>[1]!PropsSI("H","T",B28+273.15,"P",C28*10^6,"Water")/1000</f>
-        <v>2874.8375665756544</v>
+      <c r="D28" s="24" t="e">
+        <f ca="1">[1]!PropsSI("H","T",B28+273.15,"P",C28*10^6,"Water")/1000</f>
+        <v>#NAME?</v>
       </c>
       <c r="E28" s="25">
         <f>E27</f>
@@ -1473,9 +1474,9 @@
       <c r="C29" s="24">
         <v>0.4</v>
       </c>
-      <c r="D29" s="24">
-        <f>[1]!PropsSI("H","T",B29+273.15,"P",C29*10^6,"Water")/1000</f>
-        <v>2843.8871417542982</v>
+      <c r="D29" s="24" t="e">
+        <f ca="1">[1]!PropsSI("H","T",B29+273.15,"P",C29*10^6,"Water")/1000</f>
+        <v>#NAME?</v>
       </c>
       <c r="E29" s="25">
         <v>12.88</v>
@@ -1492,9 +1493,9 @@
         <f>C29</f>
         <v>0.4</v>
       </c>
-      <c r="D30" s="24">
-        <f>[1]!PropsSI("H","T",B30+273.15,"P",C30*10^6,"Water")/1000</f>
-        <v>327.57342990929942</v>
+      <c r="D30" s="24" t="e">
+        <f ca="1">[1]!PropsSI("H","T",B30+273.15,"P",C30*10^6,"Water")/1000</f>
+        <v>#NAME?</v>
       </c>
       <c r="E30" s="25">
         <f>E29+E28</f>
@@ -1511,9 +1512,9 @@
       <c r="C31" s="24">
         <v>0.25419999999999998</v>
       </c>
-      <c r="D31" s="24">
-        <f>[1]!PropsSI("H","T",B31+273.15,"P",C31*10^6,"Water")/1000</f>
-        <v>2724.8615334140964</v>
+      <c r="D31" s="24" t="e">
+        <f ca="1">[1]!PropsSI("H","T",B31+273.15,"P",C31*10^6,"Water")/1000</f>
+        <v>#NAME?</v>
       </c>
       <c r="E31" s="25">
         <f>E30</f>

--- a/streams.xlsx
+++ b/streams.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D11B4C-B9CD-479A-95E5-59BF4EE64CC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40D39F35-8F5A-4814-8825-B4DA769D1DCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2620" yWindow="2620" windowWidth="14400" windowHeight="7360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gas" sheetId="1" r:id="rId1"/>
@@ -1051,8 +1051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13792673-7A38-4CCB-80CF-EE250A0D6320}">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -1291,7 +1291,7 @@
       </c>
       <c r="D18" s="24"/>
       <c r="E18" s="25">
-        <v>784.09999999999991</v>
+        <v>783.3</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
@@ -1332,10 +1332,10 @@
         <v>116.1</v>
       </c>
       <c r="C21" s="7">
-        <v>0.13089999999999999</v>
+        <v>0.21629999999999999</v>
       </c>
       <c r="D21" s="7">
-        <v>2705.3348951298976</v>
+        <v>2709.8279245900358</v>
       </c>
       <c r="E21" s="8">
         <v>43.733333333333299</v>
@@ -1380,7 +1380,7 @@
         <v>28</v>
       </c>
       <c r="B24" s="6">
-        <v>103.2</v>
+        <v>120.5</v>
       </c>
       <c r="C24" s="7">
         <v>1</v>
@@ -1415,13 +1415,13 @@
         <v>30</v>
       </c>
       <c r="B26" s="23">
-        <v>98.555434039627812</v>
+        <v>113.44885655951498</v>
       </c>
       <c r="C26" s="24">
-        <v>9.6299999999999997E-2</v>
+        <v>0.1608</v>
       </c>
       <c r="D26" s="24">
-        <v>2673.2849068883279</v>
+        <v>2696.2627996498554</v>
       </c>
       <c r="E26" s="25">
         <v>32.141666666666602</v>

--- a/streams.xlsx
+++ b/streams.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40D39F35-8F5A-4814-8825-B4DA769D1DCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D18232-BFDF-4684-B3E7-1B8D157C191D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gas" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
   <si>
     <t>GTU-PEVD</t>
   </si>
@@ -190,6 +190,9 @@
   </si>
   <si>
     <t>GPK-REC</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
@@ -454,14 +457,12 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet3"/>
-      <sheetName val="CoolProp"/>
     </sheetNames>
     <definedNames>
       <definedName name="PropsSI"/>
     </definedNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
-      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1049,10 +1050,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13792673-7A38-4CCB-80CF-EE250A0D6320}">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -1065,7 +1066,7 @@
     <col min="6" max="16384" width="9.1796875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" s="3" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="12"/>
       <c r="B1" s="2" t="s">
         <v>6</v>
@@ -1082,8 +1083,11 @@
       <c r="F1" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G1" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="26" t="s">
         <v>31</v>
       </c>
@@ -1100,7 +1104,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
         <v>10</v>
       </c>
@@ -1108,7 +1112,7 @@
         <v>8.7460000000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="14" t="s">
         <v>11</v>
       </c>
@@ -1125,7 +1129,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="14" t="s">
         <v>12</v>
       </c>
@@ -1142,7 +1146,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="14" t="s">
         <v>13</v>
       </c>
@@ -1159,12 +1163,12 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="14" t="s">
         <v>14</v>
       </c>
@@ -1172,7 +1176,7 @@
         <v>0.69640000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="14" t="s">
         <v>15</v>
       </c>
@@ -1189,7 +1193,7 @@
         <v>82.91</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="14" t="s">
         <v>52</v>
       </c>
@@ -1206,7 +1210,7 @@
         <v>82.91</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="14" t="s">
         <v>50</v>
       </c>
@@ -1217,7 +1221,7 @@
         <v>82.19</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="14" t="s">
         <v>51</v>
       </c>
@@ -1234,22 +1238,22 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="13" t="s">
         <v>19</v>
       </c>
@@ -1437,9 +1441,9 @@
       <c r="C27" s="24">
         <v>5.1989999999999998</v>
       </c>
-      <c r="D27" s="24" t="e">
-        <f ca="1">[1]!PropsSI("H","T",B27+273.15,"P",C27*10^6,"Water")/1000</f>
-        <v>#NAME?</v>
+      <c r="D27" s="24">
+        <f>[1]!PropsSI("H","T",B27+273.15,"P",C27*10^6,"Water")/1000</f>
+        <v>3414.0936824129262</v>
       </c>
       <c r="E27" s="25">
         <v>41.97</v>
@@ -1455,9 +1459,9 @@
       <c r="C28" s="24">
         <v>0.54900000000000004</v>
       </c>
-      <c r="D28" s="24" t="e">
-        <f ca="1">[1]!PropsSI("H","T",B28+273.15,"P",C28*10^6,"Water")/1000</f>
-        <v>#NAME?</v>
+      <c r="D28" s="24">
+        <f>[1]!PropsSI("H","T",B28+273.15,"P",C28*10^6,"Water")/1000</f>
+        <v>2874.8375665756544</v>
       </c>
       <c r="E28" s="25">
         <f>E27</f>
@@ -1474,9 +1478,9 @@
       <c r="C29" s="24">
         <v>0.4</v>
       </c>
-      <c r="D29" s="24" t="e">
-        <f ca="1">[1]!PropsSI("H","T",B29+273.15,"P",C29*10^6,"Water")/1000</f>
-        <v>#NAME?</v>
+      <c r="D29" s="24">
+        <f>[1]!PropsSI("H","T",B29+273.15,"P",C29*10^6,"Water")/1000</f>
+        <v>2843.8871417542982</v>
       </c>
       <c r="E29" s="25">
         <v>12.88</v>
@@ -1493,9 +1497,9 @@
         <f>C29</f>
         <v>0.4</v>
       </c>
-      <c r="D30" s="24" t="e">
-        <f ca="1">[1]!PropsSI("H","T",B30+273.15,"P",C30*10^6,"Water")/1000</f>
-        <v>#NAME?</v>
+      <c r="D30" s="24">
+        <f>[1]!PropsSI("H","T",B30+273.15,"P",C30*10^6,"Water")/1000</f>
+        <v>327.57342990929942</v>
       </c>
       <c r="E30" s="25">
         <f>E29+E28</f>
@@ -1512,9 +1516,9 @@
       <c r="C31" s="24">
         <v>0.25419999999999998</v>
       </c>
-      <c r="D31" s="24" t="e">
-        <f ca="1">[1]!PropsSI("H","T",B31+273.15,"P",C31*10^6,"Water")/1000</f>
-        <v>#NAME?</v>
+      <c r="D31" s="24">
+        <f>[1]!PropsSI("H","T",B31+273.15,"P",C31*10^6,"Water")/1000</f>
+        <v>2724.8615334140964</v>
       </c>
       <c r="E31" s="25">
         <f>E30</f>

--- a/streams.xlsx
+++ b/streams.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D18232-BFDF-4684-B3E7-1B8D157C191D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AD2E36E-ED29-4756-A89C-7EF043727281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-7010" yWindow="2590" windowWidth="14400" windowHeight="7360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gas" sheetId="1" r:id="rId1"/>
@@ -1052,8 +1052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13792673-7A38-4CCB-80CF-EE250A0D6320}">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -1295,7 +1295,7 @@
       </c>
       <c r="D18" s="24"/>
       <c r="E18" s="25">
-        <v>783.3</v>
+        <v>784.09999999999991</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
@@ -1384,7 +1384,7 @@
         <v>28</v>
       </c>
       <c r="B24" s="6">
-        <v>120.5</v>
+        <v>103.2</v>
       </c>
       <c r="C24" s="7">
         <v>1</v>
@@ -1473,14 +1473,14 @@
         <v>35</v>
       </c>
       <c r="B29" s="23">
-        <v>191.9</v>
+        <v>199.4</v>
       </c>
       <c r="C29" s="24">
         <v>0.4</v>
       </c>
       <c r="D29" s="24">
         <f>[1]!PropsSI("H","T",B29+273.15,"P",C29*10^6,"Water")/1000</f>
-        <v>2843.8871417542982</v>
+        <v>2859.6691118398307</v>
       </c>
       <c r="E29" s="25">
         <v>12.88</v>
@@ -1565,7 +1565,7 @@
       </c>
       <c r="B34" s="23"/>
       <c r="C34" s="24">
-        <v>4.7999999999999996E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="D34" s="24">
         <v>2341.0014929676963</v>

--- a/streams.xlsx
+++ b/streams.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AD2E36E-ED29-4756-A89C-7EF043727281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F442A516-6935-4C17-9BD8-0DBE17631A6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-7010" yWindow="2590" windowWidth="14400" windowHeight="7360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14510" yWindow="-110" windowWidth="14620" windowHeight="25220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gas" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
   <externalReferences>
     <externalReference r:id="rId3"/>
   </externalReferences>
-  <calcPr calcId="191029" iterateCount="2000" iterateDelta="0.1"/>
+  <calcPr calcId="181029" iterateCount="2000" iterateDelta="0.1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -436,8 +436,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{BBD0C497-DE08-49F9-8F56-92FFA62AA48E}"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -457,12 +457,14 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet3"/>
+      <sheetName val="CoolProp"/>
     </sheetNames>
     <definedNames>
       <definedName name="PropsSI"/>
     </definedNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1052,8 +1054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13792673-7A38-4CCB-80CF-EE250A0D6320}">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -1483,7 +1485,7 @@
         <v>2859.6691118398307</v>
       </c>
       <c r="E29" s="25">
-        <v>12.88</v>
+        <v>10.57</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
@@ -1503,7 +1505,7 @@
       </c>
       <c r="E30" s="25">
         <f>E29+E28</f>
-        <v>54.85</v>
+        <v>52.54</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
@@ -1522,7 +1524,7 @@
       </c>
       <c r="E31" s="25">
         <f>E30</f>
-        <v>54.85</v>
+        <v>52.54</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
@@ -1538,7 +1540,7 @@
       </c>
       <c r="E32" s="25">
         <f t="shared" ref="E32:E34" si="0">E31</f>
-        <v>54.85</v>
+        <v>52.54</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
@@ -1556,7 +1558,7 @@
       </c>
       <c r="E33" s="25">
         <f t="shared" si="0"/>
-        <v>54.85</v>
+        <v>52.54</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
@@ -1565,14 +1567,14 @@
       </c>
       <c r="B34" s="23"/>
       <c r="C34" s="24">
-        <v>1.6999999999999999E-3</v>
+        <v>4.7999999999999996E-3</v>
       </c>
       <c r="D34" s="24">
         <v>2341.0014929676963</v>
       </c>
       <c r="E34" s="25">
         <f t="shared" si="0"/>
-        <v>54.85</v>
+        <v>52.54</v>
       </c>
     </row>
   </sheetData>

--- a/streams.xlsx
+++ b/streams.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F442A516-6935-4C17-9BD8-0DBE17631A6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE95C18-A564-4039-8BA7-651D6080E027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-14510" yWindow="-110" windowWidth="14620" windowHeight="25220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="55">
   <si>
     <t>GTU-PEVD</t>
   </si>
@@ -193,6 +193,9 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>0,02323321</t>
   </si>
 </sst>
 </file>
@@ -1055,7 +1058,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -1270,7 +1273,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="14" t="s">
         <v>20</v>
       </c>
@@ -1285,7 +1288,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="26" t="s">
         <v>49</v>
       </c>
@@ -1300,7 +1303,7 @@
         <v>784.09999999999991</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="14" t="s">
         <v>21</v>
       </c>
@@ -1315,7 +1318,7 @@
         <v>100.77673095348899</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="14" t="s">
         <v>22</v>
       </c>
@@ -1330,7 +1333,7 @@
         <v>100.77673095348899</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="14" t="s">
         <v>25</v>
       </c>
@@ -1338,16 +1341,16 @@
         <v>116.1</v>
       </c>
       <c r="C21" s="7">
-        <v>0.21629999999999999</v>
+        <v>0.13183900000000001</v>
       </c>
       <c r="D21" s="7">
-        <v>2709.8279245900358</v>
+        <v>2685.7068330000002</v>
       </c>
       <c r="E21" s="8">
         <v>43.733333333333299</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="14" t="s">
         <v>26</v>
       </c>
@@ -1364,7 +1367,7 @@
         <v>43.733333333333299</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="14" t="s">
         <v>27</v>
       </c>
@@ -1381,7 +1384,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="14" t="s">
         <v>28</v>
       </c>
@@ -1398,7 +1401,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="14" t="s">
         <v>29</v>
       </c>
@@ -1416,7 +1419,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="26" t="s">
         <v>30</v>
       </c>
@@ -1424,16 +1427,16 @@
         <v>113.44885655951498</v>
       </c>
       <c r="C26" s="24">
-        <v>0.1608</v>
+        <v>9.4236E-2</v>
       </c>
       <c r="D26" s="24">
-        <v>2696.2627996498554</v>
+        <v>2639.4924500000002</v>
       </c>
       <c r="E26" s="25">
         <v>32.141666666666602</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="26" t="s">
         <v>33</v>
       </c>
@@ -1451,7 +1454,7 @@
         <v>41.97</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="26" t="s">
         <v>34</v>
       </c>
@@ -1470,7 +1473,7 @@
         <v>41.97</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="26" t="s">
         <v>35</v>
       </c>
@@ -1488,7 +1491,7 @@
         <v>10.57</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="26" t="s">
         <v>40</v>
       </c>
@@ -1507,8 +1510,11 @@
         <f>E29+E28</f>
         <v>52.54</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G30" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="26" t="s">
         <v>36</v>
       </c>
@@ -1527,7 +1533,7 @@
         <v>52.54</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="26" t="s">
         <v>37</v>
       </c>
@@ -1567,7 +1573,7 @@
       </c>
       <c r="B34" s="23"/>
       <c r="C34" s="24">
-        <v>4.7999999999999996E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="D34" s="24">
         <v>2341.0014929676963</v>

--- a/streams.xlsx
+++ b/streams.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE95C18-A564-4039-8BA7-651D6080E027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC306759-F57E-4BC0-9357-156EFA2BAD00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-14510" yWindow="-110" windowWidth="14620" windowHeight="25220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="57">
   <si>
     <t>GTU-PEVD</t>
   </si>
@@ -196,6 +196,12 @@
   </si>
   <si>
     <t>0,02323321</t>
+  </si>
+  <si>
+    <t>KOND-KN</t>
+  </si>
+  <si>
+    <t>KN-GPK</t>
   </si>
 </sst>
 </file>
@@ -1055,10 +1061,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13792673-7A38-4CCB-80CF-EE250A0D6320}">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -1583,6 +1589,43 @@
         <v>52.54</v>
       </c>
     </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35" s="23">
+        <v>41.51</v>
+      </c>
+      <c r="C35" s="24">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D35" s="24">
+        <v>173.9</v>
+      </c>
+      <c r="E35" s="25">
+        <f>E34</f>
+        <v>52.54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" s="23">
+        <v>41.51</v>
+      </c>
+      <c r="C36" s="24">
+        <f>C10</f>
+        <v>0.69640000000000002</v>
+      </c>
+      <c r="D36" s="24">
+        <v>173.9</v>
+      </c>
+      <c r="E36" s="25">
+        <f>E35</f>
+        <v>52.54</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/streams.xlsx
+++ b/streams.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC306759-F57E-4BC0-9357-156EFA2BAD00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{282FBF3C-843B-42AB-9A8E-867974B6F972}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14510" yWindow="-110" windowWidth="14620" windowHeight="25220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14505" yWindow="-105" windowWidth="14625" windowHeight="25215" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gas" sheetId="1" r:id="rId1"/>
@@ -14,17 +14,10 @@
   <externalReferences>
     <externalReference r:id="rId3"/>
   </externalReferences>
-  <calcPr calcId="181029" iterateCount="2000" iterateDelta="0.1"/>
+  <calcPr calcId="191029" iterateCount="2000" iterateDelta="0.1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -445,8 +438,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{BBD0C497-DE08-49F9-8F56-92FFA62AA48E}"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -748,19 +741,19 @@
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" style="6"/>
-    <col min="3" max="4" width="9.1796875" style="7"/>
-    <col min="5" max="5" width="9.1796875" style="8"/>
-    <col min="6" max="6" width="9.1796875" style="6"/>
-    <col min="7" max="9" width="9.1796875" style="7"/>
-    <col min="10" max="10" width="9.1796875" style="8"/>
-    <col min="11" max="16384" width="9.1796875" style="7"/>
+    <col min="1" max="1" width="14.85546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="6"/>
+    <col min="3" max="4" width="9.140625" style="7"/>
+    <col min="5" max="5" width="9.140625" style="8"/>
+    <col min="6" max="6" width="9.140625" style="6"/>
+    <col min="7" max="9" width="9.140625" style="7"/>
+    <col min="10" max="10" width="9.140625" style="8"/>
+    <col min="11" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="3" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:18" s="3" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>6</v>
@@ -790,7 +783,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>42</v>
       </c>
@@ -822,7 +815,7 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -854,7 +847,7 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>43</v>
       </c>
@@ -891,7 +884,7 @@
       <c r="N4" s="10"/>
       <c r="O4" s="10"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>44</v>
       </c>
@@ -923,7 +916,7 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>45</v>
       </c>
@@ -955,7 +948,7 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>46</v>
       </c>
@@ -987,7 +980,7 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>47</v>
       </c>
@@ -1019,7 +1012,7 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>48</v>
       </c>
@@ -1051,7 +1044,7 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="R14" s="19"/>
     </row>
   </sheetData>
@@ -1064,20 +1057,20 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" style="6"/>
-    <col min="3" max="3" width="9.1796875" style="7"/>
-    <col min="4" max="4" width="11.453125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.1796875" style="8"/>
-    <col min="6" max="16384" width="9.1796875" style="7"/>
+    <col min="1" max="1" width="14.85546875" style="13" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="6"/>
+    <col min="3" max="3" width="9.140625" style="7"/>
+    <col min="4" max="4" width="11.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="8"/>
+    <col min="6" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" s="3" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12"/>
       <c r="B1" s="2" t="s">
         <v>6</v>
@@ -1098,14 +1091,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>31</v>
       </c>
       <c r="B2" s="6">
         <v>511.5</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="20">
         <v>8.407</v>
       </c>
       <c r="D2" s="7">
@@ -1115,24 +1108,18 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="20">
-        <v>8.7460000000000004</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="6">
         <v>298.8</v>
       </c>
-      <c r="C4" s="7">
-        <v>8.7460000000000004</v>
-      </c>
       <c r="D4" s="7">
         <v>1337.9482651031026</v>
       </c>
@@ -1140,16 +1127,13 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="6">
         <v>166.5</v>
       </c>
-      <c r="C5" s="7">
-        <v>8.7460000000000004</v>
-      </c>
       <c r="D5" s="7">
         <v>708.31984887431838</v>
       </c>
@@ -1157,16 +1141,13 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="6">
         <v>164.73836143543406</v>
       </c>
-      <c r="C6" s="7">
-        <v>0.69640000000000002</v>
-      </c>
       <c r="D6" s="7">
         <v>696.09556718341082</v>
       </c>
@@ -1174,29 +1155,26 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C7" s="20">
+        <v>0.69099999999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="20">
-        <v>0.69640000000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="6">
         <v>164.6</v>
       </c>
-      <c r="C9" s="7">
-        <v>0.69640000000000002</v>
-      </c>
       <c r="D9" s="7">
         <v>695.4937008073166</v>
       </c>
@@ -1204,16 +1182,13 @@
         <v>82.91</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>52</v>
       </c>
       <c r="B10" s="6">
         <v>164.6</v>
       </c>
-      <c r="C10" s="7">
-        <v>0.69640000000000002</v>
-      </c>
       <c r="D10" s="7">
         <v>695.4937008073166</v>
       </c>
@@ -1221,7 +1196,7 @@
         <v>82.91</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>50</v>
       </c>
@@ -1232,16 +1207,13 @@
         <v>82.19</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>51</v>
       </c>
       <c r="B12" s="7">
         <v>44.2</v>
       </c>
-      <c r="C12" s="7">
-        <v>0.69640000000000002</v>
-      </c>
       <c r="D12" s="7">
         <v>185.7</v>
       </c>
@@ -1249,22 +1221,22 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>19</v>
       </c>
@@ -1279,7 +1251,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>20</v>
       </c>
@@ -1294,7 +1266,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
         <v>49</v>
       </c>
@@ -1309,7 +1281,7 @@
         <v>784.09999999999991</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>21</v>
       </c>
@@ -1324,7 +1296,7 @@
         <v>100.77673095348899</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>22</v>
       </c>
@@ -1339,7 +1311,7 @@
         <v>100.77673095348899</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>25</v>
       </c>
@@ -1356,7 +1328,7 @@
         <v>43.733333333333299</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>26</v>
       </c>
@@ -1373,7 +1345,7 @@
         <v>43.733333333333299</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>27</v>
       </c>
@@ -1390,7 +1362,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>28</v>
       </c>
@@ -1407,7 +1379,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>29</v>
       </c>
@@ -1425,7 +1397,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="26" t="s">
         <v>30</v>
       </c>
@@ -1442,7 +1414,7 @@
         <v>32.141666666666602</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="26" t="s">
         <v>33</v>
       </c>
@@ -1452,15 +1424,15 @@
       <c r="C27" s="24">
         <v>5.1989999999999998</v>
       </c>
-      <c r="D27" s="24">
-        <f>[1]!PropsSI("H","T",B27+273.15,"P",C27*10^6,"Water")/1000</f>
-        <v>3414.0936824129262</v>
+      <c r="D27" s="24" t="e">
+        <f ca="1">[1]!PropsSI("H","T",B27+273.15,"P",C27*10^6,"Water")/1000</f>
+        <v>#NAME?</v>
       </c>
       <c r="E27" s="25">
         <v>41.97</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="26" t="s">
         <v>34</v>
       </c>
@@ -1470,16 +1442,16 @@
       <c r="C28" s="24">
         <v>0.54900000000000004</v>
       </c>
-      <c r="D28" s="24">
-        <f>[1]!PropsSI("H","T",B28+273.15,"P",C28*10^6,"Water")/1000</f>
-        <v>2874.8375665756544</v>
+      <c r="D28" s="24" t="e">
+        <f ca="1">[1]!PropsSI("H","T",B28+273.15,"P",C28*10^6,"Water")/1000</f>
+        <v>#NAME?</v>
       </c>
       <c r="E28" s="25">
         <f>E27</f>
         <v>41.97</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="26" t="s">
         <v>35</v>
       </c>
@@ -1489,15 +1461,15 @@
       <c r="C29" s="24">
         <v>0.4</v>
       </c>
-      <c r="D29" s="24">
-        <f>[1]!PropsSI("H","T",B29+273.15,"P",C29*10^6,"Water")/1000</f>
-        <v>2859.6691118398307</v>
+      <c r="D29" s="24" t="e">
+        <f ca="1">[1]!PropsSI("H","T",B29+273.15,"P",C29*10^6,"Water")/1000</f>
+        <v>#NAME?</v>
       </c>
       <c r="E29" s="25">
         <v>10.57</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="26" t="s">
         <v>40</v>
       </c>
@@ -1508,9 +1480,9 @@
         <f>C29</f>
         <v>0.4</v>
       </c>
-      <c r="D30" s="24">
-        <f>[1]!PropsSI("H","T",B30+273.15,"P",C30*10^6,"Water")/1000</f>
-        <v>327.57342990929942</v>
+      <c r="D30" s="24" t="e">
+        <f ca="1">[1]!PropsSI("H","T",B30+273.15,"P",C30*10^6,"Water")/1000</f>
+        <v>#NAME?</v>
       </c>
       <c r="E30" s="25">
         <f>E29+E28</f>
@@ -1520,7 +1492,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="26" t="s">
         <v>36</v>
       </c>
@@ -1530,16 +1502,16 @@
       <c r="C31" s="24">
         <v>0.25419999999999998</v>
       </c>
-      <c r="D31" s="24">
-        <f>[1]!PropsSI("H","T",B31+273.15,"P",C31*10^6,"Water")/1000</f>
-        <v>2724.8615334140964</v>
+      <c r="D31" s="24" t="e">
+        <f ca="1">[1]!PropsSI("H","T",B31+273.15,"P",C31*10^6,"Water")/1000</f>
+        <v>#NAME?</v>
       </c>
       <c r="E31" s="25">
         <f>E30</f>
         <v>52.54</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="26" t="s">
         <v>37</v>
       </c>
@@ -1555,7 +1527,7 @@
         <v>52.54</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="26" t="s">
         <v>38</v>
       </c>
@@ -1573,7 +1545,7 @@
         <v>52.54</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="26" t="s">
         <v>39</v>
       </c>
@@ -1589,7 +1561,7 @@
         <v>52.54</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>55</v>
       </c>
@@ -1607,7 +1579,7 @@
         <v>52.54</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>56</v>
       </c>
@@ -1616,7 +1588,7 @@
       </c>
       <c r="C36" s="24">
         <f>C10</f>
-        <v>0.69640000000000002</v>
+        <v>0</v>
       </c>
       <c r="D36" s="24">
         <v>173.9</v>

--- a/streams.xlsx
+++ b/streams.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{282FBF3C-843B-42AB-9A8E-867974B6F972}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D1D79C-1B2E-4288-8803-B5D3313565BD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14505" yWindow="-105" windowWidth="14625" windowHeight="25215" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14505" yWindow="-105" windowWidth="14625" windowHeight="25215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gas" sheetId="1" r:id="rId1"/>
@@ -737,8 +737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -794,7 +794,7 @@
         <v>0.1</v>
       </c>
       <c r="D2" s="7">
-        <v>958.86919853128609</v>
+        <v>960</v>
       </c>
       <c r="E2" s="8">
         <v>503.8</v>
@@ -826,7 +826,7 @@
         <v>0.1</v>
       </c>
       <c r="D3" s="7">
-        <v>958.86919853128609</v>
+        <v>950</v>
       </c>
       <c r="E3" s="22">
         <v>503.8</v>
@@ -858,7 +858,7 @@
         <v>0.1</v>
       </c>
       <c r="D4" s="7">
-        <v>874.26792911178234</v>
+        <v>500</v>
       </c>
       <c r="E4" s="8">
         <v>503.8</v>
@@ -895,7 +895,7 @@
         <v>0.1</v>
       </c>
       <c r="D5" s="7">
-        <v>697.66595139225319</v>
+        <v>400</v>
       </c>
       <c r="E5" s="8">
         <v>503.8</v>
@@ -927,7 +927,7 @@
         <v>0.1</v>
       </c>
       <c r="D6" s="7">
-        <v>618.33586643179672</v>
+        <v>300</v>
       </c>
       <c r="E6" s="8">
         <v>503.8</v>
@@ -959,7 +959,7 @@
         <v>0.1</v>
       </c>
       <c r="D7" s="7">
-        <v>615.22281759257271</v>
+        <v>200</v>
       </c>
       <c r="E7" s="8">
         <v>503.8</v>
@@ -991,7 +991,7 @@
         <v>0.1</v>
       </c>
       <c r="D8" s="7">
-        <v>553.86016830512403</v>
+        <v>100</v>
       </c>
       <c r="E8" s="8">
         <v>503.8</v>
@@ -1023,7 +1023,7 @@
         <v>0.1</v>
       </c>
       <c r="D9" s="7">
-        <v>481.43243266974537</v>
+        <v>20</v>
       </c>
       <c r="E9" s="8">
         <v>503.8</v>
@@ -1056,8 +1056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13792673-7A38-4CCB-80CF-EE250A0D6320}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1099,7 +1099,7 @@
         <v>511.5</v>
       </c>
       <c r="C2" s="20">
-        <v>8.407</v>
+        <v>5.7469999999999999</v>
       </c>
       <c r="D2" s="7">
         <v>3423.2099783420958</v>
@@ -1112,6 +1112,18 @@
       <c r="A3" s="14" t="s">
         <v>10</v>
       </c>
+      <c r="B3" s="6">
+        <v>301.29755574753347</v>
+      </c>
+      <c r="C3" s="7">
+        <v>8.7460000000000004</v>
+      </c>
+      <c r="D3" s="7">
+        <v>2747.1040230157951</v>
+      </c>
+      <c r="E3" s="8">
+        <v>63.4</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
@@ -1120,6 +1132,9 @@
       <c r="B4" s="6">
         <v>298.8</v>
       </c>
+      <c r="C4" s="7">
+        <v>8.7460000000000004</v>
+      </c>
       <c r="D4" s="7">
         <v>1337.9482651031026</v>
       </c>
@@ -1134,6 +1149,9 @@
       <c r="B5" s="6">
         <v>166.5</v>
       </c>
+      <c r="C5" s="7">
+        <v>8.7460000000000004</v>
+      </c>
       <c r="D5" s="7">
         <v>708.31984887431838</v>
       </c>
@@ -1148,6 +1166,9 @@
       <c r="B6" s="6">
         <v>164.73836143543406</v>
       </c>
+      <c r="C6" s="7">
+        <v>0.69640000000000002</v>
+      </c>
       <c r="D6" s="7">
         <v>696.09556718341082</v>
       </c>
@@ -1159,14 +1180,35 @@
       <c r="A7" s="26" t="s">
         <v>32</v>
       </c>
+      <c r="B7" s="6">
+        <v>211.6</v>
+      </c>
       <c r="C7" s="20">
-        <v>0.69099999999999995</v>
+        <v>0.45700000000000002</v>
+      </c>
+      <c r="D7" s="7">
+        <v>2871.4818365716997</v>
+      </c>
+      <c r="E7" s="8">
+        <v>14.76</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>14</v>
       </c>
+      <c r="B8" s="6">
+        <v>164.73836143543406</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0.69640000000000002</v>
+      </c>
+      <c r="D8" s="7">
+        <v>2762.534980413358</v>
+      </c>
+      <c r="E8" s="8">
+        <v>14.76</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
@@ -1175,6 +1217,9 @@
       <c r="B9" s="6">
         <v>164.6</v>
       </c>
+      <c r="C9" s="7">
+        <v>0.69640000000000002</v>
+      </c>
       <c r="D9" s="7">
         <v>695.4937008073166</v>
       </c>
@@ -1189,6 +1234,9 @@
       <c r="B10" s="6">
         <v>164.6</v>
       </c>
+      <c r="C10" s="7">
+        <v>0.69640000000000002</v>
+      </c>
       <c r="D10" s="7">
         <v>695.4937008073166</v>
       </c>
@@ -1203,6 +1251,12 @@
       <c r="B11" s="21">
         <v>60</v>
       </c>
+      <c r="C11" s="7">
+        <v>0.69640000000000002</v>
+      </c>
+      <c r="D11" s="7">
+        <v>251.74839576328077</v>
+      </c>
       <c r="E11" s="8">
         <v>82.19</v>
       </c>
@@ -1213,6 +1267,9 @@
       </c>
       <c r="B12" s="7">
         <v>44.2</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0.69640000000000002</v>
       </c>
       <c r="D12" s="7">
         <v>185.7</v>
@@ -1588,7 +1645,7 @@
       </c>
       <c r="C36" s="24">
         <f>C10</f>
-        <v>0</v>
+        <v>0.69640000000000002</v>
       </c>
       <c r="D36" s="24">
         <v>173.9</v>

--- a/streams.xlsx
+++ b/streams.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D1D79C-1B2E-4288-8803-B5D3313565BD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59CB9004-AEE5-424D-8F26-24207A691410}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14505" yWindow="-105" windowWidth="14625" windowHeight="25215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14505" yWindow="-105" windowWidth="14625" windowHeight="25215" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gas" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
   <externalReferences>
     <externalReference r:id="rId3"/>
   </externalReferences>
-  <calcPr calcId="191029" iterateCount="2000" iterateDelta="0.1"/>
+  <calcPr calcId="191029" iterateCount="10"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="58">
   <si>
     <t>GTU-PEVD</t>
   </si>
@@ -195,6 +195,9 @@
   </si>
   <si>
     <t>KN-GPK</t>
+  </si>
+  <si>
+    <t>AIR</t>
   </si>
 </sst>
 </file>
@@ -353,7 +356,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -434,6 +437,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -735,10 +741,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R14"/>
+  <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -784,118 +790,86 @@
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B3" s="6">
         <v>542.1</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C3" s="7">
         <v>0.1</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D3" s="7">
         <v>960</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E3" s="8">
         <v>503.8</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F3" s="6">
         <v>0.78029999999999999</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G3" s="7">
         <v>0.1237</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H3" s="7">
         <v>3.0099999999999998E-2</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I3" s="7">
         <v>5.9400000000000001E-2</v>
       </c>
-      <c r="J2" s="8">
-        <v>6.4999999999999997E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="21">
-        <v>542.1</v>
-      </c>
-      <c r="C3" s="20">
-        <v>0.1</v>
-      </c>
-      <c r="D3" s="7">
-        <v>950</v>
-      </c>
-      <c r="E3" s="22">
-        <v>503.8</v>
-      </c>
-      <c r="F3" s="21">
-        <v>0.78029999999999999</v>
-      </c>
-      <c r="G3" s="20">
-        <v>0.1237</v>
-      </c>
-      <c r="H3" s="20">
-        <v>3.0099999999999998E-2</v>
-      </c>
-      <c r="I3" s="20">
-        <v>5.9400000000000001E-2</v>
-      </c>
-      <c r="J3" s="22">
+      <c r="J3" s="8">
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="6">
-        <v>468.05</v>
-      </c>
-      <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="B4" s="21">
+        <v>542.1</v>
+      </c>
+      <c r="C4" s="20">
         <v>0.1</v>
       </c>
       <c r="D4" s="7">
-        <v>500</v>
-      </c>
-      <c r="E4" s="8">
+        <v>950</v>
+      </c>
+      <c r="E4" s="22">
         <v>503.8</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="21">
         <v>0.78029999999999999</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="20">
         <v>0.1237</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="20">
         <v>3.0099999999999998E-2</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="20">
         <v>5.9400000000000001E-2</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="22">
         <v>6.4999999999999997E-3</v>
       </c>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" s="6">
-        <v>309.2</v>
+        <v>468.05</v>
       </c>
       <c r="C5" s="7">
         <v>0.1</v>
       </c>
       <c r="D5" s="7">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E5" s="8">
         <v>503.8</v>
@@ -915,51 +889,56 @@
       <c r="J5" s="8">
         <v>6.4999999999999997E-3</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
-        <v>45</v>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="B6" s="6">
-        <v>235.9</v>
+        <v>309.2</v>
       </c>
       <c r="C6" s="7">
         <v>0.1</v>
       </c>
       <c r="D6" s="7">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E6" s="8">
         <v>503.8</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="6">
         <v>0.78029999999999999</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="7">
         <v>0.1237</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H6" s="7">
         <v>3.0099999999999998E-2</v>
       </c>
-      <c r="I6" s="17">
+      <c r="I6" s="7">
         <v>5.9400000000000001E-2</v>
       </c>
-      <c r="J6" s="18">
+      <c r="J6" s="8">
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
     <row r="7" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B7" s="6">
-        <v>233</v>
+        <v>235.9</v>
       </c>
       <c r="C7" s="7">
         <v>0.1</v>
       </c>
       <c r="D7" s="7">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E7" s="8">
         <v>503.8</v>
@@ -980,50 +959,50 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>47</v>
+    <row r="8" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>46</v>
       </c>
       <c r="B8" s="6">
-        <v>175.5</v>
+        <v>233</v>
       </c>
       <c r="C8" s="7">
         <v>0.1</v>
       </c>
       <c r="D8" s="7">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E8" s="8">
         <v>503.8</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="16">
         <v>0.78029999999999999</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="17">
         <v>0.1237</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="17">
         <v>3.0099999999999998E-2</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="17">
         <v>5.9400000000000001E-2</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="18">
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B9" s="6">
-        <v>106.9</v>
+        <v>175.5</v>
       </c>
       <c r="C9" s="7">
         <v>0.1</v>
       </c>
       <c r="D9" s="7">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E9" s="8">
         <v>503.8</v>
@@ -1044,8 +1023,40 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="R14" s="19"/>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="6">
+        <v>106.9</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="D10" s="7">
+        <v>20</v>
+      </c>
+      <c r="E10" s="8">
+        <v>503.8</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0.78029999999999999</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0.1237</v>
+      </c>
+      <c r="H10" s="7">
+        <v>3.0099999999999998E-2</v>
+      </c>
+      <c r="I10" s="7">
+        <v>5.9400000000000001E-2</v>
+      </c>
+      <c r="J10" s="8">
+        <v>6.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="R15" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1054,10 +1065,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13792673-7A38-4CCB-80CF-EE250A0D6320}">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1092,34 +1103,22 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B3" s="6">
         <v>511.5</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C3" s="20">
         <v>5.7469999999999999</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D3" s="7">
         <v>3423.2099783420958</v>
-      </c>
-      <c r="E2" s="8">
-        <v>63.4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="6">
-        <v>301.29755574753347</v>
-      </c>
-      <c r="C3" s="7">
-        <v>8.7460000000000004</v>
-      </c>
-      <c r="D3" s="7">
-        <v>2747.1040230157951</v>
       </c>
       <c r="E3" s="8">
         <v>63.4</v>
@@ -1127,16 +1126,16 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="6">
-        <v>298.8</v>
+        <v>301.29755574753347</v>
       </c>
       <c r="C4" s="7">
         <v>8.7460000000000004</v>
       </c>
       <c r="D4" s="7">
-        <v>1337.9482651031026</v>
+        <v>2747.1040230157951</v>
       </c>
       <c r="E4" s="8">
         <v>63.4</v>
@@ -1144,16 +1143,16 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="6">
-        <v>166.5</v>
+        <v>298.8</v>
       </c>
       <c r="C5" s="7">
         <v>8.7460000000000004</v>
       </c>
       <c r="D5" s="7">
-        <v>708.31984887431838</v>
+        <v>1337.9482651031026</v>
       </c>
       <c r="E5" s="8">
         <v>63.4</v>
@@ -1161,50 +1160,50 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="6">
-        <v>164.73836143543406</v>
+        <v>166.5</v>
       </c>
       <c r="C6" s="7">
-        <v>0.69640000000000002</v>
+        <v>8.7460000000000004</v>
       </c>
       <c r="D6" s="7">
-        <v>696.09556718341082</v>
+        <v>708.31984887431838</v>
       </c>
       <c r="E6" s="8">
         <v>63.4</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="6">
+        <v>164.73836143543406</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0.69640000000000002</v>
+      </c>
+      <c r="D7" s="7">
+        <v>696.09556718341082</v>
+      </c>
+      <c r="E7" s="8">
+        <v>63.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B8" s="6">
         <v>211.6</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C8" s="20">
         <v>0.45700000000000002</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D8" s="7">
         <v>2871.4818365716997</v>
-      </c>
-      <c r="E7" s="8">
-        <v>14.76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="6">
-        <v>164.73836143543406</v>
-      </c>
-      <c r="C8" s="7">
-        <v>0.69640000000000002</v>
-      </c>
-      <c r="D8" s="7">
-        <v>2762.534980413358</v>
       </c>
       <c r="E8" s="8">
         <v>14.76</v>
@@ -1212,24 +1211,24 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="6">
-        <v>164.6</v>
+        <v>164.73836143543406</v>
       </c>
       <c r="C9" s="7">
         <v>0.69640000000000002</v>
       </c>
       <c r="D9" s="7">
-        <v>695.4937008073166</v>
+        <v>2762.534980413358</v>
       </c>
       <c r="E9" s="8">
-        <v>82.91</v>
+        <v>14.76</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="B10" s="6">
         <v>164.6</v>
@@ -1246,74 +1245,76 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="21">
-        <v>60</v>
+        <v>52</v>
+      </c>
+      <c r="B11" s="6">
+        <v>164.6</v>
       </c>
       <c r="C11" s="7">
         <v>0.69640000000000002</v>
       </c>
       <c r="D11" s="7">
-        <v>251.74839576328077</v>
+        <v>695.4937008073166</v>
       </c>
       <c r="E11" s="8">
-        <v>82.19</v>
+        <v>82.91</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="7">
-        <v>44.2</v>
+        <v>50</v>
+      </c>
+      <c r="B12" s="21">
+        <v>60</v>
       </c>
       <c r="C12" s="7">
         <v>0.69640000000000002</v>
       </c>
       <c r="D12" s="7">
-        <v>185.7</v>
+        <v>251.74839576328077</v>
       </c>
       <c r="E12" s="8">
-        <v>78.16</v>
+        <v>82.19</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>16</v>
+        <v>51</v>
+      </c>
+      <c r="B13" s="7">
+        <v>44.2</v>
+      </c>
+      <c r="C13" s="7">
+        <v>0.69640000000000002</v>
+      </c>
+      <c r="D13" s="7">
+        <v>185.7</v>
+      </c>
+      <c r="E13" s="8">
+        <v>78.16</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B17" s="23" t="s">
         <v>23</v>
-      </c>
-      <c r="C16" s="24">
-        <v>3.8226901700000003E-2</v>
-      </c>
-      <c r="D16" s="24"/>
-      <c r="E16" s="25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="23">
-        <v>49.839511130751802</v>
       </c>
       <c r="C17" s="24">
         <v>3.8226901700000003E-2</v>
@@ -1324,41 +1325,41 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="23">
+        <v>49.839511130751802</v>
+      </c>
+      <c r="C18" s="24">
+        <v>3.8226901700000003E-2</v>
+      </c>
+      <c r="D18" s="24"/>
+      <c r="E18" s="25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="23">
+      <c r="B19" s="23">
         <v>69</v>
-      </c>
-      <c r="C18" s="24">
-        <v>1</v>
-      </c>
-      <c r="D18" s="24"/>
-      <c r="E18" s="25">
-        <v>784.09999999999991</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="23">
-        <v>46</v>
       </c>
       <c r="C19" s="24">
         <v>1</v>
       </c>
       <c r="D19" s="24"/>
       <c r="E19" s="25">
-        <v>100.77673095348899</v>
+        <v>784.09999999999991</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20" s="23">
-        <v>64.77</v>
+        <v>46</v>
       </c>
       <c r="C20" s="24">
         <v>1</v>
@@ -1370,33 +1371,31 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="6">
-        <v>116.1</v>
-      </c>
-      <c r="C21" s="7">
-        <v>0.13183900000000001</v>
-      </c>
-      <c r="D21" s="7">
-        <v>2685.7068330000002</v>
-      </c>
-      <c r="E21" s="8">
-        <v>43.733333333333299</v>
+        <v>22</v>
+      </c>
+      <c r="B21" s="23">
+        <v>64.77</v>
+      </c>
+      <c r="C21" s="24">
+        <v>1</v>
+      </c>
+      <c r="D21" s="24"/>
+      <c r="E21" s="25">
+        <v>100.77673095348899</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B22" s="6">
-        <v>106.101586260687</v>
+        <v>116.1</v>
       </c>
       <c r="C22" s="7">
-        <v>0.12558656698194401</v>
+        <v>0.13183900000000001</v>
       </c>
       <c r="D22" s="7">
-        <v>444.928681619781</v>
+        <v>2685.7068330000002</v>
       </c>
       <c r="E22" s="8">
         <v>43.733333333333299</v>
@@ -1404,137 +1403,135 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="9">
-        <v>70.294916839916795</v>
+        <v>26</v>
+      </c>
+      <c r="B23" s="6">
+        <v>106.101586260687</v>
       </c>
       <c r="C23" s="7">
-        <v>1</v>
+        <v>0.12558656698194401</v>
       </c>
       <c r="D23" s="7">
-        <v>294.32481680873161</v>
-      </c>
-      <c r="E23" s="11">
-        <v>800</v>
+        <v>444.928681619781</v>
+      </c>
+      <c r="E23" s="8">
+        <v>43.733333333333299</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="6">
-        <v>103.2</v>
+        <v>27</v>
+      </c>
+      <c r="B24" s="9">
+        <v>70.294916839916795</v>
       </c>
       <c r="C24" s="7">
         <v>1</v>
       </c>
       <c r="D24" s="7">
-        <v>412.67072000000002</v>
-      </c>
-      <c r="E24" s="8">
+        <v>294.32481680873161</v>
+      </c>
+      <c r="E24" s="11">
         <v>800</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B25" s="6">
-        <v>46</v>
+        <v>103.2</v>
       </c>
       <c r="C25" s="7">
         <v>1</v>
       </c>
-      <c r="D25" s="24">
-        <f>B25*4.187</f>
-        <v>192.602</v>
+      <c r="D25" s="7">
+        <v>412.67072000000002</v>
       </c>
       <c r="E25" s="8">
         <v>800</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" s="23">
-        <v>113.44885655951498</v>
-      </c>
-      <c r="C26" s="24">
-        <v>9.4236E-2</v>
+      <c r="A26" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="6">
+        <v>46</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1</v>
       </c>
       <c r="D26" s="24">
-        <v>2639.4924500000002</v>
-      </c>
-      <c r="E26" s="25">
-        <v>32.141666666666602</v>
+        <f>B26*4.187</f>
+        <v>192.602</v>
+      </c>
+      <c r="E26" s="8">
+        <v>800</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="26" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B27" s="23">
-        <v>492.2</v>
+        <v>113.44885655951498</v>
       </c>
       <c r="C27" s="24">
-        <v>5.1989999999999998</v>
-      </c>
-      <c r="D27" s="24" t="e">
-        <f ca="1">[1]!PropsSI("H","T",B27+273.15,"P",C27*10^6,"Water")/1000</f>
-        <v>#NAME?</v>
+        <v>9.4236E-2</v>
+      </c>
+      <c r="D27" s="24">
+        <v>2639.4924500000002</v>
       </c>
       <c r="E27" s="25">
-        <v>41.97</v>
+        <v>32.141666666666602</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B28" s="23">
-        <v>210</v>
+        <v>492.2</v>
       </c>
       <c r="C28" s="24">
-        <v>0.54900000000000004</v>
+        <v>5.1989999999999998</v>
       </c>
       <c r="D28" s="24" t="e">
         <f ca="1">[1]!PropsSI("H","T",B28+273.15,"P",C28*10^6,"Water")/1000</f>
         <v>#NAME?</v>
       </c>
       <c r="E28" s="25">
-        <f>E27</f>
         <v>41.97</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B29" s="23">
-        <v>199.4</v>
+        <v>210</v>
       </c>
       <c r="C29" s="24">
-        <v>0.4</v>
+        <v>0.54900000000000004</v>
       </c>
       <c r="D29" s="24" t="e">
         <f ca="1">[1]!PropsSI("H","T",B29+273.15,"P",C29*10^6,"Water")/1000</f>
         <v>#NAME?</v>
       </c>
       <c r="E29" s="25">
-        <v>10.57</v>
+        <f>E28</f>
+        <v>41.97</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="26" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B30" s="23">
-        <v>78.16</v>
+        <v>199.4</v>
       </c>
       <c r="C30" s="24">
-        <f>C29</f>
         <v>0.4</v>
       </c>
       <c r="D30" s="24" t="e">
@@ -1542,76 +1539,79 @@
         <v>#NAME?</v>
       </c>
       <c r="E30" s="25">
-        <f>E29+E28</f>
-        <v>52.54</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>54</v>
+        <v>10.57</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="26" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B31" s="23">
-        <v>131.4</v>
+        <v>78.16</v>
       </c>
       <c r="C31" s="24">
-        <v>0.25419999999999998</v>
+        <f>C30</f>
+        <v>0.4</v>
       </c>
       <c r="D31" s="24" t="e">
         <f ca="1">[1]!PropsSI("H","T",B31+273.15,"P",C31*10^6,"Water")/1000</f>
         <v>#NAME?</v>
       </c>
       <c r="E31" s="25">
-        <f>E30</f>
+        <f>E30+E29</f>
         <v>52.54</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="23"/>
+        <v>36</v>
+      </c>
+      <c r="B32" s="23">
+        <v>131.4</v>
+      </c>
       <c r="C32" s="24">
-        <v>0.1525</v>
-      </c>
-      <c r="D32" s="24">
-        <v>2686.0161921187068</v>
+        <v>0.25419999999999998</v>
+      </c>
+      <c r="D32" s="24" t="e">
+        <f ca="1">[1]!PropsSI("H","T",B32+273.15,"P",C32*10^6,"Water")/1000</f>
+        <v>#NAME?</v>
       </c>
       <c r="E32" s="25">
-        <f t="shared" ref="E32:E34" si="0">E31</f>
+        <f>E31</f>
         <v>52.54</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B33" s="23"/>
       <c r="C33" s="24">
-        <f>C32</f>
         <v>0.1525</v>
       </c>
       <c r="D33" s="24">
-        <f>D32</f>
         <v>2686.0161921187068</v>
       </c>
       <c r="E33" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E33:E35" si="0">E32</f>
         <v>52.54</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B34" s="23"/>
       <c r="C34" s="24">
-        <v>1.6999999999999999E-3</v>
+        <f>C33</f>
+        <v>0.1525</v>
       </c>
       <c r="D34" s="24">
-        <v>2341.0014929676963</v>
+        <f>D33</f>
+        <v>2686.0161921187068</v>
       </c>
       <c r="E34" s="25">
         <f t="shared" si="0"/>
@@ -1619,39 +1619,55 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="B35" s="23">
-        <v>41.51</v>
-      </c>
+      <c r="A35" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="23"/>
       <c r="C35" s="24">
-        <v>8.0000000000000002E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="D35" s="24">
-        <v>173.9</v>
+        <v>2341.0014929676963</v>
       </c>
       <c r="E35" s="25">
-        <f>E34</f>
+        <f t="shared" si="0"/>
         <v>52.54</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B36" s="23">
         <v>41.51</v>
       </c>
       <c r="C36" s="24">
-        <f>C10</f>
-        <v>0.69640000000000002</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="D36" s="24">
         <v>173.9</v>
       </c>
       <c r="E36" s="25">
         <f>E35</f>
+        <v>52.54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B37" s="23">
+        <v>41.51</v>
+      </c>
+      <c r="C37" s="24">
+        <f>C11</f>
+        <v>0.69640000000000002</v>
+      </c>
+      <c r="D37" s="24">
+        <v>173.9</v>
+      </c>
+      <c r="E37" s="25">
+        <f>E36</f>
         <v>52.54</v>
       </c>
     </row>

--- a/streams.xlsx
+++ b/streams.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59CB9004-AEE5-424D-8F26-24207A691410}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9E50017-74FC-4100-8203-F9AE8D03E7EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14505" yWindow="-105" windowWidth="14625" windowHeight="25215" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14510" yWindow="-110" windowWidth="14620" windowHeight="25220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gas" sheetId="1" r:id="rId1"/>
@@ -14,10 +14,18 @@
   <externalReferences>
     <externalReference r:id="rId3"/>
   </externalReferences>
-  <calcPr calcId="191029" iterateCount="10"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -444,8 +452,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{BBD0C497-DE08-49F9-8F56-92FFA62AA48E}"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -743,23 +751,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="6"/>
-    <col min="3" max="4" width="9.140625" style="7"/>
-    <col min="5" max="5" width="9.140625" style="8"/>
-    <col min="6" max="6" width="9.140625" style="6"/>
-    <col min="7" max="9" width="9.140625" style="7"/>
-    <col min="10" max="10" width="9.140625" style="8"/>
-    <col min="11" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="1" width="14.81640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" style="6"/>
+    <col min="3" max="4" width="9.1796875" style="7"/>
+    <col min="5" max="5" width="9.1796875" style="8"/>
+    <col min="6" max="6" width="9.1796875" style="6"/>
+    <col min="7" max="9" width="9.1796875" style="7"/>
+    <col min="10" max="10" width="9.1796875" style="8"/>
+    <col min="11" max="16384" width="9.1796875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="3" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" s="3" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>6</v>
@@ -789,12 +797,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" s="27" t="s">
         <v>42</v>
       </c>
@@ -805,7 +813,7 @@
         <v>0.1</v>
       </c>
       <c r="D3" s="7">
-        <v>960</v>
+        <v>958.86919853128609</v>
       </c>
       <c r="E3" s="8">
         <v>503.8</v>
@@ -826,7 +834,7 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
@@ -837,7 +845,7 @@
         <v>0.1</v>
       </c>
       <c r="D4" s="7">
-        <v>950</v>
+        <v>958.86919853128609</v>
       </c>
       <c r="E4" s="22">
         <v>503.8</v>
@@ -858,7 +866,7 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>43</v>
       </c>
@@ -895,7 +903,7 @@
       <c r="N5" s="10"/>
       <c r="O5" s="10"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>44</v>
       </c>
@@ -927,7 +935,7 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="s">
         <v>45</v>
       </c>
@@ -959,7 +967,7 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15" t="s">
         <v>46</v>
       </c>
@@ -991,7 +999,7 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>47</v>
       </c>
@@ -1023,7 +1031,7 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>48</v>
       </c>
@@ -1055,7 +1063,7 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" ht="14.5" x14ac:dyDescent="0.35">
       <c r="R15" s="19"/>
     </row>
   </sheetData>
@@ -1067,21 +1075,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13792673-7A38-4CCB-80CF-EE250A0D6320}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="13" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="6"/>
-    <col min="3" max="3" width="9.140625" style="7"/>
-    <col min="4" max="4" width="11.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="8"/>
-    <col min="6" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="1" width="14.81640625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" style="6"/>
+    <col min="3" max="3" width="9.1796875" style="7"/>
+    <col min="4" max="4" width="11.453125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1796875" style="8"/>
+    <col min="6" max="16384" width="9.1796875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="3" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="12"/>
       <c r="B1" s="2" t="s">
         <v>6</v>
@@ -1102,12 +1110,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="26" t="s">
         <v>31</v>
       </c>
@@ -1124,7 +1132,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="14" t="s">
         <v>10</v>
       </c>
@@ -1141,7 +1149,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="14" t="s">
         <v>11</v>
       </c>
@@ -1158,7 +1166,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="14" t="s">
         <v>12</v>
       </c>
@@ -1175,7 +1183,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="14" t="s">
         <v>13</v>
       </c>
@@ -1192,7 +1200,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="26" t="s">
         <v>32</v>
       </c>
@@ -1209,7 +1217,7 @@
         <v>14.76</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="14" t="s">
         <v>14</v>
       </c>
@@ -1226,7 +1234,7 @@
         <v>14.76</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="14" t="s">
         <v>15</v>
       </c>
@@ -1243,7 +1251,7 @@
         <v>82.91</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="14" t="s">
         <v>52</v>
       </c>
@@ -1260,7 +1268,7 @@
         <v>82.91</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="14" t="s">
         <v>50</v>
       </c>
@@ -1277,7 +1285,7 @@
         <v>82.19</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="14" t="s">
         <v>51</v>
       </c>
@@ -1294,22 +1302,22 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="13" t="s">
         <v>19</v>
       </c>
@@ -1324,7 +1332,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="14" t="s">
         <v>20</v>
       </c>
@@ -1339,7 +1347,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="26" t="s">
         <v>49</v>
       </c>
@@ -1354,7 +1362,7 @@
         <v>784.09999999999991</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="14" t="s">
         <v>21</v>
       </c>
@@ -1369,7 +1377,7 @@
         <v>100.77673095348899</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="14" t="s">
         <v>22</v>
       </c>
@@ -1384,7 +1392,7 @@
         <v>100.77673095348899</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="14" t="s">
         <v>25</v>
       </c>
@@ -1401,7 +1409,7 @@
         <v>43.733333333333299</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="14" t="s">
         <v>26</v>
       </c>
@@ -1418,7 +1426,7 @@
         <v>43.733333333333299</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="14" t="s">
         <v>27</v>
       </c>
@@ -1435,7 +1443,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="14" t="s">
         <v>28</v>
       </c>
@@ -1452,7 +1460,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="14" t="s">
         <v>29</v>
       </c>
@@ -1470,7 +1478,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="26" t="s">
         <v>30</v>
       </c>
@@ -1487,7 +1495,7 @@
         <v>32.141666666666602</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="26" t="s">
         <v>33</v>
       </c>
@@ -1505,7 +1513,7 @@
         <v>41.97</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="26" t="s">
         <v>34</v>
       </c>
@@ -1524,7 +1532,7 @@
         <v>41.97</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="26" t="s">
         <v>35</v>
       </c>
@@ -1542,7 +1550,7 @@
         <v>10.57</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="26" t="s">
         <v>40</v>
       </c>
@@ -1565,7 +1573,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="26" t="s">
         <v>36</v>
       </c>
@@ -1584,7 +1592,7 @@
         <v>52.54</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="26" t="s">
         <v>37</v>
       </c>
@@ -1600,7 +1608,7 @@
         <v>52.54</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="26" t="s">
         <v>38</v>
       </c>
@@ -1618,7 +1626,7 @@
         <v>52.54</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="26" t="s">
         <v>39</v>
       </c>
@@ -1634,7 +1642,7 @@
         <v>52.54</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="13" t="s">
         <v>55</v>
       </c>
@@ -1652,7 +1660,7 @@
         <v>52.54</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="13" t="s">
         <v>56</v>
       </c>

--- a/streams.xlsx
+++ b/streams.xlsx
@@ -3,17 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9E50017-74FC-4100-8203-F9AE8D03E7EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE8CD24C-2256-4D41-9BE7-A6EE6FD56029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14510" yWindow="-110" windowWidth="14620" windowHeight="25220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14510" yWindow="-110" windowWidth="14620" windowHeight="25220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gas" sheetId="1" r:id="rId1"/>
     <sheet name="water" sheetId="2" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -212,7 +209,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -253,6 +250,13 @@
       <color rgb="FF000000"/>
       <name val="Courier New"/>
       <family val="3"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -364,7 +368,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -449,6 +453,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -466,24 +473,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet3"/>
-      <sheetName val="CoolProp"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="PropsSI"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -751,8 +740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -1073,10 +1062,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13792673-7A38-4CCB-80CF-EE250A0D6320}">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -1089,7 +1078,7 @@
     <col min="6" max="16384" width="9.1796875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="12"/>
       <c r="B1" s="2" t="s">
         <v>6</v>
@@ -1110,12 +1099,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="26" t="s">
         <v>31</v>
       </c>
@@ -1132,7 +1121,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="14" t="s">
         <v>10</v>
       </c>
@@ -1149,7 +1138,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="14" t="s">
         <v>11</v>
       </c>
@@ -1166,7 +1155,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="14" t="s">
         <v>12</v>
       </c>
@@ -1183,7 +1172,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="14" t="s">
         <v>13</v>
       </c>
@@ -1200,7 +1189,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="26" t="s">
         <v>32</v>
       </c>
@@ -1217,7 +1206,7 @@
         <v>14.76</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="14" t="s">
         <v>14</v>
       </c>
@@ -1234,7 +1223,7 @@
         <v>14.76</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="14" t="s">
         <v>15</v>
       </c>
@@ -1251,7 +1240,7 @@
         <v>82.91</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="14" x14ac:dyDescent="0.35">
       <c r="A11" s="14" t="s">
         <v>52</v>
       </c>
@@ -1267,8 +1256,9 @@
       <c r="E11" s="8">
         <v>82.91</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H11" s="29"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="14" t="s">
         <v>50</v>
       </c>
@@ -1285,7 +1275,7 @@
         <v>82.19</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="14" t="s">
         <v>51</v>
       </c>
@@ -1302,17 +1292,17 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="14" t="s">
         <v>18</v>
       </c>
@@ -1352,14 +1342,14 @@
         <v>49</v>
       </c>
       <c r="B19" s="23">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="C19" s="24">
         <v>1</v>
       </c>
       <c r="D19" s="24"/>
       <c r="E19" s="25">
-        <v>784.09999999999991</v>
+        <v>800</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
@@ -1397,13 +1387,13 @@
         <v>25</v>
       </c>
       <c r="B22" s="6">
-        <v>116.1</v>
+        <v>107.6</v>
       </c>
       <c r="C22" s="7">
-        <v>0.13183900000000001</v>
+        <v>0.13219638629678299</v>
       </c>
       <c r="D22" s="7">
-        <v>2685.7068330000002</v>
+        <v>2622.5496464962498</v>
       </c>
       <c r="E22" s="8">
         <v>43.733333333333299</v>
@@ -1448,7 +1438,7 @@
         <v>28</v>
       </c>
       <c r="B25" s="6">
-        <v>103.2</v>
+        <v>98.56</v>
       </c>
       <c r="C25" s="7">
         <v>1</v>
@@ -1465,14 +1455,13 @@
         <v>29</v>
       </c>
       <c r="B26" s="6">
-        <v>46</v>
+        <v>48.336070686070599</v>
       </c>
       <c r="C26" s="7">
         <v>1</v>
       </c>
       <c r="D26" s="24">
-        <f>B26*4.187</f>
-        <v>192.602</v>
+        <v>202.38312796257762</v>
       </c>
       <c r="E26" s="8">
         <v>800</v>
@@ -1483,13 +1472,13 @@
         <v>30</v>
       </c>
       <c r="B27" s="23">
-        <v>113.44885655951498</v>
+        <v>76</v>
       </c>
       <c r="C27" s="24">
-        <v>9.4236E-2</v>
+        <v>4.0238843925466602E-2</v>
       </c>
       <c r="D27" s="24">
-        <v>2639.4924500000002</v>
+        <v>2464.75601712861</v>
       </c>
       <c r="E27" s="25">
         <v>32.141666666666602</v>
@@ -1500,17 +1489,16 @@
         <v>33</v>
       </c>
       <c r="B28" s="23">
-        <v>492.2</v>
+        <v>508.6</v>
       </c>
       <c r="C28" s="24">
-        <v>5.1989999999999998</v>
-      </c>
-      <c r="D28" s="24" t="e">
-        <f ca="1">[1]!PropsSI("H","T",B28+273.15,"P",C28*10^6,"Water")/1000</f>
-        <v>#NAME?</v>
+        <v>7.8449999999999998</v>
+      </c>
+      <c r="D28" s="24">
+        <v>3422.525471918223</v>
       </c>
       <c r="E28" s="25">
-        <v>41.97</v>
+        <v>63.4</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
@@ -1518,18 +1506,16 @@
         <v>34</v>
       </c>
       <c r="B29" s="23">
-        <v>210</v>
+        <v>195.85257753389442</v>
       </c>
       <c r="C29" s="24">
         <v>0.54900000000000004</v>
       </c>
-      <c r="D29" s="24" t="e">
-        <f ca="1">[1]!PropsSI("H","T",B29+273.15,"P",C29*10^6,"Water")/1000</f>
-        <v>#NAME?</v>
+      <c r="D29" s="24">
+        <v>2844.2851295823216</v>
       </c>
       <c r="E29" s="25">
-        <f>E28</f>
-        <v>41.97</v>
+        <v>63.4</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
@@ -1537,17 +1523,16 @@
         <v>35</v>
       </c>
       <c r="B30" s="23">
-        <v>199.4</v>
+        <v>209.8</v>
       </c>
       <c r="C30" s="24">
-        <v>0.4</v>
-      </c>
-      <c r="D30" s="24" t="e">
-        <f ca="1">[1]!PropsSI("H","T",B30+273.15,"P",C30*10^6,"Water")/1000</f>
-        <v>#NAME?</v>
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="D30" s="24">
+        <v>2871.4269447672918</v>
       </c>
       <c r="E30" s="25">
-        <v>10.57</v>
+        <v>14.76</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
@@ -1555,19 +1540,16 @@
         <v>40</v>
       </c>
       <c r="B31" s="23">
+        <v>197.8</v>
+      </c>
+      <c r="C31" s="24">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="D31" s="24">
+        <v>2848.5216025782688</v>
+      </c>
+      <c r="E31" s="25">
         <v>78.16</v>
-      </c>
-      <c r="C31" s="24">
-        <f>C30</f>
-        <v>0.4</v>
-      </c>
-      <c r="D31" s="24" t="e">
-        <f ca="1">[1]!PropsSI("H","T",B31+273.15,"P",C31*10^6,"Water")/1000</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E31" s="25">
-        <f>E30+E29</f>
-        <v>52.54</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>54</v>
@@ -1583,13 +1565,11 @@
       <c r="C32" s="24">
         <v>0.25419999999999998</v>
       </c>
-      <c r="D32" s="24" t="e">
-        <f ca="1">[1]!PropsSI("H","T",B32+273.15,"P",C32*10^6,"Water")/1000</f>
-        <v>#NAME?</v>
+      <c r="D32" s="24">
+        <v>2724.8615334140964</v>
       </c>
       <c r="E32" s="25">
-        <f>E31</f>
-        <v>52.54</v>
+        <v>78.16</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
@@ -1601,11 +1581,10 @@
         <v>0.1525</v>
       </c>
       <c r="D33" s="24">
-        <v>2686.0161921187068</v>
+        <v>2652</v>
       </c>
       <c r="E33" s="25">
-        <f t="shared" ref="E33:E35" si="0">E32</f>
-        <v>52.54</v>
+        <v>78.16</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
@@ -1614,32 +1593,30 @@
       </c>
       <c r="B34" s="23"/>
       <c r="C34" s="24">
-        <f>C33</f>
         <v>0.1525</v>
       </c>
       <c r="D34" s="24">
-        <f>D33</f>
-        <v>2686.0161921187068</v>
+        <v>2652</v>
       </c>
       <c r="E34" s="25">
-        <f t="shared" si="0"/>
-        <v>52.54</v>
+        <v>78.16</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="23"/>
+      <c r="B35" s="23">
+        <v>41.51</v>
+      </c>
       <c r="C35" s="24">
-        <v>1.6999999999999999E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="D35" s="24">
-        <v>2341.0014929676963</v>
+        <v>2338.0245599904306</v>
       </c>
       <c r="E35" s="25">
-        <f t="shared" si="0"/>
-        <v>52.54</v>
+        <v>78.16</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
@@ -1656,8 +1633,7 @@
         <v>173.9</v>
       </c>
       <c r="E36" s="25">
-        <f>E35</f>
-        <v>52.54</v>
+        <v>78.16</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
@@ -1668,15 +1644,13 @@
         <v>41.51</v>
       </c>
       <c r="C37" s="24">
-        <f>C11</f>
         <v>0.69640000000000002</v>
       </c>
       <c r="D37" s="24">
         <v>173.9</v>
       </c>
       <c r="E37" s="25">
-        <f>E36</f>
-        <v>52.54</v>
+        <v>78.16</v>
       </c>
     </row>
   </sheetData>

--- a/streams.xlsx
+++ b/streams.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE8CD24C-2256-4D41-9BE7-A6EE6FD56029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D9D003C-85F8-4FC6-9363-8D655D17680D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-14510" yWindow="-110" windowWidth="14620" windowHeight="25220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1065,7 +1065,7 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -1112,7 +1112,7 @@
         <v>511.5</v>
       </c>
       <c r="C3" s="20">
-        <v>5.7469999999999999</v>
+        <v>8.407</v>
       </c>
       <c r="D3" s="7">
         <v>3423.2099783420958</v>
@@ -1197,7 +1197,7 @@
         <v>211.6</v>
       </c>
       <c r="C8" s="20">
-        <v>0.45700000000000002</v>
+        <v>0.69099999999999995</v>
       </c>
       <c r="D8" s="7">
         <v>2871.4818365716997</v>
@@ -1237,7 +1237,7 @@
         <v>695.4937008073166</v>
       </c>
       <c r="E10" s="8">
-        <v>82.91</v>
+        <v>78.16</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="14" x14ac:dyDescent="0.35">
@@ -1272,7 +1272,7 @@
         <v>251.74839576328077</v>
       </c>
       <c r="E12" s="8">
-        <v>82.19</v>
+        <v>82.91</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
@@ -1492,13 +1492,13 @@
         <v>508.6</v>
       </c>
       <c r="C28" s="24">
-        <v>7.8449999999999998</v>
+        <v>5.1989999999999998</v>
       </c>
       <c r="D28" s="24">
-        <v>3422.525471918223</v>
+        <v>3414.0936824129262</v>
       </c>
       <c r="E28" s="25">
-        <v>63.4</v>
+        <v>41.97</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
@@ -1526,13 +1526,13 @@
         <v>209.8</v>
       </c>
       <c r="C30" s="24">
-        <v>0.61099999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="D30" s="24">
-        <v>2871.4269447672918</v>
+        <v>2859.6691118398307</v>
       </c>
       <c r="E30" s="25">
-        <v>14.76</v>
+        <v>10.57</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">

--- a/streams.xlsx
+++ b/streams.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D9D003C-85F8-4FC6-9363-8D655D17680D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D529BF2B-DD49-4C90-88AC-D752E9DC69D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-14510" yWindow="-110" windowWidth="14620" windowHeight="25220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1062,10 +1062,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13792673-7A38-4CCB-80CF-EE250A0D6320}">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -1349,7 +1349,7 @@
       </c>
       <c r="D19" s="24"/>
       <c r="E19" s="25">
-        <v>800</v>
+        <v>600</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
@@ -1498,7 +1498,7 @@
         <v>3414.0936824129262</v>
       </c>
       <c r="E28" s="25">
-        <v>41.97</v>
+        <v>63.4</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
@@ -1532,7 +1532,7 @@
         <v>2859.6691118398307</v>
       </c>
       <c r="E30" s="25">
-        <v>10.57</v>
+        <v>14.76</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
@@ -1572,7 +1572,7 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="26" t="s">
         <v>37</v>
       </c>
@@ -1587,7 +1587,7 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="26" t="s">
         <v>38</v>
       </c>
@@ -1602,7 +1602,7 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="26" t="s">
         <v>39</v>
       </c>
@@ -1619,7 +1619,7 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="13" t="s">
         <v>55</v>
       </c>
@@ -1636,7 +1636,7 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="13" t="s">
         <v>56</v>
       </c>
@@ -1651,6 +1651,38 @@
       </c>
       <c r="E37" s="25">
         <v>78.16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="H39">
+        <v>78.16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="H41">
+        <v>44.578831000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H44" s="7">
+        <f>H39-H48</f>
+        <v>44.578831343666195</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H45" s="7">
+        <f>H44-H52</f>
+        <v>2.3587976046132937</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="14" x14ac:dyDescent="0.35">
+      <c r="H48" s="29">
+        <v>33.581168656333801</v>
+      </c>
+    </row>
+    <row r="52" spans="8:8" ht="14" x14ac:dyDescent="0.35">
+      <c r="H52" s="29">
+        <v>42.220033739052901</v>
       </c>
     </row>
   </sheetData>

--- a/streams.xlsx
+++ b/streams.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D529BF2B-DD49-4C90-88AC-D752E9DC69D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{538F2E7A-EA4B-486C-87EB-71FE9E070336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-14510" yWindow="-110" windowWidth="14620" windowHeight="25220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="57">
   <si>
     <t>GTU-PEVD</t>
   </si>
@@ -191,9 +191,6 @@
   </si>
   <si>
     <t>X</t>
-  </si>
-  <si>
-    <t>0,02323321</t>
   </si>
   <si>
     <t>KOND-KN</t>
@@ -788,7 +785,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
@@ -1064,7 +1061,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13792673-7A38-4CCB-80CF-EE250A0D6320}">
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
@@ -1101,7 +1098,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -1307,7 +1304,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="13" t="s">
         <v>19</v>
       </c>
@@ -1322,7 +1319,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="14" t="s">
         <v>20</v>
       </c>
@@ -1337,7 +1334,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="26" t="s">
         <v>49</v>
       </c>
@@ -1349,10 +1346,10 @@
       </c>
       <c r="D19" s="24"/>
       <c r="E19" s="25">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="14" t="s">
         <v>21</v>
       </c>
@@ -1367,7 +1364,7 @@
         <v>100.77673095348899</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="14" t="s">
         <v>22</v>
       </c>
@@ -1382,7 +1379,7 @@
         <v>100.77673095348899</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="14" t="s">
         <v>25</v>
       </c>
@@ -1399,7 +1396,7 @@
         <v>43.733333333333299</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="14" t="s">
         <v>26</v>
       </c>
@@ -1416,7 +1413,7 @@
         <v>43.733333333333299</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="14" t="s">
         <v>27</v>
       </c>
@@ -1433,12 +1430,12 @@
         <v>800</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="6">
-        <v>98.56</v>
+      <c r="B25" s="9">
+        <v>99.4</v>
       </c>
       <c r="C25" s="7">
         <v>1</v>
@@ -1450,7 +1447,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="14" t="s">
         <v>29</v>
       </c>
@@ -1467,7 +1464,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="26" t="s">
         <v>30</v>
       </c>
@@ -1484,7 +1481,7 @@
         <v>32.141666666666602</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="26" t="s">
         <v>33</v>
       </c>
@@ -1501,7 +1498,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="26" t="s">
         <v>34</v>
       </c>
@@ -1518,7 +1515,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="26" t="s">
         <v>35</v>
       </c>
@@ -1535,7 +1532,7 @@
         <v>14.76</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="26" t="s">
         <v>40</v>
       </c>
@@ -1551,11 +1548,8 @@
       <c r="E31" s="25">
         <v>78.16</v>
       </c>
-      <c r="G31" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="26" t="s">
         <v>36</v>
       </c>
@@ -1610,7 +1604,7 @@
         <v>41.51</v>
       </c>
       <c r="C35" s="24">
-        <v>8.0000000000000002E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="D35" s="24">
         <v>2338.0245599904306</v>
@@ -1621,7 +1615,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B36" s="23">
         <v>41.51</v>
@@ -1638,7 +1632,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B37" s="23">
         <v>41.51</v>
@@ -1654,36 +1648,16 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="H39">
-        <v>78.16</v>
-      </c>
+      <c r="H39"/>
     </row>
     <row r="41" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="H41">
-        <v>44.578831000000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="H44" s="7">
-        <f>H39-H48</f>
-        <v>44.578831343666195</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="H45" s="7">
-        <f>H44-H52</f>
-        <v>2.3587976046132937</v>
-      </c>
+      <c r="H41"/>
     </row>
     <row r="48" spans="1:8" ht="14" x14ac:dyDescent="0.35">
-      <c r="H48" s="29">
-        <v>33.581168656333801</v>
-      </c>
+      <c r="H48" s="29"/>
     </row>
     <row r="52" spans="8:8" ht="14" x14ac:dyDescent="0.35">
-      <c r="H52" s="29">
-        <v>42.220033739052901</v>
-      </c>
+      <c r="H52" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/streams.xlsx
+++ b/streams.xlsx
@@ -1,28 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{538F2E7A-EA4B-486C-87EB-71FE9E070336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7DB8D78-8D56-45E1-A208-3811FA23AC53}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14510" yWindow="-110" windowWidth="14620" windowHeight="25220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14505" yWindow="-105" windowWidth="14625" windowHeight="25215" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gas" sheetId="1" r:id="rId1"/>
     <sheet name="water" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -456,8 +448,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{BBD0C497-DE08-49F9-8F56-92FFA62AA48E}"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -741,19 +733,19 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" style="6"/>
-    <col min="3" max="4" width="9.1796875" style="7"/>
-    <col min="5" max="5" width="9.1796875" style="8"/>
-    <col min="6" max="6" width="9.1796875" style="6"/>
-    <col min="7" max="9" width="9.1796875" style="7"/>
-    <col min="10" max="10" width="9.1796875" style="8"/>
-    <col min="11" max="16384" width="9.1796875" style="7"/>
+    <col min="1" max="1" width="14.85546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="6"/>
+    <col min="3" max="4" width="9.140625" style="7"/>
+    <col min="5" max="5" width="9.140625" style="8"/>
+    <col min="6" max="6" width="9.140625" style="6"/>
+    <col min="7" max="9" width="9.140625" style="7"/>
+    <col min="10" max="10" width="9.140625" style="8"/>
+    <col min="11" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="3" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:18" s="3" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>6</v>
@@ -783,12 +775,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
         <v>42</v>
       </c>
@@ -820,7 +812,7 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
@@ -852,7 +844,7 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>43</v>
       </c>
@@ -889,7 +881,7 @@
       <c r="N5" s="10"/>
       <c r="O5" s="10"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>44</v>
       </c>
@@ -921,7 +913,7 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>45</v>
       </c>
@@ -953,7 +945,7 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>46</v>
       </c>
@@ -985,7 +977,7 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>47</v>
       </c>
@@ -1017,7 +1009,7 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>48</v>
       </c>
@@ -1049,7 +1041,7 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="R15" s="19"/>
     </row>
   </sheetData>
@@ -1061,21 +1053,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13792673-7A38-4CCB-80CF-EE250A0D6320}">
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" style="6"/>
-    <col min="3" max="3" width="9.1796875" style="7"/>
-    <col min="4" max="4" width="11.453125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.1796875" style="8"/>
-    <col min="6" max="16384" width="9.1796875" style="7"/>
+    <col min="1" max="1" width="14.85546875" style="13" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="6"/>
+    <col min="3" max="3" width="9.140625" style="7"/>
+    <col min="4" max="4" width="11.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="8"/>
+    <col min="6" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12"/>
       <c r="B1" s="2" t="s">
         <v>6</v>
@@ -1096,12 +1088,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B2" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>31</v>
       </c>
@@ -1118,7 +1113,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>10</v>
       </c>
@@ -1135,7 +1130,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>11</v>
       </c>
@@ -1152,7 +1147,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>12</v>
       </c>
@@ -1169,7 +1164,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>13</v>
       </c>
@@ -1186,7 +1181,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
         <v>32</v>
       </c>
@@ -1203,7 +1198,7 @@
         <v>14.76</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>14</v>
       </c>
@@ -1220,7 +1215,7 @@
         <v>14.76</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>15</v>
       </c>
@@ -1237,7 +1232,7 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>52</v>
       </c>
@@ -1255,7 +1250,7 @@
       </c>
       <c r="H11" s="29"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>50</v>
       </c>
@@ -1272,7 +1267,7 @@
         <v>82.91</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>51</v>
       </c>
@@ -1289,22 +1284,22 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>19</v>
       </c>
@@ -1319,7 +1314,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>20</v>
       </c>
@@ -1334,7 +1329,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
         <v>49</v>
       </c>
@@ -1349,7 +1344,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>21</v>
       </c>
@@ -1364,7 +1359,7 @@
         <v>100.77673095348899</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>22</v>
       </c>
@@ -1379,7 +1374,7 @@
         <v>100.77673095348899</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>25</v>
       </c>
@@ -1396,7 +1391,7 @@
         <v>43.733333333333299</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>26</v>
       </c>
@@ -1413,7 +1408,7 @@
         <v>43.733333333333299</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>27</v>
       </c>
@@ -1430,7 +1425,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>28</v>
       </c>
@@ -1447,7 +1442,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>29</v>
       </c>
@@ -1464,7 +1459,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="26" t="s">
         <v>30</v>
       </c>
@@ -1481,7 +1476,7 @@
         <v>32.141666666666602</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="26" t="s">
         <v>33</v>
       </c>
@@ -1498,7 +1493,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="26" t="s">
         <v>34</v>
       </c>
@@ -1515,7 +1510,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="26" t="s">
         <v>35</v>
       </c>
@@ -1532,7 +1527,7 @@
         <v>14.76</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="26" t="s">
         <v>40</v>
       </c>
@@ -1549,7 +1544,7 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="26" t="s">
         <v>36</v>
       </c>
@@ -1566,7 +1561,7 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="26" t="s">
         <v>37</v>
       </c>
@@ -1581,7 +1576,7 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="26" t="s">
         <v>38</v>
       </c>
@@ -1596,7 +1591,7 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="26" t="s">
         <v>39</v>
       </c>
@@ -1613,7 +1608,7 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>54</v>
       </c>
@@ -1630,7 +1625,7 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
         <v>55</v>
       </c>
@@ -1647,16 +1642,16 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="H39"/>
     </row>
-    <row r="41" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="H41"/>
     </row>
-    <row r="48" spans="1:8" ht="14" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="H48" s="29"/>
     </row>
-    <row r="52" spans="8:8" ht="14" x14ac:dyDescent="0.35">
+    <row r="52" spans="8:8" ht="15" x14ac:dyDescent="0.25">
       <c r="H52" s="29"/>
     </row>
   </sheetData>

--- a/streams.xlsx
+++ b/streams.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7DB8D78-8D56-45E1-A208-3811FA23AC53}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA247C5-9FEA-48FE-B647-341689C3F16A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14505" yWindow="-105" windowWidth="14625" windowHeight="25215" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14510" yWindow="-110" windowWidth="14620" windowHeight="25220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gas" sheetId="1" r:id="rId1"/>
     <sheet name="water" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -448,8 +448,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{BBD0C497-DE08-49F9-8F56-92FFA62AA48E}"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -733,19 +733,19 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="6"/>
-    <col min="3" max="4" width="9.140625" style="7"/>
-    <col min="5" max="5" width="9.140625" style="8"/>
-    <col min="6" max="6" width="9.140625" style="6"/>
-    <col min="7" max="9" width="9.140625" style="7"/>
-    <col min="10" max="10" width="9.140625" style="8"/>
-    <col min="11" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="1" width="14.81640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" style="6"/>
+    <col min="3" max="4" width="9.1796875" style="7"/>
+    <col min="5" max="5" width="9.1796875" style="8"/>
+    <col min="6" max="6" width="9.1796875" style="6"/>
+    <col min="7" max="9" width="9.1796875" style="7"/>
+    <col min="10" max="10" width="9.1796875" style="8"/>
+    <col min="11" max="16384" width="9.1796875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="3" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" s="3" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>6</v>
@@ -775,12 +775,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" s="27" t="s">
         <v>42</v>
       </c>
@@ -812,7 +812,7 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
@@ -844,7 +844,7 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>43</v>
       </c>
@@ -881,7 +881,7 @@
       <c r="N5" s="10"/>
       <c r="O5" s="10"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>44</v>
       </c>
@@ -913,7 +913,7 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="s">
         <v>45</v>
       </c>
@@ -945,7 +945,7 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15" t="s">
         <v>46</v>
       </c>
@@ -977,7 +977,7 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>47</v>
       </c>
@@ -1009,7 +1009,7 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>48</v>
       </c>
@@ -1041,7 +1041,7 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" ht="14.5" x14ac:dyDescent="0.35">
       <c r="R15" s="19"/>
     </row>
   </sheetData>
@@ -1054,20 +1054,20 @@
   <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="13" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="6"/>
-    <col min="3" max="3" width="9.140625" style="7"/>
-    <col min="4" max="4" width="11.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="8"/>
-    <col min="6" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="1" width="14.81640625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" style="6"/>
+    <col min="3" max="3" width="9.1796875" style="7"/>
+    <col min="4" max="4" width="11.453125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1796875" style="8"/>
+    <col min="6" max="16384" width="9.1796875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="12"/>
       <c r="B1" s="2" t="s">
         <v>6</v>
@@ -1088,7 +1088,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
         <v>56</v>
       </c>
@@ -1096,7 +1096,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="26" t="s">
         <v>31</v>
       </c>
@@ -1113,7 +1113,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="14" t="s">
         <v>10</v>
       </c>
@@ -1130,7 +1130,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="14" t="s">
         <v>11</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="14" t="s">
         <v>12</v>
       </c>
@@ -1164,7 +1164,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="14" t="s">
         <v>13</v>
       </c>
@@ -1181,7 +1181,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="26" t="s">
         <v>32</v>
       </c>
@@ -1198,7 +1198,7 @@
         <v>14.76</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="14" t="s">
         <v>14</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>14.76</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="14" t="s">
         <v>15</v>
       </c>
@@ -1232,7 +1232,7 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="14" x14ac:dyDescent="0.35">
       <c r="A11" s="14" t="s">
         <v>52</v>
       </c>
@@ -1250,7 +1250,7 @@
       </c>
       <c r="H11" s="29"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="14" t="s">
         <v>50</v>
       </c>
@@ -1267,7 +1267,7 @@
         <v>82.91</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="14" t="s">
         <v>51</v>
       </c>
@@ -1284,22 +1284,22 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="13" t="s">
         <v>19</v>
       </c>
@@ -1314,7 +1314,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="14" t="s">
         <v>20</v>
       </c>
@@ -1329,22 +1329,22 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="26" t="s">
         <v>49</v>
       </c>
       <c r="B19" s="23">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="C19" s="24">
         <v>1</v>
       </c>
       <c r="D19" s="24"/>
       <c r="E19" s="25">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="14" t="s">
         <v>21</v>
       </c>
@@ -1359,7 +1359,7 @@
         <v>100.77673095348899</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="14" t="s">
         <v>22</v>
       </c>
@@ -1374,7 +1374,7 @@
         <v>100.77673095348899</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="14" t="s">
         <v>25</v>
       </c>
@@ -1391,7 +1391,7 @@
         <v>43.733333333333299</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="14" t="s">
         <v>26</v>
       </c>
@@ -1408,7 +1408,7 @@
         <v>43.733333333333299</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="14" t="s">
         <v>27</v>
       </c>
@@ -1425,12 +1425,12 @@
         <v>800</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="14" t="s">
         <v>28</v>
       </c>
       <c r="B25" s="9">
-        <v>99.4</v>
+        <v>120</v>
       </c>
       <c r="C25" s="7">
         <v>1</v>
@@ -1442,7 +1442,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="14" t="s">
         <v>29</v>
       </c>
@@ -1459,7 +1459,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="26" t="s">
         <v>30</v>
       </c>
@@ -1476,7 +1476,7 @@
         <v>32.141666666666602</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="26" t="s">
         <v>33</v>
       </c>
@@ -1493,7 +1493,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="26" t="s">
         <v>34</v>
       </c>
@@ -1510,7 +1510,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="26" t="s">
         <v>35</v>
       </c>
@@ -1527,7 +1527,7 @@
         <v>14.76</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="26" t="s">
         <v>40</v>
       </c>
@@ -1544,7 +1544,7 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="26" t="s">
         <v>36</v>
       </c>
@@ -1561,7 +1561,7 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="26" t="s">
         <v>37</v>
       </c>
@@ -1576,7 +1576,7 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="26" t="s">
         <v>38</v>
       </c>
@@ -1591,7 +1591,7 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="26" t="s">
         <v>39</v>
       </c>
@@ -1608,7 +1608,7 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="13" t="s">
         <v>54</v>
       </c>
@@ -1625,7 +1625,7 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="13" t="s">
         <v>55</v>
       </c>
@@ -1642,16 +1642,16 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="H39"/>
     </row>
-    <row r="41" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="H41"/>
     </row>
-    <row r="48" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="14" x14ac:dyDescent="0.35">
       <c r="H48" s="29"/>
     </row>
-    <row r="52" spans="8:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="8:8" ht="14" x14ac:dyDescent="0.35">
       <c r="H52" s="29"/>
     </row>
   </sheetData>

--- a/streams.xlsx
+++ b/streams.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA247C5-9FEA-48FE-B647-341689C3F16A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8022FA70-A078-4FA0-8F78-0DA99E7A7571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-14510" yWindow="-110" windowWidth="14620" windowHeight="25220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,6 +15,14 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1054,7 +1062,7 @@
   <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -1334,14 +1342,14 @@
         <v>49</v>
       </c>
       <c r="B19" s="23">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="C19" s="24">
         <v>1</v>
       </c>
       <c r="D19" s="24"/>
       <c r="E19" s="25">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
@@ -1430,7 +1438,7 @@
         <v>28</v>
       </c>
       <c r="B25" s="9">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="C25" s="7">
         <v>1</v>

--- a/streams.xlsx
+++ b/streams.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8022FA70-A078-4FA0-8F78-0DA99E7A7571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FAA57F3-73E5-4E5D-8EAF-FE6D5ED80CE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-14510" yWindow="-110" windowWidth="14620" windowHeight="25220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1062,7 +1062,7 @@
   <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -1349,7 +1349,7 @@
       </c>
       <c r="D19" s="24"/>
       <c r="E19" s="25">
-        <v>800</v>
+        <v>650</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">

--- a/streams.xlsx
+++ b/streams.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FAA57F3-73E5-4E5D-8EAF-FE6D5ED80CE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{314BAD61-8DB6-445D-98FF-9A05F718676E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-14510" yWindow="-110" windowWidth="14620" windowHeight="25220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1062,7 +1062,7 @@
   <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.35"/>

--- a/streams.xlsx
+++ b/streams.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{314BAD61-8DB6-445D-98FF-9A05F718676E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B2BADF-A15E-411B-8C8C-36225CFFE987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-14510" yWindow="-110" windowWidth="14620" windowHeight="25220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1062,7 +1062,7 @@
   <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -1349,7 +1349,7 @@
       </c>
       <c r="D19" s="24"/>
       <c r="E19" s="25">
-        <v>650</v>
+        <v>450</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">

--- a/streams.xlsx
+++ b/streams.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B2BADF-A15E-411B-8C8C-36225CFFE987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D82E04-EA78-4581-A3DA-DCACA0C3A632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-14510" yWindow="-110" windowWidth="14620" windowHeight="25220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1349,7 +1349,7 @@
       </c>
       <c r="D19" s="24"/>
       <c r="E19" s="25">
-        <v>450</v>
+        <v>800</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">

--- a/streams.xlsx
+++ b/streams.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D82E04-EA78-4581-A3DA-DCACA0C3A632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4FFD484-564A-4244-B9CF-DF61F33C9493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14510" yWindow="-110" windowWidth="14620" windowHeight="25220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="16440" windowHeight="28440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gas" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="63">
   <si>
     <t>GTU-PEVD</t>
   </si>
@@ -200,13 +200,31 @@
   </si>
   <si>
     <t>AIR</t>
+  </si>
+  <si>
+    <t>SP2-ASW</t>
+  </si>
+  <si>
+    <t>ASW-OD</t>
+  </si>
+  <si>
+    <t>было</t>
+  </si>
+  <si>
+    <t>погрешность на 8,8С</t>
+  </si>
+  <si>
+    <t>погрешность на 0.12С</t>
+  </si>
+  <si>
+    <t>погрешность на 0.2С</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -257,7 +275,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -267,6 +285,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -365,7 +389,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -391,9 +415,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -454,10 +475,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{BBD0C497-DE08-49F9-8F56-92FFA62AA48E}"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -741,19 +768,19 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" style="6"/>
-    <col min="3" max="4" width="9.1796875" style="7"/>
-    <col min="5" max="5" width="9.1796875" style="8"/>
-    <col min="6" max="6" width="9.1796875" style="6"/>
-    <col min="7" max="9" width="9.1796875" style="7"/>
-    <col min="10" max="10" width="9.1796875" style="8"/>
-    <col min="11" max="16384" width="9.1796875" style="7"/>
+    <col min="1" max="1" width="14.85546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="6"/>
+    <col min="3" max="4" width="9.140625" style="7"/>
+    <col min="5" max="5" width="9.140625" style="8"/>
+    <col min="6" max="6" width="9.140625" style="6"/>
+    <col min="7" max="9" width="9.140625" style="7"/>
+    <col min="10" max="10" width="9.140625" style="8"/>
+    <col min="11" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="3" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:18" s="3" customFormat="1" ht="13.5" thickBot="1">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>6</v>
@@ -783,13 +810,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18">
       <c r="A2" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A3" s="27" t="s">
+    <row r="3" spans="1:18">
+      <c r="A3" s="26" t="s">
         <v>42</v>
       </c>
       <c r="B3" s="6">
@@ -820,39 +847,39 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18">
       <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4" s="20">
         <v>542.1</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="19">
         <v>0.1</v>
       </c>
       <c r="D4" s="7">
         <v>958.86919853128609</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="21">
         <v>503.8</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="20">
         <v>0.78029999999999999</v>
       </c>
-      <c r="G4" s="20">
+      <c r="G4" s="19">
         <v>0.1237</v>
       </c>
-      <c r="H4" s="20">
+      <c r="H4" s="19">
         <v>3.0099999999999998E-2</v>
       </c>
-      <c r="I4" s="20">
+      <c r="I4" s="19">
         <v>5.9400000000000001E-2</v>
       </c>
-      <c r="J4" s="22">
+      <c r="J4" s="21">
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18">
       <c r="A5" s="5" t="s">
         <v>43</v>
       </c>
@@ -883,13 +910,13 @@
       <c r="J5" s="8">
         <v>6.4999999999999997E-3</v>
       </c>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="5" t="s">
         <v>44</v>
       </c>
@@ -921,8 +948,8 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="15" t="s">
+    <row r="7" spans="1:18" s="16" customFormat="1">
+      <c r="A7" s="14" t="s">
         <v>45</v>
       </c>
       <c r="B7" s="6">
@@ -937,24 +964,24 @@
       <c r="E7" s="8">
         <v>503.8</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="15">
         <v>0.78029999999999999</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="16">
         <v>0.1237</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7" s="16">
         <v>3.0099999999999998E-2</v>
       </c>
-      <c r="I7" s="17">
+      <c r="I7" s="16">
         <v>5.9400000000000001E-2</v>
       </c>
-      <c r="J7" s="18">
+      <c r="J7" s="17">
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="15" t="s">
+    <row r="8" spans="1:18" s="16" customFormat="1">
+      <c r="A8" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B8" s="6">
@@ -969,23 +996,23 @@
       <c r="E8" s="8">
         <v>503.8</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="15">
         <v>0.78029999999999999</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="16">
         <v>0.1237</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8" s="16">
         <v>3.0099999999999998E-2</v>
       </c>
-      <c r="I8" s="17">
+      <c r="I8" s="16">
         <v>5.9400000000000001E-2</v>
       </c>
-      <c r="J8" s="18">
+      <c r="J8" s="17">
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18">
       <c r="A9" s="5" t="s">
         <v>47</v>
       </c>
@@ -1017,7 +1044,7 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18">
       <c r="A10" s="5" t="s">
         <v>48</v>
       </c>
@@ -1049,8 +1076,8 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="R15" s="19"/>
+    <row r="15" spans="1:18" ht="15">
+      <c r="R15" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1059,24 +1086,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13792673-7A38-4CCB-80CF-EE250A0D6320}">
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" style="6"/>
-    <col min="3" max="3" width="9.1796875" style="7"/>
-    <col min="4" max="4" width="11.453125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.1796875" style="8"/>
-    <col min="6" max="16384" width="9.1796875" style="7"/>
+    <col min="1" max="1" width="14.85546875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="6"/>
+    <col min="3" max="3" width="9.140625" style="7"/>
+    <col min="4" max="4" width="11.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="8"/>
+    <col min="6" max="6" width="21.5703125" style="7" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="12"/>
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="13.5" thickBot="1">
+      <c r="A1" s="11"/>
       <c r="B1" s="2" t="s">
         <v>6</v>
       </c>
@@ -1096,22 +1124,22 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="28" t="s">
+    <row r="2" spans="1:8">
+      <c r="A2" s="27" t="s">
         <v>56</v>
       </c>
       <c r="B2" s="6">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="26" t="s">
+    <row r="3" spans="1:8">
+      <c r="A3" s="25" t="s">
         <v>31</v>
       </c>
       <c r="B3" s="6">
         <v>511.5</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="19">
         <v>8.407</v>
       </c>
       <c r="D3" s="7">
@@ -1121,8 +1149,8 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="14" t="s">
+    <row r="4" spans="1:8">
+      <c r="A4" s="13" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="6">
@@ -1138,8 +1166,8 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="14" t="s">
+    <row r="5" spans="1:8">
+      <c r="A5" s="13" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="6">
@@ -1155,8 +1183,8 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="14" t="s">
+    <row r="6" spans="1:8">
+      <c r="A6" s="13" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="6">
@@ -1172,8 +1200,8 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="14" t="s">
+    <row r="7" spans="1:8">
+      <c r="A7" s="13" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="6">
@@ -1189,14 +1217,14 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="26" t="s">
+    <row r="8" spans="1:8">
+      <c r="A8" s="25" t="s">
         <v>32</v>
       </c>
       <c r="B8" s="6">
         <v>211.6</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="19">
         <v>0.69099999999999995</v>
       </c>
       <c r="D8" s="7">
@@ -1206,8 +1234,8 @@
         <v>14.76</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="14" t="s">
+    <row r="9" spans="1:8">
+      <c r="A9" s="13" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="6">
@@ -1223,8 +1251,8 @@
         <v>14.76</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="14" t="s">
+    <row r="10" spans="1:8">
+      <c r="A10" s="13" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="6">
@@ -1240,8 +1268,8 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="14" x14ac:dyDescent="0.35">
-      <c r="A11" s="14" t="s">
+    <row r="11" spans="1:8">
+      <c r="A11" s="13" t="s">
         <v>52</v>
       </c>
       <c r="B11" s="6">
@@ -1256,13 +1284,13 @@
       <c r="E11" s="8">
         <v>82.91</v>
       </c>
-      <c r="H11" s="29"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="14" t="s">
+      <c r="H11" s="28"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="21">
+      <c r="B12" s="20">
         <v>60</v>
       </c>
       <c r="C12" s="7">
@@ -1275,8 +1303,8 @@
         <v>82.91</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="14" t="s">
+    <row r="13" spans="1:8">
+      <c r="A13" s="13" t="s">
         <v>51</v>
       </c>
       <c r="B13" s="7">
@@ -1292,98 +1320,98 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="14" t="s">
+    <row r="14" spans="1:8">
+      <c r="A14" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="14" t="s">
+    <row r="15" spans="1:8">
+      <c r="A15" s="13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="14" t="s">
+    <row r="16" spans="1:8">
+      <c r="A16" s="13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="13" t="s">
+    <row r="17" spans="1:9">
+      <c r="A17" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="24">
+      <c r="C17" s="23">
         <v>3.8226901700000003E-2</v>
       </c>
-      <c r="D17" s="24"/>
-      <c r="E17" s="25" t="s">
+      <c r="D17" s="23"/>
+      <c r="E17" s="24" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="14" t="s">
+    <row r="18" spans="1:9">
+      <c r="A18" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="23">
+      <c r="B18" s="22">
         <v>49.839511130751802</v>
       </c>
-      <c r="C18" s="24">
+      <c r="C18" s="23">
         <v>3.8226901700000003E-2</v>
       </c>
-      <c r="D18" s="24"/>
-      <c r="E18" s="25" t="s">
+      <c r="D18" s="23"/>
+      <c r="E18" s="24" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="26" t="s">
+    <row r="19" spans="1:9">
+      <c r="A19" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="23">
+      <c r="B19" s="22">
         <v>46</v>
       </c>
-      <c r="C19" s="24">
+      <c r="C19" s="23">
         <v>1</v>
       </c>
-      <c r="D19" s="24"/>
-      <c r="E19" s="25">
+      <c r="D19" s="23"/>
+      <c r="E19" s="24">
         <v>800</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="14" t="s">
+    <row r="20" spans="1:9">
+      <c r="A20" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="23">
+      <c r="B20" s="22">
         <v>46</v>
       </c>
-      <c r="C20" s="24">
+      <c r="C20" s="23">
         <v>1</v>
       </c>
-      <c r="D20" s="24"/>
-      <c r="E20" s="25">
+      <c r="D20" s="23"/>
+      <c r="E20" s="24">
         <v>100.77673095348899</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="14" t="s">
+    <row r="21" spans="1:9">
+      <c r="A21" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="23">
+      <c r="B21" s="22">
         <v>64.77</v>
       </c>
-      <c r="C21" s="24">
+      <c r="C21" s="23">
         <v>1</v>
       </c>
-      <c r="D21" s="24"/>
-      <c r="E21" s="25">
+      <c r="D21" s="23"/>
+      <c r="E21" s="24">
         <v>100.77673095348899</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="14" t="s">
+    <row r="22" spans="1:9">
+      <c r="A22" s="13" t="s">
         <v>25</v>
       </c>
       <c r="B22" s="6">
@@ -1399,8 +1427,8 @@
         <v>43.733333333333299</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="14" t="s">
+    <row r="23" spans="1:9">
+      <c r="A23" s="13" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="6">
@@ -1416,42 +1444,54 @@
         <v>43.733333333333299</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="14" t="s">
+    <row r="24" spans="1:9">
+      <c r="A24" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B24" s="29">
         <v>70.294916839916795</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="30">
         <v>1</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="30">
         <v>294.32481680873161</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="10">
         <v>800</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="14" t="s">
+      <c r="F24" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="9">
+      <c r="B25" s="29">
         <v>90</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="30">
         <v>1</v>
       </c>
-      <c r="D25" s="7">
-        <v>412.67072000000002</v>
+      <c r="D25" s="30">
+        <v>377.75</v>
       </c>
       <c r="E25" s="8">
         <v>800</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="14" t="s">
+      <c r="F25" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H25" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="I25" s="30">
+        <v>412.67072000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="13" t="s">
         <v>29</v>
       </c>
       <c r="B26" s="6">
@@ -1460,207 +1500,218 @@
       <c r="C26" s="7">
         <v>1</v>
       </c>
-      <c r="D26" s="24">
+      <c r="D26" s="23">
         <v>202.38312796257762</v>
       </c>
       <c r="E26" s="8">
         <v>800</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="26" t="s">
+      <c r="F26" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="23">
+      <c r="B27" s="22">
         <v>76</v>
       </c>
-      <c r="C27" s="24">
+      <c r="C27" s="23">
         <v>4.0238843925466602E-2</v>
       </c>
-      <c r="D27" s="24">
+      <c r="D27" s="23">
         <v>2464.75601712861</v>
       </c>
-      <c r="E27" s="25">
+      <c r="E27" s="24">
         <v>32.141666666666602</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="26" t="s">
+    <row r="28" spans="1:9">
+      <c r="A28" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="23">
+      <c r="B28" s="22">
         <v>508.6</v>
       </c>
-      <c r="C28" s="24">
+      <c r="C28" s="23">
         <v>5.1989999999999998</v>
       </c>
-      <c r="D28" s="24">
+      <c r="D28" s="23">
         <v>3414.0936824129262</v>
       </c>
-      <c r="E28" s="25">
+      <c r="E28" s="24">
         <v>63.4</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="26" t="s">
+    <row r="29" spans="1:9">
+      <c r="A29" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="23">
+      <c r="B29" s="22">
         <v>195.85257753389442</v>
       </c>
-      <c r="C29" s="24">
+      <c r="C29" s="23">
         <v>0.54900000000000004</v>
       </c>
-      <c r="D29" s="24">
+      <c r="D29" s="23">
         <v>2844.2851295823216</v>
       </c>
-      <c r="E29" s="25">
+      <c r="E29" s="24">
         <v>63.4</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="26" t="s">
+    <row r="30" spans="1:9">
+      <c r="A30" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="23">
+      <c r="B30" s="22">
         <v>209.8</v>
       </c>
-      <c r="C30" s="24">
+      <c r="C30" s="23">
         <v>0.4</v>
       </c>
-      <c r="D30" s="24">
+      <c r="D30" s="23">
         <v>2859.6691118398307</v>
       </c>
-      <c r="E30" s="25">
+      <c r="E30" s="24">
         <v>14.76</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="26" t="s">
+    <row r="31" spans="1:9">
+      <c r="A31" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="23">
+      <c r="B31" s="22">
         <v>197.8</v>
       </c>
-      <c r="C31" s="24">
+      <c r="C31" s="23">
         <v>0.54900000000000004</v>
       </c>
-      <c r="D31" s="24">
+      <c r="D31" s="23">
         <v>2848.5216025782688</v>
       </c>
-      <c r="E31" s="25">
+      <c r="E31" s="24">
         <v>78.16</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="26" t="s">
+    <row r="32" spans="1:9">
+      <c r="A32" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="23">
+      <c r="B32" s="22">
         <v>131.4</v>
       </c>
-      <c r="C32" s="24">
+      <c r="C32" s="23">
         <v>0.25419999999999998</v>
       </c>
-      <c r="D32" s="24">
+      <c r="D32" s="23">
         <v>2724.8615334140964</v>
       </c>
-      <c r="E32" s="25">
+      <c r="E32" s="24">
         <v>78.16</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A33" s="26" t="s">
+    <row r="33" spans="1:8">
+      <c r="A33" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="23"/>
-      <c r="C33" s="24">
+      <c r="B33" s="22"/>
+      <c r="C33" s="23">
         <v>0.1525</v>
       </c>
-      <c r="D33" s="24">
+      <c r="D33" s="23">
         <v>2652</v>
       </c>
-      <c r="E33" s="25">
+      <c r="E33" s="24">
         <v>78.16</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A34" s="26" t="s">
+    <row r="34" spans="1:8">
+      <c r="A34" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="23"/>
-      <c r="C34" s="24">
+      <c r="B34" s="22"/>
+      <c r="C34" s="23">
         <v>0.1525</v>
       </c>
-      <c r="D34" s="24">
+      <c r="D34" s="23">
         <v>2652</v>
       </c>
-      <c r="E34" s="25">
+      <c r="E34" s="24">
         <v>78.16</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A35" s="26" t="s">
+    <row r="35" spans="1:8">
+      <c r="A35" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="23">
+      <c r="B35" s="22">
         <v>41.51</v>
       </c>
-      <c r="C35" s="24">
+      <c r="C35" s="23">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="D35" s="24">
+      <c r="D35" s="23">
         <v>2338.0245599904306</v>
       </c>
-      <c r="E35" s="25">
+      <c r="E35" s="24">
         <v>78.16</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A36" s="13" t="s">
+    <row r="36" spans="1:8">
+      <c r="A36" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="B36" s="23">
+      <c r="B36" s="22">
         <v>41.51</v>
       </c>
-      <c r="C36" s="24">
+      <c r="C36" s="23">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="D36" s="24">
+      <c r="D36" s="23">
         <v>173.9</v>
       </c>
-      <c r="E36" s="25">
+      <c r="E36" s="24">
         <v>78.16</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A37" s="13" t="s">
+    <row r="37" spans="1:8">
+      <c r="A37" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B37" s="23">
+      <c r="B37" s="22">
         <v>41.51</v>
       </c>
-      <c r="C37" s="24">
+      <c r="C37" s="23">
         <v>0.69640000000000002</v>
       </c>
-      <c r="D37" s="24">
+      <c r="D37" s="23">
         <v>173.9</v>
       </c>
-      <c r="E37" s="25">
+      <c r="E37" s="24">
         <v>78.16</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8">
+      <c r="A38" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="15">
+      <c r="A39" s="12" t="s">
+        <v>58</v>
+      </c>
       <c r="H39"/>
     </row>
-    <row r="41" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" ht="15">
       <c r="H41"/>
     </row>
-    <row r="48" spans="1:8" ht="14" x14ac:dyDescent="0.35">
-      <c r="H48" s="29"/>
-    </row>
-    <row r="52" spans="8:8" ht="14" x14ac:dyDescent="0.35">
-      <c r="H52" s="29"/>
+    <row r="48" spans="1:8">
+      <c r="H48" s="28"/>
+    </row>
+    <row r="52" spans="8:8">
+      <c r="H52" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/streams.xlsx
+++ b/streams.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4FFD484-564A-4244-B9CF-DF61F33C9493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DFE4BE9-B57A-4145-9CA9-BA24423FC6EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="16440" windowHeight="28440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gas" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="59">
   <si>
     <t>GTU-PEVD</t>
   </si>
@@ -206,18 +206,6 @@
   </si>
   <si>
     <t>ASW-OD</t>
-  </si>
-  <si>
-    <t>было</t>
-  </si>
-  <si>
-    <t>погрешность на 8,8С</t>
-  </si>
-  <si>
-    <t>погрешность на 0.12С</t>
-  </si>
-  <si>
-    <t>погрешность на 0.2С</t>
   </si>
 </sst>
 </file>
@@ -275,7 +263,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -285,12 +273,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -389,7 +371,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -475,11 +457,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1086,10 +1065,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13792673-7A38-4CCB-80CF-EE250A0D6320}">
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -1335,7 +1314,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:5">
       <c r="A17" s="12" t="s">
         <v>19</v>
       </c>
@@ -1350,7 +1329,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:5">
       <c r="A18" s="13" t="s">
         <v>20</v>
       </c>
@@ -1365,7 +1344,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:5">
       <c r="A19" s="25" t="s">
         <v>49</v>
       </c>
@@ -1380,7 +1359,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:5">
       <c r="A20" s="13" t="s">
         <v>21</v>
       </c>
@@ -1395,7 +1374,7 @@
         <v>100.77673095348899</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:5">
       <c r="A21" s="13" t="s">
         <v>22</v>
       </c>
@@ -1410,7 +1389,7 @@
         <v>100.77673095348899</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:5">
       <c r="A22" s="13" t="s">
         <v>25</v>
       </c>
@@ -1427,7 +1406,7 @@
         <v>43.733333333333299</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:5">
       <c r="A23" s="13" t="s">
         <v>26</v>
       </c>
@@ -1444,53 +1423,41 @@
         <v>43.733333333333299</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:5">
       <c r="A24" s="13" t="s">
         <v>27</v>
       </c>
       <c r="B24" s="29">
         <v>70.294916839916795</v>
       </c>
-      <c r="C24" s="30">
+      <c r="C24" s="7">
         <v>1</v>
       </c>
-      <c r="D24" s="30">
+      <c r="D24" s="7">
         <v>294.32481680873161</v>
       </c>
       <c r="E24" s="10">
         <v>800</v>
       </c>
-      <c r="F24" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="13" t="s">
         <v>28</v>
       </c>
       <c r="B25" s="29">
         <v>90</v>
       </c>
-      <c r="C25" s="30">
+      <c r="C25" s="7">
         <v>1</v>
       </c>
-      <c r="D25" s="30">
+      <c r="D25" s="7">
         <v>377.75</v>
       </c>
       <c r="E25" s="8">
         <v>800</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H25" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="I25" s="30">
-        <v>412.67072000000002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="13" t="s">
         <v>29</v>
       </c>
@@ -1506,11 +1473,8 @@
       <c r="E26" s="8">
         <v>800</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="25" t="s">
         <v>30</v>
       </c>
@@ -1527,7 +1491,7 @@
         <v>32.141666666666602</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:5">
       <c r="A28" s="25" t="s">
         <v>33</v>
       </c>
@@ -1544,7 +1508,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:5">
       <c r="A29" s="25" t="s">
         <v>34</v>
       </c>
@@ -1561,7 +1525,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:5">
       <c r="A30" s="25" t="s">
         <v>35</v>
       </c>
@@ -1578,7 +1542,7 @@
         <v>14.76</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:5">
       <c r="A31" s="25" t="s">
         <v>40</v>
       </c>
@@ -1595,7 +1559,7 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:5">
       <c r="A32" s="25" t="s">
         <v>36</v>
       </c>

--- a/streams.xlsx
+++ b/streams.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4FFD484-564A-4244-B9CF-DF61F33C9493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F529D40C-1524-444C-9BA5-A6BBC562D798}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="16440" windowHeight="28440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,25 +11,17 @@
     <sheet name="gas" sheetId="1" r:id="rId1"/>
     <sheet name="water" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="66">
   <si>
     <t>GTU-PEVD</t>
   </si>
@@ -218,13 +210,22 @@
   </si>
   <si>
     <t>погрешность на 0.2С</t>
+  </si>
+  <si>
+    <t>DROSVD-ST</t>
+  </si>
+  <si>
+    <t>ST-GPK</t>
+  </si>
+  <si>
+    <t>ST-PKM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -768,7 +769,7 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" style="5" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="6"/>
@@ -780,7 +781,7 @@
     <col min="11" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="3" customFormat="1" ht="13.5" thickBot="1">
+    <row r="1" spans="1:18" s="3" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>6</v>
@@ -810,12 +811,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>42</v>
       </c>
@@ -847,7 +848,7 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
@@ -879,7 +880,7 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>43</v>
       </c>
@@ -916,7 +917,7 @@
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>44</v>
       </c>
@@ -948,7 +949,7 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="16" customFormat="1">
+    <row r="7" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>45</v>
       </c>
@@ -980,7 +981,7 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="16" customFormat="1">
+    <row r="8" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>46</v>
       </c>
@@ -1012,7 +1013,7 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>47</v>
       </c>
@@ -1044,7 +1045,7 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>48</v>
       </c>
@@ -1076,7 +1077,7 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="15">
+    <row r="15" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="R15" s="18"/>
     </row>
   </sheetData>
@@ -1088,11 +1089,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13792673-7A38-4CCB-80CF-EE250A0D6320}">
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" style="12" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="6"/>
@@ -1103,7 +1104,7 @@
     <col min="7" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="13.5" thickBot="1">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11"/>
       <c r="B1" s="2" t="s">
         <v>6</v>
@@ -1124,7 +1125,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>56</v>
       </c>
@@ -1132,7 +1133,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>31</v>
       </c>
@@ -1149,7 +1150,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>10</v>
       </c>
@@ -1166,7 +1167,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>11</v>
       </c>
@@ -1183,7 +1184,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>12</v>
       </c>
@@ -1200,7 +1201,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>13</v>
       </c>
@@ -1217,7 +1218,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
         <v>32</v>
       </c>
@@ -1234,7 +1235,7 @@
         <v>14.76</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>14</v>
       </c>
@@ -1251,7 +1252,7 @@
         <v>14.76</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>15</v>
       </c>
@@ -1268,7 +1269,7 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>52</v>
       </c>
@@ -1286,7 +1287,7 @@
       </c>
       <c r="H11" s="28"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>50</v>
       </c>
@@ -1303,7 +1304,7 @@
         <v>82.91</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>51</v>
       </c>
@@ -1320,22 +1321,22 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>19</v>
       </c>
@@ -1350,7 +1351,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>20</v>
       </c>
@@ -1365,7 +1366,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
         <v>49</v>
       </c>
@@ -1380,7 +1381,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>21</v>
       </c>
@@ -1395,7 +1396,7 @@
         <v>100.77673095348899</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>22</v>
       </c>
@@ -1410,7 +1411,7 @@
         <v>100.77673095348899</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>25</v>
       </c>
@@ -1427,7 +1428,7 @@
         <v>43.733333333333299</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>26</v>
       </c>
@@ -1444,7 +1445,7 @@
         <v>43.733333333333299</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>27</v>
       </c>
@@ -1464,7 +1465,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>28</v>
       </c>
@@ -1490,7 +1491,7 @@
         <v>412.67072000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>29</v>
       </c>
@@ -1510,7 +1511,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="25" t="s">
         <v>30</v>
       </c>
@@ -1527,7 +1528,7 @@
         <v>32.141666666666602</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
         <v>33</v>
       </c>
@@ -1544,7 +1545,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="s">
         <v>34</v>
       </c>
@@ -1561,7 +1562,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="25" t="s">
         <v>35</v>
       </c>
@@ -1578,7 +1579,7 @@
         <v>14.76</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="25" t="s">
         <v>40</v>
       </c>
@@ -1595,7 +1596,7 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="25" t="s">
         <v>36</v>
       </c>
@@ -1612,7 +1613,7 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="25" t="s">
         <v>37</v>
       </c>
@@ -1627,7 +1628,7 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="25" t="s">
         <v>38</v>
       </c>
@@ -1642,7 +1643,7 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="25" t="s">
         <v>39</v>
       </c>
@@ -1659,7 +1660,7 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
         <v>54</v>
       </c>
@@ -1676,7 +1677,7 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
         <v>55</v>
       </c>
@@ -1693,24 +1694,41 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="15">
+    <row r="39" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
         <v>58</v>
       </c>
       <c r="H39"/>
     </row>
-    <row r="41" spans="1:8" ht="15">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" s="22"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="24"/>
+    </row>
+    <row r="41" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A41" s="12" t="s">
+        <v>64</v>
+      </c>
       <c r="H41"/>
     </row>
-    <row r="48" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="H48" s="28"/>
     </row>
-    <row r="52" spans="8:8">
+    <row r="52" spans="8:8" ht="15" x14ac:dyDescent="0.25">
       <c r="H52" s="28"/>
     </row>
   </sheetData>

--- a/streams.xlsx
+++ b/streams.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F529D40C-1524-444C-9BA5-A6BBC562D798}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6405DA3C-F598-4D1A-A896-439B4B7A97D7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="16440" windowHeight="28440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gas" sheetId="1" r:id="rId1"/>
@@ -763,10 +763,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R15"/>
+  <dimension ref="A1:R16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -849,86 +849,52 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="20">
-        <v>542.1</v>
-      </c>
-      <c r="C4" s="19">
-        <v>0.1</v>
-      </c>
-      <c r="D4" s="7">
-        <v>958.86919853128609</v>
-      </c>
-      <c r="E4" s="21">
-        <v>503.8</v>
-      </c>
-      <c r="F4" s="20">
-        <v>0.78029999999999999</v>
-      </c>
-      <c r="G4" s="19">
-        <v>0.1237</v>
-      </c>
-      <c r="H4" s="19">
-        <v>3.0099999999999998E-2</v>
-      </c>
-      <c r="I4" s="19">
-        <v>5.9400000000000001E-2</v>
-      </c>
-      <c r="J4" s="21">
-        <v>6.4999999999999997E-3</v>
-      </c>
+      <c r="A4" s="26"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="6">
-        <v>468.05</v>
-      </c>
-      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="B5" s="20">
+        <v>542.1</v>
+      </c>
+      <c r="C5" s="19">
         <v>0.1</v>
       </c>
       <c r="D5" s="7">
-        <v>500</v>
-      </c>
-      <c r="E5" s="8">
+        <v>958.86919853128609</v>
+      </c>
+      <c r="E5" s="21">
         <v>503.8</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="20">
         <v>0.78029999999999999</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="19">
         <v>0.1237</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="19">
         <v>3.0099999999999998E-2</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="19">
         <v>5.9400000000000001E-2</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="21">
         <v>6.4999999999999997E-3</v>
       </c>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B6" s="6">
-        <v>309.2</v>
+        <v>468.05</v>
       </c>
       <c r="C6" s="7">
         <v>0.1</v>
       </c>
       <c r="D6" s="7">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E6" s="8">
         <v>503.8</v>
@@ -948,51 +914,56 @@
       <c r="J6" s="8">
         <v>6.4999999999999997E-3</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
-        <v>45</v>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="B7" s="6">
-        <v>235.9</v>
+        <v>309.2</v>
       </c>
       <c r="C7" s="7">
         <v>0.1</v>
       </c>
       <c r="D7" s="7">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E7" s="8">
         <v>503.8</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="6">
         <v>0.78029999999999999</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="7">
         <v>0.1237</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7" s="7">
         <v>3.0099999999999998E-2</v>
       </c>
-      <c r="I7" s="16">
+      <c r="I7" s="7">
         <v>5.9400000000000001E-2</v>
       </c>
-      <c r="J7" s="17">
+      <c r="J7" s="8">
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
     <row r="8" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B8" s="6">
-        <v>233</v>
+        <v>235.9</v>
       </c>
       <c r="C8" s="7">
         <v>0.1</v>
       </c>
       <c r="D8" s="7">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E8" s="8">
         <v>503.8</v>
@@ -1013,50 +984,50 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>47</v>
+    <row r="9" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>46</v>
       </c>
       <c r="B9" s="6">
-        <v>175.5</v>
+        <v>233</v>
       </c>
       <c r="C9" s="7">
         <v>0.1</v>
       </c>
       <c r="D9" s="7">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E9" s="8">
         <v>503.8</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="15">
         <v>0.78029999999999999</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="16">
         <v>0.1237</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="16">
         <v>3.0099999999999998E-2</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="16">
         <v>5.9400000000000001E-2</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9" s="17">
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B10" s="6">
-        <v>106.9</v>
+        <v>175.5</v>
       </c>
       <c r="C10" s="7">
         <v>0.1</v>
       </c>
       <c r="D10" s="7">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E10" s="8">
         <v>503.8</v>
@@ -1077,8 +1048,40 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="R15" s="18"/>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="6">
+        <v>106.9</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="D11" s="7">
+        <v>20</v>
+      </c>
+      <c r="E11" s="8">
+        <v>503.8</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0.78029999999999999</v>
+      </c>
+      <c r="G11" s="7">
+        <v>0.1237</v>
+      </c>
+      <c r="H11" s="7">
+        <v>3.0099999999999998E-2</v>
+      </c>
+      <c r="I11" s="7">
+        <v>5.9400000000000001E-2</v>
+      </c>
+      <c r="J11" s="8">
+        <v>6.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="R16" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1089,8 +1092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13792673-7A38-4CCB-80CF-EE250A0D6320}">
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>

--- a/streams.xlsx
+++ b/streams.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6405DA3C-F598-4D1A-A896-439B4B7A97D7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64CBF377-8ABA-4DAF-B203-266051A631CF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gas" sheetId="1" r:id="rId1"/>
     <sheet name="water" sheetId="2" r:id="rId2"/>
+    <sheet name="syngas" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="75">
   <si>
     <t>GTU-PEVD</t>
   </si>
@@ -219,12 +220,42 @@
   </si>
   <si>
     <t>ST-PKM</t>
+  </si>
+  <si>
+    <t>REF-SMESH</t>
+  </si>
+  <si>
+    <t>SMESH-KU</t>
+  </si>
+  <si>
+    <t>GTU-SHESH</t>
+  </si>
+  <si>
+    <t>CH4</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>REF-COOL</t>
+  </si>
+  <si>
+    <t>AIR-REF</t>
+  </si>
+  <si>
+    <t>CH4-REF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00000000000"/>
+  </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -296,7 +327,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -385,12 +416,56 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -434,25 +509,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -480,6 +543,42 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -763,27 +862,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R16"/>
+  <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="6"/>
-    <col min="3" max="4" width="9.140625" style="7"/>
-    <col min="5" max="5" width="9.140625" style="8"/>
+    <col min="2" max="5" width="9.140625" style="7"/>
     <col min="6" max="6" width="9.140625" style="6"/>
     <col min="7" max="9" width="9.140625" style="7"/>
     <col min="10" max="10" width="9.140625" style="8"/>
-    <col min="11" max="16384" width="9.140625" style="7"/>
+    <col min="11" max="11" width="13.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="3" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" s="3" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -792,7 +890,7 @@
       <c r="D1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -811,16 +909,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+    <row r="3" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="7">
         <v>542.1</v>
       </c>
       <c r="C3" s="7">
@@ -829,259 +927,282 @@
       <c r="D3" s="7">
         <v>958.86919853128609</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="7">
         <v>503.8</v>
       </c>
       <c r="F3" s="6">
-        <v>0.78029999999999999</v>
+        <v>0.76774370000000003</v>
       </c>
       <c r="G3" s="7">
-        <v>0.1237</v>
+        <v>0.13902439999999999</v>
       </c>
       <c r="H3" s="7">
-        <v>3.0099999999999998E-2</v>
+        <v>4.65268E-2</v>
       </c>
       <c r="I3" s="7">
-        <v>5.9400000000000001E-2</v>
+        <v>3.7585E-2</v>
       </c>
       <c r="J3" s="8">
-        <v>6.4999999999999997E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="26"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+        <v>9.1201000000000008E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="7">
+        <v>542.1</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="D4" s="7">
+        <v>958.86919853128609</v>
+      </c>
+      <c r="E4" s="7">
+        <v>503.8</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0.76774370000000003</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0.13902439999999999</v>
+      </c>
+      <c r="H4" s="7">
+        <v>4.65268E-2</v>
+      </c>
+      <c r="I4" s="7">
+        <v>3.7585E-2</v>
+      </c>
+      <c r="J4" s="8">
+        <v>9.1201000000000008E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="20">
-        <v>542.1</v>
-      </c>
-      <c r="C5" s="19">
+        <v>43</v>
+      </c>
+      <c r="B5" s="7">
+        <v>468.05</v>
+      </c>
+      <c r="C5" s="7">
         <v>0.1</v>
       </c>
       <c r="D5" s="7">
-        <v>958.86919853128609</v>
-      </c>
-      <c r="E5" s="21">
+        <v>500</v>
+      </c>
+      <c r="E5" s="7">
         <v>503.8</v>
       </c>
-      <c r="F5" s="20">
-        <v>0.78029999999999999</v>
-      </c>
-      <c r="G5" s="19">
-        <v>0.1237</v>
-      </c>
-      <c r="H5" s="19">
-        <v>3.0099999999999998E-2</v>
-      </c>
-      <c r="I5" s="19">
-        <v>5.9400000000000001E-2</v>
-      </c>
-      <c r="J5" s="21">
-        <v>6.4999999999999997E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F5" s="6">
+        <v>0.76774370000000003</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0.13902439999999999</v>
+      </c>
+      <c r="H5" s="7">
+        <v>4.65268E-2</v>
+      </c>
+      <c r="I5" s="7">
+        <v>3.7585E-2</v>
+      </c>
+      <c r="J5" s="8">
+        <v>9.1201000000000008E-3</v>
+      </c>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+    </row>
+    <row r="6" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="6">
-        <v>468.05</v>
+        <v>44</v>
+      </c>
+      <c r="B6" s="7">
+        <v>309.2</v>
       </c>
       <c r="C6" s="7">
         <v>0.1</v>
       </c>
       <c r="D6" s="7">
-        <v>500</v>
-      </c>
-      <c r="E6" s="8">
+        <v>400</v>
+      </c>
+      <c r="E6" s="7">
         <v>503.8</v>
       </c>
       <c r="F6" s="6">
-        <v>0.78029999999999999</v>
+        <v>0.76774370000000003</v>
       </c>
       <c r="G6" s="7">
-        <v>0.1237</v>
+        <v>0.13902439999999999</v>
       </c>
       <c r="H6" s="7">
-        <v>3.0099999999999998E-2</v>
+        <v>4.65268E-2</v>
       </c>
       <c r="I6" s="7">
-        <v>5.9400000000000001E-2</v>
+        <v>3.7585E-2</v>
       </c>
       <c r="J6" s="8">
-        <v>6.4999999999999997E-3</v>
-      </c>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="6">
-        <v>309.2</v>
+        <v>9.1201000000000008E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="7">
+        <v>235.9</v>
       </c>
       <c r="C7" s="7">
         <v>0.1</v>
       </c>
       <c r="D7" s="7">
-        <v>400</v>
-      </c>
-      <c r="E7" s="8">
+        <v>300</v>
+      </c>
+      <c r="E7" s="7">
         <v>503.8</v>
       </c>
       <c r="F7" s="6">
-        <v>0.78029999999999999</v>
+        <v>0.76774370000000003</v>
       </c>
       <c r="G7" s="7">
-        <v>0.1237</v>
+        <v>0.13902439999999999</v>
       </c>
       <c r="H7" s="7">
-        <v>3.0099999999999998E-2</v>
+        <v>4.65268E-2</v>
       </c>
       <c r="I7" s="7">
-        <v>5.9400000000000001E-2</v>
+        <v>3.7585E-2</v>
       </c>
       <c r="J7" s="8">
-        <v>6.4999999999999997E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.25">
+        <v>9.1201000000000008E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="6">
-        <v>235.9</v>
+        <v>46</v>
+      </c>
+      <c r="B8" s="7">
+        <v>233</v>
       </c>
       <c r="C8" s="7">
         <v>0.1</v>
       </c>
       <c r="D8" s="7">
-        <v>300</v>
-      </c>
-      <c r="E8" s="8">
+        <v>200</v>
+      </c>
+      <c r="E8" s="7">
         <v>503.8</v>
       </c>
-      <c r="F8" s="15">
-        <v>0.78029999999999999</v>
-      </c>
-      <c r="G8" s="16">
-        <v>0.1237</v>
-      </c>
-      <c r="H8" s="16">
-        <v>3.0099999999999998E-2</v>
-      </c>
-      <c r="I8" s="16">
-        <v>5.9400000000000001E-2</v>
-      </c>
-      <c r="J8" s="17">
-        <v>6.4999999999999997E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="6">
-        <v>233</v>
+      <c r="F8" s="6">
+        <v>0.76774370000000003</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0.13902439999999999</v>
+      </c>
+      <c r="H8" s="7">
+        <v>4.65268E-2</v>
+      </c>
+      <c r="I8" s="7">
+        <v>3.7585E-2</v>
+      </c>
+      <c r="J8" s="8">
+        <v>9.1201000000000008E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="7">
+        <v>175.5</v>
       </c>
       <c r="C9" s="7">
         <v>0.1</v>
       </c>
       <c r="D9" s="7">
-        <v>200</v>
-      </c>
-      <c r="E9" s="8">
+        <v>100</v>
+      </c>
+      <c r="E9" s="7">
         <v>503.8</v>
       </c>
-      <c r="F9" s="15">
-        <v>0.78029999999999999</v>
-      </c>
-      <c r="G9" s="16">
-        <v>0.1237</v>
-      </c>
-      <c r="H9" s="16">
-        <v>3.0099999999999998E-2</v>
-      </c>
-      <c r="I9" s="16">
-        <v>5.9400000000000001E-2</v>
-      </c>
-      <c r="J9" s="17">
-        <v>6.4999999999999997E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F9" s="6">
+        <v>0.76774370000000003</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0.13902439999999999</v>
+      </c>
+      <c r="H9" s="7">
+        <v>4.65268E-2</v>
+      </c>
+      <c r="I9" s="7">
+        <v>3.7585E-2</v>
+      </c>
+      <c r="J9" s="8">
+        <v>9.1201000000000008E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="6">
-        <v>175.5</v>
+        <v>48</v>
+      </c>
+      <c r="B10" s="7">
+        <v>106.9</v>
       </c>
       <c r="C10" s="7">
         <v>0.1</v>
       </c>
       <c r="D10" s="7">
-        <v>100</v>
-      </c>
-      <c r="E10" s="8">
+        <v>20</v>
+      </c>
+      <c r="E10" s="7">
         <v>503.8</v>
       </c>
       <c r="F10" s="6">
-        <v>0.78029999999999999</v>
+        <v>0.76774370000000003</v>
       </c>
       <c r="G10" s="7">
-        <v>0.1237</v>
+        <v>0.13902439999999999</v>
       </c>
       <c r="H10" s="7">
-        <v>3.0099999999999998E-2</v>
+        <v>4.65268E-2</v>
       </c>
       <c r="I10" s="7">
-        <v>5.9400000000000001E-2</v>
+        <v>3.7585E-2</v>
       </c>
       <c r="J10" s="8">
-        <v>6.4999999999999997E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+        <v>9.1201000000000008E-3</v>
+      </c>
+      <c r="K10" s="38"/>
+    </row>
+    <row r="11" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="6">
-        <v>106.9</v>
-      </c>
-      <c r="C11" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="D11" s="7">
-        <v>20</v>
-      </c>
-      <c r="E11" s="8">
-        <v>503.8</v>
-      </c>
-      <c r="F11" s="6">
-        <v>0.78029999999999999</v>
-      </c>
-      <c r="G11" s="7">
-        <v>0.1237</v>
-      </c>
-      <c r="H11" s="7">
-        <v>3.0099999999999998E-2</v>
-      </c>
-      <c r="I11" s="7">
-        <v>5.9400000000000001E-2</v>
-      </c>
-      <c r="J11" s="8">
-        <v>6.4999999999999997E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="R16" s="18"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" s="35" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" s="34"/>
+      <c r="J15" s="36"/>
+      <c r="R15" s="37"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1092,8 +1213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13792673-7A38-4CCB-80CF-EE250A0D6320}">
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1107,7 +1228,7 @@
     <col min="7" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11"/>
       <c r="B1" s="2" t="s">
         <v>6</v>
@@ -1128,22 +1249,22 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+    <row r="2" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
         <v>56</v>
       </c>
       <c r="B2" s="6">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+    <row r="3" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
         <v>31</v>
       </c>
       <c r="B3" s="6">
         <v>511.5</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="16">
         <v>8.407</v>
       </c>
       <c r="D3" s="7">
@@ -1153,7 +1274,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>10</v>
       </c>
@@ -1170,7 +1291,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>11</v>
       </c>
@@ -1187,7 +1308,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>12</v>
       </c>
@@ -1204,7 +1325,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>13</v>
       </c>
@@ -1221,14 +1342,14 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+    <row r="8" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
         <v>32</v>
       </c>
       <c r="B8" s="6">
         <v>211.6</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="16">
         <v>0.69099999999999995</v>
       </c>
       <c r="D8" s="7">
@@ -1238,7 +1359,7 @@
         <v>14.76</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>14</v>
       </c>
@@ -1255,7 +1376,7 @@
         <v>14.76</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>15</v>
       </c>
@@ -1272,7 +1393,7 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>52</v>
       </c>
@@ -1288,13 +1409,13 @@
       <c r="E11" s="8">
         <v>82.91</v>
       </c>
-      <c r="H11" s="28"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H11" s="24"/>
+    </row>
+    <row r="12" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="20">
+      <c r="B12" s="17">
         <v>60</v>
       </c>
       <c r="C12" s="7">
@@ -1307,7 +1428,7 @@
         <v>82.91</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>51</v>
       </c>
@@ -1324,97 +1445,97 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="23">
+      <c r="C17" s="19">
         <v>3.8226901700000003E-2</v>
       </c>
-      <c r="D17" s="23"/>
-      <c r="E17" s="24" t="s">
+      <c r="D17" s="19"/>
+      <c r="E17" s="20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="22">
+      <c r="B18" s="18">
         <v>49.839511130751802</v>
       </c>
-      <c r="C18" s="23">
+      <c r="C18" s="19">
         <v>3.8226901700000003E-2</v>
       </c>
-      <c r="D18" s="23"/>
-      <c r="E18" s="24" t="s">
+      <c r="D18" s="19"/>
+      <c r="E18" s="20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="25" t="s">
+    <row r="19" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="22">
+      <c r="B19" s="18">
         <v>46</v>
       </c>
-      <c r="C19" s="23">
+      <c r="C19" s="19">
         <v>1</v>
       </c>
-      <c r="D19" s="23"/>
-      <c r="E19" s="24">
+      <c r="D19" s="19"/>
+      <c r="E19" s="20">
         <v>800</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="22">
+      <c r="B20" s="18">
         <v>46</v>
       </c>
-      <c r="C20" s="23">
+      <c r="C20" s="19">
         <v>1</v>
       </c>
-      <c r="D20" s="23"/>
-      <c r="E20" s="24">
+      <c r="D20" s="19"/>
+      <c r="E20" s="20">
         <v>100.77673095348899</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="22">
+      <c r="B21" s="18">
         <v>64.77</v>
       </c>
-      <c r="C21" s="23">
+      <c r="C21" s="19">
         <v>1</v>
       </c>
-      <c r="D21" s="23"/>
-      <c r="E21" s="24">
+      <c r="D21" s="19"/>
+      <c r="E21" s="20">
         <v>100.77673095348899</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>25</v>
       </c>
@@ -1431,7 +1552,7 @@
         <v>43.733333333333299</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>26</v>
       </c>
@@ -1448,17 +1569,17 @@
         <v>43.733333333333299</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="29">
+      <c r="B24" s="25">
         <v>70.294916839916795</v>
       </c>
-      <c r="C24" s="30">
+      <c r="C24" s="26">
         <v>1</v>
       </c>
-      <c r="D24" s="30">
+      <c r="D24" s="26">
         <v>294.32481680873161</v>
       </c>
       <c r="E24" s="10">
@@ -1468,17 +1589,17 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="29">
+      <c r="B25" s="25">
         <v>90</v>
       </c>
-      <c r="C25" s="30">
+      <c r="C25" s="26">
         <v>1</v>
       </c>
-      <c r="D25" s="30">
+      <c r="D25" s="26">
         <v>377.75</v>
       </c>
       <c r="E25" s="8">
@@ -1487,14 +1608,14 @@
       <c r="F25" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="H25" s="30" t="s">
+      <c r="H25" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="I25" s="30">
+      <c r="I25" s="26">
         <v>412.67072000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>29</v>
       </c>
@@ -1504,7 +1625,7 @@
       <c r="C26" s="7">
         <v>1</v>
       </c>
-      <c r="D26" s="23">
+      <c r="D26" s="19">
         <v>202.38312796257762</v>
       </c>
       <c r="E26" s="8">
@@ -1514,226 +1635,342 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="25" t="s">
+    <row r="27" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="22">
+      <c r="B27" s="18">
         <v>76</v>
       </c>
-      <c r="C27" s="23">
+      <c r="C27" s="19">
         <v>4.0238843925466602E-2</v>
       </c>
-      <c r="D27" s="23">
+      <c r="D27" s="19">
         <v>2464.75601712861</v>
       </c>
-      <c r="E27" s="24">
+      <c r="E27" s="20">
         <v>32.141666666666602</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="25" t="s">
+    <row r="28" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="22">
+      <c r="B28" s="18">
         <v>508.6</v>
       </c>
-      <c r="C28" s="23">
+      <c r="C28" s="19">
         <v>5.1989999999999998</v>
       </c>
-      <c r="D28" s="23">
+      <c r="D28" s="19">
         <v>3414.0936824129262</v>
       </c>
-      <c r="E28" s="24">
+      <c r="E28" s="20">
         <v>63.4</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="25" t="s">
+    <row r="29" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="22">
+      <c r="B29" s="18">
         <v>195.85257753389442</v>
       </c>
-      <c r="C29" s="23">
+      <c r="C29" s="19">
         <v>0.54900000000000004</v>
       </c>
-      <c r="D29" s="23">
+      <c r="D29" s="19">
         <v>2844.2851295823216</v>
       </c>
-      <c r="E29" s="24">
+      <c r="E29" s="20">
         <v>63.4</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="25" t="s">
+    <row r="30" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="22">
+      <c r="B30" s="18">
         <v>209.8</v>
       </c>
-      <c r="C30" s="23">
+      <c r="C30" s="19">
         <v>0.4</v>
       </c>
-      <c r="D30" s="23">
+      <c r="D30" s="19">
         <v>2859.6691118398307</v>
       </c>
-      <c r="E30" s="24">
+      <c r="E30" s="20">
         <v>14.76</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="25" t="s">
+    <row r="31" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="22">
+      <c r="B31" s="18">
         <v>197.8</v>
       </c>
-      <c r="C31" s="23">
+      <c r="C31" s="19">
         <v>0.54900000000000004</v>
       </c>
-      <c r="D31" s="23">
+      <c r="D31" s="19">
         <v>2848.5216025782688</v>
       </c>
-      <c r="E31" s="24">
+      <c r="E31" s="20">
         <v>78.16</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="25" t="s">
+    <row r="32" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="22">
+      <c r="B32" s="18">
         <v>131.4</v>
       </c>
-      <c r="C32" s="23">
+      <c r="C32" s="19">
         <v>0.25419999999999998</v>
       </c>
-      <c r="D32" s="23">
+      <c r="D32" s="19">
         <v>2724.8615334140964</v>
       </c>
-      <c r="E32" s="24">
+      <c r="E32" s="20">
         <v>78.16</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="25" t="s">
+    <row r="33" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="22"/>
-      <c r="C33" s="23">
+      <c r="B33" s="18"/>
+      <c r="C33" s="19">
         <v>0.1525</v>
       </c>
-      <c r="D33" s="23">
+      <c r="D33" s="19">
         <v>2652</v>
       </c>
-      <c r="E33" s="24">
+      <c r="E33" s="20">
         <v>78.16</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="25" t="s">
+    <row r="34" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="22"/>
-      <c r="C34" s="23">
+      <c r="B34" s="18"/>
+      <c r="C34" s="19">
         <v>0.1525</v>
       </c>
-      <c r="D34" s="23">
+      <c r="D34" s="19">
         <v>2652</v>
       </c>
-      <c r="E34" s="24">
+      <c r="E34" s="20">
         <v>78.16</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="25" t="s">
+    <row r="35" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="22">
+      <c r="B35" s="18">
         <v>41.51</v>
       </c>
-      <c r="C35" s="23">
+      <c r="C35" s="19">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="D35" s="23">
+      <c r="D35" s="19">
         <v>2338.0245599904306</v>
       </c>
-      <c r="E35" s="24">
+      <c r="E35" s="20">
         <v>78.16</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="B36" s="22">
+      <c r="B36" s="18">
         <v>41.51</v>
       </c>
-      <c r="C36" s="23">
+      <c r="C36" s="19">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="D36" s="23">
+      <c r="D36" s="19">
         <v>173.9</v>
       </c>
-      <c r="E36" s="24">
+      <c r="E36" s="20">
         <v>78.16</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B37" s="22">
+      <c r="B37" s="18">
         <v>41.51</v>
       </c>
-      <c r="C37" s="23">
+      <c r="C37" s="19">
         <v>0.69640000000000002</v>
       </c>
-      <c r="D37" s="23">
+      <c r="D37" s="19">
         <v>173.9</v>
       </c>
-      <c r="E37" s="24">
+      <c r="E37" s="20">
         <v>78.16</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
         <v>58</v>
       </c>
       <c r="H39"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="25" t="s">
+    <row r="40" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="B40" s="22"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="24"/>
-    </row>
-    <row r="41" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B40" s="18"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="20"/>
+    </row>
+    <row r="41" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
         <v>64</v>
       </c>
       <c r="H41"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="H48" s="28"/>
+      <c r="H48" s="24"/>
     </row>
     <row r="52" spans="8:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="H52" s="28"/>
-    </row>
+      <c r="H52" s="24"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{687E5A79-AEF0-4C58-9166-6C5467E11B80}">
+  <dimension ref="A1:M25"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.85546875" style="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="18"/>
+    <col min="3" max="4" width="9.140625" style="31"/>
+    <col min="5" max="5" width="9.140625" style="20"/>
+    <col min="6" max="6" width="9.140625" style="18"/>
+    <col min="7" max="12" width="9.140625" style="31"/>
+    <col min="13" max="13" width="9.140625" style="20"/>
+    <col min="14" max="16384" width="9.140625" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="28" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="27"/>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="L1" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="M1" s="29" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="18">
+        <v>0</v>
+      </c>
+      <c r="G2" s="32">
+        <v>4.2979027366605403E-22</v>
+      </c>
+      <c r="H2" s="31">
+        <v>0.191699426978167</v>
+      </c>
+      <c r="I2" s="31">
+        <v>0</v>
+      </c>
+      <c r="J2" s="31">
+        <v>0.66244002792313905</v>
+      </c>
+      <c r="K2" s="31">
+        <v>5.5012012779173197E-2</v>
+      </c>
+      <c r="L2" s="31">
+        <v>4.5018405457702401E-2</v>
+      </c>
+      <c r="M2" s="20">
+        <v>4.5830126861817803E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/streams.xlsx
+++ b/streams.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64CBF377-8ABA-4DAF-B203-266051A631CF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D91914CB-B78F-49DC-B958-4345C11F98ED}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -864,9 +864,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -931,19 +929,19 @@
         <v>503.8</v>
       </c>
       <c r="F3" s="6">
-        <v>0.76774370000000003</v>
+        <v>0.78029999999999999</v>
       </c>
       <c r="G3" s="7">
-        <v>0.13902439999999999</v>
+        <v>0.1237</v>
       </c>
       <c r="H3" s="7">
-        <v>4.65268E-2</v>
+        <v>3.0099999999999998E-2</v>
       </c>
       <c r="I3" s="7">
-        <v>3.7585E-2</v>
+        <v>5.9400000000000001E-2</v>
       </c>
       <c r="J3" s="8">
-        <v>9.1201000000000008E-3</v>
+        <v>6.4999999999999997E-3</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -963,19 +961,19 @@
         <v>503.8</v>
       </c>
       <c r="F4" s="6">
-        <v>0.76774370000000003</v>
+        <v>0.78029999999999999</v>
       </c>
       <c r="G4" s="7">
-        <v>0.13902439999999999</v>
+        <v>0.1237</v>
       </c>
       <c r="H4" s="7">
-        <v>4.65268E-2</v>
+        <v>3.0099999999999998E-2</v>
       </c>
       <c r="I4" s="7">
-        <v>3.7585E-2</v>
+        <v>5.9400000000000001E-2</v>
       </c>
       <c r="J4" s="8">
-        <v>9.1201000000000008E-3</v>
+        <v>6.4999999999999997E-3</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -995,19 +993,19 @@
         <v>503.8</v>
       </c>
       <c r="F5" s="6">
-        <v>0.76774370000000003</v>
+        <v>0.78029999999999999</v>
       </c>
       <c r="G5" s="7">
-        <v>0.13902439999999999</v>
+        <v>0.1237</v>
       </c>
       <c r="H5" s="7">
-        <v>4.65268E-2</v>
+        <v>3.0099999999999998E-2</v>
       </c>
       <c r="I5" s="7">
-        <v>3.7585E-2</v>
+        <v>5.9400000000000001E-2</v>
       </c>
       <c r="J5" s="8">
-        <v>9.1201000000000008E-3</v>
+        <v>6.4999999999999997E-3</v>
       </c>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
@@ -1032,19 +1030,19 @@
         <v>503.8</v>
       </c>
       <c r="F6" s="6">
-        <v>0.76774370000000003</v>
+        <v>0.78029999999999999</v>
       </c>
       <c r="G6" s="7">
-        <v>0.13902439999999999</v>
+        <v>0.1237</v>
       </c>
       <c r="H6" s="7">
-        <v>4.65268E-2</v>
+        <v>3.0099999999999998E-2</v>
       </c>
       <c r="I6" s="7">
-        <v>3.7585E-2</v>
+        <v>5.9400000000000001E-2</v>
       </c>
       <c r="J6" s="8">
-        <v>9.1201000000000008E-3</v>
+        <v>6.4999999999999997E-3</v>
       </c>
     </row>
     <row r="7" spans="1:18" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -1064,19 +1062,19 @@
         <v>503.8</v>
       </c>
       <c r="F7" s="6">
-        <v>0.76774370000000003</v>
+        <v>0.78029999999999999</v>
       </c>
       <c r="G7" s="7">
-        <v>0.13902439999999999</v>
+        <v>0.1237</v>
       </c>
       <c r="H7" s="7">
-        <v>4.65268E-2</v>
+        <v>3.0099999999999998E-2</v>
       </c>
       <c r="I7" s="7">
-        <v>3.7585E-2</v>
+        <v>5.9400000000000001E-2</v>
       </c>
       <c r="J7" s="8">
-        <v>9.1201000000000008E-3</v>
+        <v>6.4999999999999997E-3</v>
       </c>
     </row>
     <row r="8" spans="1:18" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -1096,19 +1094,19 @@
         <v>503.8</v>
       </c>
       <c r="F8" s="6">
-        <v>0.76774370000000003</v>
+        <v>0.78029999999999999</v>
       </c>
       <c r="G8" s="7">
-        <v>0.13902439999999999</v>
+        <v>0.1237</v>
       </c>
       <c r="H8" s="7">
-        <v>4.65268E-2</v>
+        <v>3.0099999999999998E-2</v>
       </c>
       <c r="I8" s="7">
-        <v>3.7585E-2</v>
+        <v>5.9400000000000001E-2</v>
       </c>
       <c r="J8" s="8">
-        <v>9.1201000000000008E-3</v>
+        <v>6.4999999999999997E-3</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -1128,19 +1126,19 @@
         <v>503.8</v>
       </c>
       <c r="F9" s="6">
-        <v>0.76774370000000003</v>
+        <v>0.78029999999999999</v>
       </c>
       <c r="G9" s="7">
-        <v>0.13902439999999999</v>
+        <v>0.1237</v>
       </c>
       <c r="H9" s="7">
-        <v>4.65268E-2</v>
+        <v>3.0099999999999998E-2</v>
       </c>
       <c r="I9" s="7">
-        <v>3.7585E-2</v>
+        <v>5.9400000000000001E-2</v>
       </c>
       <c r="J9" s="8">
-        <v>9.1201000000000008E-3</v>
+        <v>6.4999999999999997E-3</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -1160,19 +1158,19 @@
         <v>503.8</v>
       </c>
       <c r="F10" s="6">
-        <v>0.76774370000000003</v>
+        <v>0.78029999999999999</v>
       </c>
       <c r="G10" s="7">
-        <v>0.13902439999999999</v>
+        <v>0.1237</v>
       </c>
       <c r="H10" s="7">
-        <v>4.65268E-2</v>
+        <v>3.0099999999999998E-2</v>
       </c>
       <c r="I10" s="7">
-        <v>3.7585E-2</v>
+        <v>5.9400000000000001E-2</v>
       </c>
       <c r="J10" s="8">
-        <v>9.1201000000000008E-3</v>
+        <v>6.4999999999999997E-3</v>
       </c>
       <c r="K10" s="38"/>
     </row>
@@ -1865,7 +1863,7 @@
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1927,25 +1925,25 @@
         <v>0</v>
       </c>
       <c r="G2" s="32">
-        <v>4.2979027366605403E-22</v>
+        <v>1.9601088021885399E-22</v>
       </c>
       <c r="H2" s="31">
-        <v>0.191699426978167</v>
+        <v>6.3566559723480007E-2</v>
       </c>
       <c r="I2" s="31">
         <v>0</v>
       </c>
       <c r="J2" s="31">
-        <v>0.66244002792313905</v>
+        <v>0.53661503695572499</v>
       </c>
       <c r="K2" s="31">
-        <v>5.5012012779173197E-2</v>
+        <v>5.0042124220652899E-2</v>
       </c>
       <c r="L2" s="31">
-        <v>4.5018405457702401E-2</v>
+        <v>0.325898769048586</v>
       </c>
       <c r="M2" s="20">
-        <v>4.5830126861817803E-2</v>
+        <v>2.3877510051555698E-2</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/streams.xlsx
+++ b/streams.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D91914CB-B78F-49DC-B958-4345C11F98ED}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92ABBCB0-42FA-4CC0-90CB-2B643A3711F8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="73">
   <si>
     <t>GTU-PEVD</t>
   </si>
@@ -223,12 +223,6 @@
   </si>
   <si>
     <t>REF-SMESH</t>
-  </si>
-  <si>
-    <t>SMESH-KU</t>
-  </si>
-  <si>
-    <t>GTU-SHESH</t>
   </si>
   <si>
     <t>CH4</t>
@@ -862,9 +856,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R15"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -946,261 +942,156 @@
     </row>
     <row r="4" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="7">
-        <v>542.1</v>
-      </c>
-      <c r="C4" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="D4" s="7">
-        <v>958.86919853128609</v>
-      </c>
-      <c r="E4" s="7">
-        <v>503.8</v>
-      </c>
-      <c r="F4" s="6">
-        <v>0.78029999999999999</v>
-      </c>
-      <c r="G4" s="7">
-        <v>0.1237</v>
-      </c>
-      <c r="H4" s="7">
-        <v>3.0099999999999998E-2</v>
-      </c>
-      <c r="I4" s="7">
-        <v>5.9400000000000001E-2</v>
-      </c>
-      <c r="J4" s="8">
-        <v>6.4999999999999997E-3</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="B5" s="7">
-        <v>468.05</v>
+        <v>542.1</v>
       </c>
       <c r="C5" s="7">
         <v>0.1</v>
       </c>
       <c r="D5" s="7">
-        <v>500</v>
+        <v>958.86919853128609</v>
       </c>
       <c r="E5" s="7">
         <v>503.8</v>
       </c>
-      <c r="F5" s="6">
-        <v>0.78029999999999999</v>
-      </c>
-      <c r="G5" s="7">
-        <v>0.1237</v>
-      </c>
-      <c r="H5" s="7">
-        <v>3.0099999999999998E-2</v>
-      </c>
-      <c r="I5" s="7">
-        <v>5.9400000000000001E-2</v>
-      </c>
-      <c r="J5" s="8">
-        <v>6.4999999999999997E-3</v>
-      </c>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
     </row>
     <row r="6" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B6" s="7">
-        <v>309.2</v>
+        <v>468.05</v>
       </c>
       <c r="C6" s="7">
         <v>0.1</v>
       </c>
       <c r="D6" s="7">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E6" s="7">
         <v>503.8</v>
       </c>
-      <c r="F6" s="6">
-        <v>0.78029999999999999</v>
-      </c>
-      <c r="G6" s="7">
-        <v>0.1237</v>
-      </c>
-      <c r="H6" s="7">
-        <v>3.0099999999999998E-2</v>
-      </c>
-      <c r="I6" s="7">
-        <v>5.9400000000000001E-2</v>
-      </c>
-      <c r="J6" s="8">
-        <v>6.4999999999999997E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
-        <v>45</v>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+    </row>
+    <row r="7" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="B7" s="7">
-        <v>235.9</v>
+        <v>309.2</v>
       </c>
       <c r="C7" s="7">
         <v>0.1</v>
       </c>
       <c r="D7" s="7">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E7" s="7">
         <v>503.8</v>
       </c>
-      <c r="F7" s="6">
-        <v>0.78029999999999999</v>
-      </c>
-      <c r="G7" s="7">
-        <v>0.1237</v>
-      </c>
-      <c r="H7" s="7">
-        <v>3.0099999999999998E-2</v>
-      </c>
-      <c r="I7" s="7">
-        <v>5.9400000000000001E-2</v>
-      </c>
-      <c r="J7" s="8">
-        <v>6.4999999999999997E-3</v>
-      </c>
     </row>
     <row r="8" spans="1:18" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B8" s="7">
-        <v>233</v>
+        <v>235.9</v>
       </c>
       <c r="C8" s="7">
         <v>0.1</v>
       </c>
       <c r="D8" s="7">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E8" s="7">
         <v>503.8</v>
       </c>
-      <c r="F8" s="6">
-        <v>0.78029999999999999</v>
-      </c>
-      <c r="G8" s="7">
-        <v>0.1237</v>
-      </c>
-      <c r="H8" s="7">
-        <v>3.0099999999999998E-2</v>
-      </c>
-      <c r="I8" s="7">
-        <v>5.9400000000000001E-2</v>
-      </c>
-      <c r="J8" s="8">
-        <v>6.4999999999999997E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>47</v>
+      <c r="F8" s="6"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="1:18" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>46</v>
       </c>
       <c r="B9" s="7">
-        <v>175.5</v>
+        <v>233</v>
       </c>
       <c r="C9" s="7">
         <v>0.1</v>
       </c>
       <c r="D9" s="7">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E9" s="7">
         <v>503.8</v>
       </c>
-      <c r="F9" s="6">
-        <v>0.78029999999999999</v>
-      </c>
-      <c r="G9" s="7">
-        <v>0.1237</v>
-      </c>
-      <c r="H9" s="7">
-        <v>3.0099999999999998E-2</v>
-      </c>
-      <c r="I9" s="7">
-        <v>5.9400000000000001E-2</v>
-      </c>
-      <c r="J9" s="8">
-        <v>6.4999999999999997E-3</v>
-      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="8"/>
     </row>
     <row r="10" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B10" s="7">
-        <v>106.9</v>
+        <v>175.5</v>
       </c>
       <c r="C10" s="7">
         <v>0.1</v>
       </c>
       <c r="D10" s="7">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E10" s="7">
         <v>503.8</v>
       </c>
-      <c r="F10" s="6">
-        <v>0.78029999999999999</v>
-      </c>
-      <c r="G10" s="7">
-        <v>0.1237</v>
-      </c>
-      <c r="H10" s="7">
-        <v>3.0099999999999998E-2</v>
-      </c>
-      <c r="I10" s="7">
-        <v>5.9400000000000001E-2</v>
-      </c>
-      <c r="J10" s="8">
-        <v>6.4999999999999997E-3</v>
-      </c>
-      <c r="K10" s="38"/>
     </row>
     <row r="11" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>68</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="B11" s="7">
+        <v>106.9</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="D11" s="7">
+        <v>20</v>
+      </c>
+      <c r="E11" s="7">
+        <v>503.8</v>
+      </c>
+      <c r="K11" s="38"/>
     </row>
     <row r="12" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" s="35" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="F15" s="34"/>
-      <c r="J15" s="36"/>
-      <c r="R15" s="37"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" s="35" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="34"/>
+      <c r="J13" s="36"/>
+      <c r="R13" s="37"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1211,8 +1102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13792673-7A38-4CCB-80CF-EE250A0D6320}">
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1863,7 +1754,7 @@
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="F2" sqref="F2:N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1908,43 +1799,20 @@
         <v>4</v>
       </c>
       <c r="K1" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="L1" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="M1" s="29" t="s">
         <v>69</v>
-      </c>
-      <c r="L1" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="M1" s="29" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="F2" s="18">
-        <v>0</v>
-      </c>
-      <c r="G2" s="32">
-        <v>1.9601088021885399E-22</v>
-      </c>
-      <c r="H2" s="31">
-        <v>6.3566559723480007E-2</v>
-      </c>
-      <c r="I2" s="31">
-        <v>0</v>
-      </c>
-      <c r="J2" s="31">
-        <v>0.53661503695572499</v>
-      </c>
-      <c r="K2" s="31">
-        <v>5.0042124220652899E-2</v>
-      </c>
-      <c r="L2" s="31">
-        <v>0.325898769048586</v>
-      </c>
-      <c r="M2" s="20">
-        <v>2.3877510051555698E-2</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="G2" s="32"/>
     </row>
     <row r="3" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/streams.xlsx
+++ b/streams.xlsx
@@ -1,35 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DFE4BE9-B57A-4145-9CA9-BA24423FC6EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E347DF25-B7F6-4819-9486-12C0CF4C93E3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gas" sheetId="1" r:id="rId1"/>
     <sheet name="water" sheetId="2" r:id="rId2"/>
+    <sheet name="syngas" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="73">
   <si>
     <t>GTU-PEVD</t>
   </si>
@@ -206,13 +199,58 @@
   </si>
   <si>
     <t>ASW-OD</t>
+  </si>
+  <si>
+    <t>было</t>
+  </si>
+  <si>
+    <t>погрешность на 8,8С</t>
+  </si>
+  <si>
+    <t>погрешность на 0.12С</t>
+  </si>
+  <si>
+    <t>погрешность на 0.2С</t>
+  </si>
+  <si>
+    <t>DROSVD-ST</t>
+  </si>
+  <si>
+    <t>ST-GPK</t>
+  </si>
+  <si>
+    <t>ST-PKM</t>
+  </si>
+  <si>
+    <t>REF-SMESH</t>
+  </si>
+  <si>
+    <t>CH4</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>REF-COOL</t>
+  </si>
+  <si>
+    <t>AIR-REF</t>
+  </si>
+  <si>
+    <t>CH4-REF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00000000000"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,7 +301,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -276,8 +314,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -366,12 +410,56 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -415,25 +503,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -457,8 +533,47 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -741,27 +856,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R15"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="6"/>
-    <col min="3" max="4" width="9.140625" style="7"/>
-    <col min="5" max="5" width="9.140625" style="8"/>
+    <col min="2" max="5" width="9.140625" style="7"/>
     <col min="6" max="6" width="9.140625" style="6"/>
     <col min="7" max="9" width="9.140625" style="7"/>
     <col min="10" max="10" width="9.140625" style="8"/>
-    <col min="11" max="16384" width="9.140625" style="7"/>
+    <col min="11" max="11" width="13.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="3" customFormat="1" ht="13.5" thickBot="1">
+    <row r="1" spans="1:18" s="3" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -770,7 +884,7 @@
       <c r="D1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -789,16 +903,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
-      <c r="A3" s="26" t="s">
+    <row r="3" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="7">
         <v>542.1</v>
       </c>
       <c r="C3" s="7">
@@ -807,7 +921,7 @@
       <c r="D3" s="7">
         <v>958.86919853128609</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="7">
         <v>503.8</v>
       </c>
       <c r="F3" s="6">
@@ -826,52 +940,25 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="20">
+      <c r="B5" s="7">
         <v>542.1</v>
-      </c>
-      <c r="C4" s="19">
-        <v>0.1</v>
-      </c>
-      <c r="D4" s="7">
-        <v>958.86919853128609</v>
-      </c>
-      <c r="E4" s="21">
-        <v>503.8</v>
-      </c>
-      <c r="F4" s="20">
-        <v>0.78029999999999999</v>
-      </c>
-      <c r="G4" s="19">
-        <v>0.1237</v>
-      </c>
-      <c r="H4" s="19">
-        <v>3.0099999999999998E-2</v>
-      </c>
-      <c r="I4" s="19">
-        <v>5.9400000000000001E-2</v>
-      </c>
-      <c r="J4" s="21">
-        <v>6.4999999999999997E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="A5" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="6">
-        <v>468.05</v>
       </c>
       <c r="C5" s="7">
         <v>0.1</v>
       </c>
       <c r="D5" s="7">
-        <v>500</v>
-      </c>
-      <c r="E5" s="8">
+        <v>958.86919853128609</v>
+      </c>
+      <c r="E5" s="7">
         <v>503.8</v>
       </c>
       <c r="F5" s="6">
@@ -889,26 +976,21 @@
       <c r="J5" s="8">
         <v>6.4999999999999997E-3</v>
       </c>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-    </row>
-    <row r="6" spans="1:18">
+    </row>
+    <row r="6" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="6">
-        <v>309.2</v>
+        <v>43</v>
+      </c>
+      <c r="B6" s="7">
+        <v>468.05</v>
       </c>
       <c r="C6" s="7">
         <v>0.1</v>
       </c>
       <c r="D6" s="7">
-        <v>400</v>
-      </c>
-      <c r="E6" s="8">
+        <v>500</v>
+      </c>
+      <c r="E6" s="7">
         <v>503.8</v>
       </c>
       <c r="F6" s="6">
@@ -926,85 +1008,90 @@
       <c r="J6" s="8">
         <v>6.4999999999999997E-3</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" s="16" customFormat="1">
-      <c r="A7" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="6">
-        <v>235.9</v>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+    </row>
+    <row r="7" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="7">
+        <v>309.2</v>
       </c>
       <c r="C7" s="7">
         <v>0.1</v>
       </c>
       <c r="D7" s="7">
-        <v>300</v>
-      </c>
-      <c r="E7" s="8">
+        <v>400</v>
+      </c>
+      <c r="E7" s="7">
         <v>503.8</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="6">
         <v>0.78029999999999999</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="7">
         <v>0.1237</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7" s="7">
         <v>3.0099999999999998E-2</v>
       </c>
-      <c r="I7" s="16">
+      <c r="I7" s="7">
         <v>5.9400000000000001E-2</v>
       </c>
-      <c r="J7" s="17">
+      <c r="J7" s="8">
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="16" customFormat="1">
+    <row r="8" spans="1:18" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="6">
-        <v>233</v>
+        <v>45</v>
+      </c>
+      <c r="B8" s="7">
+        <v>235.9</v>
       </c>
       <c r="C8" s="7">
         <v>0.1</v>
       </c>
       <c r="D8" s="7">
-        <v>200</v>
-      </c>
-      <c r="E8" s="8">
+        <v>300</v>
+      </c>
+      <c r="E8" s="7">
         <v>503.8</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="6">
         <v>0.78029999999999999</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="7">
         <v>0.1237</v>
       </c>
-      <c r="H8" s="16">
+      <c r="H8" s="7">
         <v>3.0099999999999998E-2</v>
       </c>
-      <c r="I8" s="16">
+      <c r="I8" s="7">
         <v>5.9400000000000001E-2</v>
       </c>
-      <c r="J8" s="17">
+      <c r="J8" s="8">
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
-      <c r="A9" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="6">
-        <v>175.5</v>
+    <row r="9" spans="1:18" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="7">
+        <v>233</v>
       </c>
       <c r="C9" s="7">
         <v>0.1</v>
       </c>
       <c r="D9" s="7">
-        <v>100</v>
-      </c>
-      <c r="E9" s="8">
+        <v>200</v>
+      </c>
+      <c r="E9" s="7">
         <v>503.8</v>
       </c>
       <c r="F9" s="6">
@@ -1023,20 +1110,20 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="6">
-        <v>106.9</v>
+        <v>47</v>
+      </c>
+      <c r="B10" s="7">
+        <v>175.5</v>
       </c>
       <c r="C10" s="7">
         <v>0.1</v>
       </c>
       <c r="D10" s="7">
-        <v>20</v>
-      </c>
-      <c r="E10" s="8">
+        <v>100</v>
+      </c>
+      <c r="E10" s="7">
         <v>503.8</v>
       </c>
       <c r="F10" s="6">
@@ -1055,8 +1142,51 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="15">
-      <c r="R15" s="18"/>
+    <row r="11" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="7">
+        <v>106.9</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="D11" s="7">
+        <v>20</v>
+      </c>
+      <c r="E11" s="7">
+        <v>503.8</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0.78029999999999999</v>
+      </c>
+      <c r="G11" s="7">
+        <v>0.1237</v>
+      </c>
+      <c r="H11" s="7">
+        <v>3.0099999999999998E-2</v>
+      </c>
+      <c r="I11" s="7">
+        <v>5.9400000000000001E-2</v>
+      </c>
+      <c r="J11" s="8">
+        <v>6.4999999999999997E-3</v>
+      </c>
+      <c r="K11" s="38"/>
+    </row>
+    <row r="12" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" s="35" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="34"/>
+      <c r="J13" s="36"/>
+      <c r="R13" s="37"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1065,13 +1195,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13792673-7A38-4CCB-80CF-EE250A0D6320}">
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" style="12" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="6"/>
@@ -1082,7 +1212,7 @@
     <col min="7" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="13.5" thickBot="1">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11"/>
       <c r="B1" s="2" t="s">
         <v>6</v>
@@ -1103,22 +1233,22 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="27" t="s">
+    <row r="2" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
         <v>56</v>
       </c>
       <c r="B2" s="6">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="25" t="s">
+    <row r="3" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
         <v>31</v>
       </c>
       <c r="B3" s="6">
         <v>511.5</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="16">
         <v>8.407</v>
       </c>
       <c r="D3" s="7">
@@ -1128,7 +1258,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>10</v>
       </c>
@@ -1145,7 +1275,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>11</v>
       </c>
@@ -1162,7 +1292,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>12</v>
       </c>
@@ -1179,7 +1309,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>13</v>
       </c>
@@ -1196,14 +1326,14 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="25" t="s">
+    <row r="8" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
         <v>32</v>
       </c>
       <c r="B8" s="6">
         <v>211.6</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="16">
         <v>0.69099999999999995</v>
       </c>
       <c r="D8" s="7">
@@ -1213,7 +1343,7 @@
         <v>14.76</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>14</v>
       </c>
@@ -1230,7 +1360,7 @@
         <v>14.76</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>15</v>
       </c>
@@ -1247,7 +1377,7 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>52</v>
       </c>
@@ -1263,13 +1393,13 @@
       <c r="E11" s="8">
         <v>82.91</v>
       </c>
-      <c r="H11" s="28"/>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="H11" s="24"/>
+    </row>
+    <row r="12" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="20">
+      <c r="B12" s="17">
         <v>60</v>
       </c>
       <c r="C12" s="7">
@@ -1282,7 +1412,7 @@
         <v>82.91</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>51</v>
       </c>
@@ -1299,97 +1429,97 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="23">
+      <c r="C17" s="19">
         <v>3.8226901700000003E-2</v>
       </c>
-      <c r="D17" s="23"/>
-      <c r="E17" s="24" t="s">
+      <c r="D17" s="19"/>
+      <c r="E17" s="20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="22">
+      <c r="B18" s="18">
         <v>49.839511130751802</v>
       </c>
-      <c r="C18" s="23">
+      <c r="C18" s="19">
         <v>3.8226901700000003E-2</v>
       </c>
-      <c r="D18" s="23"/>
-      <c r="E18" s="24" t="s">
+      <c r="D18" s="19"/>
+      <c r="E18" s="20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="25" t="s">
+    <row r="19" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="22">
+      <c r="B19" s="18">
         <v>46</v>
       </c>
-      <c r="C19" s="23">
+      <c r="C19" s="19">
         <v>1</v>
       </c>
-      <c r="D19" s="23"/>
-      <c r="E19" s="24">
+      <c r="D19" s="19"/>
+      <c r="E19" s="20">
         <v>800</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="22">
+      <c r="B20" s="18">
         <v>46</v>
       </c>
-      <c r="C20" s="23">
+      <c r="C20" s="19">
         <v>1</v>
       </c>
-      <c r="D20" s="23"/>
-      <c r="E20" s="24">
+      <c r="D20" s="19"/>
+      <c r="E20" s="20">
         <v>100.77673095348899</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="22">
+      <c r="B21" s="18">
         <v>64.77</v>
       </c>
-      <c r="C21" s="23">
+      <c r="C21" s="19">
         <v>1</v>
       </c>
-      <c r="D21" s="23"/>
-      <c r="E21" s="24">
+      <c r="D21" s="19"/>
+      <c r="E21" s="20">
         <v>100.77673095348899</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>25</v>
       </c>
@@ -1406,7 +1536,7 @@
         <v>43.733333333333299</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>26</v>
       </c>
@@ -1423,41 +1553,53 @@
         <v>43.733333333333299</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="29">
+      <c r="B24" s="25">
         <v>70.294916839916795</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="26">
         <v>1</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="26">
         <v>294.32481680873161</v>
       </c>
       <c r="E24" s="10">
         <v>800</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="F24" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="29">
+      <c r="B25" s="25">
         <v>90</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="26">
         <v>1</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="26">
         <v>377.75</v>
       </c>
       <c r="E25" s="8">
         <v>800</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="F25" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H25" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="I25" s="26">
+        <v>412.67072000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>29</v>
       </c>
@@ -1467,216 +1609,329 @@
       <c r="C26" s="7">
         <v>1</v>
       </c>
-      <c r="D26" s="23">
+      <c r="D26" s="19">
         <v>202.38312796257762</v>
       </c>
       <c r="E26" s="8">
         <v>800</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="25" t="s">
+      <c r="F26" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="22">
+      <c r="B27" s="18">
         <v>76</v>
       </c>
-      <c r="C27" s="23">
+      <c r="C27" s="19">
         <v>4.0238843925466602E-2</v>
       </c>
-      <c r="D27" s="23">
+      <c r="D27" s="19">
         <v>2464.75601712861</v>
       </c>
-      <c r="E27" s="24">
+      <c r="E27" s="20">
         <v>32.141666666666602</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="25" t="s">
+    <row r="28" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="22">
+      <c r="B28" s="18">
         <v>508.6</v>
       </c>
-      <c r="C28" s="23">
+      <c r="C28" s="19">
         <v>5.1989999999999998</v>
       </c>
-      <c r="D28" s="23">
+      <c r="D28" s="19">
         <v>3414.0936824129262</v>
       </c>
-      <c r="E28" s="24">
+      <c r="E28" s="20">
         <v>63.4</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="25" t="s">
+    <row r="29" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="22">
+      <c r="B29" s="18">
         <v>195.85257753389442</v>
       </c>
-      <c r="C29" s="23">
+      <c r="C29" s="19">
         <v>0.54900000000000004</v>
       </c>
-      <c r="D29" s="23">
+      <c r="D29" s="19">
         <v>2844.2851295823216</v>
       </c>
-      <c r="E29" s="24">
+      <c r="E29" s="20">
         <v>63.4</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="25" t="s">
+    <row r="30" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="22">
+      <c r="B30" s="18">
         <v>209.8</v>
       </c>
-      <c r="C30" s="23">
+      <c r="C30" s="19">
         <v>0.4</v>
       </c>
-      <c r="D30" s="23">
+      <c r="D30" s="19">
         <v>2859.6691118398307</v>
       </c>
-      <c r="E30" s="24">
+      <c r="E30" s="20">
         <v>14.76</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="25" t="s">
+    <row r="31" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="22">
+      <c r="B31" s="18">
         <v>197.8</v>
       </c>
-      <c r="C31" s="23">
+      <c r="C31" s="19">
         <v>0.54900000000000004</v>
       </c>
-      <c r="D31" s="23">
+      <c r="D31" s="19">
         <v>2848.5216025782688</v>
       </c>
-      <c r="E31" s="24">
+      <c r="E31" s="20">
         <v>78.16</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="25" t="s">
+    <row r="32" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="22">
+      <c r="B32" s="18">
         <v>131.4</v>
       </c>
-      <c r="C32" s="23">
+      <c r="C32" s="19">
         <v>0.25419999999999998</v>
       </c>
-      <c r="D32" s="23">
+      <c r="D32" s="19">
         <v>2724.8615334140964</v>
       </c>
-      <c r="E32" s="24">
+      <c r="E32" s="20">
         <v>78.16</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="25" t="s">
+    <row r="33" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="22"/>
-      <c r="C33" s="23">
+      <c r="B33" s="18"/>
+      <c r="C33" s="19">
         <v>0.1525</v>
       </c>
-      <c r="D33" s="23">
+      <c r="D33" s="19">
         <v>2652</v>
       </c>
-      <c r="E33" s="24">
+      <c r="E33" s="20">
         <v>78.16</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="25" t="s">
+    <row r="34" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="22"/>
-      <c r="C34" s="23">
+      <c r="B34" s="18"/>
+      <c r="C34" s="19">
         <v>0.1525</v>
       </c>
-      <c r="D34" s="23">
+      <c r="D34" s="19">
         <v>2652</v>
       </c>
-      <c r="E34" s="24">
+      <c r="E34" s="20">
         <v>78.16</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="25" t="s">
+    <row r="35" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="22">
+      <c r="B35" s="18">
         <v>41.51</v>
       </c>
-      <c r="C35" s="23">
+      <c r="C35" s="19">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="D35" s="23">
+      <c r="D35" s="19">
         <v>2338.0245599904306</v>
       </c>
-      <c r="E35" s="24">
+      <c r="E35" s="20">
         <v>78.16</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="B36" s="22">
+      <c r="B36" s="18">
         <v>41.51</v>
       </c>
-      <c r="C36" s="23">
+      <c r="C36" s="19">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="D36" s="23">
+      <c r="D36" s="19">
         <v>173.9</v>
       </c>
-      <c r="E36" s="24">
+      <c r="E36" s="20">
         <v>78.16</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B37" s="22">
+      <c r="B37" s="18">
         <v>41.51</v>
       </c>
-      <c r="C37" s="23">
+      <c r="C37" s="19">
         <v>0.69640000000000002</v>
       </c>
-      <c r="D37" s="23">
+      <c r="D37" s="19">
         <v>173.9</v>
       </c>
-      <c r="E37" s="24">
+      <c r="E37" s="20">
         <v>78.16</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="15">
+    <row r="39" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
         <v>58</v>
       </c>
       <c r="H39"/>
     </row>
-    <row r="41" spans="1:8" ht="15">
+    <row r="40" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" s="18"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="20"/>
+    </row>
+    <row r="41" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="12" t="s">
+        <v>64</v>
+      </c>
       <c r="H41"/>
     </row>
-    <row r="48" spans="1:8">
-      <c r="H48" s="28"/>
-    </row>
-    <row r="52" spans="8:8">
-      <c r="H52" s="28"/>
-    </row>
+    <row r="42" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="H48" s="24"/>
+    </row>
+    <row r="52" spans="8:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="H52" s="24"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{687E5A79-AEF0-4C58-9166-6C5467E11B80}">
+  <dimension ref="A1:M25"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:N2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.85546875" style="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="18"/>
+    <col min="3" max="4" width="9.140625" style="31"/>
+    <col min="5" max="5" width="9.140625" style="20"/>
+    <col min="6" max="6" width="9.140625" style="18"/>
+    <col min="7" max="12" width="9.140625" style="31"/>
+    <col min="13" max="13" width="9.140625" style="20"/>
+    <col min="14" max="16384" width="9.140625" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="28" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="27"/>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="L1" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="M1" s="29" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" s="32"/>
+    </row>
+    <row r="3" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/streams.xlsx
+++ b/streams.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E347DF25-B7F6-4819-9486-12C0CF4C93E3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B2EFA51-79C1-4813-BAB0-B2330DEDCAC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gas" sheetId="1" r:id="rId1"/>
     <sheet name="water" sheetId="2" r:id="rId2"/>
     <sheet name="syngas" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="69">
   <si>
     <t>GTU-PEVD</t>
   </si>
@@ -199,18 +199,6 @@
   </si>
   <si>
     <t>ASW-OD</t>
-  </si>
-  <si>
-    <t>было</t>
-  </si>
-  <si>
-    <t>погрешность на 8,8С</t>
-  </si>
-  <si>
-    <t>погрешность на 0.12С</t>
-  </si>
-  <si>
-    <t>погрешность на 0.2С</t>
   </si>
   <si>
     <t>DROSVD-ST</t>
@@ -250,7 +238,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000000000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -858,22 +846,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="5" customWidth="1"/>
-    <col min="2" max="5" width="9.140625" style="7"/>
-    <col min="6" max="6" width="9.140625" style="6"/>
-    <col min="7" max="9" width="9.140625" style="7"/>
-    <col min="10" max="10" width="9.140625" style="8"/>
-    <col min="11" max="11" width="13.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="1" width="14.81640625" style="5" customWidth="1"/>
+    <col min="2" max="5" width="9.1796875" style="7"/>
+    <col min="6" max="6" width="9.1796875" style="6"/>
+    <col min="7" max="9" width="9.1796875" style="7"/>
+    <col min="10" max="10" width="9.1796875" style="8"/>
+    <col min="11" max="11" width="13.26953125" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.1796875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="3" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" s="3" customFormat="1" ht="12" customHeight="1" thickBot="1">
       <c r="A1" s="1"/>
       <c r="B1" s="3" t="s">
         <v>6</v>
@@ -903,12 +891,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="12" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="12" customHeight="1">
       <c r="A3" s="22" t="s">
         <v>42</v>
       </c>
@@ -940,12 +928,12 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="12" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="12" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>0</v>
       </c>
@@ -977,7 +965,7 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="12" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>43</v>
       </c>
@@ -1014,7 +1002,7 @@
       <c r="N6" s="9"/>
       <c r="O6" s="9"/>
     </row>
-    <row r="7" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" ht="12" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>44</v>
       </c>
@@ -1046,7 +1034,7 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" s="15" customFormat="1" ht="12" customHeight="1">
       <c r="A8" s="14" t="s">
         <v>45</v>
       </c>
@@ -1078,7 +1066,7 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="15" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" s="15" customFormat="1" ht="12" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>46</v>
       </c>
@@ -1110,7 +1098,7 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" ht="12" customHeight="1">
       <c r="A10" s="5" t="s">
         <v>47</v>
       </c>
@@ -1142,7 +1130,7 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" ht="12" customHeight="1">
       <c r="A11" s="5" t="s">
         <v>48</v>
       </c>
@@ -1175,14 +1163,14 @@
       </c>
       <c r="K11" s="38"/>
     </row>
-    <row r="12" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" ht="12" customHeight="1">
       <c r="A12" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" s="35" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" s="35" customFormat="1" ht="12" customHeight="1" thickBot="1">
       <c r="A13" s="33" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F13" s="34"/>
       <c r="J13" s="36"/>
@@ -1195,24 +1183,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13792673-7A38-4CCB-80CF-EE250A0D6320}">
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="12" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="6"/>
-    <col min="3" max="3" width="9.140625" style="7"/>
-    <col min="4" max="4" width="11.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="8"/>
-    <col min="6" max="6" width="21.5703125" style="7" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="1" width="14.81640625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" style="6"/>
+    <col min="3" max="3" width="9.1796875" style="7"/>
+    <col min="4" max="4" width="11.453125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1796875" style="8"/>
+    <col min="6" max="6" width="21.54296875" style="7" customWidth="1"/>
+    <col min="7" max="16384" width="9.1796875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="3" customFormat="1" ht="12" customHeight="1" thickBot="1">
       <c r="A1" s="11"/>
       <c r="B1" s="2" t="s">
         <v>6</v>
@@ -1233,7 +1221,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="12" customHeight="1">
       <c r="A2" s="23" t="s">
         <v>56</v>
       </c>
@@ -1241,7 +1229,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="12" customHeight="1">
       <c r="A3" s="21" t="s">
         <v>31</v>
       </c>
@@ -1258,7 +1246,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="12" customHeight="1">
       <c r="A4" s="13" t="s">
         <v>10</v>
       </c>
@@ -1275,7 +1263,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="12" customHeight="1">
       <c r="A5" s="13" t="s">
         <v>11</v>
       </c>
@@ -1292,7 +1280,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="12" customHeight="1">
       <c r="A6" s="13" t="s">
         <v>12</v>
       </c>
@@ -1309,7 +1297,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="12" customHeight="1">
       <c r="A7" s="13" t="s">
         <v>13</v>
       </c>
@@ -1326,7 +1314,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="12" customHeight="1">
       <c r="A8" s="21" t="s">
         <v>32</v>
       </c>
@@ -1343,7 +1331,7 @@
         <v>14.76</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="12" customHeight="1">
       <c r="A9" s="13" t="s">
         <v>14</v>
       </c>
@@ -1360,7 +1348,7 @@
         <v>14.76</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="12" customHeight="1">
       <c r="A10" s="13" t="s">
         <v>15</v>
       </c>
@@ -1377,7 +1365,7 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="12" customHeight="1">
       <c r="A11" s="13" t="s">
         <v>52</v>
       </c>
@@ -1393,9 +1381,8 @@
       <c r="E11" s="8">
         <v>82.91</v>
       </c>
-      <c r="H11" s="24"/>
-    </row>
-    <row r="12" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:7" ht="12" customHeight="1">
       <c r="A12" s="13" t="s">
         <v>50</v>
       </c>
@@ -1412,7 +1399,7 @@
         <v>82.91</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="12" customHeight="1">
       <c r="A13" s="13" t="s">
         <v>51</v>
       </c>
@@ -1429,22 +1416,22 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="12" customHeight="1">
       <c r="A14" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="12" customHeight="1">
       <c r="A15" s="13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="12" customHeight="1">
       <c r="A16" s="13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="12" customHeight="1">
       <c r="A17" s="12" t="s">
         <v>19</v>
       </c>
@@ -1459,7 +1446,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="12" customHeight="1">
       <c r="A18" s="13" t="s">
         <v>20</v>
       </c>
@@ -1474,7 +1461,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="12" customHeight="1">
       <c r="A19" s="21" t="s">
         <v>49</v>
       </c>
@@ -1489,7 +1476,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="12" customHeight="1">
       <c r="A20" s="13" t="s">
         <v>21</v>
       </c>
@@ -1504,7 +1491,7 @@
         <v>100.77673095348899</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="12" customHeight="1">
       <c r="A21" s="13" t="s">
         <v>22</v>
       </c>
@@ -1519,7 +1506,7 @@
         <v>100.77673095348899</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="12" customHeight="1">
       <c r="A22" s="13" t="s">
         <v>25</v>
       </c>
@@ -1536,7 +1523,7 @@
         <v>43.733333333333299</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="12" customHeight="1">
       <c r="A23" s="13" t="s">
         <v>26</v>
       </c>
@@ -1553,7 +1540,7 @@
         <v>43.733333333333299</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="12" customHeight="1">
       <c r="A24" s="13" t="s">
         <v>27</v>
       </c>
@@ -1569,11 +1556,8 @@
       <c r="E24" s="10">
         <v>800</v>
       </c>
-      <c r="F24" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:5" ht="12" customHeight="1">
       <c r="A25" s="13" t="s">
         <v>28</v>
       </c>
@@ -1589,17 +1573,8 @@
       <c r="E25" s="8">
         <v>800</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H25" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="I25" s="26">
-        <v>412.67072000000002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:5" ht="12" customHeight="1">
       <c r="A26" s="13" t="s">
         <v>29</v>
       </c>
@@ -1615,11 +1590,8 @@
       <c r="E26" s="8">
         <v>800</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:5" ht="12" customHeight="1">
       <c r="A27" s="21" t="s">
         <v>30</v>
       </c>
@@ -1636,7 +1608,7 @@
         <v>32.141666666666602</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="12" customHeight="1">
       <c r="A28" s="21" t="s">
         <v>33</v>
       </c>
@@ -1653,7 +1625,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="12" customHeight="1">
       <c r="A29" s="21" t="s">
         <v>34</v>
       </c>
@@ -1670,7 +1642,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="12" customHeight="1">
       <c r="A30" s="21" t="s">
         <v>35</v>
       </c>
@@ -1687,7 +1659,7 @@
         <v>14.76</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="12" customHeight="1">
       <c r="A31" s="21" t="s">
         <v>40</v>
       </c>
@@ -1704,7 +1676,7 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="12" customHeight="1">
       <c r="A32" s="21" t="s">
         <v>36</v>
       </c>
@@ -1721,7 +1693,7 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="12" customHeight="1">
       <c r="A33" s="21" t="s">
         <v>37</v>
       </c>
@@ -1736,7 +1708,7 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="12" customHeight="1">
       <c r="A34" s="21" t="s">
         <v>38</v>
       </c>
@@ -1751,7 +1723,7 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="12" customHeight="1">
       <c r="A35" s="21" t="s">
         <v>39</v>
       </c>
@@ -1768,7 +1740,7 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="12" customHeight="1">
       <c r="A36" s="12" t="s">
         <v>54</v>
       </c>
@@ -1785,7 +1757,7 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="12" customHeight="1">
       <c r="A37" s="12" t="s">
         <v>55</v>
       </c>
@@ -1802,41 +1774,39 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="12" customHeight="1">
       <c r="A38" s="12" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="12" customHeight="1">
       <c r="A39" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="H39"/>
-    </row>
-    <row r="40" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:8" ht="12" customHeight="1">
       <c r="A40" s="21" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B40" s="18"/>
       <c r="C40" s="19"/>
       <c r="D40" s="19"/>
       <c r="E40" s="20"/>
     </row>
-    <row r="41" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="12" customHeight="1">
       <c r="A41" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="H41"/>
-    </row>
-    <row r="42" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="12" customHeight="1">
       <c r="A42" s="12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="H48" s="24"/>
     </row>
-    <row r="52" spans="8:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="8:8">
       <c r="H52" s="24"/>
     </row>
   </sheetData>
@@ -1848,23 +1818,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{687E5A79-AEF0-4C58-9166-6C5467E11B80}">
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F2" sqref="F2:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" style="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="18"/>
-    <col min="3" max="4" width="9.140625" style="31"/>
-    <col min="5" max="5" width="9.140625" style="20"/>
-    <col min="6" max="6" width="9.140625" style="18"/>
-    <col min="7" max="12" width="9.140625" style="31"/>
-    <col min="13" max="13" width="9.140625" style="20"/>
-    <col min="14" max="16384" width="9.140625" style="19"/>
+    <col min="1" max="1" width="9.81640625" style="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" style="18"/>
+    <col min="3" max="4" width="9.1796875" style="31"/>
+    <col min="5" max="5" width="9.1796875" style="20"/>
+    <col min="6" max="6" width="9.1796875" style="18"/>
+    <col min="7" max="12" width="9.1796875" style="31"/>
+    <col min="13" max="13" width="9.1796875" style="20"/>
+    <col min="14" max="16384" width="9.1796875" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="28" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="28" customFormat="1" ht="12" customHeight="1" thickBot="1">
       <c r="A1" s="27"/>
       <c r="B1" s="2" t="s">
         <v>6</v>
@@ -1894,44 +1864,44 @@
         <v>4</v>
       </c>
       <c r="K1" s="28" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="L1" s="28" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="M1" s="29" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="12" customHeight="1">
       <c r="A2" s="30" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G2" s="32"/>
     </row>
-    <row r="3" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:13" ht="12" customHeight="1"/>
+    <row r="4" spans="1:13" ht="12" customHeight="1"/>
+    <row r="5" spans="1:13" ht="12" customHeight="1"/>
+    <row r="6" spans="1:13" ht="12" customHeight="1"/>
+    <row r="7" spans="1:13" ht="12" customHeight="1"/>
+    <row r="8" spans="1:13" ht="12" customHeight="1"/>
+    <row r="9" spans="1:13" ht="12" customHeight="1"/>
+    <row r="10" spans="1:13" ht="12" customHeight="1"/>
+    <row r="11" spans="1:13" ht="12" customHeight="1"/>
+    <row r="12" spans="1:13" ht="12" customHeight="1"/>
+    <row r="13" spans="1:13" ht="12" customHeight="1"/>
+    <row r="14" spans="1:13" ht="12" customHeight="1"/>
+    <row r="15" spans="1:13" ht="12" customHeight="1"/>
+    <row r="16" spans="1:13" ht="12" customHeight="1"/>
+    <row r="17" ht="12" customHeight="1"/>
+    <row r="18" ht="12" customHeight="1"/>
+    <row r="19" ht="12" customHeight="1"/>
+    <row r="20" ht="12" customHeight="1"/>
+    <row r="21" ht="12" customHeight="1"/>
+    <row r="22" ht="12" customHeight="1"/>
+    <row r="23" ht="12" customHeight="1"/>
+    <row r="24" ht="12" customHeight="1"/>
+    <row r="25" ht="12" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/streams.xlsx
+++ b/streams.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B2EFA51-79C1-4813-BAB0-B2330DEDCAC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D317C404-1812-4F28-8BCE-303A3ACF93C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="-13990" yWindow="3120" windowWidth="10800" windowHeight="10190" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gas" sheetId="1" r:id="rId1"/>
@@ -16,6 +16,14 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -846,7 +854,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
@@ -1185,8 +1193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13792673-7A38-4CCB-80CF-EE250A0D6320}">
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13"/>

--- a/streams.xlsx
+++ b/streams.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D317C404-1812-4F28-8BCE-303A3ACF93C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F010E87F-0EE2-4DAD-BB96-FFF8FF122D69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-13990" yWindow="3120" windowWidth="10800" windowHeight="10190" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gas" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="71">
   <si>
     <t>GTU-PEVD</t>
   </si>
@@ -237,6 +237,12 @@
   </si>
   <si>
     <t>CH4-REF</t>
+  </si>
+  <si>
+    <t>SWIN</t>
+  </si>
+  <si>
+    <t>SWOUT</t>
   </si>
 </sst>
 </file>
@@ -297,7 +303,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -307,12 +313,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,7 +455,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -529,12 +529,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -570,6 +564,9 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -858,15 +855,15 @@
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" style="5" customWidth="1"/>
-    <col min="2" max="5" width="9.1796875" style="7"/>
-    <col min="6" max="6" width="9.1796875" style="6"/>
-    <col min="7" max="9" width="9.1796875" style="7"/>
-    <col min="10" max="10" width="9.1796875" style="8"/>
-    <col min="11" max="11" width="13.26953125" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.1796875" style="7"/>
+    <col min="1" max="1" width="14.85546875" style="5" customWidth="1"/>
+    <col min="2" max="5" width="9.140625" style="7"/>
+    <col min="6" max="6" width="9.140625" style="6"/>
+    <col min="7" max="9" width="9.140625" style="7"/>
+    <col min="10" max="10" width="9.140625" style="8"/>
+    <col min="11" max="11" width="13.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="3" customFormat="1" ht="12" customHeight="1" thickBot="1">
@@ -1169,20 +1166,20 @@
       <c r="J11" s="8">
         <v>6.4999999999999997E-3</v>
       </c>
-      <c r="K11" s="38"/>
+      <c r="K11" s="36"/>
     </row>
     <row r="12" spans="1:18" ht="12" customHeight="1">
       <c r="A12" s="5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:18" s="35" customFormat="1" ht="12" customHeight="1" thickBot="1">
-      <c r="A13" s="33" t="s">
+    <row r="13" spans="1:18" s="33" customFormat="1" ht="12" customHeight="1" thickBot="1">
+      <c r="A13" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="F13" s="34"/>
-      <c r="J13" s="36"/>
-      <c r="R13" s="37"/>
+      <c r="F13" s="32"/>
+      <c r="J13" s="34"/>
+      <c r="R13" s="35"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1194,18 +1191,18 @@
   <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E2"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" style="6"/>
-    <col min="3" max="3" width="9.1796875" style="7"/>
-    <col min="4" max="4" width="11.453125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.1796875" style="8"/>
-    <col min="6" max="6" width="21.54296875" style="7" customWidth="1"/>
-    <col min="7" max="16384" width="9.1796875" style="7"/>
+    <col min="1" max="1" width="14.85546875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="6"/>
+    <col min="3" max="3" width="9.140625" style="7"/>
+    <col min="4" max="4" width="11.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="8"/>
+    <col min="6" max="6" width="21.5703125" style="7" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="3" customFormat="1" ht="12" customHeight="1" thickBot="1">
@@ -1234,7 +1231,7 @@
         <v>56</v>
       </c>
       <c r="B2" s="6">
-        <v>15</v>
+        <v>-23</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="12" customHeight="1">
@@ -1480,7 +1477,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="19"/>
-      <c r="E19" s="20">
+      <c r="E19" s="8">
         <v>800</v>
       </c>
     </row>
@@ -1552,13 +1549,13 @@
       <c r="A24" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="25">
+      <c r="B24" s="37">
         <v>70.294916839916795</v>
       </c>
-      <c r="C24" s="26">
+      <c r="C24" s="7">
         <v>1</v>
       </c>
-      <c r="D24" s="26">
+      <c r="D24" s="7">
         <v>294.32481680873161</v>
       </c>
       <c r="E24" s="10">
@@ -1569,13 +1566,13 @@
       <c r="A25" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="25">
+      <c r="B25" s="37">
         <v>90</v>
       </c>
-      <c r="C25" s="26">
+      <c r="C25" s="7">
         <v>1</v>
       </c>
-      <c r="D25" s="26">
+      <c r="D25" s="7">
         <v>377.75</v>
       </c>
       <c r="E25" s="8">
@@ -1809,6 +1806,37 @@
     <row r="42" spans="1:8" ht="12" customHeight="1">
       <c r="A42" s="12" t="s">
         <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B43" s="18">
+        <v>46</v>
+      </c>
+      <c r="C43" s="19">
+        <v>1</v>
+      </c>
+      <c r="E43" s="8">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B44" s="37">
+        <v>90</v>
+      </c>
+      <c r="C44" s="7">
+        <v>1</v>
+      </c>
+      <c r="D44" s="7">
+        <v>377.75</v>
+      </c>
+      <c r="E44" s="8">
+        <v>800</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1830,20 +1858,20 @@
       <selection activeCell="F2" sqref="F2:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="9.81640625" style="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" style="18"/>
-    <col min="3" max="4" width="9.1796875" style="31"/>
-    <col min="5" max="5" width="9.1796875" style="20"/>
-    <col min="6" max="6" width="9.1796875" style="18"/>
-    <col min="7" max="12" width="9.1796875" style="31"/>
-    <col min="13" max="13" width="9.1796875" style="20"/>
-    <col min="14" max="16384" width="9.1796875" style="19"/>
+    <col min="1" max="1" width="9.85546875" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="18"/>
+    <col min="3" max="4" width="9.140625" style="29"/>
+    <col min="5" max="5" width="9.140625" style="20"/>
+    <col min="6" max="6" width="9.140625" style="18"/>
+    <col min="7" max="12" width="9.140625" style="29"/>
+    <col min="13" max="13" width="9.140625" style="20"/>
+    <col min="14" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="28" customFormat="1" ht="12" customHeight="1" thickBot="1">
-      <c r="A1" s="27"/>
+    <row r="1" spans="1:13" s="26" customFormat="1" ht="12" customHeight="1" thickBot="1">
+      <c r="A1" s="25"/>
       <c r="B1" s="2" t="s">
         <v>6</v>
       </c>
@@ -1871,21 +1899,21 @@
       <c r="J1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="K1" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="L1" s="28" t="s">
+      <c r="L1" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="M1" s="29" t="s">
+      <c r="M1" s="27" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="12" customHeight="1">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="G2" s="32"/>
+      <c r="G2" s="30"/>
     </row>
     <row r="3" spans="1:13" ht="12" customHeight="1"/>
     <row r="4" spans="1:13" ht="12" customHeight="1"/>

--- a/streams.xlsx
+++ b/streams.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F010E87F-0EE2-4DAD-BB96-FFF8FF122D69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{290DF0C0-F0FB-45B4-9AB5-FBD5BA5597DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14510" yWindow="-110" windowWidth="14620" windowHeight="25220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gas" sheetId="1" r:id="rId1"/>
@@ -855,15 +855,15 @@
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="5" customWidth="1"/>
-    <col min="2" max="5" width="9.140625" style="7"/>
-    <col min="6" max="6" width="9.140625" style="6"/>
-    <col min="7" max="9" width="9.140625" style="7"/>
-    <col min="10" max="10" width="9.140625" style="8"/>
-    <col min="11" max="11" width="13.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="1" width="14.81640625" style="5" customWidth="1"/>
+    <col min="2" max="5" width="9.1796875" style="7"/>
+    <col min="6" max="6" width="9.1796875" style="6"/>
+    <col min="7" max="9" width="9.1796875" style="7"/>
+    <col min="10" max="10" width="9.1796875" style="8"/>
+    <col min="11" max="11" width="13.26953125" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.1796875" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="3" customFormat="1" ht="12" customHeight="1" thickBot="1">
@@ -1191,18 +1191,18 @@
   <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="12" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="6"/>
-    <col min="3" max="3" width="9.140625" style="7"/>
-    <col min="4" max="4" width="11.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="8"/>
-    <col min="6" max="6" width="21.5703125" style="7" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="1" width="14.81640625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" style="6"/>
+    <col min="3" max="3" width="9.1796875" style="7"/>
+    <col min="4" max="4" width="11.453125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1796875" style="8"/>
+    <col min="6" max="6" width="21.54296875" style="7" customWidth="1"/>
+    <col min="7" max="16384" width="9.1796875" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="3" customFormat="1" ht="12" customHeight="1" thickBot="1">
@@ -1478,7 +1478,7 @@
       </c>
       <c r="D19" s="19"/>
       <c r="E19" s="8">
-        <v>800</v>
+        <v>750</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="12" customHeight="1">
@@ -1858,16 +1858,16 @@
       <selection activeCell="F2" sqref="F2:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" style="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="18"/>
-    <col min="3" max="4" width="9.140625" style="29"/>
-    <col min="5" max="5" width="9.140625" style="20"/>
-    <col min="6" max="6" width="9.140625" style="18"/>
-    <col min="7" max="12" width="9.140625" style="29"/>
-    <col min="13" max="13" width="9.140625" style="20"/>
-    <col min="14" max="16384" width="9.140625" style="19"/>
+    <col min="1" max="1" width="9.81640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" style="18"/>
+    <col min="3" max="4" width="9.1796875" style="29"/>
+    <col min="5" max="5" width="9.1796875" style="20"/>
+    <col min="6" max="6" width="9.1796875" style="18"/>
+    <col min="7" max="12" width="9.1796875" style="29"/>
+    <col min="13" max="13" width="9.1796875" style="20"/>
+    <col min="14" max="16384" width="9.1796875" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="26" customFormat="1" ht="12" customHeight="1" thickBot="1">

--- a/streams.xlsx
+++ b/streams.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{290DF0C0-F0FB-45B4-9AB5-FBD5BA5597DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04C85A8F-EF78-4E84-B77A-F16F8C7EB423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14510" yWindow="-110" windowWidth="14620" windowHeight="25220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gas" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="69">
   <si>
     <t>GTU-PEVD</t>
   </si>
@@ -206,15 +206,6 @@
     <t>SP2-ASW</t>
   </si>
   <si>
-    <t>ASW-OD</t>
-  </si>
-  <si>
-    <t>DROSVD-ST</t>
-  </si>
-  <si>
-    <t>ST-GPK</t>
-  </si>
-  <si>
     <t>ST-PKM</t>
   </si>
   <si>
@@ -243,6 +234,9 @@
   </si>
   <si>
     <t>SWOUT</t>
+  </si>
+  <si>
+    <t>ASW-WOUT</t>
   </si>
 </sst>
 </file>
@@ -855,15 +849,15 @@
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" style="5" customWidth="1"/>
-    <col min="2" max="5" width="9.1796875" style="7"/>
-    <col min="6" max="6" width="9.1796875" style="6"/>
-    <col min="7" max="9" width="9.1796875" style="7"/>
-    <col min="10" max="10" width="9.1796875" style="8"/>
-    <col min="11" max="11" width="13.26953125" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.1796875" style="7"/>
+    <col min="1" max="1" width="14.85546875" style="5" customWidth="1"/>
+    <col min="2" max="5" width="9.140625" style="7"/>
+    <col min="6" max="6" width="9.140625" style="6"/>
+    <col min="7" max="9" width="9.140625" style="7"/>
+    <col min="10" max="10" width="9.140625" style="8"/>
+    <col min="11" max="11" width="13.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="3" customFormat="1" ht="12" customHeight="1" thickBot="1">
@@ -935,7 +929,7 @@
     </row>
     <row r="4" spans="1:18" ht="12" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="12" customHeight="1">
@@ -1170,12 +1164,12 @@
     </row>
     <row r="12" spans="1:18" ht="12" customHeight="1">
       <c r="A12" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:18" s="33" customFormat="1" ht="12" customHeight="1" thickBot="1">
       <c r="A13" s="31" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F13" s="32"/>
       <c r="J13" s="34"/>
@@ -1188,21 +1182,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13792673-7A38-4CCB-80CF-EE250A0D6320}">
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" style="6"/>
-    <col min="3" max="3" width="9.1796875" style="7"/>
-    <col min="4" max="4" width="11.453125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.1796875" style="8"/>
-    <col min="6" max="6" width="21.54296875" style="7" customWidth="1"/>
-    <col min="7" max="16384" width="9.1796875" style="7"/>
+    <col min="1" max="1" width="14.85546875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="6"/>
+    <col min="3" max="3" width="9.140625" style="7"/>
+    <col min="4" max="4" width="11.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="8"/>
+    <col min="6" max="6" width="21.5703125" style="7" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="3" customFormat="1" ht="12" customHeight="1" thickBot="1">
@@ -1786,64 +1780,50 @@
     </row>
     <row r="39" spans="1:8" ht="12" customHeight="1">
       <c r="A39" s="12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="12" customHeight="1">
+      <c r="A40" s="12" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="12" customHeight="1">
-      <c r="A40" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="B40" s="18"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="20"/>
-    </row>
-    <row r="41" spans="1:8" ht="12" customHeight="1">
+    <row r="41" spans="1:8">
       <c r="A41" s="12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="12" customHeight="1">
+        <v>66</v>
+      </c>
+      <c r="B41" s="18">
+        <v>46</v>
+      </c>
+      <c r="C41" s="19">
+        <v>1</v>
+      </c>
+      <c r="E41" s="8">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="B43" s="18">
-        <v>46</v>
-      </c>
-      <c r="C43" s="19">
+        <v>67</v>
+      </c>
+      <c r="B42" s="37">
+        <v>90</v>
+      </c>
+      <c r="C42" s="7">
         <v>1</v>
       </c>
-      <c r="E43" s="8">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="B44" s="37">
-        <v>90</v>
-      </c>
-      <c r="C44" s="7">
-        <v>1</v>
-      </c>
-      <c r="D44" s="7">
+      <c r="D42" s="7">
         <v>377.75</v>
       </c>
-      <c r="E44" s="8">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="H48" s="24"/>
-    </row>
-    <row r="52" spans="8:8">
-      <c r="H52" s="24"/>
+      <c r="E42" s="8">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="H46" s="24"/>
+    </row>
+    <row r="50" spans="8:8">
+      <c r="H50" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1858,16 +1838,16 @@
       <selection activeCell="F2" sqref="F2:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="9.81640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" style="18"/>
-    <col min="3" max="4" width="9.1796875" style="29"/>
-    <col min="5" max="5" width="9.1796875" style="20"/>
-    <col min="6" max="6" width="9.1796875" style="18"/>
-    <col min="7" max="12" width="9.1796875" style="29"/>
-    <col min="13" max="13" width="9.1796875" style="20"/>
-    <col min="14" max="16384" width="9.1796875" style="19"/>
+    <col min="1" max="1" width="9.85546875" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="18"/>
+    <col min="3" max="4" width="9.140625" style="29"/>
+    <col min="5" max="5" width="9.140625" style="20"/>
+    <col min="6" max="6" width="9.140625" style="18"/>
+    <col min="7" max="12" width="9.140625" style="29"/>
+    <col min="13" max="13" width="9.140625" style="20"/>
+    <col min="14" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="26" customFormat="1" ht="12" customHeight="1" thickBot="1">
@@ -1900,18 +1880,18 @@
         <v>4</v>
       </c>
       <c r="K1" s="26" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L1" s="26" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="M1" s="27" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="12" customHeight="1">
       <c r="A2" s="28" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G2" s="30"/>
     </row>

--- a/streams.xlsx
+++ b/streams.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04C85A8F-EF78-4E84-B77A-F16F8C7EB423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA566FC-0AA2-4FB3-BB63-A65CBE582D5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14510" yWindow="-110" windowWidth="14620" windowHeight="25220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gas" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="67">
   <si>
     <t>GTU-PEVD</t>
   </si>
@@ -80,15 +80,6 @@
     <t>GPK-IND</t>
   </si>
   <si>
-    <t>GPK-RECIRC</t>
-  </si>
-  <si>
-    <t>GPK-BYPASS</t>
-  </si>
-  <si>
-    <t>X-SMESH</t>
-  </si>
-  <si>
     <t>SP1-OD</t>
   </si>
   <si>
@@ -237,6 +228,9 @@
   </si>
   <si>
     <t>ASW-WOUT</t>
+  </si>
+  <si>
+    <t>SMESH-GPK</t>
   </si>
 </sst>
 </file>
@@ -449,7 +443,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -481,15 +475,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -499,9 +484,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -510,16 +492,10 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -558,9 +534,6 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -849,15 +822,15 @@
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="5" customWidth="1"/>
-    <col min="2" max="5" width="9.140625" style="7"/>
-    <col min="6" max="6" width="9.140625" style="6"/>
-    <col min="7" max="9" width="9.140625" style="7"/>
-    <col min="10" max="10" width="9.140625" style="8"/>
-    <col min="11" max="11" width="13.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="1" width="14.81640625" style="5" customWidth="1"/>
+    <col min="2" max="5" width="9.1796875" style="7"/>
+    <col min="6" max="6" width="9.1796875" style="6"/>
+    <col min="7" max="9" width="9.1796875" style="7"/>
+    <col min="10" max="10" width="9.1796875" style="8"/>
+    <col min="11" max="11" width="13.26953125" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.1796875" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="3" customFormat="1" ht="12" customHeight="1" thickBot="1">
@@ -892,12 +865,12 @@
     </row>
     <row r="2" spans="1:18" ht="12" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="12" customHeight="1">
-      <c r="A3" s="22" t="s">
-        <v>42</v>
+      <c r="A3" s="17" t="s">
+        <v>39</v>
       </c>
       <c r="B3" s="7">
         <v>542.1</v>
@@ -929,7 +902,7 @@
     </row>
     <row r="4" spans="1:18" ht="12" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="12" customHeight="1">
@@ -966,7 +939,7 @@
     </row>
     <row r="6" spans="1:18" ht="12" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B6" s="7">
         <v>468.05</v>
@@ -1003,7 +976,7 @@
     </row>
     <row r="7" spans="1:18" ht="12" customHeight="1">
       <c r="A7" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B7" s="7">
         <v>309.2</v>
@@ -1033,9 +1006,9 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="15" customFormat="1" ht="12" customHeight="1">
-      <c r="A8" s="14" t="s">
-        <v>45</v>
+    <row r="8" spans="1:18" s="12" customFormat="1" ht="12" customHeight="1">
+      <c r="A8" s="11" t="s">
+        <v>42</v>
       </c>
       <c r="B8" s="7">
         <v>235.9</v>
@@ -1065,9 +1038,9 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="15" customFormat="1" ht="12" customHeight="1">
-      <c r="A9" s="14" t="s">
-        <v>46</v>
+    <row r="9" spans="1:18" s="12" customFormat="1" ht="12" customHeight="1">
+      <c r="A9" s="11" t="s">
+        <v>43</v>
       </c>
       <c r="B9" s="7">
         <v>233</v>
@@ -1099,7 +1072,7 @@
     </row>
     <row r="10" spans="1:18" ht="12" customHeight="1">
       <c r="A10" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B10" s="7">
         <v>175.5</v>
@@ -1131,7 +1104,7 @@
     </row>
     <row r="11" spans="1:18" ht="12" customHeight="1">
       <c r="A11" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B11" s="7">
         <v>106.9</v>
@@ -1160,20 +1133,20 @@
       <c r="J11" s="8">
         <v>6.4999999999999997E-3</v>
       </c>
-      <c r="K11" s="36"/>
+      <c r="K11" s="30"/>
     </row>
     <row r="12" spans="1:18" ht="12" customHeight="1">
       <c r="A12" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" s="33" customFormat="1" ht="12" customHeight="1" thickBot="1">
-      <c r="A13" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="F13" s="32"/>
-      <c r="J13" s="34"/>
-      <c r="R13" s="35"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" s="27" customFormat="1" ht="12" customHeight="1" thickBot="1">
+      <c r="A13" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="26"/>
+      <c r="J13" s="28"/>
+      <c r="R13" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1182,26 +1155,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13792673-7A38-4CCB-80CF-EE250A0D6320}">
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="12" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="6"/>
-    <col min="3" max="3" width="9.140625" style="7"/>
-    <col min="4" max="4" width="11.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="8"/>
-    <col min="6" max="6" width="21.5703125" style="7" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="1" width="14.81640625" style="5" customWidth="1"/>
+    <col min="2" max="3" width="9.1796875" style="7"/>
+    <col min="4" max="4" width="11.453125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1796875" style="8"/>
+    <col min="6" max="6" width="21.54296875" style="7" customWidth="1"/>
+    <col min="7" max="16384" width="9.1796875" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="3" customFormat="1" ht="12" customHeight="1" thickBot="1">
-      <c r="A1" s="11"/>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -1214,28 +1186,28 @@
         <v>9</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="12" customHeight="1">
+      <c r="A2" s="5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="12" customHeight="1">
-      <c r="A2" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="6">
+      <c r="B2" s="7">
         <v>-23</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="12" customHeight="1">
-      <c r="A3" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="6">
+      <c r="A3" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="7">
         <v>511.5</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="13">
         <v>8.407</v>
       </c>
       <c r="D3" s="7">
@@ -1246,10 +1218,10 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="12" customHeight="1">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="7">
         <v>301.29755574753347</v>
       </c>
       <c r="C4" s="7">
@@ -1263,10 +1235,10 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="12" customHeight="1">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="7">
         <v>298.8</v>
       </c>
       <c r="C5" s="7">
@@ -1280,10 +1252,10 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="12" customHeight="1">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="7">
         <v>166.5</v>
       </c>
       <c r="C6" s="7">
@@ -1297,10 +1269,10 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="12" customHeight="1">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="7">
         <v>164.73836143543406</v>
       </c>
       <c r="C7" s="7">
@@ -1314,13 +1286,13 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="12" customHeight="1">
-      <c r="A8" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="6">
+      <c r="A8" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="7">
         <v>211.6</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="13">
         <v>0.69099999999999995</v>
       </c>
       <c r="D8" s="7">
@@ -1331,10 +1303,10 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="12" customHeight="1">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="7">
         <v>164.73836143543406</v>
       </c>
       <c r="C9" s="7">
@@ -1348,10 +1320,10 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="12" customHeight="1">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="7">
         <v>164.6</v>
       </c>
       <c r="C10" s="7">
@@ -1365,10 +1337,10 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="12" customHeight="1">
-      <c r="A11" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" s="6">
+      <c r="A11" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="7">
         <v>164.6</v>
       </c>
       <c r="C11" s="7">
@@ -1382,10 +1354,10 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="12" customHeight="1">
-      <c r="A12" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="17">
+      <c r="A12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="13">
         <v>60</v>
       </c>
       <c r="C12" s="7">
@@ -1399,10 +1371,10 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="12" customHeight="1">
-      <c r="A13" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" s="7">
+      <c r="A13" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="13">
         <v>44.2</v>
       </c>
       <c r="C13" s="7">
@@ -1416,414 +1388,416 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="12" customHeight="1">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="7">
+        <v>44.2</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0.69640000000000002</v>
+      </c>
+      <c r="D14" s="7">
+        <v>185.7</v>
+      </c>
+      <c r="E14" s="8">
+        <v>78.16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="12" customHeight="1">
+      <c r="A15" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="12" customHeight="1">
-      <c r="A15" s="13" t="s">
+      <c r="B15" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="15">
+        <v>3.8226901700000003E-2</v>
+      </c>
+      <c r="D15" s="15"/>
+      <c r="E15" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="12" customHeight="1">
+      <c r="A16" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="12" customHeight="1">
-      <c r="A16" s="13" t="s">
+      <c r="B16" s="23">
+        <v>49.839511130751802</v>
+      </c>
+      <c r="C16" s="15">
+        <v>3.8226901700000003E-2</v>
+      </c>
+      <c r="D16" s="15"/>
+      <c r="E16" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="12" customHeight="1">
+      <c r="A17" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="23">
+        <v>46</v>
+      </c>
+      <c r="C17" s="15">
+        <v>1</v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="8">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="12" customHeight="1">
+      <c r="A18" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="12" customHeight="1">
-      <c r="A17" s="12" t="s">
+      <c r="B18" s="23">
+        <v>46</v>
+      </c>
+      <c r="C18" s="15">
+        <v>1</v>
+      </c>
+      <c r="D18" s="15"/>
+      <c r="E18" s="16">
+        <v>100.77673095348899</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="12" customHeight="1">
+      <c r="A19" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B19" s="23">
+        <v>64.77</v>
+      </c>
+      <c r="C19" s="15">
+        <v>1</v>
+      </c>
+      <c r="D19" s="15"/>
+      <c r="E19" s="16">
+        <v>100.77673095348899</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="12" customHeight="1">
+      <c r="A20" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="7">
+        <v>107.6</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0.13219638629678299</v>
+      </c>
+      <c r="D20" s="7">
+        <v>2622.5496464962498</v>
+      </c>
+      <c r="E20" s="8">
+        <v>43.733333333333299</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="12" customHeight="1">
+      <c r="A21" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="19">
-        <v>3.8226901700000003E-2</v>
-      </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="20" t="s">
+      <c r="B21" s="7">
+        <v>106.101586260687</v>
+      </c>
+      <c r="C21" s="7">
+        <v>0.12558656698194401</v>
+      </c>
+      <c r="D21" s="7">
+        <v>444.928681619781</v>
+      </c>
+      <c r="E21" s="8">
+        <v>43.733333333333299</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="12" customHeight="1">
+      <c r="A22" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="12" customHeight="1">
-      <c r="A18" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="18">
-        <v>49.839511130751802</v>
-      </c>
-      <c r="C18" s="19">
-        <v>3.8226901700000003E-2</v>
-      </c>
-      <c r="D18" s="19"/>
-      <c r="E18" s="20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="12" customHeight="1">
-      <c r="A19" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" s="18">
-        <v>46</v>
-      </c>
-      <c r="C19" s="19">
+      <c r="B22" s="9">
+        <v>70.294916839916795</v>
+      </c>
+      <c r="C22" s="7">
         <v>1</v>
       </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="8">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="12" customHeight="1">
-      <c r="A20" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="18">
-        <v>46</v>
-      </c>
-      <c r="C20" s="19">
+      <c r="D22" s="7">
+        <v>294.32481680873161</v>
+      </c>
+      <c r="E22" s="10">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="12" customHeight="1">
+      <c r="A23" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="9">
+        <v>90</v>
+      </c>
+      <c r="C23" s="7">
         <v>1</v>
       </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="20">
-        <v>100.77673095348899</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="12" customHeight="1">
-      <c r="A21" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="18">
-        <v>64.77</v>
-      </c>
-      <c r="C21" s="19">
-        <v>1</v>
-      </c>
-      <c r="D21" s="19"/>
-      <c r="E21" s="20">
-        <v>100.77673095348899</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="12" customHeight="1">
-      <c r="A22" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="6">
-        <v>107.6</v>
-      </c>
-      <c r="C22" s="7">
-        <v>0.13219638629678299</v>
-      </c>
-      <c r="D22" s="7">
-        <v>2622.5496464962498</v>
-      </c>
-      <c r="E22" s="8">
-        <v>43.733333333333299</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="12" customHeight="1">
-      <c r="A23" s="13" t="s">
+      <c r="D23" s="7">
+        <v>377.75</v>
+      </c>
+      <c r="E23" s="8">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="12" customHeight="1">
+      <c r="A24" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="6">
-        <v>106.101586260687</v>
-      </c>
-      <c r="C23" s="7">
-        <v>0.12558656698194401</v>
-      </c>
-      <c r="D23" s="7">
-        <v>444.928681619781</v>
-      </c>
-      <c r="E23" s="8">
-        <v>43.733333333333299</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="12" customHeight="1">
-      <c r="A24" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="37">
-        <v>70.294916839916795</v>
+      <c r="B24" s="7">
+        <v>48.336070686070599</v>
       </c>
       <c r="C24" s="7">
         <v>1</v>
       </c>
-      <c r="D24" s="7">
-        <v>294.32481680873161</v>
-      </c>
-      <c r="E24" s="10">
+      <c r="D24" s="15">
+        <v>202.38312796257762</v>
+      </c>
+      <c r="E24" s="8">
         <v>800</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="12" customHeight="1">
-      <c r="A25" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="37">
+      <c r="A25" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="23">
+        <v>76</v>
+      </c>
+      <c r="C25" s="15">
+        <v>4.0238843925466602E-2</v>
+      </c>
+      <c r="D25" s="15">
+        <v>2464.75601712861</v>
+      </c>
+      <c r="E25" s="16">
+        <v>32.141666666666602</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="12" customHeight="1">
+      <c r="A26" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="23">
+        <v>508.6</v>
+      </c>
+      <c r="C26" s="15">
+        <v>5.1989999999999998</v>
+      </c>
+      <c r="D26" s="15">
+        <v>3414.0936824129262</v>
+      </c>
+      <c r="E26" s="16">
+        <v>63.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="12" customHeight="1">
+      <c r="A27" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="23">
+        <v>195.85257753389442</v>
+      </c>
+      <c r="C27" s="15">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="D27" s="15">
+        <v>2844.2851295823216</v>
+      </c>
+      <c r="E27" s="16">
+        <v>63.4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="12" customHeight="1">
+      <c r="A28" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="23">
+        <v>209.8</v>
+      </c>
+      <c r="C28" s="15">
+        <v>0.4</v>
+      </c>
+      <c r="D28" s="15">
+        <v>2859.6691118398307</v>
+      </c>
+      <c r="E28" s="16">
+        <v>14.76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="12" customHeight="1">
+      <c r="A29" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="23">
+        <v>197.8</v>
+      </c>
+      <c r="C29" s="15">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="D29" s="15">
+        <v>2848.5216025782688</v>
+      </c>
+      <c r="E29" s="16">
+        <v>78.16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="12" customHeight="1">
+      <c r="A30" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="23">
+        <v>131.4</v>
+      </c>
+      <c r="C30" s="15">
+        <v>0.25419999999999998</v>
+      </c>
+      <c r="D30" s="15">
+        <v>2724.8615334140964</v>
+      </c>
+      <c r="E30" s="16">
+        <v>78.16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="12" customHeight="1">
+      <c r="A31" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="23"/>
+      <c r="C31" s="15">
+        <v>0.1525</v>
+      </c>
+      <c r="D31" s="15">
+        <v>2652</v>
+      </c>
+      <c r="E31" s="16">
+        <v>78.16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="12" customHeight="1">
+      <c r="A32" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="23"/>
+      <c r="C32" s="15">
+        <v>0.1525</v>
+      </c>
+      <c r="D32" s="15">
+        <v>2652</v>
+      </c>
+      <c r="E32" s="16">
+        <v>78.16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="12" customHeight="1">
+      <c r="A33" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="23">
+        <v>41.51</v>
+      </c>
+      <c r="C33" s="15">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="D33" s="15">
+        <v>2338.0245599904306</v>
+      </c>
+      <c r="E33" s="16">
+        <v>78.16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="12" customHeight="1">
+      <c r="A34" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" s="23">
+        <v>41.51</v>
+      </c>
+      <c r="C34" s="15">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D34" s="15">
+        <v>173.9</v>
+      </c>
+      <c r="E34" s="16">
+        <v>78.16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="12" customHeight="1">
+      <c r="A35" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" s="23">
+        <v>41.51</v>
+      </c>
+      <c r="C35" s="15">
+        <v>0.69640000000000002</v>
+      </c>
+      <c r="D35" s="15">
+        <v>173.9</v>
+      </c>
+      <c r="E35" s="16">
+        <v>78.16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="12" customHeight="1">
+      <c r="A36" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="12" customHeight="1">
+      <c r="A37" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="12" customHeight="1">
+      <c r="A38" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B39" s="23">
+        <v>46</v>
+      </c>
+      <c r="C39" s="15">
+        <v>1</v>
+      </c>
+      <c r="E39" s="8">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B40" s="9">
         <v>90</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C40" s="7">
         <v>1</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D40" s="7">
         <v>377.75</v>
       </c>
-      <c r="E25" s="8">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="12" customHeight="1">
-      <c r="A26" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="6">
-        <v>48.336070686070599</v>
-      </c>
-      <c r="C26" s="7">
-        <v>1</v>
-      </c>
-      <c r="D26" s="19">
-        <v>202.38312796257762</v>
-      </c>
-      <c r="E26" s="8">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="12" customHeight="1">
-      <c r="A27" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="18">
-        <v>76</v>
-      </c>
-      <c r="C27" s="19">
-        <v>4.0238843925466602E-2</v>
-      </c>
-      <c r="D27" s="19">
-        <v>2464.75601712861</v>
-      </c>
-      <c r="E27" s="20">
-        <v>32.141666666666602</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="12" customHeight="1">
-      <c r="A28" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" s="18">
-        <v>508.6</v>
-      </c>
-      <c r="C28" s="19">
-        <v>5.1989999999999998</v>
-      </c>
-      <c r="D28" s="19">
-        <v>3414.0936824129262</v>
-      </c>
-      <c r="E28" s="20">
-        <v>63.4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="12" customHeight="1">
-      <c r="A29" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29" s="18">
-        <v>195.85257753389442</v>
-      </c>
-      <c r="C29" s="19">
-        <v>0.54900000000000004</v>
-      </c>
-      <c r="D29" s="19">
-        <v>2844.2851295823216</v>
-      </c>
-      <c r="E29" s="20">
-        <v>63.4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="12" customHeight="1">
-      <c r="A30" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30" s="18">
-        <v>209.8</v>
-      </c>
-      <c r="C30" s="19">
-        <v>0.4</v>
-      </c>
-      <c r="D30" s="19">
-        <v>2859.6691118398307</v>
-      </c>
-      <c r="E30" s="20">
-        <v>14.76</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="12" customHeight="1">
-      <c r="A31" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="B31" s="18">
-        <v>197.8</v>
-      </c>
-      <c r="C31" s="19">
-        <v>0.54900000000000004</v>
-      </c>
-      <c r="D31" s="19">
-        <v>2848.5216025782688</v>
-      </c>
-      <c r="E31" s="20">
-        <v>78.16</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="12" customHeight="1">
-      <c r="A32" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32" s="18">
-        <v>131.4</v>
-      </c>
-      <c r="C32" s="19">
-        <v>0.25419999999999998</v>
-      </c>
-      <c r="D32" s="19">
-        <v>2724.8615334140964</v>
-      </c>
-      <c r="E32" s="20">
-        <v>78.16</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="12" customHeight="1">
-      <c r="A33" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33" s="18"/>
-      <c r="C33" s="19">
-        <v>0.1525</v>
-      </c>
-      <c r="D33" s="19">
-        <v>2652</v>
-      </c>
-      <c r="E33" s="20">
-        <v>78.16</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="12" customHeight="1">
-      <c r="A34" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34" s="18"/>
-      <c r="C34" s="19">
-        <v>0.1525</v>
-      </c>
-      <c r="D34" s="19">
-        <v>2652</v>
-      </c>
-      <c r="E34" s="20">
-        <v>78.16</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="12" customHeight="1">
-      <c r="A35" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B35" s="18">
-        <v>41.51</v>
-      </c>
-      <c r="C35" s="19">
-        <v>1.6999999999999999E-3</v>
-      </c>
-      <c r="D35" s="19">
-        <v>2338.0245599904306</v>
-      </c>
-      <c r="E35" s="20">
-        <v>78.16</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="12" customHeight="1">
-      <c r="A36" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B36" s="18">
-        <v>41.51</v>
-      </c>
-      <c r="C36" s="19">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="D36" s="19">
-        <v>173.9</v>
-      </c>
-      <c r="E36" s="20">
-        <v>78.16</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="12" customHeight="1">
-      <c r="A37" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B37" s="18">
-        <v>41.51</v>
-      </c>
-      <c r="C37" s="19">
-        <v>0.69640000000000002</v>
-      </c>
-      <c r="D37" s="19">
-        <v>173.9</v>
-      </c>
-      <c r="E37" s="20">
-        <v>78.16</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="12" customHeight="1">
-      <c r="A38" s="12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="12" customHeight="1">
-      <c r="A39" s="12" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="12" customHeight="1">
-      <c r="A40" s="12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="B41" s="18">
-        <v>46</v>
-      </c>
-      <c r="C41" s="19">
-        <v>1</v>
-      </c>
-      <c r="E41" s="8">
+      <c r="E40" s="8">
         <v>750</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="B42" s="37">
-        <v>90</v>
-      </c>
-      <c r="C42" s="7">
-        <v>1</v>
-      </c>
-      <c r="D42" s="7">
-        <v>377.75</v>
-      </c>
-      <c r="E42" s="8">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="H46" s="24"/>
-    </row>
-    <row r="50" spans="8:8">
-      <c r="H50" s="24"/>
+    <row r="44" spans="1:8">
+      <c r="H44" s="18"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="H48" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1838,20 +1812,20 @@
       <selection activeCell="F2" sqref="F2:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" style="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="18"/>
-    <col min="3" max="4" width="9.140625" style="29"/>
-    <col min="5" max="5" width="9.140625" style="20"/>
-    <col min="6" max="6" width="9.140625" style="18"/>
-    <col min="7" max="12" width="9.140625" style="29"/>
-    <col min="13" max="13" width="9.140625" style="20"/>
-    <col min="14" max="16384" width="9.140625" style="19"/>
+    <col min="1" max="1" width="9.81640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" style="14"/>
+    <col min="3" max="4" width="9.1796875" style="23"/>
+    <col min="5" max="5" width="9.1796875" style="16"/>
+    <col min="6" max="6" width="9.1796875" style="14"/>
+    <col min="7" max="12" width="9.1796875" style="23"/>
+    <col min="13" max="13" width="9.1796875" style="16"/>
+    <col min="14" max="16384" width="9.1796875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="26" customFormat="1" ht="12" customHeight="1" thickBot="1">
-      <c r="A1" s="25"/>
+    <row r="1" spans="1:13" s="20" customFormat="1" ht="12" customHeight="1" thickBot="1">
+      <c r="A1" s="19"/>
       <c r="B1" s="2" t="s">
         <v>6</v>
       </c>
@@ -1879,21 +1853,21 @@
       <c r="J1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="K1" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1" s="21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="12" customHeight="1">
+      <c r="A2" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="L1" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="M1" s="27" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="12" customHeight="1">
-      <c r="A2" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="G2" s="30"/>
+      <c r="G2" s="24"/>
     </row>
     <row r="3" spans="1:13" ht="12" customHeight="1"/>
     <row r="4" spans="1:13" ht="12" customHeight="1"/>

--- a/streams.xlsx
+++ b/streams.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA566FC-0AA2-4FB3-BB63-A65CBE582D5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6071EC24-3513-4AE7-AE83-CAAD969323CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-14510" yWindow="-110" windowWidth="14620" windowHeight="25220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1158,7 +1158,7 @@
   <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13"/>
@@ -1446,7 +1446,7 @@
       </c>
       <c r="D17" s="15"/>
       <c r="E17" s="8">
-        <v>750</v>
+        <v>800</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="12" customHeight="1">

--- a/streams.xlsx
+++ b/streams.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6071EC24-3513-4AE7-AE83-CAAD969323CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6FC4442-531B-4D13-BA68-D48F78A5F319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14510" yWindow="-110" windowWidth="14620" windowHeight="25220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gas" sheetId="1" r:id="rId1"/>
@@ -1446,7 +1446,7 @@
       </c>
       <c r="D17" s="15"/>
       <c r="E17" s="8">
-        <v>800</v>
+        <v>750</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="12" customHeight="1">

--- a/streams.xlsx
+++ b/streams.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6FC4442-531B-4D13-BA68-D48F78A5F319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{313F3817-8D29-4C81-B799-9082F432FEFC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="25815" windowHeight="14025" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gas" sheetId="1" r:id="rId1"/>
@@ -17,20 +17,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="68">
   <si>
     <t>GTU-PEVD</t>
   </si>
@@ -231,6 +223,9 @@
   </si>
   <si>
     <t>SMESH-GPK</t>
+  </si>
+  <si>
+    <t>ST-GPK</t>
   </si>
 </sst>
 </file>
@@ -240,7 +235,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000000000"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -822,18 +817,18 @@
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" style="5" customWidth="1"/>
-    <col min="2" max="5" width="9.1796875" style="7"/>
-    <col min="6" max="6" width="9.1796875" style="6"/>
-    <col min="7" max="9" width="9.1796875" style="7"/>
-    <col min="10" max="10" width="9.1796875" style="8"/>
-    <col min="11" max="11" width="13.26953125" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.1796875" style="7"/>
+    <col min="1" max="1" width="14.85546875" style="5" customWidth="1"/>
+    <col min="2" max="5" width="9.140625" style="7"/>
+    <col min="6" max="6" width="9.140625" style="6"/>
+    <col min="7" max="9" width="9.140625" style="7"/>
+    <col min="10" max="10" width="9.140625" style="8"/>
+    <col min="11" max="11" width="13.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="3" customFormat="1" ht="12" customHeight="1" thickBot="1">
+    <row r="1" spans="1:18" s="3" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="3" t="s">
         <v>6</v>
@@ -863,12 +858,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="12" customHeight="1">
+    <row r="2" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="12" customHeight="1">
+    <row r="3" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>39</v>
       </c>
@@ -900,12 +895,12 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="12" customHeight="1">
+    <row r="4" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="12" customHeight="1">
+    <row r="5" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>0</v>
       </c>
@@ -937,7 +932,7 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="12" customHeight="1">
+    <row r="6" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>40</v>
       </c>
@@ -974,7 +969,7 @@
       <c r="N6" s="9"/>
       <c r="O6" s="9"/>
     </row>
-    <row r="7" spans="1:18" ht="12" customHeight="1">
+    <row r="7" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>41</v>
       </c>
@@ -1006,7 +1001,7 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="12" customFormat="1" ht="12" customHeight="1">
+    <row r="8" spans="1:18" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>42</v>
       </c>
@@ -1038,7 +1033,7 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="12" customFormat="1" ht="12" customHeight="1">
+    <row r="9" spans="1:18" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>43</v>
       </c>
@@ -1070,7 +1065,7 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="12" customHeight="1">
+    <row r="10" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>44</v>
       </c>
@@ -1102,7 +1097,7 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="12" customHeight="1">
+    <row r="11" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>45</v>
       </c>
@@ -1135,12 +1130,12 @@
       </c>
       <c r="K11" s="30"/>
     </row>
-    <row r="12" spans="1:18" ht="12" customHeight="1">
+    <row r="12" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:18" s="27" customFormat="1" ht="12" customHeight="1" thickBot="1">
+    <row r="13" spans="1:18" s="27" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="25" t="s">
         <v>62</v>
       </c>
@@ -1155,23 +1150,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13792673-7A38-4CCB-80CF-EE250A0D6320}">
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" style="5" customWidth="1"/>
-    <col min="2" max="3" width="9.1796875" style="7"/>
-    <col min="4" max="4" width="11.453125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.1796875" style="8"/>
-    <col min="6" max="6" width="21.54296875" style="7" customWidth="1"/>
-    <col min="7" max="16384" width="9.1796875" style="7"/>
+    <col min="1" max="1" width="14.85546875" style="5" customWidth="1"/>
+    <col min="2" max="3" width="9.140625" style="7"/>
+    <col min="4" max="4" width="11.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="8"/>
+    <col min="6" max="6" width="21.5703125" style="7" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" ht="12" customHeight="1" thickBot="1">
+    <row r="1" spans="1:7" s="3" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="3" t="s">
         <v>6</v>
@@ -1192,7 +1187,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="12" customHeight="1">
+    <row r="2" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>53</v>
       </c>
@@ -1200,7 +1195,7 @@
         <v>-23</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="12" customHeight="1">
+    <row r="3" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>28</v>
       </c>
@@ -1217,7 +1212,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="12" customHeight="1">
+    <row r="4" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
@@ -1234,7 +1229,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="12" customHeight="1">
+    <row r="5" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
@@ -1251,7 +1246,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="12" customHeight="1">
+    <row r="6" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
@@ -1268,7 +1263,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="12" customHeight="1">
+    <row r="7" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
@@ -1285,7 +1280,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="12" customHeight="1">
+    <row r="8" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>29</v>
       </c>
@@ -1302,7 +1297,7 @@
         <v>14.76</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="12" customHeight="1">
+    <row r="9" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>14</v>
       </c>
@@ -1319,7 +1314,7 @@
         <v>14.76</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="12" customHeight="1">
+    <row r="10" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>15</v>
       </c>
@@ -1336,7 +1331,7 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="12" customHeight="1">
+    <row r="11" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>49</v>
       </c>
@@ -1353,7 +1348,7 @@
         <v>82.91</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="12" customHeight="1">
+    <row r="12" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>47</v>
       </c>
@@ -1370,7 +1365,7 @@
         <v>82.91</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="12" customHeight="1">
+    <row r="13" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>66</v>
       </c>
@@ -1387,7 +1382,7 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="12" customHeight="1">
+    <row r="14" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>48</v>
       </c>
@@ -1404,7 +1399,7 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="12" customHeight="1">
+    <row r="15" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>16</v>
       </c>
@@ -1419,7 +1414,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="12" customHeight="1">
+    <row r="16" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>17</v>
       </c>
@@ -1434,7 +1429,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="12" customHeight="1">
+    <row r="17" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
         <v>46</v>
       </c>
@@ -1449,7 +1444,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="12" customHeight="1">
+    <row r="18" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>18</v>
       </c>
@@ -1464,7 +1459,7 @@
         <v>100.77673095348899</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="12" customHeight="1">
+    <row r="19" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>19</v>
       </c>
@@ -1479,7 +1474,7 @@
         <v>100.77673095348899</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="12" customHeight="1">
+    <row r="20" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>22</v>
       </c>
@@ -1496,7 +1491,7 @@
         <v>43.733333333333299</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="12" customHeight="1">
+    <row r="21" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>23</v>
       </c>
@@ -1513,7 +1508,7 @@
         <v>43.733333333333299</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="12" customHeight="1">
+    <row r="22" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>24</v>
       </c>
@@ -1530,7 +1525,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="12" customHeight="1">
+    <row r="23" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>25</v>
       </c>
@@ -1547,7 +1542,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="12" customHeight="1">
+    <row r="24" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>26</v>
       </c>
@@ -1564,7 +1559,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="12" customHeight="1">
+    <row r="25" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
         <v>27</v>
       </c>
@@ -1581,7 +1576,7 @@
         <v>32.141666666666602</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="12" customHeight="1">
+    <row r="26" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
         <v>30</v>
       </c>
@@ -1598,7 +1593,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="12" customHeight="1">
+    <row r="27" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
         <v>31</v>
       </c>
@@ -1615,7 +1610,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="12" customHeight="1">
+    <row r="28" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
         <v>32</v>
       </c>
@@ -1632,7 +1627,7 @@
         <v>14.76</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="12" customHeight="1">
+    <row r="29" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
         <v>37</v>
       </c>
@@ -1649,7 +1644,7 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="12" customHeight="1">
+    <row r="30" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
         <v>33</v>
       </c>
@@ -1666,7 +1661,7 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="12" customHeight="1">
+    <row r="31" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
         <v>34</v>
       </c>
@@ -1681,7 +1676,7 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="12" customHeight="1">
+    <row r="32" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
         <v>35</v>
       </c>
@@ -1696,7 +1691,7 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="12" customHeight="1">
+    <row r="33" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
         <v>36</v>
       </c>
@@ -1713,7 +1708,7 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="12" customHeight="1">
+    <row r="34" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>51</v>
       </c>
@@ -1730,7 +1725,7 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="12" customHeight="1">
+    <row r="35" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>52</v>
       </c>
@@ -1747,57 +1742,62 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="12" customHeight="1">
+    <row r="36" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="12" customHeight="1">
+    <row r="37" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="12" customHeight="1">
+    <row r="38" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B39" s="23">
+      <c r="B40" s="23">
         <v>46</v>
       </c>
-      <c r="C39" s="15">
+      <c r="C40" s="15">
         <v>1</v>
-      </c>
-      <c r="E39" s="8">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B40" s="9">
-        <v>90</v>
-      </c>
-      <c r="C40" s="7">
-        <v>1</v>
-      </c>
-      <c r="D40" s="7">
-        <v>377.75</v>
       </c>
       <c r="E40" s="8">
         <v>750</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
-      <c r="H44" s="18"/>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="H48" s="18"/>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B41" s="9">
+        <v>90</v>
+      </c>
+      <c r="C41" s="7">
+        <v>1</v>
+      </c>
+      <c r="D41" s="7">
+        <v>377.75</v>
+      </c>
+      <c r="E41" s="8">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="H45" s="18"/>
+    </row>
+    <row r="49" spans="8:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="H49" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1812,19 +1812,19 @@
       <selection activeCell="F2" sqref="F2:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.81640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" style="14"/>
-    <col min="3" max="4" width="9.1796875" style="23"/>
-    <col min="5" max="5" width="9.1796875" style="16"/>
-    <col min="6" max="6" width="9.1796875" style="14"/>
-    <col min="7" max="12" width="9.1796875" style="23"/>
-    <col min="13" max="13" width="9.1796875" style="16"/>
-    <col min="14" max="16384" width="9.1796875" style="15"/>
+    <col min="1" max="1" width="9.85546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="14"/>
+    <col min="3" max="4" width="9.140625" style="23"/>
+    <col min="5" max="5" width="9.140625" style="16"/>
+    <col min="6" max="6" width="9.140625" style="14"/>
+    <col min="7" max="12" width="9.140625" style="23"/>
+    <col min="13" max="13" width="9.140625" style="16"/>
+    <col min="14" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="20" customFormat="1" ht="12" customHeight="1" thickBot="1">
+    <row r="1" spans="1:13" s="20" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="19"/>
       <c r="B1" s="2" t="s">
         <v>6</v>
@@ -1863,35 +1863,35 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="12" customHeight="1">
+    <row r="2" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>60</v>
       </c>
       <c r="G2" s="24"/>
     </row>
-    <row r="3" spans="1:13" ht="12" customHeight="1"/>
-    <row r="4" spans="1:13" ht="12" customHeight="1"/>
-    <row r="5" spans="1:13" ht="12" customHeight="1"/>
-    <row r="6" spans="1:13" ht="12" customHeight="1"/>
-    <row r="7" spans="1:13" ht="12" customHeight="1"/>
-    <row r="8" spans="1:13" ht="12" customHeight="1"/>
-    <row r="9" spans="1:13" ht="12" customHeight="1"/>
-    <row r="10" spans="1:13" ht="12" customHeight="1"/>
-    <row r="11" spans="1:13" ht="12" customHeight="1"/>
-    <row r="12" spans="1:13" ht="12" customHeight="1"/>
-    <row r="13" spans="1:13" ht="12" customHeight="1"/>
-    <row r="14" spans="1:13" ht="12" customHeight="1"/>
-    <row r="15" spans="1:13" ht="12" customHeight="1"/>
-    <row r="16" spans="1:13" ht="12" customHeight="1"/>
-    <row r="17" ht="12" customHeight="1"/>
-    <row r="18" ht="12" customHeight="1"/>
-    <row r="19" ht="12" customHeight="1"/>
-    <row r="20" ht="12" customHeight="1"/>
-    <row r="21" ht="12" customHeight="1"/>
-    <row r="22" ht="12" customHeight="1"/>
-    <row r="23" ht="12" customHeight="1"/>
-    <row r="24" ht="12" customHeight="1"/>
-    <row r="25" ht="12" customHeight="1"/>
+    <row r="3" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/streams.xlsx
+++ b/streams.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{313F3817-8D29-4C81-B799-9082F432FEFC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D15A47E7-498E-4379-AD2D-838A9BEF3624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="25815" windowHeight="14025" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14510" yWindow="-110" windowWidth="14620" windowHeight="25220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gas" sheetId="1" r:id="rId1"/>
@@ -17,12 +17,20 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="67">
   <si>
     <t>GTU-PEVD</t>
   </si>
@@ -82,9 +90,6 @@
   </si>
   <si>
     <t>OD-SP1</t>
-  </si>
-  <si>
-    <t>74.77</t>
   </si>
   <si>
     <t>75.875</t>
@@ -235,7 +240,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000000000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -817,18 +822,18 @@
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="5" customWidth="1"/>
-    <col min="2" max="5" width="9.140625" style="7"/>
-    <col min="6" max="6" width="9.140625" style="6"/>
-    <col min="7" max="9" width="9.140625" style="7"/>
-    <col min="10" max="10" width="9.140625" style="8"/>
-    <col min="11" max="11" width="13.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="1" width="14.81640625" style="5" customWidth="1"/>
+    <col min="2" max="5" width="9.1796875" style="7"/>
+    <col min="6" max="6" width="9.1796875" style="6"/>
+    <col min="7" max="9" width="9.1796875" style="7"/>
+    <col min="10" max="10" width="9.1796875" style="8"/>
+    <col min="11" max="11" width="13.26953125" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.1796875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="3" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" s="3" customFormat="1" ht="12" customHeight="1" thickBot="1">
       <c r="A1" s="1"/>
       <c r="B1" s="3" t="s">
         <v>6</v>
@@ -858,14 +863,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="12" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="12" customHeight="1">
       <c r="A3" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" s="7">
         <v>542.1</v>
@@ -895,12 +900,12 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="12" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="12" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>0</v>
       </c>
@@ -932,9 +937,9 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="12" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6" s="7">
         <v>468.05</v>
@@ -969,9 +974,9 @@
       <c r="N6" s="9"/>
       <c r="O6" s="9"/>
     </row>
-    <row r="7" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" ht="12" customHeight="1">
       <c r="A7" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7" s="7">
         <v>309.2</v>
@@ -1001,9 +1006,9 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" s="12" customFormat="1" ht="12" customHeight="1">
       <c r="A8" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8" s="7">
         <v>235.9</v>
@@ -1033,9 +1038,9 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" s="12" customFormat="1" ht="12" customHeight="1">
       <c r="A9" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9" s="7">
         <v>233</v>
@@ -1065,9 +1070,9 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" ht="12" customHeight="1">
       <c r="A10" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10" s="7">
         <v>175.5</v>
@@ -1097,9 +1102,9 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" ht="12" customHeight="1">
       <c r="A11" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11" s="7">
         <v>106.9</v>
@@ -1130,14 +1135,14 @@
       </c>
       <c r="K11" s="30"/>
     </row>
-    <row r="12" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" ht="12" customHeight="1">
       <c r="A12" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" s="27" customFormat="1" ht="12" customHeight="1" thickBot="1">
+      <c r="A13" s="25" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" s="27" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="25" t="s">
-        <v>62</v>
       </c>
       <c r="F13" s="26"/>
       <c r="J13" s="28"/>
@@ -1152,21 +1157,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13792673-7A38-4CCB-80CF-EE250A0D6320}">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="5" customWidth="1"/>
-    <col min="2" max="3" width="9.140625" style="7"/>
-    <col min="4" max="4" width="11.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="8"/>
-    <col min="6" max="6" width="21.5703125" style="7" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="1" width="14.81640625" style="5" customWidth="1"/>
+    <col min="2" max="3" width="9.1796875" style="7"/>
+    <col min="4" max="4" width="11.453125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1796875" style="8"/>
+    <col min="6" max="6" width="21.54296875" style="7" customWidth="1"/>
+    <col min="7" max="16384" width="9.1796875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="3" customFormat="1" ht="12" customHeight="1" thickBot="1">
       <c r="A1" s="1"/>
       <c r="B1" s="3" t="s">
         <v>6</v>
@@ -1181,23 +1186,23 @@
         <v>9</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="12" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="7">
-        <v>-23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="12" customHeight="1">
       <c r="A3" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="7">
         <v>511.5</v>
@@ -1212,7 +1217,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="12" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
@@ -1229,7 +1234,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="12" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
@@ -1246,7 +1251,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="12" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
@@ -1263,7 +1268,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="12" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
@@ -1280,9 +1285,9 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="12" customHeight="1">
       <c r="A8" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" s="7">
         <v>211.6</v>
@@ -1297,7 +1302,7 @@
         <v>14.76</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="12" customHeight="1">
       <c r="A9" s="5" t="s">
         <v>14</v>
       </c>
@@ -1314,7 +1319,7 @@
         <v>14.76</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="12" customHeight="1">
       <c r="A10" s="5" t="s">
         <v>15</v>
       </c>
@@ -1331,9 +1336,9 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="12" customHeight="1">
       <c r="A11" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B11" s="7">
         <v>164.6</v>
@@ -1348,9 +1353,9 @@
         <v>82.91</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="12" customHeight="1">
       <c r="A12" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B12" s="13">
         <v>60</v>
@@ -1365,9 +1370,9 @@
         <v>82.91</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="12" customHeight="1">
       <c r="A13" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B13" s="13">
         <v>44.2</v>
@@ -1382,9 +1387,9 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="12" customHeight="1">
       <c r="A14" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B14" s="7">
         <v>44.2</v>
@@ -1399,39 +1404,43 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="12" customHeight="1">
       <c r="A15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="23">
+        <v>74.77</v>
+      </c>
+      <c r="C15" s="7">
+        <v>0.13219638629678299</v>
+      </c>
+      <c r="D15" s="15">
+        <v>313.06198999999998</v>
+      </c>
+      <c r="E15" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="15">
-        <v>3.8226901700000003E-2</v>
-      </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:7" ht="12" customHeight="1">
       <c r="A16" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="23">
         <v>49.839511130751802</v>
       </c>
-      <c r="C16" s="15">
-        <v>3.8226901700000003E-2</v>
-      </c>
-      <c r="D16" s="15"/>
+      <c r="C16" s="7">
+        <v>0.13219638629678299</v>
+      </c>
+      <c r="D16" s="15">
+        <v>200</v>
+      </c>
       <c r="E16" s="16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="12" customHeight="1">
       <c r="A17" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B17" s="23">
         <v>46</v>
@@ -1439,12 +1448,15 @@
       <c r="C17" s="15">
         <v>1</v>
       </c>
-      <c r="D17" s="15"/>
+      <c r="D17" s="15">
+        <f>4.187*B17</f>
+        <v>192.602</v>
+      </c>
       <c r="E17" s="8">
         <v>750</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="12" customHeight="1">
       <c r="A18" s="5" t="s">
         <v>18</v>
       </c>
@@ -1454,12 +1466,15 @@
       <c r="C18" s="15">
         <v>1</v>
       </c>
-      <c r="D18" s="15"/>
+      <c r="D18" s="15">
+        <f>4.187*B18</f>
+        <v>192.602</v>
+      </c>
       <c r="E18" s="16">
         <v>100.77673095348899</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="12" customHeight="1">
       <c r="A19" s="5" t="s">
         <v>19</v>
       </c>
@@ -1469,14 +1484,17 @@
       <c r="C19" s="15">
         <v>1</v>
       </c>
-      <c r="D19" s="15"/>
+      <c r="D19" s="15">
+        <f>4.187*B19</f>
+        <v>271.19198999999998</v>
+      </c>
       <c r="E19" s="16">
         <v>100.77673095348899</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="12" customHeight="1">
       <c r="A20" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20" s="7">
         <v>107.6</v>
@@ -1491,9 +1509,9 @@
         <v>43.733333333333299</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="12" customHeight="1">
       <c r="A21" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21" s="7">
         <v>106.101586260687</v>
@@ -1508,9 +1526,9 @@
         <v>43.733333333333299</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="12" customHeight="1">
       <c r="A22" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" s="9">
         <v>70.294916839916795</v>
@@ -1525,9 +1543,9 @@
         <v>800</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="12" customHeight="1">
       <c r="A23" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" s="9">
         <v>90</v>
@@ -1542,9 +1560,9 @@
         <v>800</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="12" customHeight="1">
       <c r="A24" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B24" s="7">
         <v>48.336070686070599</v>
@@ -1559,9 +1577,9 @@
         <v>800</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="12" customHeight="1">
       <c r="A25" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25" s="23">
         <v>76</v>
@@ -1576,9 +1594,9 @@
         <v>32.141666666666602</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="12" customHeight="1">
       <c r="A26" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B26" s="23">
         <v>508.6</v>
@@ -1593,9 +1611,9 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="12" customHeight="1">
       <c r="A27" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B27" s="23">
         <v>195.85257753389442</v>
@@ -1610,9 +1628,9 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="12" customHeight="1">
       <c r="A28" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B28" s="23">
         <v>209.8</v>
@@ -1627,9 +1645,9 @@
         <v>14.76</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="12" customHeight="1">
       <c r="A29" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B29" s="23">
         <v>197.8</v>
@@ -1644,9 +1662,9 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="12" customHeight="1">
       <c r="A30" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30" s="23">
         <v>131.4</v>
@@ -1661,9 +1679,9 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="12" customHeight="1">
       <c r="A31" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31" s="23"/>
       <c r="C31" s="15">
@@ -1676,9 +1694,9 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="12" customHeight="1">
       <c r="A32" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32" s="23"/>
       <c r="C32" s="15">
@@ -1691,9 +1709,9 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="12" customHeight="1">
       <c r="A33" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33" s="23">
         <v>41.51</v>
@@ -1708,9 +1726,9 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="12" customHeight="1">
       <c r="A34" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B34" s="23">
         <v>41.51</v>
@@ -1725,9 +1743,9 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="12" customHeight="1">
       <c r="A35" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B35" s="23">
         <v>41.51</v>
@@ -1742,29 +1760,77 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="12" customHeight="1">
       <c r="A36" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" s="7">
+        <v>0</v>
+      </c>
+      <c r="C36" s="7">
+        <v>0</v>
+      </c>
+      <c r="D36" s="7">
+        <v>0</v>
+      </c>
+      <c r="E36" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="12" customHeight="1">
+      <c r="A37" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37" s="7">
+        <v>0</v>
+      </c>
+      <c r="C37" s="7">
+        <v>0</v>
+      </c>
+      <c r="D37" s="7">
+        <v>0</v>
+      </c>
+      <c r="E37" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="12" customHeight="1">
+      <c r="A38" s="5" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="7">
+        <v>0</v>
+      </c>
+      <c r="C38" s="7">
+        <v>0</v>
+      </c>
+      <c r="D38" s="7">
+        <v>0</v>
+      </c>
+      <c r="E38" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="12" customHeight="1">
       <c r="A39" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="B39" s="7">
+        <v>0</v>
+      </c>
+      <c r="C39" s="7">
+        <v>0</v>
+      </c>
+      <c r="D39" s="7">
+        <v>0</v>
+      </c>
+      <c r="E39" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B40" s="23">
         <v>46</v>
@@ -1772,13 +1838,16 @@
       <c r="C40" s="15">
         <v>1</v>
       </c>
+      <c r="D40" s="7">
+        <v>0</v>
+      </c>
       <c r="E40" s="8">
         <v>750</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="A41" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B41" s="9">
         <v>90</v>
@@ -1793,10 +1862,10 @@
         <v>750</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8">
       <c r="H45" s="18"/>
     </row>
-    <row r="49" spans="8:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="8:8">
       <c r="H49" s="18"/>
     </row>
   </sheetData>
@@ -1812,19 +1881,19 @@
       <selection activeCell="F2" sqref="F2:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="14"/>
-    <col min="3" max="4" width="9.140625" style="23"/>
-    <col min="5" max="5" width="9.140625" style="16"/>
-    <col min="6" max="6" width="9.140625" style="14"/>
-    <col min="7" max="12" width="9.140625" style="23"/>
-    <col min="13" max="13" width="9.140625" style="16"/>
-    <col min="14" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="1" width="9.81640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" style="14"/>
+    <col min="3" max="4" width="9.1796875" style="23"/>
+    <col min="5" max="5" width="9.1796875" style="16"/>
+    <col min="6" max="6" width="9.1796875" style="14"/>
+    <col min="7" max="12" width="9.1796875" style="23"/>
+    <col min="13" max="13" width="9.1796875" style="16"/>
+    <col min="14" max="16384" width="9.1796875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="20" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="20" customFormat="1" ht="12" customHeight="1" thickBot="1">
       <c r="A1" s="19"/>
       <c r="B1" s="2" t="s">
         <v>6</v>
@@ -1854,44 +1923,44 @@
         <v>4</v>
       </c>
       <c r="K1" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="L1" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="M1" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="M1" s="21" t="s">
+    </row>
+    <row r="2" spans="1:13" ht="12" customHeight="1">
+      <c r="A2" s="22" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
-        <v>60</v>
-      </c>
       <c r="G2" s="24"/>
     </row>
-    <row r="3" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:13" ht="12" customHeight="1"/>
+    <row r="4" spans="1:13" ht="12" customHeight="1"/>
+    <row r="5" spans="1:13" ht="12" customHeight="1"/>
+    <row r="6" spans="1:13" ht="12" customHeight="1"/>
+    <row r="7" spans="1:13" ht="12" customHeight="1"/>
+    <row r="8" spans="1:13" ht="12" customHeight="1"/>
+    <row r="9" spans="1:13" ht="12" customHeight="1"/>
+    <row r="10" spans="1:13" ht="12" customHeight="1"/>
+    <row r="11" spans="1:13" ht="12" customHeight="1"/>
+    <row r="12" spans="1:13" ht="12" customHeight="1"/>
+    <row r="13" spans="1:13" ht="12" customHeight="1"/>
+    <row r="14" spans="1:13" ht="12" customHeight="1"/>
+    <row r="15" spans="1:13" ht="12" customHeight="1"/>
+    <row r="16" spans="1:13" ht="12" customHeight="1"/>
+    <row r="17" ht="12" customHeight="1"/>
+    <row r="18" ht="12" customHeight="1"/>
+    <row r="19" ht="12" customHeight="1"/>
+    <row r="20" ht="12" customHeight="1"/>
+    <row r="21" ht="12" customHeight="1"/>
+    <row r="22" ht="12" customHeight="1"/>
+    <row r="23" ht="12" customHeight="1"/>
+    <row r="24" ht="12" customHeight="1"/>
+    <row r="25" ht="12" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/streams.xlsx
+++ b/streams.xlsx
@@ -1,36 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D15A47E7-498E-4379-AD2D-838A9BEF3624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0649642B-AD5A-4A59-8764-ABC29910E156}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14510" yWindow="-110" windowWidth="14620" windowHeight="25220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14505" yWindow="-105" windowWidth="14625" windowHeight="25215" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gas" sheetId="1" r:id="rId1"/>
     <sheet name="water" sheetId="2" r:id="rId2"/>
     <sheet name="syngas" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="69">
   <si>
     <t>GTU-PEVD</t>
   </si>
@@ -231,6 +223,12 @@
   </si>
   <si>
     <t>ST-GPK</t>
+  </si>
+  <si>
+    <t>COOL-HTS</t>
+  </si>
+  <si>
+    <t>HTS-X</t>
   </si>
 </sst>
 </file>
@@ -240,7 +238,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000000000"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -819,21 +817,21 @@
   <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" style="5" customWidth="1"/>
-    <col min="2" max="5" width="9.1796875" style="7"/>
-    <col min="6" max="6" width="9.1796875" style="6"/>
-    <col min="7" max="9" width="9.1796875" style="7"/>
-    <col min="10" max="10" width="9.1796875" style="8"/>
-    <col min="11" max="11" width="13.26953125" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.1796875" style="7"/>
+    <col min="1" max="1" width="14.85546875" style="5" customWidth="1"/>
+    <col min="2" max="5" width="9.140625" style="7"/>
+    <col min="6" max="6" width="9.140625" style="6"/>
+    <col min="7" max="9" width="9.140625" style="7"/>
+    <col min="10" max="10" width="9.140625" style="8"/>
+    <col min="11" max="11" width="13.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="3" customFormat="1" ht="12" customHeight="1" thickBot="1">
+    <row r="1" spans="1:18" s="3" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="3" t="s">
         <v>6</v>
@@ -863,12 +861,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="12" customHeight="1">
+    <row r="2" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="12" customHeight="1">
+    <row r="3" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>38</v>
       </c>
@@ -900,73 +898,19 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="12" customHeight="1">
+    <row r="4" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="12" customHeight="1">
+    <row r="5" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="7">
-        <v>542.1</v>
-      </c>
-      <c r="C5" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="D5" s="7">
-        <v>958.86919853128609</v>
-      </c>
-      <c r="E5" s="7">
-        <v>503.8</v>
-      </c>
-      <c r="F5" s="6">
-        <v>0.78029999999999999</v>
-      </c>
-      <c r="G5" s="7">
-        <v>0.1237</v>
-      </c>
-      <c r="H5" s="7">
-        <v>3.0099999999999998E-2</v>
-      </c>
-      <c r="I5" s="7">
-        <v>5.9400000000000001E-2</v>
-      </c>
-      <c r="J5" s="8">
-        <v>6.4999999999999997E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="12" customHeight="1">
+    </row>
+    <row r="6" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="B6" s="7">
-        <v>468.05</v>
-      </c>
-      <c r="C6" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="D6" s="7">
-        <v>500</v>
-      </c>
-      <c r="E6" s="7">
-        <v>503.8</v>
-      </c>
-      <c r="F6" s="6">
-        <v>0.78029999999999999</v>
-      </c>
-      <c r="G6" s="7">
-        <v>0.1237</v>
-      </c>
-      <c r="H6" s="7">
-        <v>3.0099999999999998E-2</v>
-      </c>
-      <c r="I6" s="7">
-        <v>5.9400000000000001E-2</v>
-      </c>
-      <c r="J6" s="8">
-        <v>6.4999999999999997E-3</v>
       </c>
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
@@ -974,173 +918,56 @@
       <c r="N6" s="9"/>
       <c r="O6" s="9"/>
     </row>
-    <row r="7" spans="1:18" ht="12" customHeight="1">
+    <row r="7" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="7">
-        <v>309.2</v>
-      </c>
-      <c r="C7" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="D7" s="7">
-        <v>400</v>
-      </c>
-      <c r="E7" s="7">
-        <v>503.8</v>
-      </c>
-      <c r="F7" s="6">
-        <v>0.78029999999999999</v>
-      </c>
-      <c r="G7" s="7">
-        <v>0.1237</v>
-      </c>
-      <c r="H7" s="7">
-        <v>3.0099999999999998E-2</v>
-      </c>
-      <c r="I7" s="7">
-        <v>5.9400000000000001E-2</v>
-      </c>
-      <c r="J7" s="8">
-        <v>6.4999999999999997E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" s="12" customFormat="1" ht="12" customHeight="1">
+    </row>
+    <row r="8" spans="1:18" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="7">
-        <v>235.9</v>
-      </c>
-      <c r="C8" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="D8" s="7">
-        <v>300</v>
-      </c>
-      <c r="E8" s="7">
-        <v>503.8</v>
-      </c>
-      <c r="F8" s="6">
-        <v>0.78029999999999999</v>
-      </c>
-      <c r="G8" s="7">
-        <v>0.1237</v>
-      </c>
-      <c r="H8" s="7">
-        <v>3.0099999999999998E-2</v>
-      </c>
-      <c r="I8" s="7">
-        <v>5.9400000000000001E-2</v>
-      </c>
-      <c r="J8" s="8">
-        <v>6.4999999999999997E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" s="12" customFormat="1" ht="12" customHeight="1">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="1:18" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="7">
-        <v>233</v>
-      </c>
-      <c r="C9" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="D9" s="7">
-        <v>200</v>
-      </c>
-      <c r="E9" s="7">
-        <v>503.8</v>
-      </c>
-      <c r="F9" s="6">
-        <v>0.78029999999999999</v>
-      </c>
-      <c r="G9" s="7">
-        <v>0.1237</v>
-      </c>
-      <c r="H9" s="7">
-        <v>3.0099999999999998E-2</v>
-      </c>
-      <c r="I9" s="7">
-        <v>5.9400000000000001E-2</v>
-      </c>
-      <c r="J9" s="8">
-        <v>6.4999999999999997E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" ht="12" customHeight="1">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="7">
-        <v>175.5</v>
-      </c>
-      <c r="C10" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="D10" s="7">
-        <v>100</v>
-      </c>
-      <c r="E10" s="7">
-        <v>503.8</v>
-      </c>
-      <c r="F10" s="6">
-        <v>0.78029999999999999</v>
-      </c>
-      <c r="G10" s="7">
-        <v>0.1237</v>
-      </c>
-      <c r="H10" s="7">
-        <v>3.0099999999999998E-2</v>
-      </c>
-      <c r="I10" s="7">
-        <v>5.9400000000000001E-2</v>
-      </c>
-      <c r="J10" s="8">
-        <v>6.4999999999999997E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" ht="12" customHeight="1">
+    </row>
+    <row r="11" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="7">
-        <v>106.9</v>
-      </c>
-      <c r="C11" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="D11" s="7">
-        <v>20</v>
-      </c>
-      <c r="E11" s="7">
-        <v>503.8</v>
-      </c>
-      <c r="F11" s="6">
-        <v>0.78029999999999999</v>
-      </c>
-      <c r="G11" s="7">
-        <v>0.1237</v>
-      </c>
-      <c r="H11" s="7">
-        <v>3.0099999999999998E-2</v>
-      </c>
-      <c r="I11" s="7">
-        <v>5.9400000000000001E-2</v>
-      </c>
-      <c r="J11" s="8">
-        <v>6.4999999999999997E-3</v>
-      </c>
       <c r="K11" s="30"/>
     </row>
-    <row r="12" spans="1:18" ht="12" customHeight="1">
+    <row r="12" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:18" s="27" customFormat="1" ht="12" customHeight="1" thickBot="1">
+    <row r="13" spans="1:18" s="27" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="25" t="s">
         <v>61</v>
       </c>
@@ -1157,21 +984,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13792673-7A38-4CCB-80CF-EE250A0D6320}">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" style="5" customWidth="1"/>
-    <col min="2" max="3" width="9.1796875" style="7"/>
-    <col min="4" max="4" width="11.453125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.1796875" style="8"/>
-    <col min="6" max="6" width="21.54296875" style="7" customWidth="1"/>
-    <col min="7" max="16384" width="9.1796875" style="7"/>
+    <col min="1" max="1" width="14.85546875" style="5" customWidth="1"/>
+    <col min="2" max="3" width="9.140625" style="7"/>
+    <col min="4" max="4" width="11.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="8"/>
+    <col min="6" max="6" width="21.5703125" style="7" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" ht="12" customHeight="1" thickBot="1">
+    <row r="1" spans="1:7" s="3" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="3" t="s">
         <v>6</v>
@@ -1192,7 +1019,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="12" customHeight="1">
+    <row r="2" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>52</v>
       </c>
@@ -1200,7 +1027,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="12" customHeight="1">
+    <row r="3" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>27</v>
       </c>
@@ -1217,7 +1044,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="12" customHeight="1">
+    <row r="4" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
@@ -1234,7 +1061,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="12" customHeight="1">
+    <row r="5" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
@@ -1251,7 +1078,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="12" customHeight="1">
+    <row r="6" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
@@ -1268,7 +1095,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="12" customHeight="1">
+    <row r="7" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
@@ -1285,7 +1112,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="12" customHeight="1">
+    <row r="8" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>28</v>
       </c>
@@ -1302,7 +1129,7 @@
         <v>14.76</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="12" customHeight="1">
+    <row r="9" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>14</v>
       </c>
@@ -1319,7 +1146,7 @@
         <v>14.76</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="12" customHeight="1">
+    <row r="10" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>15</v>
       </c>
@@ -1336,7 +1163,7 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="12" customHeight="1">
+    <row r="11" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>48</v>
       </c>
@@ -1353,7 +1180,7 @@
         <v>82.91</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="12" customHeight="1">
+    <row r="12" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>46</v>
       </c>
@@ -1370,7 +1197,7 @@
         <v>82.91</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="12" customHeight="1">
+    <row r="13" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>65</v>
       </c>
@@ -1387,7 +1214,7 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="12" customHeight="1">
+    <row r="14" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>47</v>
       </c>
@@ -1404,7 +1231,7 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="12" customHeight="1">
+    <row r="15" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>16</v>
       </c>
@@ -1421,7 +1248,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="12" customHeight="1">
+    <row r="16" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>17</v>
       </c>
@@ -1438,7 +1265,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="12" customHeight="1">
+    <row r="17" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
         <v>45</v>
       </c>
@@ -1456,7 +1283,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="12" customHeight="1">
+    <row r="18" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>18</v>
       </c>
@@ -1474,7 +1301,7 @@
         <v>100.77673095348899</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="12" customHeight="1">
+    <row r="19" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>19</v>
       </c>
@@ -1492,7 +1319,7 @@
         <v>100.77673095348899</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="12" customHeight="1">
+    <row r="20" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>21</v>
       </c>
@@ -1509,7 +1336,7 @@
         <v>43.733333333333299</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="12" customHeight="1">
+    <row r="21" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>22</v>
       </c>
@@ -1526,7 +1353,7 @@
         <v>43.733333333333299</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="12" customHeight="1">
+    <row r="22" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>23</v>
       </c>
@@ -1543,7 +1370,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="12" customHeight="1">
+    <row r="23" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>24</v>
       </c>
@@ -1560,7 +1387,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="12" customHeight="1">
+    <row r="24" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>25</v>
       </c>
@@ -1577,7 +1404,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="12" customHeight="1">
+    <row r="25" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
         <v>26</v>
       </c>
@@ -1594,7 +1421,7 @@
         <v>32.141666666666602</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="12" customHeight="1">
+    <row r="26" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
         <v>29</v>
       </c>
@@ -1611,7 +1438,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="12" customHeight="1">
+    <row r="27" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
         <v>30</v>
       </c>
@@ -1628,7 +1455,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="12" customHeight="1">
+    <row r="28" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
         <v>31</v>
       </c>
@@ -1645,7 +1472,7 @@
         <v>14.76</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="12" customHeight="1">
+    <row r="29" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
         <v>36</v>
       </c>
@@ -1662,7 +1489,7 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="12" customHeight="1">
+    <row r="30" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
         <v>32</v>
       </c>
@@ -1679,7 +1506,7 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="12" customHeight="1">
+    <row r="31" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
         <v>33</v>
       </c>
@@ -1694,7 +1521,7 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="12" customHeight="1">
+    <row r="32" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
         <v>34</v>
       </c>
@@ -1709,7 +1536,7 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="12" customHeight="1">
+    <row r="33" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
         <v>35</v>
       </c>
@@ -1726,7 +1553,7 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="12" customHeight="1">
+    <row r="34" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>50</v>
       </c>
@@ -1743,7 +1570,7 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="12" customHeight="1">
+    <row r="35" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>51</v>
       </c>
@@ -1760,7 +1587,7 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="12" customHeight="1">
+    <row r="36" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>53</v>
       </c>
@@ -1777,7 +1604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="12" customHeight="1">
+    <row r="37" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>64</v>
       </c>
@@ -1794,7 +1621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="12" customHeight="1">
+    <row r="38" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>54</v>
       </c>
@@ -1811,7 +1638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="12" customHeight="1">
+    <row r="39" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>66</v>
       </c>
@@ -1828,7 +1655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>62</v>
       </c>
@@ -1845,7 +1672,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>63</v>
       </c>
@@ -1862,10 +1689,10 @@
         <v>750</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="H45" s="18"/>
     </row>
-    <row r="49" spans="8:8">
+    <row r="49" spans="8:8" ht="15" x14ac:dyDescent="0.25">
       <c r="H49" s="18"/>
     </row>
   </sheetData>
@@ -1877,23 +1704,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{687E5A79-AEF0-4C58-9166-6C5467E11B80}">
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:N2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.81640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" style="14"/>
-    <col min="3" max="4" width="9.1796875" style="23"/>
-    <col min="5" max="5" width="9.1796875" style="16"/>
-    <col min="6" max="6" width="9.1796875" style="14"/>
-    <col min="7" max="12" width="9.1796875" style="23"/>
-    <col min="13" max="13" width="9.1796875" style="16"/>
-    <col min="14" max="16384" width="9.1796875" style="15"/>
+    <col min="1" max="1" width="9.85546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="14"/>
+    <col min="3" max="4" width="9.140625" style="23"/>
+    <col min="5" max="5" width="9.140625" style="16"/>
+    <col min="6" max="6" width="9.140625" style="14"/>
+    <col min="7" max="12" width="9.140625" style="23"/>
+    <col min="13" max="13" width="9.140625" style="16"/>
+    <col min="14" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="20" customFormat="1" ht="12" customHeight="1" thickBot="1">
+    <row r="1" spans="1:13" s="20" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="19"/>
       <c r="B1" s="2" t="s">
         <v>6</v>
@@ -1932,35 +1759,44 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="12" customHeight="1">
+    <row r="2" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>59</v>
       </c>
       <c r="G2" s="24"/>
     </row>
-    <row r="3" spans="1:13" ht="12" customHeight="1"/>
-    <row r="4" spans="1:13" ht="12" customHeight="1"/>
-    <row r="5" spans="1:13" ht="12" customHeight="1"/>
-    <row r="6" spans="1:13" ht="12" customHeight="1"/>
-    <row r="7" spans="1:13" ht="12" customHeight="1"/>
-    <row r="8" spans="1:13" ht="12" customHeight="1"/>
-    <row r="9" spans="1:13" ht="12" customHeight="1"/>
-    <row r="10" spans="1:13" ht="12" customHeight="1"/>
-    <row r="11" spans="1:13" ht="12" customHeight="1"/>
-    <row r="12" spans="1:13" ht="12" customHeight="1"/>
-    <row r="13" spans="1:13" ht="12" customHeight="1"/>
-    <row r="14" spans="1:13" ht="12" customHeight="1"/>
-    <row r="15" spans="1:13" ht="12" customHeight="1"/>
-    <row r="16" spans="1:13" ht="12" customHeight="1"/>
-    <row r="17" ht="12" customHeight="1"/>
-    <row r="18" ht="12" customHeight="1"/>
-    <row r="19" ht="12" customHeight="1"/>
-    <row r="20" ht="12" customHeight="1"/>
-    <row r="21" ht="12" customHeight="1"/>
-    <row r="22" ht="12" customHeight="1"/>
-    <row r="23" ht="12" customHeight="1"/>
-    <row r="24" ht="12" customHeight="1"/>
-    <row r="25" ht="12" customHeight="1"/>
+    <row r="3" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="23"/>
+    </row>
+    <row r="4" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/streams.xlsx
+++ b/streams.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0649642B-AD5A-4A59-8764-ABC29910E156}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11C43DB8-6567-4DE5-AD48-437161432F4C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14505" yWindow="-105" windowWidth="14625" windowHeight="25215" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14505" yWindow="-105" windowWidth="14625" windowHeight="25215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gas" sheetId="1" r:id="rId1"/>
@@ -816,8 +816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1704,7 +1704,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{687E5A79-AEF0-4C58-9166-6C5467E11B80}">
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>

--- a/streams.xlsx
+++ b/streams.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11C43DB8-6567-4DE5-AD48-437161432F4C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B9C563-CD8A-4432-872F-E1370B718293}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14505" yWindow="-105" windowWidth="14625" windowHeight="25215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14505" yWindow="-105" windowWidth="14625" windowHeight="25215" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gas" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="71">
   <si>
     <t>GTU-PEVD</t>
   </si>
@@ -229,6 +229,12 @@
   </si>
   <si>
     <t>HTS-X</t>
+  </si>
+  <si>
+    <t>DROSVD-ST</t>
+  </si>
+  <si>
+    <t>SWINB</t>
   </si>
 </sst>
 </file>
@@ -816,7 +822,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -982,10 +988,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13792673-7A38-4CCB-80CF-EE250A0D6320}">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1623,77 +1629,63 @@
     </row>
     <row r="38" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B38" s="7">
-        <v>0</v>
-      </c>
-      <c r="C38" s="7">
-        <v>0</v>
-      </c>
-      <c r="D38" s="7">
-        <v>0</v>
-      </c>
-      <c r="E38" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B39" s="7">
-        <v>0</v>
-      </c>
-      <c r="C39" s="7">
-        <v>0</v>
+        <v>62</v>
+      </c>
+      <c r="B39" s="23">
+        <v>46</v>
+      </c>
+      <c r="C39" s="15">
+        <v>1</v>
       </c>
       <c r="D39" s="7">
         <v>0</v>
       </c>
       <c r="E39" s="8">
-        <v>0</v>
+        <v>750</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B40" s="23">
-        <v>46</v>
-      </c>
-      <c r="C40" s="15">
+        <v>63</v>
+      </c>
+      <c r="B40" s="9">
+        <v>90</v>
+      </c>
+      <c r="C40" s="7">
         <v>1</v>
       </c>
       <c r="D40" s="7">
-        <v>0</v>
+        <v>377.75</v>
       </c>
       <c r="E40" s="8">
         <v>750</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B41" s="9">
-        <v>90</v>
-      </c>
-      <c r="C41" s="7">
-        <v>1</v>
-      </c>
-      <c r="D41" s="7">
-        <v>377.75</v>
-      </c>
-      <c r="E41" s="8">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="H45" s="18"/>
-    </row>
-    <row r="49" spans="8:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="H49" s="18"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="H44" s="18"/>
+    </row>
+    <row r="48" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="H48" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/streams.xlsx
+++ b/streams.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B9C563-CD8A-4432-872F-E1370B718293}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E52EE6-297C-4C24-83DA-BA0F1CEBAB44}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14505" yWindow="-105" windowWidth="14625" windowHeight="25215" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14505" yWindow="-105" windowWidth="14625" windowHeight="25215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gas" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="77">
   <si>
     <t>GTU-PEVD</t>
   </si>
@@ -228,13 +228,31 @@
     <t>COOL-HTS</t>
   </si>
   <si>
-    <t>HTS-X</t>
-  </si>
-  <si>
     <t>DROSVD-ST</t>
   </si>
   <si>
     <t>SWINB</t>
+  </si>
+  <si>
+    <t>SGaccum-COMB</t>
+  </si>
+  <si>
+    <t>AIR-COMP</t>
+  </si>
+  <si>
+    <t>COMP-COMB</t>
+  </si>
+  <si>
+    <t>COMB-TURB</t>
+  </si>
+  <si>
+    <t>TURB-COOL</t>
+  </si>
+  <si>
+    <t>COOL-EX</t>
+  </si>
+  <si>
+    <t>HTS-SGaccum</t>
   </si>
 </sst>
 </file>
@@ -822,8 +840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -990,7 +1008,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13792673-7A38-4CCB-80CF-EE250A0D6320}">
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
@@ -1629,7 +1647,7 @@
     </row>
     <row r="38" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -1678,7 +1696,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -1694,15 +1712,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{687E5A79-AEF0-4C58-9166-6C5467E11B80}">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14" style="22" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="14"/>
     <col min="3" max="4" width="9.140625" style="23"/>
     <col min="5" max="5" width="9.140625" style="16"/>
@@ -1765,15 +1783,39 @@
     </row>
     <row r="4" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
+        <v>75</v>
+      </c>
+    </row>
     <row r="11" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1788,7 +1830,6 @@
     <row r="22" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="24" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/streams.xlsx
+++ b/streams.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E52EE6-297C-4C24-83DA-BA0F1CEBAB44}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AAAF3E6-6D27-449D-8D7A-FB8938C0192C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14505" yWindow="-105" windowWidth="14625" windowHeight="25215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14505" yWindow="-105" windowWidth="14625" windowHeight="25215" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gas" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="78">
   <si>
     <t>GTU-PEVD</t>
   </si>
@@ -231,9 +231,6 @@
     <t>DROSVD-ST</t>
   </si>
   <si>
-    <t>SWINB</t>
-  </si>
-  <si>
     <t>SGaccum-COMB</t>
   </si>
   <si>
@@ -252,7 +249,13 @@
     <t>COOL-EX</t>
   </si>
   <si>
-    <t>HTS-SGaccum</t>
+    <t>SGaccum-GTU</t>
+  </si>
+  <si>
+    <t>HTS-HTSCOOL</t>
+  </si>
+  <si>
+    <t>HTSCOOL-Sgaccum</t>
   </si>
 </sst>
 </file>
@@ -840,8 +843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:C7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1006,10 +1009,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13792673-7A38-4CCB-80CF-EE250A0D6320}">
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1304,7 +1307,7 @@
         <v>192.602</v>
       </c>
       <c r="E17" s="8">
-        <v>750</v>
+        <v>800</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -1645,65 +1648,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>69</v>
+        <v>62</v>
+      </c>
+      <c r="B38" s="23"/>
+      <c r="C38" s="15"/>
+      <c r="E38" s="8">
+        <v>750</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B39" s="23">
-        <v>46</v>
-      </c>
-      <c r="C39" s="15">
-        <v>1</v>
-      </c>
-      <c r="D39" s="7">
-        <v>0</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="B39" s="9"/>
       <c r="E39" s="8">
         <v>750</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B40" s="9">
-        <v>90</v>
-      </c>
-      <c r="C40" s="7">
-        <v>1</v>
-      </c>
-      <c r="D40" s="7">
-        <v>377.75</v>
-      </c>
-      <c r="E40" s="8">
-        <v>750</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="17" t="s">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="17" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="H44" s="18"/>
-    </row>
-    <row r="48" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="H48" s="18"/>
+    <row r="43" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="H43" s="18"/>
+    </row>
+    <row r="47" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="H47" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1712,15 +1695,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{687E5A79-AEF0-4C58-9166-6C5467E11B80}">
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14" style="22" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" style="22" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="14"/>
     <col min="3" max="4" width="9.140625" style="23"/>
     <col min="5" max="5" width="9.140625" style="16"/>
@@ -1788,36 +1771,44 @@
     </row>
     <row r="5" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
+        <v>74</v>
+      </c>
+    </row>
     <row r="13" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1830,6 +1821,8 @@
     <row r="22" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="24" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/streams.xlsx
+++ b/streams.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AAAF3E6-6D27-449D-8D7A-FB8938C0192C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AAFC87C-AAA9-4556-A08A-6D2058C28FC1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-14505" yWindow="-105" windowWidth="14625" windowHeight="25215" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="79">
   <si>
     <t>GTU-PEVD</t>
   </si>
@@ -255,7 +255,10 @@
     <t>HTS-HTSCOOL</t>
   </si>
   <si>
-    <t>HTSCOOL-Sgaccum</t>
+    <t>HTSCOOL-Separ</t>
+  </si>
+  <si>
+    <t>Separ-SGaccum</t>
   </si>
 </sst>
 </file>
@@ -1695,7 +1698,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{687E5A79-AEF0-4C58-9166-6C5467E11B80}">
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
@@ -1776,40 +1779,44 @@
     </row>
     <row r="6" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1823,7 +1830,9 @@
     <row r="24" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="25" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="26" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/streams.xlsx
+++ b/streams.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AAFC87C-AAA9-4556-A08A-6D2058C28FC1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AAAF3E6-6D27-449D-8D7A-FB8938C0192C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-14505" yWindow="-105" windowWidth="14625" windowHeight="25215" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="78">
   <si>
     <t>GTU-PEVD</t>
   </si>
@@ -255,10 +255,7 @@
     <t>HTS-HTSCOOL</t>
   </si>
   <si>
-    <t>HTSCOOL-Separ</t>
-  </si>
-  <si>
-    <t>Separ-SGaccum</t>
+    <t>HTSCOOL-Sgaccum</t>
   </si>
 </sst>
 </file>
@@ -1698,7 +1695,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{687E5A79-AEF0-4C58-9166-6C5467E11B80}">
-  <dimension ref="A1:M27"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
@@ -1779,44 +1776,40 @@
     </row>
     <row r="6" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
         <v>74</v>
       </c>
     </row>
+    <row r="13" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1830,9 +1823,7 @@
     <row r="24" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="25" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="26" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/streams.xlsx
+++ b/streams.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AAFC87C-AAA9-4556-A08A-6D2058C28FC1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E61A831-C29B-4CBA-A854-72F9651E4413}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14505" yWindow="-105" windowWidth="14625" windowHeight="25215" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14505" yWindow="-105" windowWidth="14625" windowHeight="25215" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gas" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="81">
   <si>
     <t>GTU-PEVD</t>
   </si>
@@ -231,9 +231,6 @@
     <t>DROSVD-ST</t>
   </si>
   <si>
-    <t>SGaccum-COMB</t>
-  </si>
-  <si>
     <t>AIR-COMP</t>
   </si>
   <si>
@@ -249,9 +246,6 @@
     <t>COOL-EX</t>
   </si>
   <si>
-    <t>SGaccum-GTU</t>
-  </si>
-  <si>
     <t>HTS-HTSCOOL</t>
   </si>
   <si>
@@ -259,6 +253,18 @@
   </si>
   <si>
     <t>Separ-SGaccum</t>
+  </si>
+  <si>
+    <t>SGaccum-Separacc</t>
+  </si>
+  <si>
+    <t>Separacc-Sepout</t>
+  </si>
+  <si>
+    <t>Sepout-COMB</t>
+  </si>
+  <si>
+    <t>Sepout-GTU</t>
   </si>
 </sst>
 </file>
@@ -471,7 +477,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -561,6 +567,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1014,8 +1023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13792673-7A38-4CCB-80CF-EE250A0D6320}">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1684,6 +1693,10 @@
       <c r="A42" s="17" t="s">
         <v>68</v>
       </c>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="31"/>
     </row>
     <row r="43" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="H43" s="18"/>
@@ -1698,10 +1711,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{687E5A79-AEF0-4C58-9166-6C5467E11B80}">
-  <dimension ref="A1:M27"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1769,56 +1782,64 @@
     </row>
     <row r="4" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="22" t="s">
+        <v>73</v>
+      </c>
+    </row>
     <row r="16" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1831,6 +1852,7 @@
     <row r="25" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="26" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="27" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/streams.xlsx
+++ b/streams.xlsx
@@ -1,21 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AAFC87C-AAA9-4556-A08A-6D2058C28FC1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E826B3-AD5A-4500-9D3D-545D4A3D517D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14505" yWindow="-105" windowWidth="14625" windowHeight="25215" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1380" yWindow="3060" windowWidth="13455" windowHeight="12660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gas" sheetId="1" r:id="rId1"/>
     <sheet name="water" sheetId="2" r:id="rId2"/>
     <sheet name="syngas" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -268,7 +276,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000000000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -850,7 +858,7 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="14.85546875" style="5" customWidth="1"/>
     <col min="2" max="5" width="9.140625" style="7"/>
@@ -861,7 +869,7 @@
     <col min="12" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="3" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" s="3" customFormat="1" ht="12" customHeight="1" thickBot="1">
       <c r="A1" s="1"/>
       <c r="B1" s="3" t="s">
         <v>6</v>
@@ -891,12 +899,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="12" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="12" customHeight="1">
       <c r="A3" s="17" t="s">
         <v>38</v>
       </c>
@@ -928,17 +936,17 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="12" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="12" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="12" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>39</v>
       </c>
@@ -948,12 +956,12 @@
       <c r="N6" s="9"/>
       <c r="O6" s="9"/>
     </row>
-    <row r="7" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" ht="12" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" s="12" customFormat="1" ht="12" customHeight="1">
       <c r="A8" s="11" t="s">
         <v>41</v>
       </c>
@@ -967,7 +975,7 @@
       <c r="I8" s="7"/>
       <c r="J8" s="8"/>
     </row>
-    <row r="9" spans="1:18" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" s="12" customFormat="1" ht="12" customHeight="1">
       <c r="A9" s="11" t="s">
         <v>42</v>
       </c>
@@ -981,23 +989,23 @@
       <c r="I9" s="7"/>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" ht="12" customHeight="1">
       <c r="A10" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" ht="12" customHeight="1">
       <c r="A11" s="5" t="s">
         <v>44</v>
       </c>
       <c r="K11" s="30"/>
     </row>
-    <row r="12" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" ht="12" customHeight="1">
       <c r="A12" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:18" s="27" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" s="27" customFormat="1" ht="12" customHeight="1" thickBot="1">
       <c r="A13" s="25" t="s">
         <v>61</v>
       </c>
@@ -1014,11 +1022,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13792673-7A38-4CCB-80CF-EE250A0D6320}">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="14.85546875" style="5" customWidth="1"/>
     <col min="2" max="3" width="9.140625" style="7"/>
@@ -1028,7 +1036,7 @@
     <col min="7" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="3" customFormat="1" ht="12" customHeight="1" thickBot="1">
       <c r="A1" s="1"/>
       <c r="B1" s="3" t="s">
         <v>6</v>
@@ -1049,7 +1057,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="12" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>52</v>
       </c>
@@ -1057,7 +1065,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="12" customHeight="1">
       <c r="A3" s="17" t="s">
         <v>27</v>
       </c>
@@ -1074,7 +1082,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="12" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
@@ -1091,7 +1099,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="12" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
@@ -1108,7 +1116,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="12" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
@@ -1125,7 +1133,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="12" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
@@ -1142,7 +1150,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="12" customHeight="1">
       <c r="A8" s="17" t="s">
         <v>28</v>
       </c>
@@ -1159,7 +1167,7 @@
         <v>14.76</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="12" customHeight="1">
       <c r="A9" s="5" t="s">
         <v>14</v>
       </c>
@@ -1176,7 +1184,7 @@
         <v>14.76</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="12" customHeight="1">
       <c r="A10" s="5" t="s">
         <v>15</v>
       </c>
@@ -1193,7 +1201,7 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="12" customHeight="1">
       <c r="A11" s="5" t="s">
         <v>48</v>
       </c>
@@ -1210,7 +1218,7 @@
         <v>82.91</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="12" customHeight="1">
       <c r="A12" s="5" t="s">
         <v>46</v>
       </c>
@@ -1227,7 +1235,7 @@
         <v>82.91</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="12" customHeight="1">
       <c r="A13" s="5" t="s">
         <v>65</v>
       </c>
@@ -1244,7 +1252,7 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="12" customHeight="1">
       <c r="A14" s="5" t="s">
         <v>47</v>
       </c>
@@ -1261,7 +1269,7 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="12" customHeight="1">
       <c r="A15" s="5" t="s">
         <v>16</v>
       </c>
@@ -1278,7 +1286,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="12" customHeight="1">
       <c r="A16" s="5" t="s">
         <v>17</v>
       </c>
@@ -1295,7 +1303,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="12" customHeight="1">
       <c r="A17" s="17" t="s">
         <v>45</v>
       </c>
@@ -1313,7 +1321,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="12" customHeight="1">
       <c r="A18" s="5" t="s">
         <v>18</v>
       </c>
@@ -1331,7 +1339,7 @@
         <v>100.77673095348899</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="12" customHeight="1">
       <c r="A19" s="5" t="s">
         <v>19</v>
       </c>
@@ -1349,7 +1357,7 @@
         <v>100.77673095348899</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="12" customHeight="1">
       <c r="A20" s="5" t="s">
         <v>21</v>
       </c>
@@ -1366,7 +1374,7 @@
         <v>43.733333333333299</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="12" customHeight="1">
       <c r="A21" s="5" t="s">
         <v>22</v>
       </c>
@@ -1383,7 +1391,7 @@
         <v>43.733333333333299</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="12" customHeight="1">
       <c r="A22" s="5" t="s">
         <v>23</v>
       </c>
@@ -1400,7 +1408,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="12" customHeight="1">
       <c r="A23" s="5" t="s">
         <v>24</v>
       </c>
@@ -1417,7 +1425,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="12" customHeight="1">
       <c r="A24" s="5" t="s">
         <v>25</v>
       </c>
@@ -1434,7 +1442,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="12" customHeight="1">
       <c r="A25" s="17" t="s">
         <v>26</v>
       </c>
@@ -1451,7 +1459,7 @@
         <v>32.141666666666602</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="12" customHeight="1">
       <c r="A26" s="17" t="s">
         <v>29</v>
       </c>
@@ -1468,7 +1476,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="12" customHeight="1">
       <c r="A27" s="17" t="s">
         <v>30</v>
       </c>
@@ -1485,7 +1493,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="12" customHeight="1">
       <c r="A28" s="17" t="s">
         <v>31</v>
       </c>
@@ -1502,7 +1510,7 @@
         <v>14.76</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="12" customHeight="1">
       <c r="A29" s="17" t="s">
         <v>36</v>
       </c>
@@ -1519,7 +1527,7 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="12" customHeight="1">
       <c r="A30" s="17" t="s">
         <v>32</v>
       </c>
@@ -1536,7 +1544,7 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="12" customHeight="1">
       <c r="A31" s="17" t="s">
         <v>33</v>
       </c>
@@ -1551,7 +1559,7 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="12" customHeight="1">
       <c r="A32" s="17" t="s">
         <v>34</v>
       </c>
@@ -1566,7 +1574,7 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="12" customHeight="1">
       <c r="A33" s="17" t="s">
         <v>35</v>
       </c>
@@ -1583,7 +1591,7 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="12" customHeight="1">
       <c r="A34" s="5" t="s">
         <v>50</v>
       </c>
@@ -1600,7 +1608,7 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="12" customHeight="1">
       <c r="A35" s="5" t="s">
         <v>51</v>
       </c>
@@ -1617,7 +1625,7 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="12" customHeight="1">
       <c r="A36" s="5" t="s">
         <v>53</v>
       </c>
@@ -1634,7 +1642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="12" customHeight="1">
       <c r="A37" s="5" t="s">
         <v>64</v>
       </c>
@@ -1651,44 +1659,53 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="A38" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B38" s="23"/>
-      <c r="C38" s="15"/>
+      <c r="B38" s="7">
+        <v>45</v>
+      </c>
+      <c r="C38" s="15">
+        <v>1</v>
+      </c>
       <c r="E38" s="8">
         <v>750</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="A39" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B39" s="9"/>
+      <c r="B39" s="7">
+        <v>90</v>
+      </c>
+      <c r="C39" s="7">
+        <v>1</v>
+      </c>
       <c r="E39" s="8">
         <v>750</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="12" customHeight="1">
       <c r="A40" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="12" customHeight="1">
       <c r="A41" s="5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="A42" s="17" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="H43" s="18"/>
     </row>
-    <row r="47" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="H47" s="18"/>
     </row>
   </sheetData>
@@ -1700,11 +1717,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{687E5A79-AEF0-4C58-9166-6C5467E11B80}">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="16.7109375" style="22" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="14"/>
@@ -1716,7 +1733,7 @@
     <col min="14" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="20" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="20" customFormat="1" ht="12" customHeight="1" thickBot="1">
       <c r="A1" s="19"/>
       <c r="B1" s="2" t="s">
         <v>6</v>
@@ -1755,82 +1772,82 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="12" customHeight="1">
       <c r="A2" s="22" t="s">
         <v>59</v>
       </c>
       <c r="G2" s="24"/>
     </row>
-    <row r="3" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="12" customHeight="1">
       <c r="A3" s="22" t="s">
         <v>67</v>
       </c>
       <c r="E3" s="23"/>
     </row>
-    <row r="4" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="12" customHeight="1">
       <c r="A4" s="22" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="12" customHeight="1">
       <c r="A5" s="22" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="12" customHeight="1">
       <c r="A6" s="22" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="12" customHeight="1">
       <c r="A7" s="22" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="12" customHeight="1">
       <c r="A8" s="22" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="12" customHeight="1">
       <c r="A9" s="22" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="12" customHeight="1">
       <c r="A10" s="22" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="12" customHeight="1">
       <c r="A11" s="22" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="12" customHeight="1">
       <c r="A12" s="22" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="12" customHeight="1">
       <c r="A13" s="22" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:13" ht="12" customHeight="1"/>
+    <row r="15" spans="1:13" ht="12" customHeight="1"/>
+    <row r="16" spans="1:13" ht="12" customHeight="1"/>
+    <row r="17" ht="12" customHeight="1"/>
+    <row r="18" ht="12" customHeight="1"/>
+    <row r="19" ht="12" customHeight="1"/>
+    <row r="20" ht="12" customHeight="1"/>
+    <row r="21" ht="12" customHeight="1"/>
+    <row r="22" ht="12" customHeight="1"/>
+    <row r="23" ht="12" customHeight="1"/>
+    <row r="24" ht="12" customHeight="1"/>
+    <row r="25" ht="12" customHeight="1"/>
+    <row r="26" ht="12" customHeight="1"/>
+    <row r="27" ht="12" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/streams.xlsx
+++ b/streams.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E61A831-C29B-4CBA-A854-72F9651E4413}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB5C2E5-C2A0-4EB1-82F0-4E220D4C3941}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-14505" yWindow="-105" windowWidth="14625" windowHeight="25215" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1023,8 +1023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13792673-7A38-4CCB-80CF-EE250A0D6320}">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1664,8 +1664,12 @@
       <c r="A38" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B38" s="23"/>
-      <c r="C38" s="15"/>
+      <c r="B38" s="23">
+        <v>46</v>
+      </c>
+      <c r="C38" s="15">
+        <v>1</v>
+      </c>
       <c r="E38" s="8">
         <v>750</v>
       </c>
@@ -1674,7 +1678,12 @@
       <c r="A39" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B39" s="9"/>
+      <c r="B39" s="9">
+        <v>90</v>
+      </c>
+      <c r="C39" s="7">
+        <v>1</v>
+      </c>
       <c r="E39" s="8">
         <v>750</v>
       </c>
@@ -1714,7 +1723,7 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1814,6 +1823,9 @@
       <c r="A10" s="22" t="s">
         <v>80</v>
       </c>
+      <c r="C10" s="23">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">

--- a/streams.xlsx
+++ b/streams.xlsx
@@ -1,21 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB5C2E5-C2A0-4EB1-82F0-4E220D4C3941}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667E84DC-D7AE-46E8-9663-28C926DAB9FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14505" yWindow="-105" windowWidth="14625" windowHeight="25215" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14510" yWindow="-110" windowWidth="14620" windowHeight="25220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gas" sheetId="1" r:id="rId1"/>
     <sheet name="water" sheetId="2" r:id="rId2"/>
     <sheet name="syngas" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -855,22 +863,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="5" customWidth="1"/>
-    <col min="2" max="5" width="9.140625" style="7"/>
-    <col min="6" max="6" width="9.140625" style="6"/>
-    <col min="7" max="9" width="9.140625" style="7"/>
-    <col min="10" max="10" width="9.140625" style="8"/>
-    <col min="11" max="11" width="13.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="1" width="14.81640625" style="5" customWidth="1"/>
+    <col min="2" max="5" width="9.1796875" style="7"/>
+    <col min="6" max="6" width="9.1796875" style="6"/>
+    <col min="7" max="9" width="9.1796875" style="7"/>
+    <col min="10" max="10" width="9.1796875" style="8"/>
+    <col min="11" max="11" width="13.26953125" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.1796875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="3" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" s="3" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="3" t="s">
         <v>6</v>
@@ -900,12 +908,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
         <v>38</v>
       </c>
@@ -937,17 +945,20 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E5" s="7">
+        <v>503.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>39</v>
       </c>
@@ -957,12 +968,12 @@
       <c r="N6" s="9"/>
       <c r="O6" s="9"/>
     </row>
-    <row r="7" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
         <v>41</v>
       </c>
@@ -976,7 +987,7 @@
       <c r="I8" s="7"/>
       <c r="J8" s="8"/>
     </row>
-    <row r="9" spans="1:18" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
         <v>42</v>
       </c>
@@ -990,23 +1001,23 @@
       <c r="I9" s="7"/>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>44</v>
       </c>
       <c r="K11" s="30"/>
     </row>
-    <row r="12" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:18" s="27" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" s="27" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="25" t="s">
         <v>61</v>
       </c>
@@ -1023,21 +1034,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13792673-7A38-4CCB-80CF-EE250A0D6320}">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="5" customWidth="1"/>
-    <col min="2" max="3" width="9.140625" style="7"/>
-    <col min="4" max="4" width="11.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="8"/>
-    <col min="6" max="6" width="21.5703125" style="7" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="1" width="14.81640625" style="5" customWidth="1"/>
+    <col min="2" max="3" width="9.1796875" style="7"/>
+    <col min="4" max="4" width="11.453125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1796875" style="8"/>
+    <col min="6" max="6" width="21.54296875" style="7" customWidth="1"/>
+    <col min="7" max="16384" width="9.1796875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="3" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="3" t="s">
         <v>6</v>
@@ -1058,7 +1069,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>52</v>
       </c>
@@ -1066,7 +1077,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
         <v>27</v>
       </c>
@@ -1083,7 +1094,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
@@ -1100,7 +1111,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
@@ -1117,7 +1128,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
@@ -1134,7 +1145,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
@@ -1151,7 +1162,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
         <v>28</v>
       </c>
@@ -1168,7 +1179,7 @@
         <v>14.76</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>14</v>
       </c>
@@ -1185,7 +1196,7 @@
         <v>14.76</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>15</v>
       </c>
@@ -1202,7 +1213,7 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>48</v>
       </c>
@@ -1219,7 +1230,7 @@
         <v>82.91</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>46</v>
       </c>
@@ -1236,7 +1247,7 @@
         <v>82.91</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>65</v>
       </c>
@@ -1253,7 +1264,7 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>47</v>
       </c>
@@ -1270,7 +1281,7 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>16</v>
       </c>
@@ -1287,7 +1298,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>17</v>
       </c>
@@ -1304,7 +1315,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="17" t="s">
         <v>45</v>
       </c>
@@ -1322,7 +1333,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>18</v>
       </c>
@@ -1340,7 +1351,7 @@
         <v>100.77673095348899</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>19</v>
       </c>
@@ -1358,7 +1369,7 @@
         <v>100.77673095348899</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>21</v>
       </c>
@@ -1375,7 +1386,7 @@
         <v>43.733333333333299</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>22</v>
       </c>
@@ -1392,7 +1403,7 @@
         <v>43.733333333333299</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>23</v>
       </c>
@@ -1409,7 +1420,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>24</v>
       </c>
@@ -1426,7 +1437,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>25</v>
       </c>
@@ -1443,7 +1454,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="17" t="s">
         <v>26</v>
       </c>
@@ -1460,7 +1471,7 @@
         <v>32.141666666666602</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="17" t="s">
         <v>29</v>
       </c>
@@ -1477,7 +1488,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="17" t="s">
         <v>30</v>
       </c>
@@ -1494,7 +1505,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="17" t="s">
         <v>31</v>
       </c>
@@ -1511,7 +1522,7 @@
         <v>14.76</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="17" t="s">
         <v>36</v>
       </c>
@@ -1528,7 +1539,7 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="17" t="s">
         <v>32</v>
       </c>
@@ -1545,7 +1556,7 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="17" t="s">
         <v>33</v>
       </c>
@@ -1560,7 +1571,7 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="17" t="s">
         <v>34</v>
       </c>
@@ -1575,7 +1586,7 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="17" t="s">
         <v>35</v>
       </c>
@@ -1592,7 +1603,7 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
         <v>50</v>
       </c>
@@ -1609,7 +1620,7 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
         <v>51</v>
       </c>
@@ -1626,7 +1637,7 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
         <v>53</v>
       </c>
@@ -1643,7 +1654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
         <v>64</v>
       </c>
@@ -1660,7 +1671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
         <v>62</v>
       </c>
@@ -1674,7 +1685,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
         <v>63</v>
       </c>
@@ -1688,17 +1699,17 @@
         <v>750</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="17" t="s">
         <v>68</v>
       </c>
@@ -1707,10 +1718,10 @@
       <c r="D42" s="13"/>
       <c r="E42" s="31"/>
     </row>
-    <row r="43" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="14" x14ac:dyDescent="0.35">
       <c r="H43" s="18"/>
     </row>
-    <row r="47" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="14" x14ac:dyDescent="0.35">
       <c r="H47" s="18"/>
     </row>
   </sheetData>
@@ -1723,22 +1734,22 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="14"/>
-    <col min="3" max="4" width="9.140625" style="23"/>
-    <col min="5" max="5" width="9.140625" style="16"/>
-    <col min="6" max="6" width="9.140625" style="14"/>
-    <col min="7" max="12" width="9.140625" style="23"/>
-    <col min="13" max="13" width="9.140625" style="16"/>
-    <col min="14" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="1" width="16.7265625" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" style="14"/>
+    <col min="3" max="4" width="9.1796875" style="23"/>
+    <col min="5" max="5" width="9.1796875" style="16"/>
+    <col min="6" max="6" width="9.1796875" style="14"/>
+    <col min="7" max="12" width="9.1796875" style="23"/>
+    <col min="13" max="13" width="9.1796875" style="16"/>
+    <col min="14" max="16384" width="9.1796875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="20" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="20" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="19"/>
       <c r="B1" s="2" t="s">
         <v>6</v>
@@ -1777,49 +1788,49 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="22" t="s">
         <v>59</v>
       </c>
       <c r="G2" s="24"/>
     </row>
-    <row r="3" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="22" t="s">
         <v>67</v>
       </c>
       <c r="E3" s="23"/>
     </row>
-    <row r="4" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="22" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="22" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="22" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="22" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="22" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="22" t="s">
         <v>80</v>
       </c>
@@ -1827,44 +1838,44 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="22" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="22" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="22" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="22" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="22" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="17" ht="12" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="18" ht="12" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="19" ht="12" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="20" ht="12" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="21" ht="12" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="22" ht="12" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="23" ht="12" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="24" ht="12" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="25" ht="12" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="26" ht="12" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="27" ht="12" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="28" ht="12" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/streams.xlsx
+++ b/streams.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667E84DC-D7AE-46E8-9663-28C926DAB9FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A31E14-B945-47AA-B9B7-BD1B8A85CFB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14510" yWindow="-110" windowWidth="14620" windowHeight="25220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14510" yWindow="-110" windowWidth="14620" windowHeight="25220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gas" sheetId="1" r:id="rId1"/>
@@ -485,7 +485,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -575,9 +575,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -863,7 +860,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -1034,8 +1031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13792673-7A38-4CCB-80CF-EE250A0D6320}">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -1703,6 +1700,18 @@
       <c r="A40" s="5" t="s">
         <v>54</v>
       </c>
+      <c r="B40" s="7">
+        <v>480</v>
+      </c>
+      <c r="C40" s="7">
+        <v>2</v>
+      </c>
+      <c r="D40" s="7">
+        <v>3000</v>
+      </c>
+      <c r="E40" s="8">
+        <v>10</v>
+      </c>
     </row>
     <row r="41" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
@@ -1713,10 +1722,6 @@
       <c r="A42" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="31"/>
     </row>
     <row r="43" spans="1:8" ht="14" x14ac:dyDescent="0.35">
       <c r="H43" s="18"/>

--- a/streams.xlsx
+++ b/streams.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A31E14-B945-47AA-B9B7-BD1B8A85CFB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{220D1DC2-0471-482B-BAA4-ECAFAE93AC6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-14510" yWindow="-110" windowWidth="14620" windowHeight="25220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1032,7 +1032,7 @@
   <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -1717,10 +1717,34 @@
       <c r="A41" s="5" t="s">
         <v>66</v>
       </c>
+      <c r="B41" s="7">
+        <v>30</v>
+      </c>
+      <c r="C41" s="7">
+        <v>8</v>
+      </c>
+      <c r="E41" s="8">
+        <v>10</v>
+      </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="17" t="s">
         <v>68</v>
+      </c>
+      <c r="B42" s="7">
+        <f>B3</f>
+        <v>511.5</v>
+      </c>
+      <c r="C42" s="7">
+        <f>C3</f>
+        <v>8.407</v>
+      </c>
+      <c r="D42" s="7">
+        <f>D3</f>
+        <v>3423.2099783420958</v>
+      </c>
+      <c r="E42" s="8">
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="14" x14ac:dyDescent="0.35">

--- a/streams.xlsx
+++ b/streams.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{220D1DC2-0471-482B-BAA4-ECAFAE93AC6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB5342FE-EBF4-40A3-B207-7F57194D4B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14510" yWindow="-110" windowWidth="14620" windowHeight="25220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14510" yWindow="-110" windowWidth="14620" windowHeight="25220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gas" sheetId="1" r:id="rId1"/>
@@ -1031,7 +1031,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13792673-7A38-4CCB-80CF-EE250A0D6320}">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
@@ -1762,8 +1762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{687E5A79-AEF0-4C58-9166-6C5467E11B80}">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -1863,9 +1863,6 @@
       <c r="A10" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="C10" s="23">
-        <v>2</v>
-      </c>
     </row>
     <row r="11" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="22" t="s">

--- a/streams.xlsx
+++ b/streams.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB5342FE-EBF4-40A3-B207-7F57194D4B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F18BB34-8E23-411F-AF7B-3363B14CC5B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14510" yWindow="-110" windowWidth="14620" windowHeight="25220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gas" sheetId="1" r:id="rId1"/>
@@ -282,7 +282,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000000000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -347,7 +347,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -480,51 +480,71 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -535,8 +555,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -544,37 +573,49 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -860,11 +901,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="14.81640625" style="5" customWidth="1"/>
     <col min="2" max="5" width="9.1796875" style="7"/>
@@ -875,7 +916,7 @@
     <col min="12" max="16384" width="9.1796875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="3" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:18" s="3" customFormat="1" ht="12" customHeight="1" thickBot="1">
       <c r="A1" s="1"/>
       <c r="B1" s="3" t="s">
         <v>6</v>
@@ -905,122 +946,169 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:18" s="23" customFormat="1" ht="12" customHeight="1">
+      <c r="A2" s="22" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="17" t="s">
+      <c r="C2" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="F2" s="24"/>
+      <c r="J2" s="25"/>
+    </row>
+    <row r="3" spans="1:18" s="26" customFormat="1" ht="12" customHeight="1">
+      <c r="A3" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="26">
         <v>542.1</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="26">
         <v>0.1</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="26">
         <v>958.86919853128609</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="26">
         <v>503.8</v>
       </c>
       <c r="F3" s="6">
         <v>0.78029999999999999</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="26">
         <v>0.1237</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="26">
         <v>3.0099999999999998E-2</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="26">
         <v>5.9400000000000001E-2</v>
       </c>
       <c r="J3" s="8">
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" s="26" customFormat="1" ht="12" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C4" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" spans="1:18" s="26" customFormat="1" ht="12" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="7">
+      <c r="C5" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="E5" s="26">
         <v>503.8</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F5" s="6"/>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="1:18" s="26" customFormat="1" ht="12" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-    </row>
-    <row r="7" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C6" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+    </row>
+    <row r="7" spans="1:18" s="26" customFormat="1" ht="12" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C7" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" spans="1:18" s="28" customFormat="1" ht="12" customHeight="1">
       <c r="A8" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
       <c r="F8" s="6"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
       <c r="J8" s="8"/>
     </row>
-    <row r="9" spans="1:18" s="12" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" s="28" customFormat="1" ht="12" customHeight="1">
       <c r="A9" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" s="26" customFormat="1" ht="12" customHeight="1">
       <c r="A10" s="5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C10" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" spans="1:18" s="26" customFormat="1" ht="12" customHeight="1">
       <c r="A11" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="K11" s="30"/>
-    </row>
-    <row r="12" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C11" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="29"/>
+    </row>
+    <row r="12" spans="1:18" s="26" customFormat="1" ht="12" customHeight="1">
       <c r="A12" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" s="27" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="25" t="s">
+      <c r="C12" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="J12" s="8"/>
+    </row>
+    <row r="13" spans="1:18" s="19" customFormat="1" ht="12" customHeight="1" thickBot="1">
+      <c r="A13" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="F13" s="26"/>
-      <c r="J13" s="28"/>
-      <c r="R13" s="29"/>
+      <c r="C13" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="F13" s="18"/>
+      <c r="J13" s="20"/>
+      <c r="R13" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1035,7 +1123,7 @@
       <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="14.81640625" style="5" customWidth="1"/>
     <col min="2" max="3" width="9.1796875" style="7"/>
@@ -1045,7 +1133,7 @@
     <col min="7" max="16384" width="9.1796875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" s="3" customFormat="1" ht="12" customHeight="1" thickBot="1">
       <c r="A1" s="1"/>
       <c r="B1" s="3" t="s">
         <v>6</v>
@@ -1066,7 +1154,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="12" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>52</v>
       </c>
@@ -1074,14 +1162,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="17" t="s">
+    <row r="3" spans="1:7" ht="12" customHeight="1">
+      <c r="A3" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B3" s="7">
         <v>511.5</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="12">
         <v>8.407</v>
       </c>
       <c r="D3" s="7">
@@ -1091,7 +1179,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="12" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
@@ -1108,7 +1196,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="12" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
@@ -1125,7 +1213,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="12" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
@@ -1142,7 +1230,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="12" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
@@ -1159,14 +1247,14 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="17" t="s">
+    <row r="8" spans="1:7" ht="12" customHeight="1">
+      <c r="A8" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B8" s="7">
         <v>211.6</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="12">
         <v>0.69099999999999995</v>
       </c>
       <c r="D8" s="7">
@@ -1176,7 +1264,7 @@
         <v>14.76</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="12" customHeight="1">
       <c r="A9" s="5" t="s">
         <v>14</v>
       </c>
@@ -1193,7 +1281,7 @@
         <v>14.76</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="12" customHeight="1">
       <c r="A10" s="5" t="s">
         <v>15</v>
       </c>
@@ -1210,7 +1298,7 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="12" customHeight="1">
       <c r="A11" s="5" t="s">
         <v>48</v>
       </c>
@@ -1227,11 +1315,11 @@
         <v>82.91</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="12" customHeight="1">
       <c r="A12" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="12">
         <v>60</v>
       </c>
       <c r="C12" s="7">
@@ -1244,11 +1332,11 @@
         <v>82.91</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="12" customHeight="1">
       <c r="A13" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="12">
         <v>44.2</v>
       </c>
       <c r="C13" s="7">
@@ -1261,7 +1349,7 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="12" customHeight="1">
       <c r="A14" s="5" t="s">
         <v>47</v>
       </c>
@@ -1278,51 +1366,51 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="12" customHeight="1">
       <c r="A15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="23">
+      <c r="B15" s="7">
         <v>74.77</v>
       </c>
       <c r="C15" s="7">
         <v>0.13219638629678299</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="7">
         <v>313.06198999999998</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="12" customHeight="1">
       <c r="A16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="23">
+      <c r="B16" s="7">
         <v>49.839511130751802</v>
       </c>
       <c r="C16" s="7">
         <v>0.13219638629678299</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="7">
         <v>200</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="17" t="s">
+    <row r="17" spans="1:5" ht="12" customHeight="1">
+      <c r="A17" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="23">
+      <c r="B17" s="7">
         <v>46</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="7">
         <v>1</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="7">
         <f>4.187*B17</f>
         <v>192.602</v>
       </c>
@@ -1330,43 +1418,43 @@
         <v>800</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="12" customHeight="1">
       <c r="A18" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="23">
+      <c r="B18" s="7">
         <v>46</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="7">
         <v>1</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="7">
         <f>4.187*B18</f>
         <v>192.602</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E18" s="8">
         <v>100.77673095348899</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" ht="12" customHeight="1">
       <c r="A19" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="23">
+      <c r="B19" s="7">
         <v>64.77</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="7">
         <v>1</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="7">
         <f>4.187*B19</f>
         <v>271.19198999999998</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E19" s="8">
         <v>100.77673095348899</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" ht="12" customHeight="1">
       <c r="A20" s="5" t="s">
         <v>21</v>
       </c>
@@ -1383,7 +1471,7 @@
         <v>43.733333333333299</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" ht="12" customHeight="1">
       <c r="A21" s="5" t="s">
         <v>22</v>
       </c>
@@ -1400,7 +1488,7 @@
         <v>43.733333333333299</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" ht="12" customHeight="1">
       <c r="A22" s="5" t="s">
         <v>23</v>
       </c>
@@ -1417,7 +1505,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" ht="12" customHeight="1">
       <c r="A23" s="5" t="s">
         <v>24</v>
       </c>
@@ -1434,7 +1522,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" ht="12" customHeight="1">
       <c r="A24" s="5" t="s">
         <v>25</v>
       </c>
@@ -1444,197 +1532,195 @@
       <c r="C24" s="7">
         <v>1</v>
       </c>
-      <c r="D24" s="15">
+      <c r="D24" s="7">
         <v>202.38312796257762</v>
       </c>
       <c r="E24" s="8">
         <v>800</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="17" t="s">
+    <row r="25" spans="1:5" ht="12" customHeight="1">
+      <c r="A25" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="23">
+      <c r="B25" s="7">
         <v>76</v>
       </c>
-      <c r="C25" s="15">
+      <c r="C25" s="7">
         <v>4.0238843925466602E-2</v>
       </c>
-      <c r="D25" s="15">
+      <c r="D25" s="7">
         <v>2464.75601712861</v>
       </c>
-      <c r="E25" s="16">
+      <c r="E25" s="8">
         <v>32.141666666666602</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="17" t="s">
+    <row r="26" spans="1:5" ht="12" customHeight="1">
+      <c r="A26" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="23">
+      <c r="B26" s="7">
         <v>508.6</v>
       </c>
-      <c r="C26" s="15">
+      <c r="C26" s="7">
         <v>5.1989999999999998</v>
       </c>
-      <c r="D26" s="15">
+      <c r="D26" s="7">
         <v>3414.0936824129262</v>
       </c>
-      <c r="E26" s="16">
+      <c r="E26" s="8">
         <v>63.4</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="17" t="s">
+    <row r="27" spans="1:5" ht="12" customHeight="1">
+      <c r="A27" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="23">
+      <c r="B27" s="7">
         <v>195.85257753389442</v>
       </c>
-      <c r="C27" s="15">
+      <c r="C27" s="7">
         <v>0.54900000000000004</v>
       </c>
-      <c r="D27" s="15">
+      <c r="D27" s="7">
         <v>2844.2851295823216</v>
       </c>
-      <c r="E27" s="16">
+      <c r="E27" s="8">
         <v>63.4</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="17" t="s">
+    <row r="28" spans="1:5" ht="12" customHeight="1">
+      <c r="A28" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="23">
+      <c r="B28" s="7">
         <v>209.8</v>
       </c>
-      <c r="C28" s="15">
+      <c r="C28" s="7">
         <v>0.4</v>
       </c>
-      <c r="D28" s="15">
+      <c r="D28" s="7">
         <v>2859.6691118398307</v>
       </c>
-      <c r="E28" s="16">
+      <c r="E28" s="8">
         <v>14.76</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="17" t="s">
+    <row r="29" spans="1:5" ht="12" customHeight="1">
+      <c r="A29" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="23">
+      <c r="B29" s="7">
         <v>197.8</v>
       </c>
-      <c r="C29" s="15">
+      <c r="C29" s="7">
         <v>0.54900000000000004</v>
       </c>
-      <c r="D29" s="15">
+      <c r="D29" s="7">
         <v>2848.5216025782688</v>
       </c>
-      <c r="E29" s="16">
+      <c r="E29" s="8">
         <v>78.16</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="17" t="s">
+    <row r="30" spans="1:5" ht="12" customHeight="1">
+      <c r="A30" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="23">
+      <c r="B30" s="7">
         <v>131.4</v>
       </c>
-      <c r="C30" s="15">
+      <c r="C30" s="7">
         <v>0.25419999999999998</v>
       </c>
-      <c r="D30" s="15">
+      <c r="D30" s="7">
         <v>2724.8615334140964</v>
       </c>
-      <c r="E30" s="16">
+      <c r="E30" s="8">
         <v>78.16</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="17" t="s">
+    <row r="31" spans="1:5" ht="12" customHeight="1">
+      <c r="A31" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="23"/>
-      <c r="C31" s="15">
+      <c r="C31" s="7">
         <v>0.1525</v>
       </c>
-      <c r="D31" s="15">
+      <c r="D31" s="7">
         <v>2652</v>
       </c>
-      <c r="E31" s="16">
+      <c r="E31" s="8">
         <v>78.16</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="17" t="s">
+    <row r="32" spans="1:5" ht="12" customHeight="1">
+      <c r="A32" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="23"/>
-      <c r="C32" s="15">
+      <c r="C32" s="7">
         <v>0.1525</v>
       </c>
-      <c r="D32" s="15">
+      <c r="D32" s="7">
         <v>2652</v>
       </c>
-      <c r="E32" s="16">
+      <c r="E32" s="8">
         <v>78.16</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="17" t="s">
+    <row r="33" spans="1:8" ht="12" customHeight="1">
+      <c r="A33" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="23">
+      <c r="B33" s="7">
         <v>41.51</v>
       </c>
-      <c r="C33" s="15">
+      <c r="C33" s="7">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="D33" s="15">
+      <c r="D33" s="7">
         <v>2338.0245599904306</v>
       </c>
-      <c r="E33" s="16">
+      <c r="E33" s="8">
         <v>78.16</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" ht="12" customHeight="1">
       <c r="A34" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B34" s="23">
+      <c r="B34" s="7">
         <v>41.51</v>
       </c>
-      <c r="C34" s="15">
+      <c r="C34" s="7">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="D34" s="15">
+      <c r="D34" s="7">
         <v>173.9</v>
       </c>
-      <c r="E34" s="16">
+      <c r="E34" s="8">
         <v>78.16</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" ht="12" customHeight="1">
       <c r="A35" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B35" s="23">
+      <c r="B35" s="7">
         <v>41.51</v>
       </c>
-      <c r="C35" s="15">
+      <c r="C35" s="7">
         <v>0.69640000000000002</v>
       </c>
-      <c r="D35" s="15">
+      <c r="D35" s="7">
         <v>173.9</v>
       </c>
-      <c r="E35" s="16">
+      <c r="E35" s="8">
         <v>78.16</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" ht="12" customHeight="1">
       <c r="A36" s="5" t="s">
         <v>53</v>
       </c>
@@ -1651,7 +1737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" ht="12" customHeight="1">
       <c r="A37" s="5" t="s">
         <v>64</v>
       </c>
@@ -1668,21 +1754,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8">
       <c r="A38" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B38" s="23">
+      <c r="B38" s="7">
         <v>46</v>
       </c>
-      <c r="C38" s="15">
+      <c r="C38" s="7">
         <v>1</v>
       </c>
       <c r="E38" s="8">
         <v>750</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8">
       <c r="A39" s="5" t="s">
         <v>63</v>
       </c>
@@ -1696,7 +1782,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" ht="12" customHeight="1">
       <c r="A40" s="5" t="s">
         <v>54</v>
       </c>
@@ -1713,7 +1799,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" ht="12" customHeight="1">
       <c r="A41" s="5" t="s">
         <v>66</v>
       </c>
@@ -1727,8 +1813,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A42" s="17" t="s">
+    <row r="42" spans="1:8">
+      <c r="A42" s="5" t="s">
         <v>68</v>
       </c>
       <c r="B42" s="7">
@@ -1747,11 +1833,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="14" x14ac:dyDescent="0.35">
-      <c r="H43" s="18"/>
-    </row>
-    <row r="47" spans="1:8" ht="14" x14ac:dyDescent="0.35">
-      <c r="H47" s="18"/>
+    <row r="43" spans="1:8">
+      <c r="H43" s="13"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="H47" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1762,24 +1848,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{687E5A79-AEF0-4C58-9166-6C5467E11B80}">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="16.7265625" style="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" style="14"/>
-    <col min="3" max="4" width="9.1796875" style="23"/>
-    <col min="5" max="5" width="9.1796875" style="16"/>
-    <col min="6" max="6" width="9.1796875" style="14"/>
-    <col min="7" max="12" width="9.1796875" style="23"/>
-    <col min="13" max="13" width="9.1796875" style="16"/>
-    <col min="14" max="16384" width="9.1796875" style="15"/>
+    <col min="1" max="1" width="16.7265625" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" style="6"/>
+    <col min="3" max="4" width="9.1796875" style="7"/>
+    <col min="5" max="5" width="9.1796875" style="8"/>
+    <col min="6" max="6" width="9.1796875" style="6"/>
+    <col min="7" max="12" width="9.1796875" style="7"/>
+    <col min="13" max="13" width="9.1796875" style="8"/>
+    <col min="14" max="16384" width="9.1796875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="20" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="19"/>
+    <row r="1" spans="1:13" s="3" customFormat="1" ht="12" customHeight="1" thickBot="1">
+      <c r="A1" s="14"/>
       <c r="B1" s="2" t="s">
         <v>6</v>
       </c>
@@ -1807,101 +1893,101 @@
       <c r="J1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="L1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="M1" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="22" t="s">
+    <row r="2" spans="1:13" ht="12" customHeight="1">
+      <c r="A2" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="G2" s="24"/>
-    </row>
-    <row r="3" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="22" t="s">
+      <c r="G2" s="16"/>
+    </row>
+    <row r="3" spans="1:13" ht="12" customHeight="1">
+      <c r="A3" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="E3" s="23"/>
-    </row>
-    <row r="4" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="22" t="s">
+      <c r="E3" s="7"/>
+    </row>
+    <row r="4" spans="1:13" ht="12" customHeight="1">
+      <c r="A4" s="15" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="22" t="s">
+    <row r="5" spans="1:13" ht="12" customHeight="1">
+      <c r="A5" s="15" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="22" t="s">
+    <row r="6" spans="1:13" ht="12" customHeight="1">
+      <c r="A6" s="15" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="22" t="s">
+    <row r="7" spans="1:13" ht="12" customHeight="1">
+      <c r="A7" s="15" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="22" t="s">
+    <row r="8" spans="1:13" ht="12" customHeight="1">
+      <c r="A8" s="15" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="22" t="s">
+    <row r="9" spans="1:13" ht="12" customHeight="1">
+      <c r="A9" s="15" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="22" t="s">
+    <row r="10" spans="1:13" ht="12" customHeight="1">
+      <c r="A10" s="15" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="22" t="s">
+    <row r="11" spans="1:13" ht="12" customHeight="1">
+      <c r="A11" s="15" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="22" t="s">
+    <row r="12" spans="1:13" ht="12" customHeight="1">
+      <c r="A12" s="15" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="22" t="s">
+    <row r="13" spans="1:13" ht="12" customHeight="1">
+      <c r="A13" s="15" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="22" t="s">
+    <row r="14" spans="1:13" ht="12" customHeight="1">
+      <c r="A14" s="15" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="22" t="s">
+    <row r="15" spans="1:13" ht="12" customHeight="1">
+      <c r="A15" s="15" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="17" ht="12" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="18" ht="12" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="19" ht="12" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="20" ht="12" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="21" ht="12" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="22" ht="12" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="23" ht="12" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="24" ht="12" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="25" ht="12" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="26" ht="12" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="27" ht="12" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="28" ht="12" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:13" ht="12" customHeight="1"/>
+    <row r="17" ht="12" customHeight="1"/>
+    <row r="18" ht="12" customHeight="1"/>
+    <row r="19" ht="12" customHeight="1"/>
+    <row r="20" ht="12" customHeight="1"/>
+    <row r="21" ht="12" customHeight="1"/>
+    <row r="22" ht="12" customHeight="1"/>
+    <row r="23" ht="12" customHeight="1"/>
+    <row r="24" ht="12" customHeight="1"/>
+    <row r="25" ht="12" customHeight="1"/>
+    <row r="26" ht="12" customHeight="1"/>
+    <row r="27" ht="12" customHeight="1"/>
+    <row r="28" ht="12" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/streams.xlsx
+++ b/streams.xlsx
@@ -1,29 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F18BB34-8E23-411F-AF7B-3363B14CC5B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D869D11-C0AF-4A89-8A2F-33DC9A2437A6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="25815" windowHeight="14025" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gas" sheetId="1" r:id="rId1"/>
     <sheet name="water" sheetId="2" r:id="rId2"/>
     <sheet name="syngas" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -282,7 +274,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000000000"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -901,22 +893,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" style="5" customWidth="1"/>
-    <col min="2" max="5" width="9.1796875" style="7"/>
-    <col min="6" max="6" width="9.1796875" style="6"/>
-    <col min="7" max="9" width="9.1796875" style="7"/>
-    <col min="10" max="10" width="9.1796875" style="8"/>
-    <col min="11" max="11" width="13.26953125" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.1796875" style="7"/>
+    <col min="1" max="1" width="14.85546875" style="5" customWidth="1"/>
+    <col min="2" max="5" width="9.140625" style="7"/>
+    <col min="6" max="6" width="9.140625" style="6"/>
+    <col min="7" max="9" width="9.140625" style="7"/>
+    <col min="10" max="10" width="9.140625" style="8"/>
+    <col min="11" max="11" width="13.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="3" customFormat="1" ht="12" customHeight="1" thickBot="1">
+    <row r="1" spans="1:18" s="3" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="3" t="s">
         <v>6</v>
@@ -946,7 +938,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="23" customFormat="1" ht="12" customHeight="1">
+    <row r="2" spans="1:18" s="23" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>52</v>
       </c>
@@ -956,7 +948,7 @@
       <c r="F2" s="24"/>
       <c r="J2" s="25"/>
     </row>
-    <row r="3" spans="1:18" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="3" spans="1:18" s="26" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>38</v>
       </c>
@@ -988,7 +980,7 @@
         <v>6.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="4" spans="1:18" s="26" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>55</v>
       </c>
@@ -998,7 +990,7 @@
       <c r="F4" s="6"/>
       <c r="J4" s="8"/>
     </row>
-    <row r="5" spans="1:18" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="5" spans="1:18" s="26" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>0</v>
       </c>
@@ -1011,7 +1003,7 @@
       <c r="F5" s="6"/>
       <c r="J5" s="8"/>
     </row>
-    <row r="6" spans="1:18" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="6" spans="1:18" s="26" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>39</v>
       </c>
@@ -1026,7 +1018,7 @@
       <c r="N6" s="27"/>
       <c r="O6" s="27"/>
     </row>
-    <row r="7" spans="1:18" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="7" spans="1:18" s="26" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>40</v>
       </c>
@@ -1036,7 +1028,7 @@
       <c r="F7" s="6"/>
       <c r="J7" s="8"/>
     </row>
-    <row r="8" spans="1:18" s="28" customFormat="1" ht="12" customHeight="1">
+    <row r="8" spans="1:18" s="28" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>41</v>
       </c>
@@ -1052,7 +1044,7 @@
       <c r="I8" s="26"/>
       <c r="J8" s="8"/>
     </row>
-    <row r="9" spans="1:18" s="28" customFormat="1" ht="12" customHeight="1">
+    <row r="9" spans="1:18" s="28" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>42</v>
       </c>
@@ -1068,7 +1060,7 @@
       <c r="I9" s="26"/>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:18" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="10" spans="1:18" s="26" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>43</v>
       </c>
@@ -1078,7 +1070,7 @@
       <c r="F10" s="6"/>
       <c r="J10" s="8"/>
     </row>
-    <row r="11" spans="1:18" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="11" spans="1:18" s="26" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>44</v>
       </c>
@@ -1089,7 +1081,7 @@
       <c r="J11" s="8"/>
       <c r="K11" s="29"/>
     </row>
-    <row r="12" spans="1:18" s="26" customFormat="1" ht="12" customHeight="1">
+    <row r="12" spans="1:18" s="26" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>60</v>
       </c>
@@ -1099,7 +1091,7 @@
       <c r="F12" s="6"/>
       <c r="J12" s="8"/>
     </row>
-    <row r="13" spans="1:18" s="19" customFormat="1" ht="12" customHeight="1" thickBot="1">
+    <row r="13" spans="1:18" s="19" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
         <v>61</v>
       </c>
@@ -1123,17 +1115,17 @@
       <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" style="5" customWidth="1"/>
-    <col min="2" max="3" width="9.1796875" style="7"/>
-    <col min="4" max="4" width="11.453125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.1796875" style="8"/>
-    <col min="6" max="6" width="21.54296875" style="7" customWidth="1"/>
-    <col min="7" max="16384" width="9.1796875" style="7"/>
+    <col min="1" max="1" width="14.85546875" style="5" customWidth="1"/>
+    <col min="2" max="3" width="9.140625" style="7"/>
+    <col min="4" max="4" width="11.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="8"/>
+    <col min="6" max="6" width="21.5703125" style="7" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" ht="12" customHeight="1" thickBot="1">
+    <row r="1" spans="1:7" s="3" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="3" t="s">
         <v>6</v>
@@ -1154,7 +1146,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="12" customHeight="1">
+    <row r="2" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>52</v>
       </c>
@@ -1162,7 +1154,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="12" customHeight="1">
+    <row r="3" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>27</v>
       </c>
@@ -1179,7 +1171,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="12" customHeight="1">
+    <row r="4" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
@@ -1196,7 +1188,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="12" customHeight="1">
+    <row r="5" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
@@ -1213,7 +1205,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="12" customHeight="1">
+    <row r="6" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
@@ -1230,7 +1222,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="12" customHeight="1">
+    <row r="7" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
@@ -1247,7 +1239,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="12" customHeight="1">
+    <row r="8" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>28</v>
       </c>
@@ -1264,7 +1256,7 @@
         <v>14.76</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="12" customHeight="1">
+    <row r="9" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>14</v>
       </c>
@@ -1281,7 +1273,7 @@
         <v>14.76</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="12" customHeight="1">
+    <row r="10" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>15</v>
       </c>
@@ -1298,7 +1290,7 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="12" customHeight="1">
+    <row r="11" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>48</v>
       </c>
@@ -1315,7 +1307,7 @@
         <v>82.91</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="12" customHeight="1">
+    <row r="12" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>46</v>
       </c>
@@ -1332,7 +1324,7 @@
         <v>82.91</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="12" customHeight="1">
+    <row r="13" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>65</v>
       </c>
@@ -1349,7 +1341,7 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="12" customHeight="1">
+    <row r="14" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>47</v>
       </c>
@@ -1366,7 +1358,7 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="12" customHeight="1">
+    <row r="15" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>16</v>
       </c>
@@ -1383,7 +1375,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="12" customHeight="1">
+    <row r="16" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>17</v>
       </c>
@@ -1400,7 +1392,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="12" customHeight="1">
+    <row r="17" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>45</v>
       </c>
@@ -1418,7 +1410,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="12" customHeight="1">
+    <row r="18" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>18</v>
       </c>
@@ -1436,7 +1428,7 @@
         <v>100.77673095348899</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="12" customHeight="1">
+    <row r="19" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>19</v>
       </c>
@@ -1454,7 +1446,7 @@
         <v>100.77673095348899</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="12" customHeight="1">
+    <row r="20" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>21</v>
       </c>
@@ -1471,7 +1463,7 @@
         <v>43.733333333333299</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="12" customHeight="1">
+    <row r="21" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>22</v>
       </c>
@@ -1488,7 +1480,7 @@
         <v>43.733333333333299</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="12" customHeight="1">
+    <row r="22" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>23</v>
       </c>
@@ -1505,7 +1497,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="12" customHeight="1">
+    <row r="23" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>24</v>
       </c>
@@ -1522,7 +1514,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="12" customHeight="1">
+    <row r="24" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>25</v>
       </c>
@@ -1539,7 +1531,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="12" customHeight="1">
+    <row r="25" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>26</v>
       </c>
@@ -1556,7 +1548,7 @@
         <v>32.141666666666602</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="12" customHeight="1">
+    <row r="26" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>29</v>
       </c>
@@ -1573,7 +1565,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="12" customHeight="1">
+    <row r="27" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>30</v>
       </c>
@@ -1590,7 +1582,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="12" customHeight="1">
+    <row r="28" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>31</v>
       </c>
@@ -1607,7 +1599,7 @@
         <v>14.76</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="12" customHeight="1">
+    <row r="29" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>36</v>
       </c>
@@ -1624,7 +1616,7 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="12" customHeight="1">
+    <row r="30" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>32</v>
       </c>
@@ -1641,7 +1633,7 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="12" customHeight="1">
+    <row r="31" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>33</v>
       </c>
@@ -1655,7 +1647,7 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="12" customHeight="1">
+    <row r="32" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>34</v>
       </c>
@@ -1669,7 +1661,7 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="12" customHeight="1">
+    <row r="33" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>35</v>
       </c>
@@ -1686,7 +1678,7 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="12" customHeight="1">
+    <row r="34" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>50</v>
       </c>
@@ -1703,7 +1695,7 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="12" customHeight="1">
+    <row r="35" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>51</v>
       </c>
@@ -1720,7 +1712,7 @@
         <v>78.16</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="12" customHeight="1">
+    <row r="36" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>53</v>
       </c>
@@ -1737,7 +1729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="12" customHeight="1">
+    <row r="37" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>64</v>
       </c>
@@ -1754,7 +1746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>62</v>
       </c>
@@ -1768,7 +1760,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>63</v>
       </c>
@@ -1782,7 +1774,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="12" customHeight="1">
+    <row r="40" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>54</v>
       </c>
@@ -1799,7 +1791,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="12" customHeight="1">
+    <row r="41" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>66</v>
       </c>
@@ -1813,7 +1805,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>68</v>
       </c>
@@ -1833,10 +1825,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="H43" s="13"/>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="H47" s="13"/>
     </row>
   </sheetData>
@@ -1848,23 +1840,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{687E5A79-AEF0-4C58-9166-6C5467E11B80}">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.7265625" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" style="6"/>
-    <col min="3" max="4" width="9.1796875" style="7"/>
-    <col min="5" max="5" width="9.1796875" style="8"/>
-    <col min="6" max="6" width="9.1796875" style="6"/>
-    <col min="7" max="12" width="9.1796875" style="7"/>
-    <col min="13" max="13" width="9.1796875" style="8"/>
-    <col min="14" max="16384" width="9.1796875" style="7"/>
+    <col min="1" max="1" width="16.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="6"/>
+    <col min="3" max="4" width="9.140625" style="7"/>
+    <col min="5" max="5" width="9.140625" style="8"/>
+    <col min="6" max="6" width="9.140625" style="6"/>
+    <col min="7" max="12" width="9.140625" style="7"/>
+    <col min="13" max="13" width="9.140625" style="8"/>
+    <col min="14" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="3" customFormat="1" ht="12" customHeight="1" thickBot="1">
+    <row r="1" spans="1:13" s="3" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14"/>
       <c r="B1" s="2" t="s">
         <v>6</v>
@@ -1903,91 +1895,91 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="12" customHeight="1">
+    <row r="2" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>59</v>
       </c>
       <c r="G2" s="16"/>
     </row>
-    <row r="3" spans="1:13" ht="12" customHeight="1">
+    <row r="3" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>67</v>
       </c>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="1:13" ht="12" customHeight="1">
+    <row r="4" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="12" customHeight="1">
+    <row r="5" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="12" customHeight="1">
+    <row r="6" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="12" customHeight="1">
+    <row r="7" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="12" customHeight="1">
+    <row r="8" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="12" customHeight="1">
+    <row r="9" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="12" customHeight="1">
+    <row r="10" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="12" customHeight="1">
+    <row r="11" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="12" customHeight="1">
+    <row r="12" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="12" customHeight="1">
+    <row r="13" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="12" customHeight="1">
+    <row r="14" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="12" customHeight="1">
+    <row r="15" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="12" customHeight="1"/>
-    <row r="17" ht="12" customHeight="1"/>
-    <row r="18" ht="12" customHeight="1"/>
-    <row r="19" ht="12" customHeight="1"/>
-    <row r="20" ht="12" customHeight="1"/>
-    <row r="21" ht="12" customHeight="1"/>
-    <row r="22" ht="12" customHeight="1"/>
-    <row r="23" ht="12" customHeight="1"/>
-    <row r="24" ht="12" customHeight="1"/>
-    <row r="25" ht="12" customHeight="1"/>
-    <row r="26" ht="12" customHeight="1"/>
-    <row r="27" ht="12" customHeight="1"/>
-    <row r="28" ht="12" customHeight="1"/>
+    <row r="16" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
